--- a/기사데이터/토스/엑셀파일/news(토스, 2022.05.16~2022.05.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.05.16~2022.05.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2507 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>尹 대통령·김건희 여사 참석한 靑 '열린음악회', 시청률도 웃었다</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004967768?sid=103</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>윤석열 대통령과 김건희 여사가 참석한 `열린음악회`. 사진| KBS1 방송화면윤석열 대통령과 부인 김건희 여사가 참석한 KBS '열린음악회'가 시청률에서도 웃었다. 27년 만에 청와대에서 열린 ‘열린음악회’인데다 윤 대통령 부부 참석으로 화제성을 더한 결과로 보인다. 23일 시청률 조사업체 닐슨코리아에 따르면, 전날 방송된 KBS1 '열린음악회' 시청률은 8.3%(전국가구 기준)를 기록했다. 이는 전주 방송분 3.1%에 비해 두 배 이상 오른 수치다. 또 다른 시청률 조사업체 TNMS가 집계한 시청률은 7.3%로 지난 2017년 1월 29일 이후 5년 4개월 만에 기록을 경신했다. 특히 방송 말미에 객석에 앉아있던 윤 대통령과 김 여사가 소개될 때 서울 지역 순간 시청률은 10.9%까지 치솟았다.청와대에서 '열린음악회'가 개최된 것은 1995년 5월 이후 27년 만으로, 현장에 초대된 관객들 외에 시청자들의 큰 관심이 모아졌다. 청와대 개방 특집으로 마련된 이날 방송에는 인순이, 거미, 송소희, 투모로우바이투게더, 브레이브 걸스 등이 출연했다.윤 대통령은 "이렇게 5월 멋진 날 밤에 여러분과 함께 아름다운 음악을 듣게 돼서 너무 기쁘고 행복하다. 저도 '열린음악회' 팬이고, 과거에는 아내와 KBS 스튜디오를 찾아 '열린음악회'를 보기도 했다"면서 또한 "청와대는 아주 잘 조성된 멋진 공원이고 문화재다. 무엇보다 국민 여러분의 것"이라고 강조했다. 이날 '열림음악회'에는 청와대 인근 효자동·삼청동 주민, 6·25 참전 군인 등 국가유공자, 다문화·한부모 가족, 보건 의료진, 유기동물보호단체 봉사자, 서울맹학교 학생 등이 초청됐다. 한편, 청와대는 윤석열 대통령이 취임한 지난 10일 전면 개방됐다. 지난 22일 기준 청와대 관람객은 497만명을 돌파했다. 네이버앱, 카카오톡, 토스를 통해 6월 11일 관람분까지 신청을 받고 있다. 6월 12일부터는 새로운 예약 시스템이 도입된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>토스뱅크, 사외이사에 정완규 전 한국증권금융 사장 선임</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013210001?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>토스뱅크[토스뱅크 제공](서울=연합뉴스) 오주현 기자 = 토스뱅크가 정완규 전 한국증권금융 사장을 사외이사로 선임했다.    27일 토스뱅크 공시에 따르면 토스뱅크는 전날 임시 주주총회를 열고 이같이 결정했다.    정 신임 이사는 금융위원회 산하 금융정보분석원(FIU) 원장, 한국증권금융 사장 등을 지냈으며, 글로벌 금융 전문가로 꼽힌다.    토스뱅크는 정 이사가 한국증권금융 사장으로 재임할 당시 내세웠던 '스마트 증권금융' 등의 가치가 토스뱅크의 혁신 정신과 부합한다고 판단했다고 밝혔다.    토스뱅크 관계자는 "토스뱅크가 지향하는 포용과 혁신 금융에 필요한 전문가를 모셨다"며 "많은 조언과 지원을 바탕으로 성장하고자 한다"고 했다.    토스뱅크는 정 이사의 합류로 불확실한 글로벌 시장에 대한 예측 가능성을 높이고, 경영 투명성, 인터넷 전문은행으로서의 사회적 역할과 책임 등을 강화하겠다는 계획이다.    정 이사는 "글로벌 경제에 대한 전문성을 바탕으로 토스뱅크의 안정적인 성장과 사업에 대한 시야를 확장하고자 한다"며 "역량 있는 사외이사로서 토스뱅크의 도약에 실질적으로 기여하겠다"고 말했다.정완규 전 한국증권금융 사장[연합뉴스 자료사진]    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.05.30.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>"2년간 서비스 무료" 저축은행 시장 잡아라…마이데이터 제휴 경쟁 '후끈'</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004971120?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>이르면 11월 저축은행도 마이데이터 서비스마이데이터 주체별 제휴 효과. [자료 제공 = 저축은행중앙회] '내 손 안의 금융비서'로 불리는 마이데이터 시장의 경쟁이 본격화하고 있다. 금융권에서 저축은행도 예외는 아니다. 현재 마이데이터 서비스를 하려면 금융당국으로부터 본허가를 받거나 기존 마이데이터 사업자와 제휴를 통해 관련 사업을 할 수 있다. 마이데이터 서비스는 흩어진 개인신용정보를 한눈에 보여주고 맞춤형 금융상품 등을 추천해 주는 본인신용정보관리업을 의미한다.30일 금융권에 따르면 저축은행중앙회(이하 중앙회)는 나이스평가정보, 코리아크레딧뷰로(KCB), 웰컴저축은행, 한국신용데이터(KCD) 등 마이데이터 사업자를 4개로 압축해 사업자별 서비스 설명회를 갖고 있다. 1차 설명회는 지난 26일 진행됐으며, 2차 설명회는 오는 31일 열린다. 중앙회는 내달 중 이들 사업자와 제휴를 희망하는 저축은행에 대한 수요 조사를 거쳐 사업자와 희망 저축은행 간의 개별 계약 체결을 마무리 짓는다는 계획이다. 제휴 사업자는 필요에 따라 다중 선택도 가능하다.  중앙회는 제휴 절차가 끝나면 전산 개발과 테스트를 거쳐 이르면 오는 11월 제휴 서비스를 개시할 수 있도록 한다는 목표다. 79개 저축은행 중 유일하게 마이데이터 본허가를 취득한 웰컴저축은행은 이미 JT, DB, 키움, 인성, HB저축은행에 마이데이터 제휴 서비스를 통해 선점 효과를 기대하고 있다.웰컴저축은행은 동종 업계인 만큼 업계 특성을 가장 잘 이해하고 있고, 업계를 이용하는 고객에 맞는 신용평가 등에 누적된 노하우가 있다는 점을 장점으로 내세우고 있다. 2년간 마이데이터 제휴 서비스가 무료라는 점도 강조한다.나이스평가정보는 브랜드 인지도가 높고 모든 저축은행권과 협업 이력이 있다는 점을, KCB는 카카오페이, 토스, 핀다 등 대형 핀테크 업체와 협업 경험에 따라 방대한 고객 DB를 확보하고 있다는 점을 각각 피력하고 있다.KCD는 6월중 국내 4번째 신용평가사 본인가를 획득할 예정으로, 자영업자, 소상공인에 대한 신용평가 전문성을 홍보하고 있다. 저축은행중앙회 관계자는 "마이데이터 주체인 저축은행, 고객, 그리고 사업자 모두 상생할 수 있는 사업 융복합 방법을 모색하고 있다"며 "마이데이터 서비스 희망 저축은행이 선택적으로 사업자와 제휴할 수 있는 환경울 조정할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.05.30.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[고금리 시대③]예적금 금리 어디가 가장 높나</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011216738?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>기사내용 요약시중은행 수신금리 올리며 고객 확보 경쟁저축은행·인터넷은행도 고금리 상품으로 선택폭 확대[서울=뉴시스] 홍효식 기자 = 한국은행의 기준금리 연 1.25% 인상으로 KB·신한·우리·하나·농협 등 5대 시중은행이 이번 주 들어 모두 예·적금 금리를 상향 조정했다. 20일 서울 시내 시중은행 현금자동입출금기(ATM). 2022.01.20. yesphoto@newsis.com[서울=뉴시스] 이정필 기자 = 시중은행들이 한국은행의 기준금리 인상에 발맞춰 예·적금 금리를 잇달아 올리고 있다. 저축은행과 인터넷전문은행도 가세해 고객 선택의 폭을 넓히는 중이다.30일 금융권과 각사에 따르면 KB국민은행의 정기예금 'KB Green Wave 1.5℃' 상품은 연 기본이율 1.60%, 우대이율 0.45% 등 최고 2.05%의 금리를 제공한다. 가입대상은 개인고객으로 최저 가입금액은 100만원, 월 납입한도는 1000만원이다.자유적립식 상품인 'KB마이핏적금은 연 기본이율 2.10%, 우대이율 1.60% 등 최고 3.70%의 이자를 제공한다. 만 18세 이상~38세 이하 개인고객이 대상으로 월 납입한도는 50만원이다.신한은행의 거치식 1년제 상품인 '신한 아름다운 용기예금'은 2.15%의 금리를 적용한다. 적립식 상품인 '신한 안녕, 반가워 적금'은 1년 만기로 기본금리와 우대금리를 더해 최고 4.6%의 이자를 제공한다.추가 우대금리는 1개 달성 시 2%, 2개 달성 시 3%를 적용한다. 조건은 최초 급여입금, 적금 최초 신규, 카드 첫 신규나 결제계좌 지정, 이벤트를 통한 적금 최초 신규 등이다.하나은행 정기예금은 1년 기준 최대금리 2.15%를 제공한다. 금액과 계약기간 조정이 가능해 자유로운 자금관리가 특징인 스마트폰 전용 정기예금 상품이다. 금액 100만원 이상, 가입기간 1개월 이상 5년 이내가 조건이다.급여하나 월복리적금은 급여이체 실적으로 우대금리 혜택을 제공한다. 만 35세 이하 고객 중 요건 충족 시 청년응원특별금리를 제공해 1년 기준 최대금리는 4.25%다.우리은행의 첫거래우대 정기예금은 기본금리 연 2.1%, 우대금리 최대 1.0% 등 최고 3.1%를 제공한다. 가입대상은 개인고객으로 100만원 이상 1000만원 이하, 6~36개월 단위다.우리 슈퍼 주거래 정기적금은 기본금리 연 1.55%, 우대금리 최대 1.9% 등 최고 3.45%(1년제)를 받을 수 있다. 개인고객 대상으로 월 최대 50만원, 1~3년 단위다. 급여, 연금, 공과금을 이체하고 주거래고객이 되면 실적에 따라 우대금리를 제공한다.NH농협은행의 'NH1934월복리적금은 만 19~34세 개인고객이 가입대상이다. 매회 1만원 이상, 월 50만원 이내 자유적립이 가능하다. 계약기간은 6개월 이상 24개월 이내(월 단위)다. 최고 기본금리 1.40%와 우대금리 3.5%를 제공한다.저축은행 정기예금 평균금리는 ▲6개월 1.67% ▲12개월 2.78% ▲24개월 2.79% ▲36개월 2.80% 수준이다. 스카이(3.50%) 스마트, 하나(3.40%), 다올, HB, 키움(3.30%) 등에서 36개월 복리기준 금리가 높다.저축은행 정기적금 평균금리는 ▲6개월 1.99% ▲12개월 2.47% ▲24개월 2.57% ▲36개월 2.65%를 제공한다. 한국투자, 청주, 예가람, 고려 등에서 36개월 정액정립식 상품에 3.20%를 적용한다.[서울=뉴시스] 이영환 기자 = 추경호(가운데) 부총리 겸 기획재정부 장관과 김소영(왼쪽 세 번째) 금융위 부위원장, 5대 금융지주 회장단이 27일 오전 서울 중구 은행회관에서 열린 금융기관 간담회에 앞서 기념촬영을 마친후 자리로 향하고 있다. 왼쪽부터 손태승 우리금융지주 회장, 조용병 신한금융지주 회장, 김소영 부위원장, 추경호 부총리, 윤종규 KB금융지주 회장 , 함영주 하나금융지주 회장, 손병환 농협금융지주 회장. (공동취재사진) 2022.05.27. photo@newsis.com인터넷전문은행의 경우 카카오뱅크에는 정기예금 1개, 적금 2개 상품이 있다. 정기예금은 100만원부터 금액 제한이 없다. 금리는 12개월 2.25%, 36개월 2.7%다.자유적금은 월 1000원부터 300만원까지다. 금리는 12개월 2.40%(자동이체 +0.2%), 36개월 2.8%(자동이체 +0.2%)가 붙는다.26주 적금은 1000원, 2000원, 3000원, 5000원, 1만원 중 선택 가능하다. 26주 자동이체와 만기달성 시 2.6%의 금리를 제공한다.수시입출금이 가능한 세이프박스는 최대 1억원으로 금리 1.2%를 적용한다. 4월말 카카오뱅크 현황을 보면 ▲고객 수 1878만명 ▲수신 33조794억원 ▲여신 26조2564억원 규모에 달한다.케이뱅크의 코드K 정기예금은 복잡한 우대금리 조건 없이 가입하면 최고 금리를 적용한다. 1년 기준 연 2.4%, 2년 2.55% 3년 2.8%다. 금리보장 서비스를 제공해 가입 후 14일 이내 금리가 오르면 오른 금리가 가입일로 소급돼 자동 적용된다.주거래우대 자유적금은 최고 연 3.1%(3년 기준) 금리를 제공한다. 1년 기본금리(연 2.10%), 2년 기본금리(연 2.30%), 3년 기본금리(연 2.50%) 수준이다. 우대금리는 연 0.60%다. 케이뱅크 계좌로 급여이체 또는 통신비 자동이체(연 0.3%)와 케이뱅크 체크카드 월 20만원 사용(연 0.3%) 조건이다.핫딜적금X우리카드는 최고 연 1.80% 기본금리와 우대금리 8.20%를 제공한다. 우대금리 조건은 케이뱅크 신규 회원이나 마케팅동의(연 0.5%), 우리카드 일시불/할부 240만원 이상(연 5.7%), 자동이체나 교통카드 이용 6개월 이상(연 2.0%) 등이다. 케이뱅크의 수신 잔액은 4월 말 기준 11조6100억원 규모다.토스뱅크는 현재 2% 금리를 제공하는 수시 입출금 통장 하나만 운영하고 있다. 회사 관계자는 "다른 은행의 수시입출금 통장(요구불예금)에 비해 높은 금리 수준을 유지하고 있기 때문에 현재 금리 인상 계획은 갖고 있지 않다"고 설명했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>진에어, 스마일페이·토스페이 결제시 항공권 할인 혜택</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002605579?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>ⓒ진에어[데일리안 = 이슬기 기자] 진에어가 23일부터 31일까지 스마일페이·토스페이 간편결제서비스 이용 고객을 대상으로 국제선 항공권 할인 혜택을 제공하는 프로모션을 진행한다고 20일 밝혔다.이번 프로모션은 5월 25일부터 7월 31일 사이에 운항하는 국제선 전 노선 항공편 대상으로 홈페이지 및 모바일 웹·앱을 통해 진행된다.현재 진에어는 인천발 나리타, 오사카, 괌, 클락, 세부, 부산~괌 등 국제선을 운항하고 있으며, 인천~방콕(5/25 부)을 시작으로 코타키나발루(5/26 부), 다낭(6/30 부), 부산발 다낭(6/29 부), 방콕(6/30 부), 클락(6/30 부), 세부(7/8 부) 노선 등을 운항 재개할 예정이다.토스페이 이용 고객은 항공 운임 기준으로 ▲5만원 이상 결제 시 5천원, ▲10만원 이상 결제 시 2만원 할인 혜택이 제공된다. 스마일페이의 경우에는 항공 운임 10만원 기준으로 1만원 할인 혜택이 제공된다. 특히 스마일페이에서 삼성카드로 결제 시에는 기존 혜택과 더불어 1만원이 추가 적용되어 최대 2만원까지 할인 받을 수 있다.아울러 20일까지 카카오페이 이용 고객 대상으로 국내외 항공권 최대 3만원 할인 혜택을 제공하는 카카5데이도 진행 중이다. 기타 자세한 내용은 진에어 홈페이지 등을 통해 확인 가능하다.진에어는 "결제 편의성이 높은 간편결제서비스 이용 트렌드를 반영해 쉽고 편리하게 항공 운임 할인 혜택을 누릴 수 있는 프로모션을 준비했다"며 "앞으로 고객들의 여행지 선택의 폭을 넓히기 위해 단계적으로 국제선 공급량을 확대해 나가겠다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.05.28.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>'네카라쿠배당토' 중 이직 선호도 1위는 네이버</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005095643?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>IT업계 종사자들이 '네카라쿠배당토(네이버·카카오·라인·쿠팡·배민·당근·토스)' 중 가장 이직하고 싶은 기업은 네이버인 것으로 조사됐다.28일 커리어테크 스타트업 퍼블리가 자사 IT업계 커리어 사회관계망서비스(SNS)인 ‘커리어리’ 이용자 431명을 대상으로 조사한 결과 이 같이 나타났다.'네카라쿠배당토' 중 이직할 회사를 하나 고를 수 있다면’을 묻는 질문에 응답자의 28%가 ‘네이버’를 선택했다. 2위는 17%의 선택을 받은 ‘토스’였으며 3위는 ‘카카오’(13%)로 집계됐다. 이어 당근마켓(12%)과 배달의민족(12%) 동률을 보였고 라인플러스(5%), 쿠팡(2%) 순이었다.최근 진행한 ‘이직 할 기업을 고를 때 가장 중요하게 생각하는 것’을 묻는 질문에서는 응답자 303명 중 44%가 직무에 대한 적성을 가장 우선으로 꼽았다. 연봉(30%)과 복지(20%)가 각각 2, 3위에 랭크됐다.‘네카라쿠배당토’는 업무적인 적성 외에도 연봉과 복지 수준이 높아 직장인들 사이에서 이른바 '꿈의 직장'으로 불리고 있다. 각종 교육 플랫폼에서는 '네카라쿠배당토 고시반'이 생길 정도로 이들 기업으로 취업·이직하려는 이들을 위한 전용 강의도 열리고 있다.김광종 커리어리 사업리더는 "최근 평생 직장의 개념이 사라지면서 MZ세대(밀레니얼+Z세대) 직장인들은 안정성보다 주체적인 사회생활을 통해 자신의 성장을 모색하는 추세"라며 "네카라쿠배당토에서 커리어 경쟁력을 높일 수 있을 뿐 아니라 높은 연봉과 차별화된 복지 혜택까지 누릴 수 있는 만큼 많은 이들이 이직을 희망한다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>야속한 증권업계…받을 이자는 ‘껑충’, 내줄 이자는 ‘찔끔’</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000287888?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[앵커] 계속되는 금리인상에 이자부담도 이만저만이 아닙니다. 증권사에서 빌린 신용거래 대금이자 역시 빠르게 오르고 있는데요. 그런데 투자자들이 주식계좌에 넣어둔 예탁금 이자 인상은 인색하기만 합니다. 김기송 기자 연결합니다. 최근 증권사들의 예탁금 이자율, 어느 정도나 되나요? [기자] 네. 먼저 예탁금 이용료란 증권사 계좌에 예치한 투자자들의 주식거래 대기 자금에 대해 증권사가 이자를 주는 건데요. 올해 예탁금 이용료율 인상에 나선 증권사는 미래에셋증권과 삼성증권, 한국투자증권과 KB증권, SK증권 등입니다. 미래에셋이 0.4%, 한투증권과 삼성증권이 0.25%, KB증권이 100만 원 이상 기준 0.42%로 인상했습니다. 토스증권은 지난 16일 증권 업계 최초로 1%까지 이자율을 올렸습니다. [앵커] 그런데 투자자들에게 빌려주는 신용융자 대금 이자는 상당히 높다면서요? [기자] 그렇습니다. 금리 인상에 맞춰 신용거래 이자를 줄인상하던 모습과는 사뭇 다른데요. 올해 5월 기준 국내 35개 증권사의 평균 예탁금 이용료는 연 0.199%로 2%가 채 되지 않습니다. 반면 최근 증권사들이 줄줄이 신용융자 이율을 올리고 있는데, 한 달만 빌려도 연 7~9%의 이자를 내야 해서 부담이 더욱 커진 상황입니다. 증권업계는 신용거래 이율 인상은 기준금리 인상 기조에 따른 것이고, 예탁금 이용료율 인상이 더딘 이유는 한국증권금융이 정산한 이율을 따르기 때문이라고 설명했습니다. 투자자 입장에선 당연히 예탁금 이자를 한 푼이라도 더 받고 싶을 텐데요. 그래서 종합자산관리계좌인 CMA나 환매조건부채권 RP 등을 활용하는 것이 그냥 주식계좌에 묵혀 두는 것보다 훨씬 유리합니다. SBS Biz 김기송입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>토스 "하루 평균 550명 보이스피싱 피해 막아"</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011191631?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>기사내용 요약악성앱 18만9000건 탐지 [서울=뉴시스] 남정현 기자 = 토스가 앱 내에 악성앱을 탐지하는 기능을 탑재해 운영 중이라고 18일 밝혔다.  이 기능은 보이스피싱 목적의 정보 탈취 앱을 중점적으로 탐지하고 제거한다. 사용자가 토스앱을 실행하는 순간, 단말기에 설치된 앱들이 점검되고 악성앱이 발견될 경우 해당 앱을 삭제하도록 안내 메시지가 뜬다. 위험도가 높은 경우, 악성앱을 삭제하지 않으면 토스를 사용할 수 없다. 지난 4월 한달간 토스의 악성앱 탐지 기능을 통해 탐지 된 악성앱은 총 18만9000건에 달한다. 토스는 이를 통해 총 1만6000여 명, 일평균 고객 550명의 보이스피싱 피해를 막은 것으로 분석했다. 이 기능은 화이트해커로 구성된 토스의 '시큐리티테크팀'이 개발을 맡아 공격자 관점에서 기능을 설계했다. 이 팀은 다년간 보안 취약점 점검과 모의해킹을 수행한 해킹·보안 전문가들이 모인 팀으로, 변이된 신종 악성앱의 실시간 탐지를 위해 '악성앱 분석 자동화 시스템'을 활용하고 있다.또 자체 개발한 이상행위 탐지 시스템(FDS)과 연계해 보이스피싱이 의심될 경우 전담 모니터링 요원이 먼저 고객과 통화해 상황을 점검하고, 자산을 보호할 수 있도록 하고 있다. 토스는 매일 새롭게 만들어지는 수많은 악성앱들을 지속적으로 데이터베이스(DB)에 업데이트하고 있으며, 최근에 추가된 악성앱만 약 6000종이 넘는다. 이종호 팀 리더는 "외부 백신을 별도로 설치하는 타 금융앱과 달리 토스는 악성앱 탐지 내재화를 통해 매일 새롭게 만들어지는 악성앱에 실시간으로 대응하고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>'국민비서 구삐' 행정 정보, 금융기관 앱에서도 만난다</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006118792?sid=102</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>KB국민은행·국민카드·신한은행·신한카드와 협약KB스타뱅킹에 신설된 '구삐' 메뉴(행안부 제공).© 뉴스1(서울=뉴스1) 전준우 기자 = 국민비서 구삐의 생활 밀착형 행정 정보를 은행, 카드사 등 금융기관의 모바일 앱을 통해서도 안내받을 수 있다. 행정안전부는 27일 정부서울청사에서 KB국민은행, 국민카드, 신한은행, 신한카드 4개 금융사와 함께 국민비서 서비스 제공 및 이용 활성화를 위한 업무협약(MOU)을 체결한다고 26일 밝혔다. 국민비서 '구삐'는 각종 생활형 행정정보를 국민들이 자주 이용하는 모바일 앱을 통해 알려주는 서비스다.네이버앱, 카카오톡, 토스 등 3개 모바일 앱을 통해 7개 분야 23종(건강검진, 전기요금, 운전면허 갱신 등)의 알림서비스를 제공하고 있다.특히 지난해 백신접종 예약 안내와 국민지원금 안내 등을 통해 대표적인 행정서비스로 자리매김했다는 평가를 받고 있다. 이번 업무협약을 통해 주요 4개 금융사 앱으로 국민비서 알림서비스를 제공하게 됨으로써 보다 쉽게 정부의 생활형 행정정보를 안내받을 수 있게 될 것으로 기대된다. 한창섭 행안부 차관은 "국민비서는 정부와 민간이 서로 협력해 공공서비스를 제공하는 대표적인 사례"라며 "국민이 현재 사용하고 있는 앱을 통해 편리하게 서비스를 이용할 수 있도록 연계 서비스를 확대하게 됐다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>공모시장 부진에...유니콘 기업, 증시 입성 '먹구름'</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011210840?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>기사내용 요약유니콘 특례 1호 철회 영향…'쏘카·컬리' 하반기 상장 전망비상장 시장서 주가 폭락도 나타나…빗썸 60%↓·토스 44%↓[서울=뉴시스]신항섭 기자 = 시장의 부진으로 대어들의 공모 철회가 연달아 나타나면서 비상장 주식에 대한 인기도 식고 있다. 특히 유니콘 기업들의 주가 폭락도 나타나고 있어 빠른 증시 입성이 쉽지 않을 것이란 전망이 나온다. 시장 부진으로 증권사들의 비상장 주식 커버리지 개시도 물거품이 되고 있다.26일 금융투자업계에 따르면 지난달 상장예비심사를 통과한 쏘카는 공모 일정을 연기하는 쪽으로 가닥을 잡았다. 증권신고서 제출을 6월 이후로 연기한 것으로 알려졌으며 이에 따라 하반기 증시 입성이 예상된다.이는 최근 주식시장의 부진으로 공모주 시장까지 얼어붙은 영향으로 풀이된다. 올해 상장을 포기한 기업은 6개사이며 이 중 절반인 3개사가 이달 상장 철회를 결정했다. 올해 1월 현대엔지니어링을 시작으로 2월 대명에너지, 3월 보로노이가 상장을 철회했고, 이어 5월 SK쉴더스, 원스토어, 태림페이퍼도 공모 부진으로 상장을 연기했다.특히 유니콘 특례 1호인 보로노이의 상장 철회는 다른 유니콘 기업들에게도 영향을 끼치고 있다. 유니콘 특례상장은 시가총액 5000억원 이상 기업이 외부 전문평가기관 한 곳에서 기술성 평가를 받으면 상장 할 수 있는 제도다. 유니콘 기업들의 증시 입성을 위해 마련됐으나 수요예측 부진으로 다른 유니콘 기업들의 부담을 키운 것이다.이로 인해 시장은 현재 상장예비심사가 진행 중인 컬리의 상장도 늦어질 수 있다고 보고 있다. 컬리는 지난 3월28일 한국거래소에 상장예비심사를 청구했다. 규정에 따르면 거래소는 기업이 상장예비심사를 청구한 날로부터 45영업일 이내 심사 결과를 통보해야 한다. 이를 감안하면 오는 30일까지 심사결과가 나올 예정이다. 다만 만약 거래소가 보완 서류 제출을 요구할 경우, 심사기한이 일시 정지돼 연장될 수 있다.최악의 경우, 시장 부진이 이어진다면 유니콘 기업들의 상장이 줄줄이 연기될 가능성이 있다. 시장의 부진으로 현재 주식시장 뿐 아니라 비상장 주식들의 기업가치도 하락세가 나타나고 있다. 비상장 주식 중개 플랫폼 서울거래 비상장에 따르면 컬리는 올해 28.57% 급락했다. 현재 기업가치는 3조755억원이다.이외에도 토스(비바리퍼블리카)의 주가는 올해 44.40% 급락했고, 빗썸코리아는 60.19% 폭락했다. 오아시와 야놀자는 17.27%, 13.26% 각각 하락했다.컬리 관계자는 "주관사로부터 글로벌 증시가 불안정하다는 의견을 계속 받고 있다"며 "승인 후 6개월간의 시간이 있기 때문에 상황을 잘 지켜보면서 가장 좋은 시점에 들어갈 것 같다"고 전했다.증권사 리서치센터들의 비상장 주식 커버리지 개시도 도움이 되지 못하고 있다. 지난 2020년부터 증권사들은 비상장 기업에 대한 리서치를 발간하기 시작했다. 상장을 앞둔 비상장 대어에 대한 기획 발간은 있었으나 꾸준한 비상장 리서치 발간은 이례적인 모습이다.DB금융투자는 '투자의 시대/비상장기업' 시리즈로 비상장사들을 분석하고 있고, KB증권은 '케이비 비상장 어벤져스' 시리즈를 발간 중이다. 신한금융투자는 지난해 10월부터 비상장·벤처 시리즈 '유니콘을 찾아서'를 시작했다.하지만 비상장주식에 대한 거래대금은 오히려 감소 추세다. 금융투자협회에 따르면 지난달 K-OTC 시장 거래대금은 696억원으로 지난해 4월 거래대금 1400억원 대비 절반 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>하나은행, 핀다 제휴사 합류…62개로 늘어</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011213337?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>기사내용 요약하나은행·토스뱅크·세람저축은행 제휴[서울=뉴시스] 박은비 기자 = 핀테크 기업 핀다는 하나은행과 제휴해 오토금융에 진출한 데 이어 개인 맞춤형 대출상품을 새롭게 선보인다고 27일 밝혔다. 토스뱅크 사장님 대출상품도 개시한 상태다. 앞서 신용대출을 선보였고 개인사업자 고객 대상인 사장님 대출도 연계하기로 했다. 이 상품은 매출액이 크지 않더라도 연소득이 일정하거나 매출이 꾸준히 발생하면 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정받는 게 특징이다.개인회생 면책자를 위한 상품도 있다. 세람저축은행과 손잡은 개인회생자대출 상품은 개인회생 면책자와 변제자를 위해 마련됐다. 1년 이상 변제계획을 성실하게 이행하고 있거나 최근 1년 이내 개인회생 변제가 끝났다면 이용 가능하다.핀다가 제휴를 맺은 금융사는 현재 총 62개로 200여개의 대출 상품을 취급하고 있다. 2019년 7월 서비스 출시 이후 현재까지 대출승인된 금액은 900조원을 넘어섰다. 박홍민 핀다 공동대표는 "핀다 이용 고객이 각자의 상황에 맞는 가장 유리한 대출상품을 선택할 수 있도록 제휴 금융사와 파트너십을 강화하면서 다양한 상품 라인업을 갖췄다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>토스증권, 예탁금 이용료 0.2%→1% 인상</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002275146?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>◆…토스증권 제공     토스증권은 예탁금 이용료를 기존 0.2%에서 연 1%(세전)로 인상한다고 16일 밝혔다.   예탁금 이용료는 투자자가 계좌에 예치한 현금성 자산을 증권사가 증권금융 등에 예탁하면서 발생하는 이자 수익이다. 이용료율은 증권사가 예탁금을 맡기는 기관의 금리 변동에 맞춰 정할 수 있다.   연 1% 이자는 국내 증권사가 제공하는 예탁금 이용료 중 가장 높다. 올해 5월 기준 국내 35개 증권사의 평균 예탁금 이용료는 연 0.199%다.   토스증권 고객이라면 이날부터 누구나 금액에 제한 없이 연 1% 이자를 적용받을 수 있다. 다만 이자는 원화 자산에만 적용되며 외화(달러) 자산 및 투자 중인 금액에는 적용되지 않는다.   토스증권은 매달 마지막 영업일에 전날까지의 예탁금 평균 잔액을 계산해 당월 이자를 지급한다. 고객들은 '총자산' 페이지를 통해 당월 지급될 예상 이자를 확인할 수 있다.   토스증권 관계자는 "고객 예탁금에서 발생하는 수익을 과감히 포기하고 고객에게 돌려드리는 선택을 하게 됐다"며 "고객이 투자금을 입금하는 순간부터 믿고 거래할 수 있는 투자 서비스를 만들어나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스, 보이스피싱 하루에 550건 막았다</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002604967?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>토스의 악성앱 탐지 기능 소개 포스터 ⓒ토스[데일리안 = 김효숙 기자] 토스는 악성앱 탐지 기능을 통해 매일 평균 550여명의 피싱 피해를 막았다고 18일 밝혔다.토스에 따르면 지난 4월 한달간 토스의 악성앱 탐지 기능을 통해 탐지 된 악성앱은 총 18만9000건에 달한다. 토스는 이를 통해 총 1만6000여명, 일평균 고객 550명의 보이스피싱 피해를 막은 것으로 분석했다.토스는 앱 자체에 악성앱을 탐지하는 기능을 탑재했다. 유저가 토스앱을 실행하는 순간, 단말기에 설치된 앱들을 점검하고, 악성앱이 발견될 경우 해당 앱을 삭제하도록 안내 메시지를 띄운다. 위험도가 높은 경우, 악성앱을 삭제하지 않으면 토스를 사용할 수 없다. 토스는 지난 3월부터 시큐리티테크팀 주도로, 토스 앱에 악성 피싱앱 탐지 및 제거 기능을 개발해 운용하고 있다. 이 팀을 이끌고 있는 이종호 리더는 국제 수상 경력을 가진 화이트해커다.토스의 악성앱 탐지 기능은 보이스피싱 목적의 정보 탈취 앱을 중점적으로 탐지하고 제거할 수 있다. 화이트해커로 구성된 토스의 시큐리티테크팀이 개발을 맡아 공격자 관점에서 기능을 설계했다. 이 팀은 다년간 보안 취약점 점검과 모의해킹을 수행한 해킹 및 보안 전문가들이 모인 팀으로, 변이된 신종 악성앱의 실시간 탐지를 위해 악성앱 분석 자동화 시스템을 활용 중이다.또 자체 개발한 이상행위 탐지 시스템과 연계해, 보이스피싱이 의심될 경우 전담 모니터링 요원이 먼저 고객과 통화하여 상황을 점검하고, 자산을 보호할 수 있도록 한다. 토스는 매일 새롭게 만들어지는 수많은 악성앱들을 지속적으로 DB에 업데이트하며,최근에 추가된 악성앱만 약 6000종이 넘는다.정한솔 토스 시큐리티테크팀 연구원은 "일단 감염이 되면, 해당 단말기에서 실제 은행이나 금융감독원등의 대표번호로 전화를 걸어도, 고객센터가 아닌 보이스피싱범에게 연결되므로 피해자 입장에서는 속을 수 밖에 없다"고 설명했다.피싱범들은 대부분 문자 또는 메신저를 통해 스마트폰 사용이 미숙한 중장년층을 타겟으로 접근, 원격제어앱 또는 악성앱을 설치하도록 유도하는 것으로 나타났다. 이런 앱들은 은행앱, 백신앱, 소상공인 대출앱등으로 위장하고 있으며, 설치시 단말기의 전화번호부와 통화내역, 문자메시지 내용이 모두 탈취된다.악성앱이 설치 된 경우 토스앱을 실행하여 악성앱을 제거하거나, 플레이스토어 등 정식 앱 배포 채널에서 백신프로그램을 다운받아 바이러스를 검사하고 악성앱을 삭제하면 된다.이 리더는 "외부 백신을 별도로 설치하는 타 금융앱과 달리, 토스는 악성앱 탐지 내재화를 통해 매일 새롭게 만들어지는 악성앱에 실시간으로 대응할 수 있고, 고객센터에서도 악성앱의 위험도에 따라 보다 정확한 대처를 고객에게 안내할 수 있는 것이 장점"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.05.30.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>인터넷銀, 중·저신용 대출 목표 달성에 '자신감'…막내 토뱅의 질주</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004705315?sid=101</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>토스뱅크, 잔액 기준 중·저신용 대출 비중 30%↑인터넷은행, 1분기 대출 2조6000억원 증가세"대손비용 우려 점차 커질 전망"케이뱅크와 카카오뱅크에 이은 제3 인터넷전문은행 인가 결과가 26일 발표된다. 연합뉴스인터넷 은행들이 중·저신용 대출 목표 달성에 자신감을 드러냈다. 지난해 모든 인터넷 은행이 목표치를 밑돌았다는 점을 감안하면 180도 달라진 분위기다. 하지만 중·저신용 대출을 포함해 전체 대출이 늘고 있는 만큼, 자산건전성에 대한 우려를 불식해야 한다는 과제를 안게 됐다.30일 은행연합회에 따르면 카카오·케이·토스뱅크 인터넷 은행 3사 모두 중·저신용 신용대출 공급 비중이 확대됐다. 중·저신용은 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하)를 의미한다.카카오뱅크가 올해 1분기 공급한 중·저신용 대출은 6253억원을 기록했다. 1분기 전체 신용대출에서 중·저신용 고객이 차지하는 비중은 19.9%로 집계됐다. 이는 전년 동기 대비 9.9%포인트나 상승한 수준이다.카카오뱅크 관계자는 "4월 말 기준으로 해당 비중은 20.8%로, 새로운 신용평가모형을 적용한 지난해 6월부터 매월 약 1%포인트씩 상승하고 있다"며 "연말 목표인 25%는 무난히 달성할 것으로 보고 있다"고 밝혔다.케이뱅크가 올해 1분기 공급한 중·저신용 대출금액은 4234억원으로, 전년 동기 대비 약 4배나 급증했다. 1분기 전체 신용대출에서 중·저신용 고객이 차지하는 비중은 20.2%로 집계됐다. 지난해 말 대비 3.6%포인트 올랐다. 특히, 올 1분기 중·저신용 대출 공급액은 지난해 연간 공급액(7510억원)의 절반에 달한다. 케이뱅크는 "5월 말 현재 중·저신용 대출 비중은 22.7%"라고 밝혔다. 현재 흐름이 이어진다면 연말 목표치인 25%를 달성에 무리가 없을 것으로 점쳐진다.막내 토스뱅크는 인터넷 은행 중 유일하게 중저신용자 대출 비중이 30%를 넘었다. 토스뱅크가 1분기 공급한 중·저신용자 신용대출 비중(잔액 기준)이 31.4%를 기록했다. 해당 비중은 지난해 말과 대비해 7.5%포인트 높아졌다.토스뱅크 관계자는 "구체적인 공급액은 규정상 밝힐 수 없지만, 경쟁사와는 큰 격차를 유지하고 있다"며 "만약 자영업자 대출까지 중저신용으로 포함한다면 비중은 더 높아질 것"이라고 밝혔다. 토스뱅크는 올해 말까지 중·저신용자 신용대출 비중을 42%까지 확대하겠다는 계획을 갖고 있다.이러한 인터넷 은행의 성과는 지난해 상황을 감안하면 상당히 고무적이다. 카카오뱅크의 지난해 말 중·저신용 대출 비중은 20.8%로 케이뱅크(21.5%), 토스뱅크(32.9%) 모두 대출 목표치를 채우지 못했다.하지만 본격 금리 상승기를 맞은 만큼 이들 은행의 자산건전성이 악화할 우려도 나온다. 특히, 인터넷 은행은 모두 주택담보대출과 자영업자 대출 등 대출 확대 전략을 펴고 있다. 카카오뱅크는 지난 2월 주담대를 출시했고, 토스뱅크도 같은 달 자영업자 대출을 선보였다. 케이뱅크도 이달 '사업자 대출'을 내놨고, 카카오뱅크도 올해 4분기에 개인 사업자 대출을 선보일 예정이다.실제로 인터넷 은행의 대출은 느는 추세다. 3월 말 기준 인터넷 은행(케이뱅크·카카오뱅크·토스뱅크)의 대출 잔액은 36조1439억원으로 지난해 말보다 2조6610억원(7.9%) 증가했다. 토스뱅크 대출 잔액은 1분기 1조8000억원 증가했고, 케이뱅크는 7200억원, 카카오뱅크는 1037억원 늘었다.최정욱 하나금융투자 연구원은 카카오뱅크에 대해 "중·저신용자 대출 연체율은 분모 증가 효과로 정확한 판단은 아직 어렵지만, 하반기 또는 내년부터 상승 가능성이 높다"며 "고신용자 신용대출 연체 규모는 확실히 증가 중으로, 중·저신용자 대출 의무 비중까지 감안하면 대손비용 우려는 점차 커질 전망"이라고 짚었다.이에 회사별로 자산건전성을 확대함과 동시에 대출 여력을 확보하기 위해 나설 것으로 전망된다. 토스뱅크는 다음달 말께 1000억원 규모 유상증자를 추진한다. 이로써 토스뱅크의 총 납입자본금은 8500억원에서 9500억원으로 늘어난다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>대통령실 "6월11일 이후로 청와대 상시 개방 검토"</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003195592?sid=100</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>청와대. 뉴시스           대통령실은 다음 달 11일 이후로 청와대를 상시 개방하는 방안을 검토하고 있다고 17일 밝혔다.        김오진 대통령실 관리비서관은 이날 국회 운영위원회에서 "1단계 개방을 5월 22일까지 하고, 2단계 개방을 6월 11일까지 한다"며 "경복궁 관람하듯이 누구나 편하게 와서 (청와대를) 볼 수 있게 검토하는 중"이라고 말했다.      김 비서관은 "지금까지 404만명이 청와대 관람 신청을 한 것으로 보고받았다"며 "4월 27일부터 신청을 받았는데 25만명 정도만 관람했다"고 말했다. 현재 청와대 관람 신청은 네이버, 카카오톡, 토스 등 온라인 플랫폼을 통해 이뤄지고 있다.        김 비서관은 2023년부터 청와대 관리를 민간에 위탁할 가능성을 시사하기도 했다.        그는 "언제까지 대통령실에서 (청와대를) 관리할 것이냐. 민간 위탁 계획은 없느냐'는 질문에 "연말까지는 일단 그렇게 운영을 계획해보고 있는 것"이라며 "그 뒤에 관리 주체를 어떻게 할지 똑같이 검토하고 있다"고 답했다.      대통령실 관리비서관실은 대통령직인수위원회 산하 청와대 이전 태스크포스(TF)로부터 집무실 이전뿐 아니라 청와대 개방과 한남동 새 대통령 관저 등 '용산 시대' 관련 업무를 이어받아 총괄하고 있다. 해당 업무들이 완료될 때까지만 운영되는 한시직이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>[단독] 토스페이먼츠, 야놀자 등 가맹점 7곳 확보…PG 선두경쟁 뜨겁다</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004058619?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>올 현대百그룹 등 대형가맹점 품어1년10개월새 1만곳 늘려 광폭행보NHN사이버결제 이어 점유율 2위KG이니시스 등도 규모 확대 나서[서울경제] 국내 전자결제지급대행(PG) 2위 업체인 토스페이먼츠가 잇달아 대형 가맹점을 확보하면서 시장점유율 확대에 나서고 있다. 덩치를 키워 사업 포트폴리오를 다양화하는 한편 수익성 개선도 꾀하겠다는 전략으로 풀이된다. 토스페이먼츠의 진격에 NHN한국사이버결제·KG이니시스 등도 규모 확대에 나서면서 PG사들 사이의 경쟁이 더욱 치열해지는 모습이다.26일 금융 업계에 따르면 토스페이먼츠는 올해 최소 7곳 이상의 대형 가맹점을 확보했다. 현재 확정된 가맹점은 현대백화점그룹·야놀자·SK스토아·트렌비·한성자동차·마이리얼트립·발란 등이다. 토스페이먼츠는 앞서 구글·우아한형제들(배달의민족)·티몬·홈플러스·홈앤쇼핑·쏘카 등을 유치한 바 있다.토스페이먼츠가 대형 가맹점 확보에 적극적으로 나선 것은 사업 포트폴리오 구축 및 매출액 증대를 위한 포석으로 해석된다. 토스페이먼츠는 NHN한국사이버결제에 이어 20%대 안팎의 시장점유율을 가진 2위 업체지만 3위 KG이니시스와 격차가 크지 않아 쫓기는 상황이다. 여기에 지난해 말 기준 304억 원가량의 영업손실을 기록한 만큼 수익 측면에서도 좋지 못한 상태다. 결국 대형 가맹점을 확보하면 수수료 수입이 늘어 매출 증대로 이어지며 이 과정에서 수익성도 개선될 여지가 있는 셈이다.특히 최근 확보한 대형 가맹점이 토스페이먼츠의 고민을 해소하는 데 큰 도움이 될 것으로 전망하고 있다. 특히 7곳 중 거래액이 가장 큰 여행·숙박 플랫폼 야놀자의 경우 사회적 거리 두기 해제 등에 따른 결제 규모 추가 확대가 예상되며, 현대백화점그룹은 현대백화점뿐 아니라 현대홈쇼핑·현대백화점면세점·현대그린푸드 등 20개 계열사로 구성돼 있다.대형 가맹점뿐만 아니라 ‘알짜’로 꼽히는 중소 가맹점 수도 빠르게 늘리고 있다. 2019년 비바리퍼블리카(토스)가 LG유플러스 PG사업부를 인수해 2020년 8월 토스페이먼츠를 출범할 당시 누적 8만여 개였던 가맹점 규모가 4월 말 기준 9만여 개로 약 1년 10개월 새 1만 개가량 증가했다. 가맹점 확대에 4월 말 기준 월거래액은 전년 말 대비 23% 증가한 2조 5000억 원 이상을 기록했다. 올해 1~4월 매출액도 지난해 같은 기간보다 약 20% 성장했다. 토스페이먼츠 관계자는 “‘브랜드페이’ 등 고객 결제 경험을 향상시킬 수 있는 제품 및 기술을 보유하고 있다”며 “토스 애플리케이션(앱)이 2200만 명의 사용자를 보유한 만큼 토스 앱을 통해 가맹점 마케팅을 지원할 수 있다는 점도 가맹점 유치 시 강점으로 꼽힌다”고 설명했다.토스페이먼츠의 진격에 다른 상위 PG사들도 경쟁적으로 덩치를 키우며 치열한 경쟁을 예고하고 있다. KG이니시스는 지난해 최장 60개월까지 분할 결제가 가능한 ‘렌탈페이’를 출시하고 올해 4월 관련 특허권을 취득했다. 회사는 이를 통해 현재 명품·라이프스타일 플랫폼 중심 렌탈페이 가맹점을 2분기부터 골프, 캠핑, 인테리어 시공 영역 등으로도 넓힌다는 계획이다. NHN한국사이버결제 역시 1위 점유율을 기반으로 구글 등 해외 가맹점을 늘리는 추세다. 업계 관계자는 “PG 이용 금액과 건수는 각각 전년보다 30% 가까이 늘었지만 PG사 상위 업체의 점유율은 오히려 줄었다”며 “그만큼 경쟁이 심해지고 있다는 방증”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[월간중앙] AI 기술로 스마트해진 역술업계 새바람</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003198243?sid=102</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>용한 점집 찾아가는 건 옛말…AI가 내게 딱 맞는 역술가 찾아준다  운세 서비스 사용 경험 84.5%… 49.1%는 평소에도 이용  국내 점술 시장 규모 1.4조원대… 벤처투자업계도 주목     O2O(Online to Offline) 역술가 매칭 서비스를 제공하는 앱 ‘천명’은 AI 기술을 활용해 내담자와 역술가를 연결해준다. 역술가가 취업·연애·건강 등 자신의 특화 분야를 입력하면 내담자가 카테고리를 바탕으로 추천된 역술가를 선택하는 형태다. / 사진:천명앤컴퍼니           "취업운은 제가 봐 드리기가 민망할 정돈데요. 7월에 좋은 소식이 있을 것 같아요.” 5월 10일 늦은 오후, 기자의 이름과 생년월일을 말하자 스마트폰 스피커 너머에서 나온 대답이다. 역술가는 타로를 리딩하는 김사랑씨다. 마음속에 정해놓은 회사의 우선순위가 있는지를 물은 뒤 카드를 섞어 그 의미를 풀어낸 해석이다.      “요즘에 가슴이 두근거린다”며 걱정하시던 어머니의 건강에 대해서도 물었다. 김씨는 잠시 카드를 섞는 듯 말을 멈췄다 “몸 자체에 병이 있다기보다는 심리적으로 스트레스를 많이 받으시는 것 같다”고 말했다. 이어 그는 “병원을 가거나 검사를 받아도 이상이 없을 것”이라며 “마음을 가라앉히는 것이 필요하다”고 조언했다.      청년 세대에게 빼놓을 수 없는 궁금증인 연애·결혼 운은 어떨까? 가장 궁금했던 질문 “결혼을 할 수는 있는지?”를 물었다. “가능하다”는 답에 가슴을 쓸어내렸지만, 이어지는 풀이에 진한 아쉬움만 남았다. 김씨는 “지난해에 만났던 사람 중 연애를 했다면 결혼까지 이어질 수 있는 인연이 있었다”면서도 “올해는 연애운이 없다”고 했다.      기자와 역술가와의 이 만남은 비대면으로 이뤄졌다. 바로 스마트폰 애플리케이션(앱)을 통해서였다. O2O(Online to Offline) 역술가 매칭 서비스를 제공하는 앱 ‘천명’은 AI 기술을 활용해 이용자와 역술가를 연결해준다. 역술가가 취업·연애·건강 등 자신이 묻고 싶은 분야의 정보를 제공하면 이용자가 카테고리를 바탕으로 추천된 역술가를 선택하는 형태다.     ━   상담 내용과 후기 학습 통해 정확도 높여      AI를 활용한 STT(Speech to Text, 음성인식기술)로 전체 상담 내용을 메신저 대화 형태로 다시 볼 수 있다. / 사진:천명 앱 캡처           AI 기술이 활용되는 주요 분야는 역술가를 추천하는 시스템이다. 운영사인 스타트업 ‘천명앤컴퍼니’는 상담을 마친 내담자들이 남긴 후기를 바탕으로 주요 키워드를 추출한 뒤 데이터화한다. 이 키워드를 바탕으로 상담 분야, 역술가의 상담 스타일 등을 선택 전에 미리 확인할 수 있다.      천명앤컴퍼니 측은 “머신러닝 알고리즘, 리뷰 하이라이팅 등 AI를 접목한 서비스를 제공 중”이라며 “내담자가 고민을 텍스트로 입력하면, AI를 통해 해당 텍스트를 분석한 뒤 유사한 고민으로 상담을 진행했고, 고객의 만족도가 높았던 역술가 3명을 추천한다”고 밝혔다. 이어 “AI 기술을 활용하여 고객의 리뷰를 의미 단위로 분리하고, 해당 의미 단위에 기정의한 태그(상담분야·상담스타일)의 내용이 포함돼 있는지 파악한 후, 유저가 리뷰 태그를 선택하면 해당 의미 단위 부분을 하이라이팅하는 형태”라고 덧붙였다.      역술가의 스타일도 자연어처리 모델을 통해 세부적으로 분류한다. 천명앤컴퍼니는 “상담 후기 약 10만 개를 통해 각 역술가의 특화된 상담 분야와 상담 스타일 정보를 추출한다”며 “내부적으로 학습시킨 자연어처리 모델을 통해 리뷰별 상담 분야와 스타일 정보를 추출하고, 강세를 보이는 분야를 정의한 뒤 역술가에게 해당 특성을 부여한다”고 설명했다. 이어 “리뷰 데이터가 많아질수록 카테고리는 세분화되고 카테고리별 정확성도 높아질 것으로 본다”고 덧붙였다.      AI 기술은 상담이 끝난 뒤에도 빛을 발한다. 천명앤컴퍼니는 STT(Speech to Text, 음성인식기술)를 활용해 전체 상담 내용을 메신저 대화 형태로 다시 볼 수 있도록 제공한다. 천명앤컴퍼니 측은 “전화 상담의 경우, 상담 이후 소비자는 상담 내용에 대한 녹취본을 확인할 수 있다”며 “30분~1시간가량의 상담 내용을 모두 듣기 어렵기 때문에 STT를 활용해 상담 텍스트를 클릭하면 해당 음성을 들을 수 있는 기능을 서비스하고 있다”고 전했다.      또 다른 운세 플랫폼인 ‘포스텔러’에서는 AI가 직접 운세를 풀어내는 서비스를 제공하고 있다. 포스텔러 측은 “명리학을 담은 AI 프로그램이 점괘를 내놓는 서비스를 출시했다”며 “국내뿐 아니라 별자리 운세 정도만 봐왔던 해외에서도 인기가 많다”고 설명했다.      운세 서비스에 대한 대중의 인식도 긍정적이다. 올해 1월 시장조사 전문기업 엠브레인 트렌드모니터가 전국 만 19~59세 성인 남녀 1000명을 대상으로 ‘새해 계획’과 ‘운세 서비스’에 대한 인식을 조사한 결과, 전체 응답자 중 84.5%가 운세 서비스를 이용한 경험이 있다고 답했다. 또 2명 중 1명(49.1%) 꼴로 평소에도 운세 서비스를 이용하는 것으로 나타났다.     ━   1030세대 90% “운세 본 적 있다”      천명앤컴퍼니는 지난달 알토스벤처스로부터 50억원 규모의 시리즈A 투자를 유치했다. 사진은 전재현(왼쪽부터)· 유현재 천명앤컴퍼니 공동대표. / 사진:천명앤컴퍼니           운세를 점쳐보는 방법으로는 스마트폰 운세 앱이 가장 많이 이용된 것으로 드러났다. 응답자 중 56%가 스마트폰 앱을 통해 운세 서비스를 이용한다고 답했다. 다만 유명한 점집(24%)이나 타로 점집(18.9%), 사주 카페(17.9%)를 방문한 비율도 낮지 않았다.      사람들은 왜 운세 서비스를 이용할까? 응답자의 86.7%는 ‘마음의 위안과 걱정 감소’를 꼽았다. 64.4%는 ‘긍정적 에너지와 희망을 얻고 싶다’고 답했으며, ‘불확실성 해소와 미래를 위한 준비’를 위해 운세 서비스를 이용하는 응답자도 각각 41.3%와 35.3%를 기록했다.      코로나19 팬데믹으로 인한 불안감도 운세 서비스의 높은 이용률에 영향을 끼쳤다는 분석이 나온다. 응답자의 79.9%가 ‘사회가 불안할수록 운세나 점을 보려는 사람들이 많아진다’고 답했으며, 78%는 ‘운세를 보는 사람이 많아지는 것은 그만큼 현실을 불안해하는 사람이 많다는 증거’라고 바라봤다. 10명 중 6명(60.9%)은 ‘코로나19 장기화에 따른 불안감으로 온라인에서 신년 운세를 찾아보는 사람들이 많아진 것 같다’는 의견을 드러내기도 했다.      특히 2030 청년층의 관심도가 높다. 구인구직 포털서비스 알바천국에서 진행한 설문조사에 따르면 1030세대 회원 1608명 중 90%가 운세를 본 경험이 있다고 답했다. 운세를 보는 이유에 대해서는 응답자의 42.7%가 ‘막연한 호기심’을 제시했으며, 22.9%는 ‘미래가 불안해 위안감을 얻기 위함’이라고 답했다. 13.2%는 ‘스트레스와 고민을 덜기 위해’라고 답하기도 했다.      교사로 재직 중인 A(25)씨는 월간중앙에 “사주·타로 등 운세 보는 것을 좋아하는 편”이라며 “특히 연애가 잘 안 풀리거나 임용시험을 앞둔 시점에 자주 봤었다”고 전했다. A씨는 “삶에서 큰일을 치르기 전에 사주나 타로를 보면 그래도 마음의 위안이 되는 것 같다”며 “홍대입구나 강남역 등 번화가에 갔을 때 눈에 띄면 자주 찾아간다”고 말했다. 직장인 B(26)씨도 “지난 3월 운세를 봤다”며 “미래에 대한 확신을 얻고 싶었다”고 전했다. B씨는 “금전적 부담이 있다 보니 자주 보지 않았지만, 최근에 한 번 보니 다른 곳에서도 운세를 보면 어떨까 싶다”고 덧붙였다. 대학생 송모(24)씨는 “사실 운세라는 게 비과학적이라는 것을 알고 있다”면서도 “진짜 내 미래가 어떻게 될지에 대한 궁금증보다는, 더 나아질 것이라는 심리적인 안정감과 동기부여를 원하는 것”이라고 말했다.      곽금주 서울대 심리학과 교수는 운세 서비스가 인기를 끄는 원인으로 미래에 대한 불확실성을 지목한다. 곽 교수는 월간중앙에 “사람의 심리 속에는 불확실성을 최대한 줄이고자 하는 성향이 있다”며 “미래를 예측하는 것이 어렵다 보니 사주·타로 등 운세를 예측하는 행위에 관심을 갖는 것”이라고 설명했다.      2030 청년층 사이에서 운세 서비스가 성행하는 것에 대해 곽 교수는 “과거엔 특정 목표를 달성하기 위해 세워야 할 계획이나 투입해야 할 노력이 예측 가능한 수준이었다면, 지금은 아무리 노력해도 원하는 바를 이루기가 어렵다”며 “코로나19로 우리 사회가 더욱 얼어붙은 만큼 청년층 사이에서 인기를 끄는 것으로 보인다”고 분석했다.      운세와 AI가 만나며 소비자의 뜨거운 반응이 이어지자 이들 기업에 대한 투자도 줄을 잇고 있다. 지난 4월 19일 미국 실리콘밸리에 기반을 둔 벤처캐피털(VC) 알토스벤처스가 천명앤컴퍼니에 50억원 규모의 시리즈A 투자를 진행했다.      알토스벤처스는 다수의 유니콘 기업에 투자한 바 있는 벤처캐피털인 만큼 이번 투자 결정에 대해 이례적이라는 평가가 나왔다.      그동안 알토스벤처스에서 투자해온 국내 기업은 배달의민족, 비바리퍼블리카(토스) 등 검증된 비즈니스 모델을 구축하고 있지만, 천명은 역술·신점·사주 등 한국 특유의 정서에 기반을 둔 업체여서다.      알토스벤처스는 투자 배경에 대해 “점술은 현대인에게 불투명한 미래에 대한 불안감 해소와 재미 요소를 제공하고 있지만, 여전히 정보의 비대칭이 존재하던 영역”이라며 “천명은 이런 점술 산업을 양성화하고 서비스 품질 고도화를 위해 노력하는 기업이라고 생각해 투자를 결정했다”고 밝혔다.     ━   대중에 인기 끌자 억대 규모 투자 줄이어       투자에 대해 천명앤컴퍼니는 월간중앙에 “소비자와 역술가에게 최상의 점술 상담 경험을 제공해 1조4000억원 규모의 국내 점술 시장에서 독보적인 지배력을 갖추는 것을 목표로 하고 있다”며 “신규 회원가입 150만 명과 신규 역술가 2000명을 유치할 계획”이라고 전했다.      이 같은 역술과 AI의 결합은 AI 활용이 무궁무진한 분야로 확장 가능하다는 기대감을 높인다. 김명주 서울여대 바른AI센터장은 월간중앙 전화통화에서 “문화현상에 AI를 접목한 사례”라며 “AI는 데이터만 있다면 어느 분야에서든지 활용할 수 있다. 데이터화된 베이스가 있다면 모든 영역에서 사용할 수 있다”고 설명했다. 이어 “역술 관련 데이터를 컴퓨터가 직접 읽어들이는 머신러닝과 STT를 이용한 편의성 향상이 결합하는 등의 형태로 발전할 것”이라고 전망했다.      운세 서비스가 인기를 끄는 만큼 활용법에 대한 조언도 이어진다. 곽금주 교수는 “미래에 대한 불확실성을 줄이는 것은 좋지만 지나치게 맹신하면 오히려 안 좋은 결과를 초래할 수 있다”며 “좋은 풀이는 긍정적인 에너지로 활용하되, 부정적인 풀이가 나올 경우 이를 보완해나가는 형태로 계획을 세워야 한다”고 전했다.  - 이민준 월간중앙 인턴기자 19g2970@naver.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>"당근마켓 토스 미리 투자하면 대박인데"…비상장 유니콘 개인 투자길 열렸다</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004969586?sid=101</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>금융위, 기업성장펀드 도입비상장·코넥스기업이 대상벤처·혁신기업에 집중 투자최소 5년이상 존속이 조건환매금지 폐쇄형 펀드지만코스피 상장 자금회수 가능이르면 내년 상반기 시행 비상장 유망 벤처·혁신기업에 집중 투자하면서도 환금성을 높인 기업성장집합투자기구(BDC·기업성장펀드)가 도입된다. 기업성장펀드는 공모펀드와 사모펀드의 장점을 고루 가지면서 일반 개인투자자의 투자가 가능해 모험자본 관련 생태계 발전에 도움이 될 것이라는 기대를 받는다.금융위원회는 26일 기업성장펀드 도입을 골자로 하는 자본시장과 금융투자업에 관한 법률(자본시장법) 개정안이 국무회의를 통과했다고 밝혔다.기업성장펀드는 일반 개인투자자들이 유망 벤처·혁신기업에 투자하면서도 상장을 통해 환금성을 높인 새로운 형태 펀드다. 공모펀드가 가진 '규모의 경제'와 투자자 보호 장치 성격을 지님과 동시에 사모펀드가 가진 유연한 운용전략을 펼칠 수 있는 게 특징이다.기업성장펀드는 유니콘(기업가치 1조원 이상의 비상장 혁신기업)을 비롯한 우수 비상장기업에 대한 투자 저변을 대폭 넓힐 수 있을 것으로 기대된다. 그동안 유망 비상장기업에 대한 개인 투자는 일부 초고액 자산가들이 전문투자자나 운용사가 구성한 사모펀드를 통해 초기 투자에 참여하는 식으로 제한적으로 이뤄져왔다. 투자한 비상장기업이 상장에 성공할 경우 막대한 차익을 거둘 수 있지만 사모펀드에 참여할 만한 자금력을 갖추지 못한 일반 개인투자자들에게는 '그림의 떡'이었다.금융위 관계자는 "기존 벤처캐피털의 경우에는 초고액 자산가를 대상으로 하고, 모집 인원수도 적어 일반 개인투자자의 접근성이 매우 낮았다"며 "기업성장펀드는 일반 개인투자자에게 제도권 내 투자수단을 통해 벤처·혁신기업에 분산투자할 수 있는 기회를 제공한다"고 설명했다. 이 관계자는 이어 "비상장기업 거래소에서도 일반 개인투자자가 투자를 할 수 있었지만, 투자 정보에 접근성이 떨어져 '묻지 마 투자 수익'이 많다는 지적이 있었다"며 "기업성장펀드가 도입되면 전문성 있는 운용주체를 통한 간접 투자가 가능해 문제점 있는 투자를 많이 줄이는 효과를 기대하고 있다"고 덧붙였다.정부는 인가 제도를 통해 역량과 책임감을 갖춘 주체가 펀드를 운용할 수 있게 한다는 방침이다. 인가 대상은 자산운용사, 증권사, 벤처캐피털 등이다. 이들은 일정 수준 이상의 자기자본과 증권운용인력을 보유해야 정부의 인가를 받아 기업성장펀드를 내놓을 수 있게 된다. 금융위 관계자는 "현재 증권사와 자산운용사 등 39개사가 준비 중인 것으로 파악된다. 총 1조6000억원 규모"라고 설명했다.기업성장펀드로 설정된 펀드는 '인내하는 모험자본' 조성이 가능하도록 최소 5년 이상 존속하며 중도환매가 제한되는 폐쇄형으로 운영된다. 장기간 환매금지에 따른 초기 투자자의 자금 회수 어려움을 해소하기 위해 90일 내 거래소 상장이 의무화된다. 금융위 관계자는 "환매금지형 펀드이지만, 일반 개인투자자들은 상장 후 증권을 매매하는 방식으로 자신의 투자금을 회수할 수 있다"고 설명했다. 일반 주식이나 상장지수펀드(ETF)처럼 시장 매매를 통해 자금 회수가 가능한 구조인 셈이다.정부는 기업성장펀드가 최대한 유연한 투자전략을 구사할 수 있도록 허용한다는 방침이다. 공모펀드와 다르게 순자산의 100% 이내에서 차입이 가능하고, 대출 업무도 가능하게 된다. 단, 공모펀드의 성격을 고려해 자산총액의 10% 이상을 안전자산에 투자하도록 하고 동일기업 투자한도(자산총액 20% 이내) 규제 등을 두기로 했다.또 투자자 보호를 위해 운용주체가 최소 5년간 5% 이상 의무출자를 하도록 하고, 투자를 받는 기업들의 주요 경영사항을 공시하도록 할 방침이다. 금융위는 "벤처·혁신기업은 대규모 자금을 장기간 조달할 수 있는 안정적인 자금 조달 경로를 확보할 수 있을 것"이라고 설명했다.금융위는 다음달 초까지 법 개정안을 국회에 제출하고, 유관기관 및 시장 참여자와 협의를 거쳐 하반기 중 하위 법규 개정안 등 세부 도입방안을 마련할 계획이다.금융위 관계자는 "국회에서 통과가 되면 6개월 뒤 시행된다"며 "국회 논의가 신속하게 이뤄질 경우 이르면 내년 상반기께 시장에 선보이게 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>'유니콘 너마저'…시장 칼바람에 비상장 주식도 휘청</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008110?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>쏘카·컬리 낙폭 20%대…데카콘도 소나기 못 피해비상장 투자도 수익성 입각한 '보수적 스탠스' 전망최근 기업공개(IPO) 시장이 살얼음판을 걷자 한때 '없어서 못 샀던' 비상장 주식들의 주가도 뒷걸음질 치고 있다. 금리인상, 인플레이션 등으로 유동성 회수가 본격화되면서 시장에서도 기업의 수익성과 밸류에이션을 꼼꼼히 따지는 게 대세가 된 영향이다.유니콘(기업가치 1조원 이상 스타트업)이나 데카콘(기업가치 10조원 이상)도 급락을 피하지는 못하는 모습이다. 특히 연내 상장을 계획했던 대어들은 공모가 책정에 난항이 점쳐진다./그래픽=비즈니스워치상장 유력 '쏘카' 27% 급락…타우량 비상장주도 내리막23일 비상장주식 거래 플랫폼 '증권플러스 비상장'에 따르면 쏘카의 이날 기준가는 5만8000원으로 최근 한달 새 27% 급락했다. 기준가는 비상장주식 거래 플랫폼에서 자체적으로 매물을 집계에 산출한 값이다. 비상장주식은 매수자와 매도자가 협의 하에 매매가격과 수량을 결정해 거래를 하는데 한달 전(8만원대)에 비해 2만원 이상 시세가 조정된 것이다. 쏘카는 국내 1위 카셰어링 업체이자 유니콘으로 지난달 한국거래소의 코스피 상장예비심사를 통과한 기업이다. 시장에서는 조(兆) 단위 대어로 분류된 바 있다. 또 다른 예비상장 대어인 컬리도 상황은 비슷하다. 앞서 연초에만 해도 주당 11만원을 넘어섰던 컬리 기준가는 최근 1개월 동안만 20% 가까이 추락해 8만원을 겨우 수성하고 있다. 컬리는 지난 3월 말 상장예비심사를 청구해 두달째 그 결과를 기다리고 있다. IPO가 가시화되지는 않았지만 상장이 기대돼 온 다른 우량 비상장주식들 역시 최근 동반 하락하고 있다. 올해 상반기 내 프리IPO를 마무리하며 국내 첫 데카콘이 전망되는 토스 운영사 비바리퍼블리카는 기준가가 7만6000원으로 최근 한달 만에 17% 넘게 떨어졌다. 지난해 11월 주당 16만7000원에 거래되던 것을 감안하면 반년 새 반토막이 난 셈이다. 가상자산(암호화폐) 거래소 업비트를 운영하는 두나무의 경우 기준가가 32만2000원까지 내려왔다. 역시 최근 한달 하락률이 20%에 육박한다. 지난 13일에는 27만9000원까지 가격이 내려갔다. 최근 루나 사태 등으로 가상자산 시장 불안이 커진 점을 감안하더라도 절대 적지 않은 낙폭이다. 장외가격, 공모가 산정 근거…"성장성보다 수익성 따져야"이들 비상장주식은 앞서 시장의 유니콘, 데카콘 등으로 불리며 주식 품귀현상까지 빚어냈다는 공통점이 있다. 그러나 올해 들어 분위기는 급반전됐다. 전 세계적 긴축과 금리인상 등으로 증시가 맥을 못추면서 IPO 시장 분위기가 급랭한 때문이다. 금융투자업계 관계자는 "상장주식도 반토막나는 마당에 비상장주식을 보는 기준은 까다로워질 수밖에 없을 것"이라며 "그간 비상장주식 투자가 미래 성장성을 담보로 이뤄졌다면 앞으로는 수익성에 입각한 보수적인 스탠스로 갈 것"이라고 말했다. 앞서 현대엔지니어링, SK쉴더스, 원스토어 등 기존 IPO 대어들이 상장을 철회하며 몸을 사렸다. 수요예측 흥행에 실패하는 등 기대에 못 미치는 성적표를 받아든 탓이다. 이 와중에 상장을 강행한 기업들 역시 내리막길 주가다. 이런 상황에서 비상장기업들이 장내시장인 코스피와 코스닥에 선뜻 자신을 드러내기는 쉽지 않아 보인다. 특히 비상장주식 거래가격은 향후 상장 과정에서 기업가치와 공모가 산정에 중요한 근거가 되기 때문에 최근의 시세 조정은 일종의 경고등으로 볼 수 있다.남기윤 DB금융투자 연구원은 "증시 분위기가 좋지 않은 가운데 비상장기업의 가치(산정)에는 많은 논란이 있을 수 있다"며 "적자를 감안한 매출 증가보다는 이익에 집중할 필요가 있다"고 조언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>토스뱅크, 1분기 중·저신용대출 공급 31.4% 달성…인터넷전문은행 1위</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000675381?sid=101</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>전년 말 대비 7.5%p 증가…유일하게 30% 초과토스뱅크가 1분기 인터넷전문은행중 가장 높은 중·저신용대출 비중을 달성했다,27일 은행연합회 공시에 따르면 토스뱅크의 1분기 '중·저신용자 대상 신용대출 비중(잔액 기준)'은 31.4%를 기록했다. 같은 기간 카카오뱅크는 19.9%, 케이뱅크는 20.2%를 기록했다.토스뱅크 로고. [사진=토스뱅크]작년 12월 말 대비 토스뱅크는 7.5%p, 카카오뱅는 2.9%p, 케이뱅크는 3.6%p 증가했다.중·저신용자는 신용대출에서 KCB 기준 신용평점 하위 50%(KCB 850점 이하) 대출자를 가리킨다.토스뱅크는 앞으로도 중저신용 대출 확대를 위해 노력한단 방침이다.토스뱅크 관계자는 "중저신용고객이 제1금융권의 테두리 안에서 정상적인 경제생활과 금융소비자로서의 최상의 혜택을 누리실 수 있도록 앞장설 것"이라고 밝혔다.한편 올해 연말 목표치로 제시한 비중은 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 42%다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>“신용평점별 예대금리차 공시, 중·저신용자 많은 인뱅 불리”</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002515813?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>연내 개인 신용 평점을 기준으로 한 평균대출 금리와 예금금리 차를 구체적으로 공개하는 방안을 논의하고 있는 가운데 중·저신용자 비중이 큰 인터넷은행들의 고민도 깊어지고 있다. 신용 평점이 낮은 중·저신용자의 대출금리가 고신용자보다 높을 수밖에 없어 인터넷은행의 전체 예대금리차가 상대적으로 두드러져 보일 수밖에 없기 때문이다.31일 은행연합회에 따르면 지난 3월 말(1분기) 기준 토스뱅크의 중·저신용자 대상 신용대출 비중은 31.4%에 달했다. 케이뱅크(20.2%)와 카카오뱅크(19.9%) 등이 뒤를 이었다. 지난해 말에 비해 토스뱅크는 7.5%포인트, 케이뱅크는 3.6%포인트, 카카오뱅크는 2.9%포인트 비중이 늘었다. 인터넷은행들은 고신용자보다는 은행권 문턱을 넘기 힘든 중·저신용자를 대상으로 한 중금리 대출 비중을 늘리는 방식으로 차별화를 해왔다. 금융당국도 서민 금융 지원 강화 차원에서 이를 권장해 왔다. 문제는 예대금리차 공개 수준에 따라 중·저신용자의 대출 상품 비중이 큰 인터넷은행들로서는 더 많은 이익을 취하고 있다는 오해를 받을 수 있다는 점이다. 거기다 예금을 제공하지 않거나 제공하더라도 상품이 1∼2개인 곳도 많아 예금금리 평균을 낼 때 불리해질 수 있다. 인터넷은행 관계자는 “인터넷은행들은 최근 들어서야 흑자 전환을 하고 있는 상황인데 영업이익 규모가 훨씬 큰 시중은행보다도 큰 이익을 취하는 것처럼 비칠 우려가 있다”고 밝혔다.금융당국과 은행들은 은행연합회 소비자 포털사이트를 통해 대출자의 개인 신용 평점을 기준으로 은행별로 예대금리차를 달마다 공시하기로 큰 틀에서 합의한 것으로 알려졌다. 새 공시 시스템에서 각 은행은 달마다 개인 신용 평점을 50점씩 20개 세부 구간으로 나눠 구간별 신규대출 평균 금리를 밝히고, 이 대출금리에서 그달 평균 수신(예금) 금리를 뺀 예대금리차도 공개하는 방안을 검토 중이다. 이는 현재 은행연합회에 공시된 은행별 대출금리만으로는 대출자가 대출금리를 얼마나 적용받게 될지 짐작하기 어렵다는 문제를 해결하고, 은행 간 금리 경쟁을 촉진하자는 취지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[김지현의 IT세상]마이데이타로 열린 금융혁신 시대</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005225525?sid=110</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[김지현 IT칼럼니스트] 마이데이터 시대는 금융 서비스 혁신과 초개인화가 이루어져 사용자들이 은행, 주식, 대출, 금융 등의 서비스를 보다 편리하게 이용할 수 있도록 해준다. 마이데이터 시행으로 토스, 카카오뱅크, 네이버페이 그리고 기존 금융 기관들의 은행앱과 보험앱에서는 보다 편리하게 통합된 금융 서비스 사용이 가능해졌다. 마치 포탈 사이트 한 곳에서 뉴스와 각종 정보, 영상 그리고 인터넷 서비스를 모두 즐길 수 있는 것처럼 되었는데 이것이 주는 의미는 무엇일까?네이버, 카카오톡 그리고 페이스북과 인스타그램 등의 인터넷 서비스는 무료로 사용할 수 있다. 덕분에 우리는 메일, 카페, 블로그 그리고 메신저와 SNS를 공짜로 편리하게 무한정 이용이 가능하다. 대신 그에 대한 대가로 우리의 프로필, 욕망, 정보를 이들 인터넷 기업에 제공해야 한다. 인터넷 기업은 이런 개인 정보를 기반으로 우리가 관심을 가질만한 즉 적중율 높은 광고를 보여주고, 판매 확률이 높은 상품을 추천해준다. 우리의 관심과 주목을 마케팅과 커머스 등의 비즈니스로 푼 것이다. 그렇게 우리가 공짜로 사용하는 서비스는 우리의 정보를 팔아 돈을 번다. 그 과정에 균형감을 잃고 공정하지 못하게 되면 도가 지난친 데이터 오용과 남용, 악용으로 비판을 받을 수 있다. 즉, 개인 데이터의 활용은 고공 위 줄타기처럼 균형을 잃지 않도록 기업의 노력과 사회적 견제를 필요로 한다.그런 면에서 마이데이터의 시행은 더 나은 금융 서비스를 제공할 수 있는 발판이 마련되었다라는 긍정의 이면에 개인의 금융 데이터를 남용해서 발생할 수 있는 범죄나 과도한 개인 프라이버시 침해 등의 문제가 상존하고 있다. 마이데이터 사업 허가 대상 기업은 28곳이다. 이들 기업은 사용자의 승인을 받으면 한 개인의 은행과 보험, 카드 그리고 주식 등의 금융정보를 한 곳에서 확인, 관리할 수 있는 서비스를 제공할 수 있다. 은행별, 카드사별, 보험사별로 개별 앱을 사용하지 않고도 하나의 앱에서 내가 가입한 모든 금융 정보를 볼 수 있는 것이다. 그 외에 통신료 납부 내역과 소액결제 이용내역, 선불충전금 잔액과 결제 내역, 국세와 관세, 지방세 납세 내역과 연금보험료 납부내역까지 다양한 금융 관련 정보를 한 눈에 확인할 수 있다. 마치 모든 음식을 한 곳에서 먹을 수 있는 뷔페처럼 하나의 앱으로 모든 금융 서비스의 통합된 관리가 가능해진다.한마디로 금융회사와의 거래를 통해 발생하는 금융, 보험, 투자 내역을 카카오페이나 토스 그리고 특정 은행이나 카드 앱을 통해서 한 번에 볼 수 있다는 것이다. 이렇게 모든 금융 회사의 개인 금융 정보들이 사용자의 승인을 거쳐 마이데이터 서비스사에 전송되어 이들 정보가 유기적으로 분석되어 보다 입체적으로 금융 정보를 살펴볼 수 있게 되었다. 한 곳에 모아서 보는 편리함 외에 이들 정보를 체계적으로 분류하고 통합함으로써 재정 상태, 재테크 팁, 보험 추천, 카드 추천 등의 맞춤형 개인 금융 서비스의 제공도 가능하다. 특히 같은 메신저인 카카오톡, 라인, 페이스북 메신저와 텔레그램이 서로 다른 화면 구성과 메뉴, 디자인으로 사용성이 다른 것처럼 28개나 되는 마이데이터 서비스 역시 저마다의 특징으로 사용자를 확보해갈 것이다.즉, 보다 편리한 가계부 관리와 금융 정보를 분석하고 최적의 맞춤 금융 서비스를 제공하기 위한 각 서비스들간 경쟁 속에서 소위 가장 많은 선택을 받는 서비스들이 떠오를 것이다. 그렇게 더 많은 사용자를 확보하고 그 과정에서 더 많은 개인의 금융 정보를 수집하면서 최적의 맞춤형 금융 서비스를 제공할 수 있는 가능성도 높아지게 된다. 마치 검색하면 네이버, 동영상하면 유투브, 메신저하면 카카오톡처럼 금융 통합 서비스하면 한 두개의 마이데이터 서비스가 시장을 독점할 가능성이 높아진다. 그리고, 이런 개인 금융 데이터는 해당 개인의 비금융 데이터들 즉, 통신, 쇼핑, 교통, 의료 그리고 상세한 프로필 정보와 교차 분석됨으로써 초개인화 서비스 시대를 열어줄 것이다. 단지 금융 데이터만 이용하는 것이 아니라 다양한 영역의 개인정보와 연계되어 활용됨으로써 보다 나은 지능형, 맞춤형 서비스를 구현해내는데 중요할 역할을 해낼 것이다.하지만, 그렇게 한 곳에 개인 정보들이 통합됨으로써 발생될 수 있는 폐단도 공존한다. 빅브라더의 이슈와 해당 사업자의 무분별한 개인 정보의 악용으로 발생할 수 있는 사회적 문제이다. 동전의 양면처럼 개인을 위한 맞춤형 서비스와 개인정보의 남용은 함께 존재한다. 그렇기에 적어도 정부와 사회는 이런 개인 데이터를 이용하는 사업자가 균형있게 개인정보를 활용하도록 적절한 수준의 규제안을 마련해야 한다.마이데이터 시행은 1993년 대통령긴급명령으로 시행된 금융실명제만큼의 금융 시장에 큰 변화와 혁신의 패러다임을 가져올만큼 주목해야 할 정책이다. 사실 1993년 이전만 해도 저축 장려를 위해서 예금주의 비밀보장과 가명, 차명 금융거래를 허용했지만, 이로 인한 폐단 즉 금융 비리 사건과 부정부패를 부추기는 요인이기도 해서 문민정부가 들어서면서 금융 거래 시 무기명 거래를 금지하고 실명 확인 기반으로 거래를 할 수 있도록 하는 금융실명제가 전격 실시되었다. 초기만 해도 은행에서 예금과 송금 등의 서비스 사용 시마다 주민등록증을 지참해야 하는 번거로움과 은행 거래 시 혼란으로 인한 오랜 기다림 등의 사회적 문제가 심각했다. 그럼에도 자리를 잡아가면서 지하경제의 규모를 억제하고 정경유착과 부정 부패 사건의 자금 추적에 도움이 되었다는 평을 받고 있다.마이데이터가 역사에 초개인화 시대를 개막한 훌륭한 정책이라는 평가를 받기 위해서는 개인정보 관련한 사회적 이슈와 문제를 최소화할 수 있는 사회적 노력이 필수적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>카카오·네이버페이 수수료율 매년 두차례 공시 추진</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011269088?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>카카오페이나 네이버페이 등 간편결제 서비스의 수수료율을 사업자 홈페이지에 매년 두 차례 공시하는 방안이 추진됩니다. 금융감독원은 오늘(19일) 전자금융업자 결제수수료율 공시체계 마련을 논의하는 태스크포스(TF) 첫 회의를 열었다고 밝혔습니다. 회의에는 핀테크산업협회, 한국인터넷기업협회 등 유관협회와 네이버파이낸셜, 카카오페이, 비바리퍼플리카(토스) 등 빅테크, NHN한국사이버결제, KG이니시스, 제이티넷 등 결제대행업자(PG)가 참석했습니다. 이 밖에 지마켓글로벌, 11번가, 우아한형제들(배달의민족) 등 주요 이커머스 업체도 TF에 참여했습니다. 첫 회의에서 참석자들은 수수료율 공시 가이드라인의 제정 취지에 공감을 표했고, 보완 필요성 및 세부 공시방안 등에 대해선 다양한 의견을 교환했다고 금감원은 전했습니다. 금감원은 간편결제 수수료의 투명성을 높이기 위해 가이드라인을 마련하고 수수료 공시를 추진한다는 방침입니다. 가이드라인에는 간편결제 수수료를 합리적인 근거에 따라 산출토록 하는 등 기본 원칙을 지세하고, 공시 서식에 따라 업체 홈페이지에 반기 단위로 공시하도록 하는 내용이 담길 전망입니다. 또한 가맹점 수수료를 결제 관련 수수료와 일반 상거래 관련 기타 수수료로 구분해 관리하도록 하는 내용도 담길 예정입니다. 금감원은 "전자금융업자의 온라인 간편결제는 카드 결제 방식과 선불 충전금 결제 방식으로 구분되며 서비스 방법별로 다른 수수료를 수취하고 있다"며 "온라인 간편결제 시에는 일반 상거래 서비스 관련 수수료가 별도로 발생한다"고 설명했습니다. 금감원은 이날 회의에서 제시된 의견을 중심으로 보완방안을 마련을 위한 추가 실무회의를 수시로 열 방침이며 이어 관계부처 및 업계와 충분한 논의를 거쳐 연내 최종 공시 방안을 확정할 계획입니다.[사진 출처 : 게티이미지]</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.05.28.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>인터넷은행 중·저신용자 대출 비중 일제히 늘어나</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003700030?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 3사의 중·저신용자 대상 신용대출 비중이 올해 일제히 늘어났다. 특히 토스뱅크의 중·저신용자 비중이 가장 큰 폭으로 늘면서 30%를 넘어섰다.   27일 은행연합회 공시에 따르면 각 인터넷 전문은행의 ‘중·저신용자 대상 신용대출 비중(잔액 기준)’은 △카카오뱅크 19.9% △케이뱅크 20.2% △토스뱅크 31.4%로 집계됐다. 지난해 12월 말과 비교하면 3개월 사이 카카오뱅크는 2.9%포인트, 케이뱅크는 3.6%포인트, 토스뱅크는 7.5%포인트 증가했다.   중·저신용자 신용 대출 비중은 각 인터넷 은행의 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 의미한다.   금융당국은 지난해 5월 인터넷전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문한 바 있다.   이들이 금융당국에 제출한 올해 말 중·저신용자 신용대출 비중 목표치는 △카카오뱅크 25% △케이뱅크 25% △토스뱅크 42%다. 3사의 내년 말 목표치는 각각 30%, 32%, 44%로 높아진다.   지난해 10월 출범해 후발주자인 토스뱅크는 “인터넷은행 중 유일하게 (중·저신용자 대상 신용대출 비중이) 30%를 넘는 성과를 달성했다”며 “자체 신용평가 시스템 ‘TSS’를 통해 그동안 신용평가가 어렵거나 데이터가 없어 금융소비자로서 권리를 누리지 못했던 고객들을 최대한 포용했다”고 설명했다.   케이뱅크는 2017년 출범 이후 처음 중·저신용자 대상 신용대출 비중이 20%를 넘어섰다. 케이뱅크 측은 “이달 말 기준으로는 비중이 22.7%로 집계됐다”면서 “올해 1분기에만 2021년 연간 공급액의 절반 이상에 달하는 4234억원을 공급하는 등 중·저신용 고객의 신용대출 공급규모를 지속적으로 확대하고 있다”고 했다.   카카오뱅크는 지난달 말 기준 중·저신용자 대출 비중이 20.8%를 달성했다고 밝혔다. 카카오뱅크 관계자는 “새로운 신용평가모형을 적용한 지난해 6월부터 매월 약 1%포인트씩 중·저신용자 대출 비중이 상승해 연말 목표인 25%는 무난히 달성할 것으로 예상한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>기준금리 올랐는데... 증권사 '예탁금 이자 0%대' 언제까지</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004752077?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2020년 제로금리 시대, 증권사들은 빠르게 주식계좌에 넣어둔 예탁금 이자를 내렸다. 이 때문에 현재 증권사 평균 예탁금 이자는 0.1~0.2% 사이에 형성돼 있다. 하지만 지금은 상황이 달라졌다. 한국은행이 연이어 기준금리를 인상했고 신생 증권사인 토스증권이 예탁금 이자를 1%로 파격 인상하면서 증권업계 눈치싸움이 시작됐다. 27일 금융투자협회에 따르면 지난해 말 기준 국내 46개 증권사 예탁금 이용료는 1193억3541만원이었다. 2020년 말 1442억4276만원보다 약 17.3% 줄었다. 작년 예탁금은 최대 규모를 기록했는데 이용료는 줄어드는 정반대 현상이 나타났다. 그 이유는 제로금리 기조 때문이었다. 예탁금 이용료는 증권사가 투자자로부터 금융투자상품의 매매, 그밖에 거래와 관련해 예탁받은 금전을 증권회사가 이용하는 대가로 지급하는 이자를 말한다. 증권사들은 관련 법규에 따라 투자자예탁금을 한국증권금융에 예치한 후 증권금융으로부터 지급받는 수익금(이자)에서 직·간접비용(인건비, 전산비) 등을 공제금으로 차감한 뒤 투자자 예탁금이용료를 결정한다. 증권금융으로부터 각 증권사가 받는 이자는 기준금리 수준으로 책정된다. 2020년 3월 코로나19 충격으로 한국은행이 기준금리를 지속해서 낮출 때 덩달아 증권사들이 예탁금 이용료를 낮춘것도 이 이유에서였다. (서울=뉴스1) 사진공동취재단 = 이창용 한국은행 총재가 26일 오전 서울 중구 한국은행에서 열린 금융통화위원회 본회의에서 의사봉을 두드리고 있다. 2022.5.26/뉴스1  하지만 상황이 정반대로 달라졌다. 기준금리가 처음으로 두달 연속 올랐다. 올 4월 한은 금융통화위원회가 기준금리를 1.25%에서 1.5%로 인상한데 이어 5월에도 1.50%에서 1.75%로 인상했다. 게다가 추가 기준금리 인상도 전망된다. 이창용 한은 총재가 연말 기준금리 수준 2.25~2.5%가 적절해 보인다고 언급하는 등 하반기 중 두 차례 이상 금리 인상 가능성을 암시했다. 금리 인상 기조에 따라 지난해 연말부터 증권사들이 움직이기 시작했다. △NH투자증권(0.10%→0.30%) △삼성증권(0.10%→0.25%) △한국투자증권(0.10%→0.25%, 50만원 이상 기준) △SK증권(0.10%→0.25%, 100만원 초과 기준) △KB증권(0.15%→0.42%) 등 예탁금이용료 인상에 나섰다. 하지만 주요 증권사 가운데 0.5%를 넘은 경우는 찾기 힘들었다. 그런데 이달 16일 토스증권이 예탁금 이용료를 0.2%에서 1%로 파격 인상하면서 증권사들의 눈치게임이 시작했다. 지난 분기 예탁금 이용료를 한차례 올린 미래에셋증권은 오는 6월 또 다시 예탁금 이용료를 올리기로 했다. 다음달 13일부터 평균잔액 50만원 이상 고객 원화예탁금 이용료율을 기존 연 0.20%에서 연 0.40%로 0.20%p 올릴 예정이다. 지난해 연말 예탁금이용료를 0.6%에서 0.3%로 인하한 카카오페이증권 등도 금리 변동에 따른 예탁금 이용료 조정을 검토하고 있다. 물론 예탁금, 증시 대기 자금은 투자처를 찾아가려는 성질이 있고 오래 머물러있지 않아 대세에 큰 영향을 줄 수 없단 평가도 있다. 다만 금리 인상 기조에 토스증권이 1%라는 상징적 숫자를 내세운만큼 각 증권사가 신경쓰지 않을 수 없는 상황이 됐다. 한 증권업계 관계자는 "개인투자자들의 경우 예탁금 이용료 때문에 거래 증권사를 바꾸거나 크게 영향을 받진 않는다"면서도 "다만 초고액자산가나 법인의 경우 최근 증시 변동성 심화에 따라 대기자금을 보유하고 있는 경향이 있어 예탁금 이용료도 따질 수 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.05.22.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>[단독]①“스마트하나 독단적”…루나 사태 원인은?</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005222541?sid=105</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>신현성 공동 창업자 심경 밝혀“준비금 부족과 공격, 준비금보다 빨리 키운 예치금이 폭락 원인”“권도형 대표만나 블록체인 활용 결제수단 관심”“테라 지향점을 결제에서 DeFi로 바꿔 퇴사”[이데일리 김현아 기자]신현성 티몬 이사회 의장 겸 테라폼랩스 공동창업자. 그는 2020년 3월 테라폼랩스에서 사퇴했다.최근 폭락한 한국산 가상화폐 루나(LUNA)와 UST(테라 스테이블코인)를 발행하는 테라폼랩스. 이 회사의 창업자는 해당 코인들을 직접 설계한 권도형 대표와 신현성 티몬 이사회 의장이다. 전자상거래 업체 티몬을 만든 신 의장은 벤처 업계에서 유명 인사다. 그는 금융앱 ‘토스’를 운영하는 비바리퍼블리카가 연초 시작한 스타트업 경진대회 ‘(FOUND)’에서 박재욱 쏘카 대표, 김한준 알토스벤처스 대표 등과 함께 파트너로 활동 중이기도 하다. 루나 폭락 사태 이후 언론 접촉을 피하는 가운데, 이데일리는 지인을 통해 신현성 공동창업자(티몬 이사회 의장)의 심경을 들어봤다. 그는 루나의 폭락 원인에 대해 어떻게 볼까. 테라폼랩스를 떠난 이유는 무엇일까.루나는 UST의 가치 안정화를 위한 자매 코인이다. UST가 1달러를 초과하면 차익 거래자는 루나를 소각하고, 1달러보다 아래로 떨어지면 루나 공급을 늘려야 하는 식이다. 여기에 테라폼랩스는 ‘앵커 프로토콜’이란 걸 만들었다. 앵커 프로토콜은 UST(테라 스테이블 코인) 예치를 통해 유동성이 낮지만 높은 수익률을 제공하는 탈중앙화 예금 프로토콜이다. 대출 금리(연 12.4%)보다 예치 금리(연 19%)가 더 높아 후속 투자금으로 이자를 지급하는 ‘폰지 사기’ 구조라는 비판이 제기됐다.신현성 공동창업자는 루나 폭락의 원인에 대해 “준비금을 변동성 없는 자산으로 쌓았어야 했다”고 안타까워하면서도 “현재의 테라폼랩스와 자신이 처음 창업했을 때의 회사와 완전히 다르다”고 선을 그었다. 퇴사 이유로는 “테라 지향점을 결제에서 DeFi(탈중앙금융)로 바꿨기 때문”이라고 했다.실제로 그는 2018년 제주에서 열린 ‘제1회 업비트 개발자 콘퍼런스(UDC)’ 행사에서 테라를 실물 경제에서 블록체인 기반 결제 네트워크를 구동하는데 초점을 맞추고 있다고 소개했다. 권도형 대표와의 인연에 대해서는 “소개로 만났다. (그는) 매우 스마트하지만 독단적인 스타일”이라고 밝히면서 “지금도 테라폼랩스 주식 1주를 갖고 있지만 퇴사후 경영에 전혀 참여하지 않았다. 주주총회가 단 한번도 이뤄지지 않았다”고 전했다. 이데일리는 ①[단독] “스마트하나 독단적” …루나 사태 원인은 ? 기사와 ②“주식 1주 있지만 주총 없이 권도형 단독 경영” 기사를 통해 관련 내용을 알린다. 다음은 지인을 통해 신 의장과 나눈 서면 질의응답 중 첫 번 째다. 2018년 제주도에서 열린 ‘제1회 업비트 개발자 콘퍼런스(UDC)’ 행사에 참가한 신현성 테라 공동 창업자. 당시까지만 해도 테라는 가치를 일정하게 유지하는 ‘스테이블 코인(Stable Coin)’을 표방하는 블록체인 프로젝트로, 실물 경제에서 블록체인 기반 결제 네트워크를 구동하는데 초점을 맞추고 있었다.“준비금을 변동성 없는 자산으로 했다면 발전했을 수도”-루나 폭락사태의 원인은 무엇으로 보는가?“여러 원인이 복합적으로 있다고 생각한다. 첫째, 준비금을 부족하게 가져간 부분, 둘째, 준비금에 비해 예치금(deposit)을 너무 빠르게 키운 부분, 셋째, 준비금의 규모가 외부에 노출되면서 공격에 취약해 진 점을 꼽을 수 있을 것 같다. 크립토가 결제수단으로서의 역할을 할 수 있을 것으로 기대했는데 법의 규제라는 현실의 벽에 부딪히면서 포기했다.”-루나와 연동된 독특한 스테이블 코인 테라(UST)의 알고리즘이 문제였다고 보는가?“준비금이 충분히 있었고, 준비금을 변동성 없는 자산으로 쌓았다면 안정적으로 알고리즘을 발전시켰을 수 있다고 판단한다.”-결정적 실수는 무엇이었다고 보는가? 비트코인 준비금 공개가 문제였나?“위 3가지가 문제였다고 본다.”“테라 지향점을 디파이로 바꿔 퇴사” -권도형 대표와 어떻게 만났나? 테라폼랩스를 창업 계기는? 권 대표에 대한 평가는?“소개로 만났다. 테라의 원래 목표는 결제 시장을 혁신하는 것이었다. 제가 이커머스 경력이 있었기에 블록체인을 활용해 보다 효율적인 지급결제 수단을 만들고자 했다. 권 대표는 매우 스마트하지만 독단적인 스타일이다.”-테라에서 퇴직한 이유는 무엇인가? 결제 기반 코인에 대한 생각이 권 대표와 달랐던 것인가?“결제 시장을 혁신하고자 테라 초기에 함께 했다. 결제 방향이 틀어졌고, 권 대표가 생각하는 DeFi(탈중앙금융) 방향에 동의하지 않았다.”-테라폼랩스에서 퇴직한 시점(2020년 3월)과 루나 설계 시점에 차이가 있나?“지급결제에 사용되기 어렵다고 판단한 뒤 테라에서 퇴사하게 됐고, 권도형 대표는 테라의 지향점을 DeFi (탈중앙 금융) 방향으로 바꿨다. 이후에 UST(테라 스테이블코인)를 출시했고, 다음 해에 Anchor(앵커 프로토콜)를 출시했다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>안철수 뜬 분당갑 '정치 1번지'로 떴다</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/053/0000031369?sid=100</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>지난 5월 9일 경기 성남시 분당구 삼평동 판교테크노밸리 일대. 오른쪽에 안랩 사옥이 보인다. photo 임화승 영상미디어 기자경기도 성남시 분당구 일부와 판교를 포함하는 분당갑 지역구가 들썩이고 있다. 신흥 부촌인 이 지역구 국회의원 보궐선거에 대선주자급 후보가 등장하면서다. 국민의힘은 분당갑 지역구 현역이었던 김은혜 전 의원이 경기도지사 선거에 출마하자 안철수 대통령직인수위원장을 6월 지방선거와 함께 치러지는 국회의원 보궐선거 후보로 내세웠다. 안 후보는 출마를 선언하면서 "안랩이 있는 분당은 제2의 고향"이라고 강조했다.안 후보는 이 지역에서 더불어민주당 후보인 김병관 전 의원과 맞붙는다. 김 후보 역시 게임업체 웹젠 대표 출신으로, 웹젠 사옥 역시 판교에 있다. 안철수 후보는 이에 대해 "저는 제 기술로 제가 기업을 창업했고, 김 후보는 투자자라는 차이점이 있다"고 했다. 그러자 김 후보는 "안철수 후보를 떴다방 정치투기꾼으로 규정한다"며 "분당 판교를 '안철수 컬렉션'에 올라가게 두지 않겠다"고 날을 세웠다.분당갑 지역구에서 주목받는 곳은 판교다. 안철수 후보가 창업한 회사인 안랩도 엄밀히 말해 판교에 있다. 행정동상으로는 분당 지역인 야탑·이매·서현에 판교 지역인 판교동·삼평동·운중동·백현동까지가 분당갑 지역구에 해당한다. '대장동 의혹'으로 유명해진 판교 대장동은 법정동상 개념이다. 분당에서 가장 면적이 넓은 행정구역인 운중동에 법정동인 대장동이 포함되어 있다.20만8000명의 유권자(2020년 기준)를 둔 분당갑 지역구는 전형적인 경기도 신도시의 특징을 보인다는 것이 정치권의 평가다. 국민의힘 한 전직 의원은 "보통 경기도 신도시 지역은 고학력 전문직이 많아 이슈에 따른 여론의 흔들림이 높다는 특성이 있다"고 말했다. 진영 논리가 아니라 그때그때 이슈에 따라 판단하는 경향이 강하다는 것이다. 다시 말해 유권자들이 어느 당 소속이라고 해서 쉽게 찍어주지 않는다는 설명이다. 국민의힘 한 관계자는 "분당은 2011년 손학규 대표를 제외하면 2016년 전까지는 보수가 강세를 기록해온 지역"이라고 말했다.분당 전체를 봐도 정치적 성향이 일치하지 않는다. 분당을 지역구의 현역 의원은 민주당 김병욱 의원으로, 분당갑이 국민의힘 김은혜 전 의원 지역구였던 것과 대조를 보인다. 김병욱 의원 역시 이번 지방선거 때 성남시장 출마설이 돌았지만 본인이 불출마 의사를 밝힌 바 있다. 2020년 총선에서 김은혜 의원이 당선될 때도 분당갑의 표심은 김은혜 50.06%, 김병관 49.34%로 불과 1128표 차이의 초접전이었다. 분당은 최근 10년간 재선의원도 없었다. 분당을 지역구의 민주당 김병욱 의원이 최근 10년간 첫 재선 의원이다. 다시 말해 그만큼 특정 인사가 뿌리깊게 독주하기 어려운 지역이라는 의미다. 재선 잘 허락하지 않는 지역구 최근 정치적으로 주목받는 분당갑 지역구는 경제적으로도 떠오르는 지역이다. 부동산 정보회사 부동산114에 따르면 지난해 7월 기준 수도권 모든 신도시를 통틀어 가장 평균 집값이 높은 지역이 분당갑에 해당하는 판교신도시다. 2기 신도시에 해당하는 이곳의 집값은3.3㎡당 시세(호가 기준)가 4598만원에 달했다. 판교보다는 집값이 싸지만 분당 역시 같은 조사에서 3.3㎡당 시세가 평균 3360만원에 달했다. 1기 신도시 중에서는 가장 높다.2020년대 들어 특히 판교와 분당이 떠오르는 이유는 무엇일까. 분당 토박이로 판교의 IT회사에 근무하는 30대 직장인 유모씨는 "분당이라는 도시의 생성 과정부터 봐야 한다"고 설명했다. 분당은 1기 신도시 중 가장 큰 데다 경부고속도로 때문에 강남 접근성도 좋다. 일산 등 다른 1기 신도시나 수원 광교, 화성 동탄에 비해서도 강남과 가깝다. 유씨는 "분당은 원래부터 강남 대치동이나 압구정 등에서 살던 사람들이 많이 넘어와서 학군이 발생했다"고 말했다. 학군이 좋기 때문에 학령기 자녀를 둔 부모의 주거 수요가 꾸준히 있었다는 설명이다.실제로 분당은 생성 초기부터 전국 단위로 학생을 모집하는 자립형사립고나 특수목적고가 없었고 대신 서현고·분당고 등 일반고들의 학업 성적이 높았다. 고교평준화 이후에는 위상이 이전보다 하락했지만 여전히 일반고 학군의 명성이 유지됐다. 유씨는 "특목고나 자사고는 전국 어디에서든 다 갈 수가 있었는데, 분당 일반고는 그런 게 없이 분당에 살아야 가는 곳이었다"며 "전체적으로 학군이 유지가 되다 보니 중학교 학군도 좋아졌고, 자연히 집값도 유지가 되고 소득수준이 높은 사람들이 몰려들었다"고 설명했다.판교에 사옥이 있는 IT회사에서 근무하는 한 소프트웨어 개발자 정모씨는 판교와 분당의 성장에 대해 "R&amp;D 클러스터(연구개발단지)의 중심인 데다 삼성도 가까우니 그런 것"이라고 설명했다. 그는 "소위 네카라쿠배당토(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스) 개발자들은 신입부터 연봉이 높다"며 "상위는 연봉 1억원은 쉽게 찍으니 다들 구매력이 높을 수밖에 없다"고 말했다. 특히 상대적으로 설립이 오래된 네이버와 카카오가 판교(카카오)와 분당(네이버)에 있었던 점을 주목해야 한다고 정씨는 설명했다. IT기업이라고 할 만한 곳이 지금처럼 많지 않았던 2010년 이전, 실력이 뛰어난 개발자들 중 상당수가 네이버와 카카오에 있었다. 그런데 시간이 흐르고 IT가 산업의 중심이 되면서 규모가 커졌고 땅이 부족한 판교를 넘어서 강남까지 오피스를 확장했다. 그래도 대부분의 뛰어난 개발자는 IT 중심지인 판교 출퇴근 범위 내에 살았을 것이라는 게 정씨의 추측이다. 그는 "요즘 실력이 뛰어난 개발자는 정말 구인난이다"라며 "잘하는 개발자들은 회사를 골라서 가는 판국이라 장소도 회사가 맞춰줄 수밖에 없다"고 말했다.상대적으로 비싼 분당갑의 집값은 지난 대선 때 그대로 표심으로 나타났다. 종합부동산세 강화의 여파가 가장 큰 요인으로 꼽혔다. 분당 전체를 기준으로 보면 지난 3월 치러진 제20대 대통령 선거에서는 국민의힘 윤석열 후보가 55%의 득표율로 42.3%를 기록한 민주당 이재명 후보를 상대로 무려 12.7%포인트 격차로 승리했다. 재선 성남시장에 경기도지사 기반을 가진 이 후보였지만 분당이 도저히 정치적 기반이라고 보기 어려울 정도의 표차였다. 국민의힘 관계자는 "이재명 민주당 상임고문이 이번에 분당갑 대신 인천 계양을에 출마한 것은 이 지역에서 도저히 이기기가 어렵다는 것을 스스로가 잘 알기 때문"이라고 설명했다.부동산 실책 심판한 표심 재현될까? 10년 전인 18대 대선 때도 새누리당 박근혜 후보가 새정치민주연합 문재인 후보를 분당 지역에서 이겼지만, 득표율 차이는 6.48%포인트에 불과했다. 이번 대선은 당시와 비교하면 더블스코어에 가까운 격차다. 이 같은 표차가 나온 결정적 원인은 문재인 정부의 부동산 실책과 종부세 강화 때문이라는 것이 정치권의 관측이다. 종부세 부과 대상은 1주택자의 경우 11억원(공시가격 기준), 다주택자는 1인당 합산금액 6억원 이상인데, 집값이 비싼 판교와 분당은 여기에 해당하는 주택이 많다. 앞서 언급한 개발자 정씨는 "판교·분당은 삼성(수원)과 SK하이닉스(이천)로 이어지는 곳 중 가장 학군이 좋은 곳이자 서울로 가는 길목"이라며 "앞으로도 이 지역의 성장세는 유지되지 않겠냐"고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>1억 가진 50~60대 “계좌이체는 뱅킹앱, 상품해지는 영업점에서”</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002275451?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>하나금융경영연구소 ‘뉴 시니어가 원하는 금융’ 보고서 ◆…하나금융경영연구소 제공     금융자산 1억원 이상 보유한 50~60대는 계좌이체 등 일상 업무를 뱅킹앱에서 이용하면서도 상품 해지나 대출 상담 등은 영업점에서 처리하는 것으로 나타났다.   하나금융경영연구소는 금융자산이 1억원을 넘는 만 50~64세(1957~1971년생)를 ‘뉴 시니어’로 정의하고 이 중 1000명을 설문해 작성한 ‘뉴 시니어가 원하는 금융’ 보고서를 19일 발표했다.   보고서에 따르면 뉴 시니어의 80% 이상이 금융거래 시 뱅킹앱/MTS 등 모바일 채널을 이용하는 것으로 나타났다.   인터넷뱅킹(76%)과 현금자동입출금기(ATM·72%)가 그 뒤를 이었으며, 영업점을 이용한다고 한 응답자는 49%였다. 영업점보다 모바일 채널을 이용한다고 답한 응답자가 1.7배 많았다.   다만 영업점에서 처리해야만 하는 업무가 있다고 답한 응답자도 78%에 달했다.   영업점 방문 필요 업무 1순위로는 상품 만기·해지 처리(31%)가 언급됐고, 현금·수표 입출금(20%), 대출 상담(20%), 예·적금 가입(19%), 고액 이체·송금(18%) 등이 뒤를 이었다.   뉴 시니어의 64%는 토스, 카카오페이 등 핀테크·빅테크에서 새롭 금융거래를 시작한 것으로 조사됐다. 이들은 ‘앱 이용이 편리해서(15.8%)’, ‘신규 서비스/기능이 마음에 들어서(9.1%)’라는 이유를 들었다.    ◆…하나금융경영연구소 제공     뉴 시니어들은 디지털 채널 내 ‘인적 서비스 연결 기능’이 반드시 필요하다고 인식했다. 디지털 채널 활성화를 위해 ‘원할 때 클릭 한 번으로 상담원과 쉽게 연결되는 기능(77.1%)’이 필요하다고 답했다. 뒤이어 심플한 화면(65.4%), 큰 글씨 화면(61.0%) 등이 언급됐다.   한편, 하나은행에서 뉴 시니어의 거래 규모는 전체의 1/3 이상을 차지했으며, 1인당 평균 거래액은 1억원 이상으로 40대 이하 고객보다 1.8배 높았다.   이들은 노후를 위한 금융상품을 선택할 때 ‘원금보장(56%)’, ‘정기적 수익 발생(55%)’을 최우선으로 생각했으며, 수익률 5∼6%를 기대한다는 응답이 가장 많았다.   현재 보유율 대비 향후 가입의향이 높은 상품은 파킹통장, 간접투자상품, 외화상품 등이었다. 뉴 시니어는 특히 간접투자상품 중 월 지급식 펀드와 주가지수연계펀드, ETF(상장지수펀드)에 큰 관심을 보였다.   윤선영 하나금융경영연구소 연구위원은 “금융시장에서 상당한 경제력을 갖추고 새로운 트렌드에 민감하게 반응하는 뉴 시니어의 위상은 더 확대될 전망”이라고 말했다.   이어 “다만 여전히 오프라인 서비스가 필요하다고 인식하고 있기에 금융회사들은 뉴 시니어의 금융거래 특징을 면밀히 이해하고, 기대에 부합하는 맞춤형 상품과 서비스를 제공할 필요가 있다”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.05.21.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>그리고 다시, 기업 문화…전략보다 더 강력한 문화의 힘</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060810?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>삼성 주도 10년 마무리하고 판교밸리로 중심축 이동[스페셜 리포트] 2022년 기업 문화 3.0시대 열린다경기도 성남시 분당구 판교테크노밸리 전경. 사진=이승재 기자“뭔가를 지키기 위해 일하는 ‘해군’이 아닌 자유롭고 공격적인 ‘해적’이 돼야 한다.”스티브 잡스 애플 창업자가 강조한 해적 문화는 애플이 혁신 제품을 만드는 원동력이 됐다. 구글의 모토는 ‘사악해지지 말자(Don’t be evil)’다. 나쁜 짓을 저지르지 않고도 돈을 벌 수 있다는 것을 보여주자는 의미다.사우스웨스트항공의 창업자 허브 켈러허 회장은 ‘펀(fun) 경영’으로 항공업계의 패러다임을 바꾸고 ‘사우스웨스트항공 조크’라는 용어까지 만들어 냈다. 켈러허 회장은 “유머는 조직의 화합을 위한 촉매제”라며 “일은 즐거워야 한다”고 했다.켈러허 회장은 출근할 때 회사 정문에서 집무실에 들어가기까지 직원들과 많은 대화를 하느라 점심때가 돼서야 집무실에 도착했다는 일화가 있다. 이 항공사는 1999년부터 일하기 좋은 기업(GWP)에 연속 선정됐다. 직장을 즐거운 곳으로 만들기 위한 리더의 노력과 직원들의 신뢰가 쌓인 결과였다.  스티브 잡스 ‘해군이 아닌 해적이 되자’성공하는 기업에는 ‘문화’가 있다. 기업 문화는 조직의 가치를 창출하는 원동력이자 구성원들의 사고와 행동 양식을 규정한다. 직무 만족도·애사심·일체감·응집력·몰입 등에 영향을 미치므로 조직의 성장과 발전에 매우 중요한 요소다. 4차 산업혁명의 시대에 새로운 변화의 변곡점을 만들지 않으면 지속적인 성장이 불가능하다.기업 문화의 대가 에드거 샤인은 “당신이 문화를 관리하지 않으면 문화가 당신을 관리할 것이다”라고 조직 문화의 중요성을 강조했다.기업 문화는 전략보다 더 강력한 힘을 발휘한다. 잘 갖춰진 문화는 기업 경쟁력의 원천인 인재 전쟁의 무기가 되고 경쟁사가 모방하기 어려운 차별적 경쟁 우위를 가져다준다. 잘나가는 기업들에서 독특한 기업 문화를 공통으로 찾아볼 수 있는 이유다.한국 기업들도 10여 년간 문화를 바꿔 오고 있다. 수직적 직급에 따른 상명하복식에서 최고경영자(CEO)까지 ‘님’으로 부르며 수평적 조직 문화를 지향하는 기업들이 부쩍 늘었다. ‘월화수목금금금’이라는 한국 기업들의 장점(?)을 버리고 워라밸(일과 삶의 균형)을 목표로 하는 것이 표준이 됐다.코로나19 사태가 가속화한 디지털 대전환의 패러다임 속에서 기업들은 생존 전략의 핵심 가운데 하나로 기업 문화를 인식하기 시작했다. 기업 문화는 이직률에도 상당한 영향을 미친다. 혁신적 문화가 조직 내 구성원의 참여를 높이고 이직률을 낮춘다는 연구 결과는 차고 넘친다.조직 성과에도 긍정적인 효과를 미친다. 글로벌 컨설팅 기업 헤이그룹에 따르면 재무적 성과의 약 30%가 조직 분위기에 의해 좌우된다.미국 캘리포니아 팔로알토의 삼성 익스피리언스 스토어. 사진=연합뉴스  삼성이 시작한 실리콘밸리식 혁신최근 10년간 한국의 기업 문화는 세 번의 큰 변곡점을 만났다. 판교테크노밸리 기업들의 부상, 코로나19 팬데믹(세계적 유행), MZ세대(밀레니얼+Z세대)의 유입이 맞물리면서 기업 문화에 변화의 물결이 몰아쳤다.그동안 한국의 기업 문화 혁신을 주도했던 것은 삼성이었다. 고 이건희 전 회장의 미래 지향적이고 도전적인 경영을 통해 삼성은 반도체·가전·스마트폰 등 주력 사업에서 세계적인 기업으로 도약했다.세계적 기업이 된 것은 삼성에 또 다른 숙제를 던져줬다. 삼성을 성공으로 이끈 ‘빠른 추격자 전략’이 더 이상 통하지 않게된 것. 더 이상 따라할 만한 기업이 없었다. 삼성 경영진의 판단은 관리·전략 중심의 문화를 창조적 문화로 바꾸는 것이었다. 호칭·직급·복장·보고서·회의 등 전 분야에서 혁신을 시도했다. 이건희 전 회장이 2014년 쓰러진 이후 삼성은 기업 문화 혁신에 더욱 몰두했다. 이재용 부회장은 ‘관리의 삼성’이라는 키워드로 대표되는 관료주의적 문화를 바꾸기 위해 수평적 리더십을 강조하는 ‘뉴삼성’을 본격화했다.그 일환으로 2016년 ‘스타트업 삼성 컬처 혁신’을 선포하고 실리콘밸리식 기업 문화 혁신을 시도하고 있다. 스타트업처럼 빠르게 실행하고 소통을 원활하게 하는 문화를 지향하면서 지속적으로 혁신하자는 의미에서다.권위를 나타내는 용어 대신 ‘프로’ 등의 호칭을 사용하기 시작했고 비효율적인 회의와 보고 문화를 개선하기 위해 ‘스피드 보고의 3대 원칙’을 실행했다.권오현 전 삼성전자 회장 등 당시 경영진이 내부 게시판에 “5년, 10년 뒤에도 삼성전자가 경쟁력 있는 기업으로 존재하고 있을지 장담하기 어렵다”는 글을 남기기도 했다. 급변하는 시대에 기존 기업 문화로는 삼성이 추구하는 ‘퍼스트 무버’가 될 수 없다는 위기의식 때문이었다.삼성은 2008년 보스턴컨설팅그룹(BCG)이 발표한 가장 혁신적인 기업 26위에 처음 선정된 이후 매년 상위권에 들고 있지만 애플·구글 등 세계 굴지의 정보기술(IT) 기업들에 비해선 여전히 관료주의적인 문화를 가지고 있다는 평가다.삼성이 이끄는 기업 문화 혁신에 복병이 나타난 것은 2010년대 중반이었다. 미국 실리콘밸리 기업 문화를 위시한 판교 기업들로 대표되는 스타트업, IT 기업들의 수평적 조직 문화가 4차 산업혁명 시대 경쟁력의 원천으로 주목받기 시작했다.기업 문화 변화의 중심축이 삼성에서 판교 IT 기업들로 바뀐 것이다. 네이버·카카오·엔씨소프트는 코로나19 확산에 따라 비대면 수혜 업종으로 성장 가도를 달렸다. 한때 카카오의 시가 총액이 재계 3위 현대차를 넘어서기도 했다.공정거래위원회의 2022년도 공시 대상 기업집단(대기업 집단) 자료에 따르면 카카오는 자산 총액이 지난해 19조9520억원에서 올해 32조2160억원으로 올라 기업 순위가 18위에서 15위로 3계단 상승했다.네이버는 자산 총액이 1년 새 13조5840억원에서 19조2200억원으로 늘어 27위에서 22위로 올랐다. 높은 연봉과 자유롭고 수평적인 조직 문화, 빠른 성장세에 힘입은 IT 기업들은 코로나19 사태를 거치며 취준생이 가장 취업하고 싶은 기업이자 직장인이 가장 이직하고 싶은 꿈의 기업으로 부상했다.특히 이들은 스톡옵션(주식 매수 선택권)이라는 강력한 보상 제도를 통해 더 파격적인 기업 문화를 구축해 나가기 시작했다. 원한다면 전면 재택근무를 할 수 있고 옷차림은 아무래도 상관없으며 테슬라 자동차 10대를 대여해 계열사 직원들이 자유롭게 쓸 수 있는 곳까지 생겨났다.IT 기업에선 능력만 있다면 30대에도 임원이 될 수 있다. 혁신 기업들은 최근 그 성장을 가속화하며 전통적인 산업과의 격차를 확대해 나가고 있다. 네카라쿠배당토직야(네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스·직방·야놀자) 등 IT업계가 단숨에 우수 인력을 흡수하는 인재 블랙홀로 떠오른 것은 당연한 일이었는지도 모른다. 최수연 네이버 대표. 사진=네이버 제공  코로나19·MZ세대 유입으로 변화 가속화새로운 라운드를 촉발한 것은 코로나19 팬데믹 시기와 맞물린다. 기업 내 주류로 부상한 MZ세대와 코로나19 사태가 기업 문화 변화에 영향을 미쳤다.MZ세대는 기존의 상명하복, 연공서열식 문화를 거부하고 자유롭고 수평적인 조직 문화를 추구한다. 회사보다 개인의 성장을 추구하며 가슴에 사직서를 품고 다니는 세대라고 할 정도로 ‘프로퇴사러(이직과 퇴사를 반복하는 사람)’가 보편화돼 있다.정년퇴직과 평생직장의 개념도 약해 기성세대가 승진과 높은 급여를 목표로 회사에 다니던 것과 달리 이들은 승진에도 연연하지 않고 개인의 성장과 워라밸 추구에 중점을 둔다.잡코리아·알바몬이 지난해 7월 20~30대 직장인 971명을 대상으로 조사한 결과 이들 중 60%는 불합리한 조직 문화를 경험하면 퇴사를 결심하는 것으로 나타났다. 그만큼 MZ세대를 담기 위한 기업 문화 구축이 중요하다는 의미다.MZ세대가 추구하는 다양성과 창의성은 기업의 핵심 역량이 되고 있다. 인구 구조 변화로 점점 조직 내 MZ세대의 비율이 높아지고 있어 기업들도 대응책 마련에 부심하고 있다.김영준 하나금융경영연구소 연구위원은 “기업은 MZ세대에게 회사에서의 자아실현이 가능한 ‘비전’을 제시할 필요가 있고 유연 근무제 일상화 등 새로운 근무 형태가 정착되기 위해서 경영진의 직원 신뢰와 직원의 책임감 있는 자세가 동시에 요구된다”고 말했다.조주완 LG전자 사장. 사진=LG전자 제공최근 기업들은 기업 문화 혁신에 속도를 내고 있다. 네이버의 최수연 대표는 ‘기업 문화 회복’을 최우선 과제로 꼽았다. 그 일환으로 네이버는 직원들에게 사무실 출근과 재택근무에 대한 선택권을 줬다. 직원이 업무에 몰입할 수 있다면 근무 장소와 방식은 중요하지 않다는 판단에서다.네이버는 오는 7월부터 사무실 출근과 원격 근무 중 하나를 선택하는 근무제도 ‘커넥티드 워크(Connected Work)’를 도입한다. 커넥티드 워크는 직원이 1주일에 3일 이상 사무실에 출근하는 타입 ‘O’와 원하는 장소에서 원격 근무할 수 있는 타입 ‘R’ 중 고를 수 있다. LG전자의 조주완 사장도 조직 문화 개선을 강조하고 있다. LG전자는 블라인드 기업 평점에서 2.1점을 받았다. LG전자 임직원들이 직접 평가한 내용으로, 5대 그룹 중 가장 낮은 수준에 속한다.조 사장은 5월 3일 임직원들과 온라인으로 소통하는 자리를 열고 직원들의 불만을 구체적으로 공개했다. ‘우리 회사는 엉덩이가 큰 공룡처럼 앉아 있다’, ‘1주일 내내 회의용 보고장 표만 만든 적도 있다’, ‘위로 갈수록 잘 듣지 않는 것 같아 소통이 어렵다’ 등이었다. 조 사장은 이를 개선할 11개의 가이드라인을 제시했다. 구체적으로 ‘꽉 막힌 소통은 LG전자의 손상 원인이 된다’, ‘보고의 군살을 빼고 행동의 근육을 키우자’ 등 자유로운 소통을 강조한 내용이 대부분이다. 삼성전자 CEO들도 소통에 나서고 있다. 경계현 삼성전자 반도체(DS) 부문장(사장)은 지난해 12월 개설한 사내 프로그램 ‘위톡’을 통해 매주 수요일마다 구성원과 만나고 있다. 유영상 SK텔레콤 CEO는 지난 4월 임직원과 타운홀 미팅을 열고 수평적 소통 문화를 만들겠다고 약속했다. 구현모 KT CEO는 취임 이후 2030 직원이 역량을 펼칠 수 있는 기업 문화를 조성하기 위해 ‘Y컬처팀’을 출범하는 등 조직 혁신에 힘을 기울이고 있다.이런 노력과 함께 기업들의 인사 관리 방식에도 변화가 필요하다는 지적이다. 김기찬 가톨릭대 경영학부 교수는 “MZ세대 직원들에게는 목적을 통해 동기를 부여하는 것이 중요하다”며 “지시의 전략이 아닌 공감으로 기업 문화를 바꿔야 한다”고 말했다.김 교수는 “인력 관리가 인풋(input)에서 아웃풋(output) 중심으로 바뀌면서 팀원들의 업무 진도와 아웃풋을 매일 평가할 수 있는 팀장의 역할이 중요해졌다”며 “팀장이 1주일에 한 번씩은 구성원들과 면담을 통해 업무 진도를 평가하고 코칭과 멘토링으로 부하 직원을 육성하고 성과 창출을 돕는 아웃풋 경영이 필요하다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>토스앱으로 악성앱 탐지…하루 550명 피싱 피해 막았다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000286544?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[(자료: 토스)]모바일 금융플랫폼 토스는 지난달 토스의 악성 앱 탐지 기능을 통해 하루 평균 550여명의 피싱 피해를 막았다고 오늘(18일) 밝혔습니다.토스 앱에는 악성 앱을 탐지하는 기능이 탑재돼 있습니다. 사용자가 토스앱을 실행하는 순간 단말기에 설치된 앱을 점검하고, 악성 앱이 발견될 경우 해당 앱을 삭제하도록 안내 메시지가 나옵니다. 위험도가 높은 경우 악성 앱을 삭제하지 않으면 토스 앱도 사용할 수 없도록 되어 있습니다.토스 관계자는 "지난 한 달간 토스의 악성 앱 탐지 기능을 통해 탐지된 악성 앱은 18만9000건에 달한 것으로 집계됐다"며 "이를 통해 1만6000여명, 하루 평균 550명의 보이스피싱 피해를 막은 것으로 분석됐다"고 말했습니다.토스의 악성앱 탐지 기능은 화이트해커로 구성된 토스의 시큐리티테크팀이 개발을 맡았습니다. 다년간 보안 취약점 점검과 모의해킹을 수행한 해킹 및 보안 전문가들로, 변이된 신종 악성 앱의 실시간 탐지를 위해 '악성 앱 분석 자동화 시스템'을 활용 중입니다.자체 개발한 이상행위탐지시스템(FDS)과 연계해 보이스피싱이 의심되는 경우 전담 모니터링 요원이 고객과 먼저 통화해 상황을 점검하고 있습니다. 토스는 매일 새로운 악성 앱을 데이터베이스(DB)에 업데이트 하고 있으며, 최근 추가된 악성 앱만 6000종이 넘습니다.토스 관계자는 "피싱은 대부분 문자 또는 메신저를 통해 스마트폰 사용이 미숙한 중장년층을 위주로 하고 있다"며 "원격제어 앱 또는 악성 앱을 설치하도록 유도하고 이런 앱들은 은행앱, 백신앱, 소상공인 대출앱 등으로 위장하고 있다"고 설명했습니다.설치 즉시 단말기의 전화번호부와 통화내역, 문자메시지 내용이 모두 유출되는 방식입니다. 따라서 악성 앱이 설치된 경우 토스 앱을 실행해 악성 앱을 제거하거나 플레이스토어 등 정식 앱 배포 채널에서 백신프로그램을 내려받아 바이러스를 검사한 뒤 악성 앱을 삭제해야 합니다.이종호 토스 시큐리티테크팀 리더는 "외부 백신을 별도로 설치하는 다른 금융앱과 달리 토스는 악성 앱 탐지 내재화를 통해 매일 새롭게 만들어지는 악성 앱에 실시간으로 대응하고 있다"며 "고객센터에서도 악성 앱의 위험도에 따라 정확한 대처를 안내할 수 있는 것이 장점"이라고 전했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>'기울어진 운동장' 해결될까… '페이 수수료' 공시 첫발</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000814857?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>금융당국이 간편결제 수수료의 투명성을 높이기 위해 수수료 공시를 추진한다./사진=이미지투데이 금융당국이 간편결제 수수료의 투명성을 높이기 위해 수수료 공시를 추진한다. 앞으로 네이버파이낸셜, 카카오페이, 토스 등 빅테크들은 간편결제 서비스의 수수료율을 매년 두 차례 공시해야 한다.19일 금융감독원은 '결제수수료 공시 작업반 TF(태스크포스)'를 구성하고 첫 회의를 진행했다. 자리에는 핀테크산업협회, 한국인터넷기업협회를 비롯해 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스), 롯데멤버스, 우아한형제들 등이 참석했다.그동안 빅테크 등 전자금융업자의 간편결제 수수료는 카드사보다 높아 소상공인에게 부담이 된다는 지적이 있었다. 특히 카드 수수료는 금융당국의 관리 아래 지난 2007년 이후 지속적으로 인하된 반면 빅테크 간편결제 수수료는 상대적으로 관리감독이 부족하다는 목소리도 있었다. 여기에 지난해 말 카드수수료 개편방안에 따라 1월 31일부터 영세·중소 카드 가맹점의 우대수수료율은 기존 0.8∼1.6%에서 0.5∼1.5%로 한 차례 더 인하됐다.이에 네이버파이낸셜, 카카오페이 등은 같은 날부터 영세·중소 가맹점을 대상으로 수수료를 낮췄다. 정부가 카드 수수료를 인하하며 소상공인의 부담을 낮춘 만큼 정책에 발 맞추기 위해서다. 네이버파이낸셜은 영세 사업자 대상 네이버페이 수수료를 0.2%포인트, 중소 사업자는 규모에 따라 0.05~0.15%포인트 인하, 카카오페이는 온라인 카드 결제 수수료를 영세 가맹점은 0.3%포인트, 중소 가맹점은 0.1~0.2%포인트 낮췄다.빅테크들은 간편결제 수수료와 신용카드 수수료는 구조적으로 달라 동일선상에서 비교할 수 없는데다 소상공인과 상생하기 위한 다양한 지원책을 내놓고 있다는 주장이다. 하지만 카드업계에선 빅테크들과 동일규제가 적용되어야 한다는 지적이 이어져 왔다.금감원은 간편결제 수수료의 투명성을 제고하기 위해서 가이드라인을 마련하고 수수료 공시를 추진할 예정이다. 금감원의 행정지도로 추진되는 가이드라인엔 수수료를 합리적인 근거에 따라 산출하도록 하는 등 기본 원칙을 제시하도록 하고 가맹점 수수료를 결제관련 수수료와 기타 결제 수수료(일반 상거래 관련)로 구분해 수취·관리하도록 한다. 아울러 공시서식에 따라 작성한 수수료율을 업체 홈페이지에 반기 단위로 공시하도록 하는 내용이 포함됐다.금감원 관계자는 "이번 첫 회의에서 제기된 의견을 중심으로 보완방안 마련 등을 위한 추가 실무회의를 수시로 진행하고 관계 부처 및 업계와 충분한 논의를 거쳐 연내 최종 공시 방안을 확정할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.05.28.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>KAIST 출신들이 만든 '팀매칭 배달앱', 배달비 0원 시대 연다</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004751970?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[편집자주] 벤처·스타트업 투자흐름을 쫓아가면 미래산업과 기업들에 대한 인사이트를 얻을 수 있습니다. 한 주간 발생한 벤처·스타트업 투자건수 중 가장 주목받은 사례를 집중 분석합니다.[[이주의 핫딜]배달비 없는 배달 앱 '두잇', 26억 투자 유치, 팀매칭 알고리즘으로 배달비 절감]"피자가 2만원인데 배달비가 5000원이면 너무 심하잖아요." 배달의민족, 요기요, 쿠팡이츠와 같은 3대 배달 앱(애플리케이션)을 쓰는 소비자들은 배달비 부담이 크다고 호소한다.  계속 치솟는 물가에 주머니 사정이 더욱 팍팍해지고 있어서다. 실제로 소비자물가지수는 수개월째 가파른 우상향 그래프를 그린다. 이럴 때 쓸데없는 지출을 최대한 줄이기 마련인 데 배달앱을 이용할 때 함께 내는 배달비는 '가장 아까운 항목'에 해당한다. 온라인 설문조사 업체 오픈서베이가 지난달 발표한 내용을 보면 소비자의 76.3%는 배달비가 저렴한 메뉴(옵션)를 선호하는 것으로 나타났다.  이런 가운데  '배달비가 없는 배달앱'이 해결사처럼 등장해 이목을 끈다. 지난 25일  해시드, 비디씨엑셀러레이터 등으로부터 26억원의 시드 투자를 유치한 초기 스타트업 '두잇'이다. 앱 출시 1개월만에 이미 80%가 넘는 월 재주문율과 주 30% 이상의 성장세를 나타내고 있다. 플레이스토어 등 앱 마켓에 등록된 리뷰에서도 후환 점수와 함께 호평이 줄 잇는다. 기존 배달앱들이 벌써부터 긴장하는 분위기다.  ━배달비 0원, 어떻게 가능한가━두잇 서비스는 근처 이웃의 배달음식 수요를 실시간으로 파악하고 묶어 배달 동선을 최적화하는 방식으로 배달비를 절약한다.  일단 앱을 통해 3인 이상 팀주문이 성사되면 해당 매장에 주문이 전달된다. 이후 조리가 완료되면 라이더가 일괄 픽업해 팀 구매자 각각의 주소로 순차 배달하는 형태다. 이런 경우 배달 시간이 더 오래 걸리지 않을까라는 걱정이 따르지만 해당 앱 평가를 살펴보면 3대 배달앱 속도와 견줘볼 때 비슷하거나 빨랐다는 사용기가 더 많다. '최소 주문금액'이 없다는 점도 이점이다. 하지만 아직 이용자가 많지 않아 20분간 팀매칭 대기시간이 적용된다는 점, 같은 주문이 들어오지 않을 경우, 팀매칭에 실패해 주문체결이 안 될 수도 있다.  두잇 서비스는 서울 관악구 일부 지역에 한정돼 있다. 이번 투자금은 서비스 지역 확장에 쓴다는 계획이다. 두잇에 따르면 하반기 서비스 지역을 수도권 전역으로 넓힌 뒤 내년 상반기 내 서울, 수도권 배달앱 점유율 1위를 차지하겠다는 복안이다.  두잇은 또 입점 매장 확대를 위해 타 배달음식 업체에 비해 저렴한 수수료율을 제공하고 있다고 밝혔다.  이 서비스를 미리 이용해본 소비자들은 주문 취소가 불가능하고 초기 앱이라 UI(사용자환경)가 직관적이지 못하다는 점을 개선점으로 꼽았다. 전문가들은 두잇은 단기간 가입매장과 이용자를 최대로 늘려야만 해당 서비스의 안정성·연속성을 확보할 수 있다는 분석을 내놨다. ━5년뒤 더 커질 배달앱 시장, "비효율 개선에 승부 달렸다" ━이윤석 두잇 대표는 "팀 주문을 통해 배송 효율을 높이는 게 핵심으로 사람들의 주문을 이어주는 매개체 역할을 앱이 하고, 그 속에서 네트워크 규모가 점차 커짐에 따라 이용자가 얻게 되는 효과도 더 커지는 '네트워크 효과'를 통해 서비스를 풀어나가고 있다"고 설명했다.   또 "코로나19로 배달앱이 큰 성장을 이뤘고 배달음식을 시켜 먹는 생활패턴이 이젠 자리를 잡으면서 이 시장은 5년 뒤에는 더 커질 것으로 보인다"며 "결국 시장 승부수는 너무 많은 비효율을 얼마나 개선할 수 있는가에 달려있다"고 덧붙였다.  해시드, 비디씨엑셀러레이터 관계자는 "배달비가 너무 높아 먹고 싶은 음식을 시키지 못할 때가 더러 있고 배달비까지 고려하면서 메뉴를 선택하다 보면 생각보다 많은 시간이 들어 스트레스를 받은 경험을 누구나 한번쯤 했을 것"이라며 "1인 가구 위주의 자취생 중심으로 서비스가 빠르게 확산되고 있다는 점,  입점 업체를 많이 확보할수록 서비스가 더 견고해진다는 점, 초기 스타트업이지만 카이스트(KAIST) 출신 개발자들로 팀이 이뤄져 미션 수행능력이 우수하고 빠르다는 점 등을 종합적으로 고려해 투자를 결정하게 됐다"고 전했다. 두잇은 KAIST, 쿠팡, 토스 PO 출신의 대표와 KAIST, 과학고 출신 IT 개발자 5명이 공동창업했다.  [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>오늘의집, '제1회 캠핑페어' 오픈…최대 71% 할인</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003018599?sid=101</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>오늘의집은 다양한 캠핑 아이템을 초특가 혜택으로 제공하는 '제1회 캠핑 페어'를 실시한다고 23일 밝혔다. 다음달 19일까지 총 300여 곳 브랜드의 800여 개 상품을 최대 71% 할인한다.오늘의집은 인테리어를 넘어 일상과 관련된 다양한 라이프스타일 카테고리의 서비스를 선보이고 있다. 캠핑도 그 중 하나로 오늘의집에는 사진, 집들이, 노하우 등 고객들이 직접 업로드한 캠핑 콘텐츠가 가득하다. 스토어 내 캠핑용품 카테고리를 통한 캠핑 용품 구매까지 한 번에 가능하다.이번 제1회 캠핑페어는 고객의 쇼핑 편의를 위해 '특별세일관', '캠핑입문관', '전문캠퍼관'의 3개의 전시장으로 나뉘어 있어 고객들이 자신에 맞는 유형에서 필요한 상품을 쉽고 빠르게 구매할 수 있다.오늘의집은 제1회 캠핑페어 오픈을 기념해 카드사 및 간편결제 혜택을 제공한다. 캠핑페어 기간 중 신한카드를 통해 15만원 이상 상품을 구매할 경우 최대 3만원 한도 내에서 7% 추가 할인이 적용된다. 이외에도 카카오페이 이용 시 최대 3만원 즉시 할인, 토스페이 이용 시 최대 7% 즉시 할인 혜택이 주어진다.오늘의집 관계자는 “캠핑을 즐기는 고객이 오늘의집을 통해 좋은 상품을 저렴한 가격에 구매하실 수 있도록 이번 캠핑페어를 준비했다”며 “앞으로도 캠핑뿐만 아니라 고객 라이프스타일에 맞춘 다양한 상품 기획전과 서비스를 통해 고객들에게 차별화된 경험을 제공하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>삼정KPMG "빅테크, 독과점·금융안정성·소비자보호 주요 과제"</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005216736?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>'빅테크를 통해 바라본 디지털 금융의 방향' 보고서 발간[이데일리 김소연 기자] 금융생태계의 빅블러(Big Blur) 현상이 가속화되며 빅테크 기업들은 독과점, 금융안정성, 소비자보호 등에 따른 규제가 주요 과제로 떠올랐다. 이에 빅테크 기업들이 규제를 준수하며 소비자 보호·불완전판매·금융상품 중개-대리인에 대한 관리감독 등을 철저히 해야 한다는 조언이다.삼정KPMG가 16일 발간한 보고서 ‘빅테크를 통해 바라본 디지털 금융의 방향’에 따르면, 코로나19 발발 이후(2020년 1월~2022년 3월) 구글(62.1%)과 애플(30.5%) 등 미국의 주요 빅테크 기업의 주가 상승률은 나스닥(11.1%)을 훨씬 웃돌았다. 카카오(035720)(249.2%)와 네이버(035420)(86.0%)도 코스피 상승률(24.6%)을 뛰어넘으며 빅테크가 주가 및 비즈니스 차별화를 이끄는 양상이다.자료=삼정KPMG최근 글로벌 주요 빅테크의 금융업 관련 행보를 살펴보면 아마존과 애플은 페이먼트 사업을 중심으로 금융서비스를 강화하고 있으며, 구글과 메타는 기존 금융사와 협업을 유지하며 규제에 발맞춰 사업 전략을 변경하고 있다. 국내에서는 네이버가 네이버플러스 멤버십과 연계된 서비스로 원스톱 플랫폼을 구축하고 있으며, 카카오는 카카오뱅크·카카오페이 등 라이선스 확보를 통해 금융 고객에게 직접 침투하고 있다. 토스는 국내 제3호 인터넷전문은행 토스뱅크를 출범하면서 원앱 전략을 선보이고 있다.다만 보고서는 빅테크 및 핀테크가 금융업 내 혁신과 편의성을 제고했다는 긍정적 평가와 동시에 독과점, 금융안정성, 데이터 이동 및 소비자보호 등에 관한 우려를 짚었다. 빅테크의 영향력 증대로 예금자보호제도가 적용되지 않는 금융상품 리스크와 데이터 독과점 등이 부각되면서 미국·EU 등에서는 빅테크에 대한 규제를 정비 중이다. 국내에서도 금융 분야 빅테크 그룹에 대한 규율 체계를 합리적으로 재정비할 계획을 마련하고 있다. 이에 따라 삼정KPMG는 보고서를 통해 금융사는 엄격한 건전성 규제를 준수하면서 소비자 프라이버시 보호, 불완전 판매 및 금융상품 중개-대리인에 대한 관리 및 감독을 철저히 해야 한다고 강조했다. 또 축적된 금융 노하우와 디지털·플랫폼 역량 강화를 통해 자동차·헬스케어 등 비금융 플랫폼으로의 진출과 디지털 신사업 전략을 재정비해야 한다고 조언했다.금융당국은 디지털 혁신과 금융정책 목표간 균형을 찾으면서 디지털 금융에 맞춘 규제 패러다임의 전환 모색이 필요하다는 설명이다. 또 빅테크의 비즈니스 모델에 대한 이해와 잠재적 리스크를 파악해 국내외 관련 기관과의 협력 및 공동 대응이 필요하며, 금융산업 발전과 금융소비자 효익 증대를 위한 적절한 정책 및 규제 검토가 중요하다고 제언했다.삼정KPMG 핀테크 리더 조재박 전무는 “빅테크는 제도권 플레이어로 성장한만큼 소비자보호 및 중장기 리스크 관리를 강화하면서 금융 혁신을 지속해야 한다. 기존 금융사는 상품 제조 역량 차별화 외에 고객 접점을 지속적으로 확보하기 위한 제휴 및 투자, 온라인과 오프라인 역량을 결합해 고객에게 자산, 현금흐름, 건강 및 리스크 보장의 최적 균형점을 제시하는 역할을 할 필요가 있다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>[신기업가정신 선포]친환경경영 등 5대 명제…선언 넘어 실천에 방점</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003018917?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>신기업가정신협의회 기업선언문신기업가정신협의회(ERT)는 시대 변화에 따른 기업의 사회적 역할을 고민하며 출발했다. 디지털 전환과 기후변화, 인구절벽, 사회구성원의 행복 추구 등 시대 과제를 해결하고 지속가능한 공동체를 만들기 위해 기업의 역할을 재정의한다는 취지다. 대한민국이 직면한 문제를 기업의 기술과 문화, 아이디어 등으로 풀어내겠다는 뜻을 모았다.이 같은 의지를 담은 기업선언문은 △경제적 가치 제고 △윤리적 가치 제고 △기업문화 향상 △친환경 경영 △지역사회와 상생 5대 실천 명제로 구성됐다. 삼성전자·현대차 등 대기업과 우아한형제들·마켓컬리·토스 등 벤처기업, 미래에셋증권·기업은행 등 금융권과 한국경영자총협회 등 경제단체까지 현재 76명 기업인이 서명했다.ERT는 '한국판 비즈니스라운드테이블(BRT)'로 여겨진다. BRT는 미국 매출 기준 상위 200대 최고경영자(CEO)가 참여하는 협의체로 전미제조업협회, 미국상공회의소와 함께 3대 경제단체로 꼽힌다. 2019년 발표한 '기업의 목적' 공동선언에는 제프 베이조스 아마존 창업자, 팀 쿡 애플 CEO 등 기업인 181명이 참여했다. 공동선언은 기업 경영 방침을 주주 중심에서 모든 사회구성원을 가리키는 이해관계자 중심으로 선회한다는 내용을 담았다.BRT가 대기업 위주로 구성됐다면 ERT는 주요 대기업뿐만 아니라 벤처, 중소기업, 금융권 등 경제계 전체를 아우른다. 대기업 중심 이익 편중과 중소 협력사 경영난 등 양극화 문제도 해소할 것으로 기대된다.앞서 BRT 공동선언은 '주주중심주의'에서 '이해관계자 중심주의' 전환 내용을 담아 고객 가치 제공을 이야기했다. ERT 선언은 최근 확산하는 환경·사회·지배구조(ESG)를 기반으로 구체적인 액션플랜을 논의한다.우태희 대한상의 상근부회장은 “신기업가정신 선포가 일회성 선언에 그치는 것이 아니라 기업 기술과 문화로 각종 사회 문제를 해결하고 지역사회와 상생할 수 있도록 구체적 실천과제를 수립, 이행할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>토스·두나무·컬리, ETF로 직접투자</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001991221?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>KB운용, 테마형ETF 2종 출시KB자산운용은 16일 ‘KBSTAR Fn창업투자회사 ETF’와 ‘KBSTAR Fn플랫폼테마 ETF’ 등 테마형 상장지수펀드(ETF) 2종을 출시했다.‘KBSTAR Fn창업투자회사 ETF’의 추종지수인 ‘FnGuide창업투자회사지수’는 국내 상장 창업투자회사 14종목으로 구성되어 있다. 우리기술투자 15.3%, SBI인베스트먼트 11.4%, 아주IB투자 10.6%, 미래에셋벤쳐투자 10.3%, 에이티넘인베스트 9.1% 등이다.KB자산운용 측은 “토스, 두나무, 컬리, 무신사 등 비상장 기업에 직접 투자하는 것은 높은 수익을 기대할 수 있는 반면, 리스크가 크고 높은 비용을 수반한다”며 “창업투자회사에 선별적으로 투자한다면 비상장 기업 투자에 따른 리스크를 우회할 수 있다”고 설명했다. 양대근 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>‘뉴시니어’ 64% 카카오페이・토스뱅크 신규 가입</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002605163?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>하나금융경영연구소, ‘뉴시니어가 원하는 금융’ 보고서 발간ⓒ 하나금융경영연구소[데일리안 = 이호연 기자] 금융시장에서 경제력이 큰 ‘뉴시니어’ 열 명 중 6명이 최근 1년 이내 카카오페이와 토스뱅크 등의 빅테크를 이용한 것으로 나타났다. 이들은 뱅킹앱을 주로 이용하지만 영업점 방문도 ‘필수’로 여겼다.하나금융경영연구소는 ‘뉴시니어가 원하는 금융’ 보고서를 19일 발간했다고 밝혔다. ‘뉴시니어’는 1957~1971년생 중 1억원 이상 금융자산을 보유하는 이들을 뜻한다. 하나은행이 이들을 분석한 결과 뉴시니어의 거래 규모는 전체 거래액의 절반을 넘었고, 만50-64세의 거래규모는 전체의 1/3 이상이었다. 50대 이상 고객의 1인당 평균 거래액은 1억원 이상으로 40대 이하 고객 대비 1.8배 높았다.뉴시니어는 디지털 채널 이용에도 어려움을 느끼지 않았다. 이들 10명 중 9명은 온라인 쇼핑, 유튜브 시청, 키오스크 주문 등 일상생활에서 다른 사람의 도움 없이도 디지털 채널을 이용할 수 있다고 응답했다.금융거래 시 이용하는 채널(최근 6개월 기준)은 ‘뱅킹앱’이 83.3%로 가장 높았고 인터넷뱅킹이 75.8%로 그 뒤를 이었다. 영업점은 49.3%를 차지했다.또 이들의 64%는 최근 1년 내 새롭게 거래를 시작한 금융기관이 있다고 응답했는데 ‘토스’, ‘토스뱅크’, ‘카카오페이’와 같은 핀테크·빅테크 기관이 상위권을 차지했다. 해당기관과 거래를 시작한 이유는 ‘앱 이용이 편리해서’라는 응답이 15.8%로 금융 수익이 우수해서(14.4%)라는 응답보다 더 높았다. 신규 서비스/기능이 마음에 들어서(9.1%)라는 응답이 뒤를 이었다.하지만 이들의 78%는 ‘반드시 영업점을 방문해서 처리해야하는 업무가 있다’고도 답했다. ‘상품 만기/해지’, ‘현금/수표 입출금’, ‘대출 상담/가입’ 등의 업무다. 영업점은 디지털 채널보다 일상적 활용은 낮아도 뉴시니어에게 여전히 중요한 채널로 인식되고 있다는 분석이다.향후 뉴시니어의 디지털 채널 활용을 높이기 위해 반드시 필요하다고 응답(복수응답)한 요건은 ‘원할 때 클릭 한번으로 상담원과 쉽게 연결되는 기능(77.1%)’이었다. 주요 메뉴만 모아둔 심플한 화면(65.4%), 위험결제 제한 기능(64.5%), 큰 글씨 화면(61.0%) 등의 답변도 눈에 띄었다.또 뉴시니어가 금융상품을 선택할 때는 '원금 보장(55.7%)' 및 '정기적 수익 발생(55.3%)'을 고려했다. '높은 수익성(39.7%)'을 고려한다는 내용은 상대적으로 낮은 응답률을 기록했다. 이 외 '현금화 인출 용이성(34.5%)'도 중요하다고 봤다. 기대하는 금융상품 수익률은 ‘5~6%’를 선호하는 것으로 집계됐다.금융시장에서 상당한 경제력을 갖추고 새로운 트렌드에 민감히 반응하는 뉴시니어의 위상은 앞으로 더 확대될 전망이다. 하나금융경영연구소 윤선영 연구위원은 “뉴시니어가 디지털 금융의 전환에도 큰 거부감 없이 적응하고 경제적 혜택보다 채널 편리성 및 신규 서비스를 우선시하므로 향후 더 다양하고 적극적인 금융생활이 예상된다”고 내다봤다.이어 “여전히 오프라인·인적 서비스에 대한 필요를 크게 인식하므로 금융회사들은 뉴시니어의 금융거래 특징 및 기대에 대한 함의를 면밀히 이해하고 기대에 부합하는 맞춤형 상품과서비스를 제공할 필요가 있다”고 제언했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>국민비서 ‘구삐’에서 지식재산권 24시간 챗봇 상담 ?</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004054086?sid=102</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>행안부-특허청, 10개 분야 2만여개 DB 구축국민비서 서비스 ‘구삐’ 챗봇 서비스 안내 화면. 자료 제공=행정안전부[서울경제] 행정안전부는 특허청과 협업해 17일부터 국민비서 구삐의 채팅로봇(챗봇)으로 지식재산권 출원, 심사, 등록, 수수료 등에 대한 상담 서비스를 24시간 제공한다고 16일 밝혔다.이에 따라 그간 공무원 업무시간에만 가능했던 지식재산권과 관련된 상담 서비스를 시간 제약 없이 상담을 받을 수 있게 됐다. 국민비서 캐릭터 구삐는 정부가 국민이 필요한 행정정보를 알려주고 궁금한 사항을 채팅로봇으로 상담해주는 온라인 서비스다. 지식재산권과 관련해 챗봇 상담 서비스를 받으려면 특허고객상담센터 사이트 나 국민비서 챗봇 사이트에 접속하면 된다. 대화창에 질문을 하면 가장 적합한 답변을 찾아준다. 이를 위해 행안부와 특허청은 지식재산권 출원 신청·심사·등록·심판·수수료 등 10개 분야에서 2만여개의 데이터베이스를 구축했다.현재 구삐는 챗봇 서비스를 통해 현재 전자통관, 자연휴양림, 민원사무안내, 개인정보보호, 사이버범죄 등 12종의 행정 분야에 대한 상담을 제공 중이다. 챗봇을 이용하면 인터넷이나 모바일로 언제 어디서든지 민원상담을 받을 수 있다.구삐는 챗봇 상담 서비스뿐 아니라 국민이 자주 이용하는 민간 앱(네이버·카카오톡·토스) 등에서 개인 맞춤형 알림 서비스도 제공하고 있다. 놓치기 쉬운 교통 과태료·범칙금 납부 기한 등의 개인별 생활정보, 백신접종 안내 등에 대한 알림 서비스를 제공한다.이세영 행안부 공공지능정책과장은 “올해 6월경에는 국민콜110, 운전면허·교통안전교육 등에 대한 상담을 추가로 제공하는 등 챗봇 상담 서비스를 확대하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>구직자 10명 중 7명 "스타트업 취업도 좋아"...이유는?</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002257225?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>높은 성장성·수평적이고 자율적인 문화 등 선호구직자와 직장인 절반이상이 스타트업 기업의 취업에 긍정적인 것으로 나타났다. 특히 이들은 스타트업 취업의 장점으로 기업의 높은 성장 가능성과 수평적이고 자율적인 기업문화를 꼽았다.취업 플랫폼 잡코리아(대표 윤병준)는 구직자와 직장인 1천63명을 대상으로 ‘스타트업 기업의 취업(이직) 의향’에 대해 설문조사를 진행했다. 그 결과 전체 응답자 10명중 7명에 달하는 72.3%가 '스타트업 기업에 취업(이직)할 의향이 있다'고 답했다.이들은 스타트업 기업에 취업(이직)할 의향이 있다고 답한 이유 1위로 '기업의 높은 성장 가능성'을 꼽았다. 복수응답으로 조사한 결과 '기업의 성장 가능성이 높아 보여서' 스타트업 기업에 취업할 의향이 있다는 응답자가 52.9%(응답률)로 가장 많았다. 이어 '일하면서 배울 점이 많을 것 같아서' 스타트업 기업에 취업할 의향이 있다는 응답자도 35.0%로 다음으로 많았다. 다음으로는 '직원 복지제도가 우수해서(29.5%)', '수평적인 조직문화를 갖고 있을 것 같아서(27.2%)', '연봉 수준이 높을 것 같아서(19.5%)'순으로 답변이 높았다.스타트업 취업 의향 설문 결과(제공=잡코리아)직장인과 구직자들은 '스타트업 취업의 가장 큰 장점(메리트)'도 '기업의 높은 성장 가능성'이라 답했다. 이어 수평적이고 자율적인 문화와 다양한 직원 복지제도가 스타트업 기업의 메리트라 답한 응답자가 많았다.조사결과 '기업의 높은 성장 가능성'이 응답률 43.7%로 가장 높았고, 이어 ▲수평적인 조직문화(38.0%) ▲자율적인 기업문화(30.1%) ▲다양한 직원 복지제도(26.6%) ▲직원 개인 역량의 발전 가능성(24.6%) 순으로 스타트업 기업 취업의 장점을 꼽았다.잡코리아 관계자는 “성장 가능성이 높은 사업 비전과 수평적이고 자율적인 기업문화를 갖춘 스타트업 기업에 대한 직장인과 구직자들의 관심이 높은 것으로 보인다”며 “특히 자율적인 문화가 반영된 이색 복지제도를 펼치는 스타트업 기업들이 나타나고 있는데 이는 인재 영입과 유지를 위해 긍정적인 효과를 내고 있는 것으로 보인다”고 설명했다.직장인과 구직자들에게 '가장 혜택을 받고 싶은 복지제도'에 대해 복수응답으로 조사한 결과 '주4일근무제'를 꼽은 응답자가 29.0%로 가장 많았다. 다음으로 '유연근무제'가 응답률 26.8%로 많았고, 이어 ▲재택근무제(20.8%) ▲교통비/유류비 지원(17.7%) ▲본인/자녀 교육비 지원(15.9%) ▲스톡옵션 제도(14.3%) 순으로 답변이 높았다.실제 스타트업 중에는 다수의 기업이 '주4일제'와 '주4.5일제'를 운영하고 있다. 배달의민족을 운영하는 우아한형제들은 주4일제를 운영하고 있고 애슬레저 스타트업 뮬라도 주4일근무제를 운영하고 있다. 토스앱을 운영하는 비바리퍼블리카와 숙박앱 여기어때는 주4.5일제를 운영하고 있다. 주4일제를 운영하는 기업들은 근무시간을 효율적으로 사용하기 위한 방안으로 근무시간을 단축하면 업무 집중도가 높아진다는 입장이다.'시차출퇴근제', '겨울방학' 등 자율출퇴근, 휴무제도를 운영하는 스타트업도 있다. 온라인 명품 커머스 머스트잇은 시차출퇴근제를 도입해 선택한 시간에 출퇴근할 수 있도록 운영하고 있다. 직원들이 자유롭게 효율적으로 시간을 사용하도록 지원하기 위함이다. 비바리퍼블리카는 지난해 연말부터 겨울방학 제도를 운영한다. 크리스마스 전후로 열흘간 전사 휴무하는 제도다. 또 스타일 커머스 플랫폼 에이블리는 매년 12월25일부터 다음해 1월1일까지 전사 휴무 제도를 운영한다.이색 복지제도를 운영하는 스타트업도 있다. AI세무 서비스 삼쩜삼 앱을 운영하는 자비스앤빌런즈는 지난 6월 전 직원을 대상으로 2주의 특별 휴가를 지급했다. 이후 1주일은 휴가지에서 원격으로 근무하는 워케이션이 가능하도록 했다. 더불어 3주 동안 자유롭게 쓸 수 있는 리프레쉬 비용도 지원해 직원들의 사기를 높였다.게임 회사 펄어비스는 미혼 임직원을 위해 월 1회 가사 청소 지원 서비스를 제공한다. 커머스 플랫폼 기업 브랜디는 올 7월 입사자들을 대상으로 이색 복지 혜택을 제공한다. 가사, 세탁, 베이비(펫)시터, 반찬 구독 중 2개 프로그램을 선택해 혜택을 받는 라이프지원 프로그램을 운영한다고 밝혔다.데이터농업 스타트업 그린랩스는 사내/사외 추천제를 운영한다. 채용 시 사내 구성원이 인재를 추천해 채용이 확정되면 보상금을 지원하는 사내추천제와 함께 회사 구성원이 아니어도 추천 후 채용 시 최대 500만원의 보상금을 지급하는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>'무료 송금' '年2% 통장' 환호 받았는데…"토스, '덩치만 큰 아이'" 왜?</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004749792?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 금융 플랫폼 시대가 열리면서 금융산업에 활기가 돈다. 혁신과 디지털로 중무장한 빅테크들의 금융영토 확장 행보가 가속화하면서다. 카카오, 네이버, 토스 등 빅테크 3강은 차별화된 색깔과 전략으로 금융시장의 전통적인 강자들을 위협하고 있다. 대형 금융지주도 생존을 위한 플랫폼 전쟁에 뛰어들었다. 이른바 '신주류'로 떠오른 빅테크를 해부하고 금융산업의 변화와 미래를 조망해 본다.[금융 빅테크 삼국지(中)토스]━"아시아인들과 함께 쓰는 K-앱"…스마트폰 밖으로 나온 '토스' ━모바일 금융 플랫폼 토스 운영사 비바리퍼블리카(이하 토스)가 모바일을 넘어 오프라인 시장을 넘본다. 해외 시장 진출에도 공을 들이고 있다. 토스는 모바일 앱(애플리케이션)을 중심으로 사업을 성장시켜 온 순수 핀테크(금융기술기업)로 최근엔 종합 금융 플랫폼으로 거듭났다. 기업가치는 20조원으로 커졌지만 여전히 이익을 내지 못하는 수익성은 논란이다. 23일 금융·핀테크업계에 따르면 토스는 가맹점 통합관리 서비스 시장에 진출하기 위해 설립한 자회사 '토스플레이스'의 수장으로 토스 전략사업을 이끌어 왔던 최지은 대표를 최근 선임했다.1982년생인 최 대표는 미국 JP모건 인베스트먼트 뱅킹에서 일하다 국내에 들어와 LB인베스트먼트, 알릭스파트너스 등에서 컨설팅 업무를 수행했다. 토스가 LG유플러스 PG사업부문을 인수할 당시 계약 과정 등에 관여한 것으로 알려졌다. 토스는 지난 3월 신용카드 가맹점을 대상으로 한 카드결제 단말기 공급 등 가맹점 통합관리 서비스를 제공하기 위해 토스플레이스를 설립했다. 국내 온라인 결제 시장이 200조원 안팎인데 반해, 신용카드 중심의 오프라인 결제 시장은 500조원에 육박한다는 점을 고려한 진출이다. 중소상공인들에게 낮은 비용으로 세무·마케팅·경영관리 등을 통합 처리할 수 있는 솔루션을 제공해 점유율을 늘린다는 계산이다. 토스가 온라인·모바일은 물론이고 오프라인 금융 플랫폼까지 사업영역을 확장할 수 있는 배경에는 지속적으로 사업을 성장시켜 금융혁신을 이룰 수 있다는 자신감이 자리하고 있다는 분석이다. 간편송금과 더치페이 시스템 등으로 소소한 관심을 받던 토스는 불과 수년여만에 보험, 증권, 결제는 물론이고 은행까지 거느린 대형 금융 플랫폼으로 성장했다.  토스는 해외진출에도 공을 들이고 있다. 현재 빅테크 기업들은 국내 시장에서만 날개를 펴고 있는 게 현실이다. 이 과정에서 골목상권을 침해하거나 고객을 플랫폼 안에 묶어둔 뒤 수수료 장사에만 혈안이 돼있다는 비판도 받는다.이에 토스는 성장 잠재력이 큰 동남아시아 시장을 적극 공략한다는 목표를 세웠다. 토스 앱 출시 4년 째인 2019년 베트남법인을 설립했다. 아직 정교한 CSS(신용평가모형)가 없어 성장 잠재력이 크다고 판단한 베트남을 해외진출 테스트베드로 삼았다. 토스베트남법인은 최근 신용카드를 출시하고, 소액대출 서비스도 시작했다. 지난 3월에는 싱가포르에 글로벌 헤드쿼터도 설립했다. 싱가포르 헤드쿼터는 앞으로 토스의 동남아 사업을 총괄하는 역할을 담당한다.나아가 인도네시아, 말레이시아, 태국, 인도, 필리핀 등 5개국 진출도 계획하고 있다. 이들 동남아 국가의 이커머스 성장 속도가 급격한 만큼 이 시장을 적극 공략한다는 계획이다. 베인앤컴퍼니의 최근 리서치에 따르면 이들 나라의 이커머스 유저는 현재 7000만명으로, 앞으로 5년 내 5배 이상 성장할 것으로 관측된다.토스는 내년 말까지 해외 MAU(월간 활성화 이용자수)가 한국 MAU를 추월하겠다는 목표도 세웠다. 토스 관계자는 "범 아시아인이 함께 쓰는 한국 최초의 앱이 될 것"이라고 밝혔다.토스는 이같은 성장을 바탕으로 빠르면 2023년엔 IPO(기업공개)도 목표로 하고 있다. 기업가치는 20조원 가량으로 보고 있다. 현재 △토스증권 △토스뱅크 △토스페이먼츠(PG사) △토스인슈어런스(GA) △토스CX(고객상담) △VCNC(타다) △토스베트남 등의 계열사를 두고 있다. 다만, 토스는 출범 이후 지금까지 연결 기준으로 순익을 낸 적이 없다는 점이 부담이다. 투자에 집중하면서 전형적인 '덩치만 큰 아이'의 모습을 보여준다. 2019년 1244억원이었던 손실을 2020년 910억원까지 줄였지만 지난해 다시 2160억원으로 뛰었다. 은행이나 증권 등 새롭게 출발한 계열사들의 초기 투입 비용이 크게 증가한 영향으로 해석된다. 보험 서비스 혁신을 시도했던 GA 토스인슈어런스가 실적을 내지 못하자 사업전략을 180도 수정해야 하는 시행착오도 겪는 중이다. LG유플러스로부터 PG사업부를 인수해 출범한 토스페이먼츠에 매출을 크게 의존하는 점도 긍정적이지 않다. 지난해 매출 7808억원 중 70%가 넘는 5513억원이 토스페이먼츠에서 발생했다. 토스 관계자는 "코로나19(COVID-19) 확산 영향에 의한 비대면 금융 활성화로 대출중개서비스가 전년 대비 354% 성장했고, 간편결제 부분도 올해 1분기 직전분기 보다 30%가량 거래액이 늘었다"며 "지금은 투자를 늘릴 수 밖에 없는 시기"라고 말했다.━당연히 내던 수수료 없애자 매달 8조원 오가…토스, 몸값은?━토스는 엄밀히 말하면 비바리퍼블리카의 서비스명이다. 치과의사 출신 이승건 대표가 김민주·이태양·박광수씨 등 3명의 개발자, 그리고 양주영 최고운영책임자(COO)와 2013년 4월 설립했다. 이렇게 5명으로 시작한 토스 임직원 숫자는 지난해 1433명까지 불어났다. 5000만원으로 시작한 자본금은 지난해 말 기준 약 327억원으로 증가했다. 자산은 2조258억원(2021년 말 기준)에 달한다.토스의 폭풍성장 핵심에는 2015년 2월 서비스를 시작한 '간편송금'이 있었다. 공인인증서 없이 빠르게 송금할 수 있는 간편송금 서비스는 기존 금융권과 금융소비자 모두에 신선한 충격을 줬다. 토스가 '고객 중심적 사고'를 기반으로 '평생 무료 송금' 정책을 채택하자 시중은행들은 울며 겨자먹기로 송금 수수료를 하나 둘 없애기 시작했다. 그동안 당연히 내는 돈이라고 여겼던 송금 수수료가 사라지자 고객들은 환호했다. 편리함은 덤이었다. 토스를 통한 누적 송금액은 230조원을 돌파했고, 월 송금액은 8조원을 상회한다.간편송금으로 고객을 끌어모으는 데 성공한 토스는 2017년 출시한 '무료 신용등급 조회 및 관리 서비스'로 또한번 도약했다. 무료로 자신의 신용등급과 평점을 확인할 수 있을 뿐만 아니라 신규로 대출을 받거나 기존 대출을 상환할 때 신용등급 변동과 사유까지 확인할 수 있는 서비스를 국내 최초로 선보인 것이다. 이는 3040으로 고객층을 확대하는 계기가 됐다.그렇게 토스는 휴대전화 속에 없어서는 안 되는 금융 앱(애플리케이션)으로 자리 잡았다. 소위 '한번도 안 써본 사람은 있어도 한번만 써본 사람은 없다'는 말의 대명사가 됐다. 이후 토스는 △대출·카드 중개 △대출·카드·보험 등 광고 △결제 △인증서비스 △자동차 관리 △부동산 관리 △자영업자 전용 서비스 △후불결제 등 50개가 넘는 서비스를 순차적으로 내놓으며 명실상부 '종합 금융 플랫폼'으로 성장했다.이중 2019년 8월부터 시작한 '대출 비교 서비스'는 2년 9개월 만에 누적 대출실행금액 10조원, 조회고객수 400만명을 돌파하는 등 큰 인기를 끌고 있다. 현재 대출 비교 서비스가 제공 중인 48개 금융사에 고객이 찾아가 30분씩 대출 상담을 받았다고 가정하면 토스의 비대면 대출비교 서비스로 고객들이 절약한 시간은 약 1억 시간에 달한다. 매출은 배(倍) 단위로 커가고 있다. 토스의 지난해 연결 기준 매출은 7808억원이다.  2020년 3898억원과 비교해 100.3% 증가했다. 2019년의 매출은 1187억원 수준이었다. 아직 발표가 되진 않았지만 올해 1분기 매출 역시 빠르게 궤도에 오른 토스뱅크와 토스증권의 해외 주식 거래 매출 등이 새롭게 반영돼 큰 폭의 증가가 있을 것으로 전망된다. 토스는 이르면 오는 2023년 기업공개(IPO)도 계획하고 있다. 이를 위해 현재 최대 1조원 규모의 프리 IPO(상장 전 지분투자)를 진행 중이다. 프리 IPO를 통한 토스 기업가치는 최대 20조원을 넘어설 것으로 관측된다. 현재 글로벌 사모펀드(PEF)와 헤지펀드 등이 투자에 관심을 보이는 것으로 전해진다. 토스는 이번 프리IPO를 2분기 내에 마무리한다는 계획이다.다만 △금리인상기 본격화 △우크라이나 전쟁 장기화로 인한 인플레이션 등 대내외적 악재로 투자심리가 얼어 붙은 것은 향후 투자 유치와 IPO에 악재가 될 수도 있다. 실제 장외주식 거래플랫폼 증권플러스 비상장에 따르면 토스 주가는 최근 한 달 새 10만원에서 7만5000원으로 약 25% 빠졌다. 이를 토대로 한 기업가치 추정치는 12조원 초반대다.금융권 관계자는 "'IPO=대박'이란 공식이 시장에서 사라져가는 추세라곤 하지만 회사가 '알짜'라면 IPO 흥행에는 문제가 없을 것"이라며 "토스의 경우 지난해 상장 대박을 친 카카오뱅크와 카카오페이에 못지 않은 시장 관심을 끌 것으로 보인다"고 말했다.━ 순수 핀테크의 비애···부족한 '락인' 효과 메울 묘책은?━금융 분야에서 '토스'는 강력한 플랫폼이지만 국내 최대 포털 네이버와 전국민의 메신저 카카오톡을 앞세운 빅테크(IT대기업) 계열인 카카오금융(카카오페이와 카카오뱅크 등 카카오 계열 금융사), 네이버파이낸셜과 비교하면 '락인(lock-in) 효과'가 떨어진다는 평가를 받는다. 락인 효과란 고객이 상품·서비스를 이용하고 나면 다른 상품이나 서비스로 '이용의 이전'을 하지 않는 현상을 말한다. 플랫폼 서비스에서 락인 효과는 서비스 성패를 가르는 주요 '키포인트' 중 하나다. 23일 빅데이터 플랫폼 아이지에이웍스 분석에 따르면 지난해 12월 기준 토스 MAU(월간사용자 수)는 1397만명으로 은행·뱅킹 부문 1위다. 카카오뱅크 1317만명보다 많다. 하지만 카카오톡 메신저 4358만명과 네이버 플랫폼 4022만명에 비하면 턱없이 적다. 네이버와 카카오는 이를 바탕으로 다양한 서비스를 소비자에게 소개하고 사업 영토를 넓히고 있다. 태생적으로 불리한 입장에서 토스는 '슈퍼앱' 전략을 펼치고 있다. 단순히 대화를 하거나 콘텐츠 소비를 위해 유입되는 것이 아니라는 점을 강조해 금융 중심 충성고객을 더 유입시키겠다는 것이 토스의 복안이다. 실제로 토스는 결제나 송금, 증권, 보험 뿐만 아니라 가장 최근 서비스를 시작한 토스뱅크의 서비스까지 기존 토스 앱을 통해 할 수 있도록 했다. 서로 다른 금융 서비스 앱에 고객이 분산되지 않도록 해 금융 서비스 이용 고객들만을 묶어 두겠다는 셈이다. 토스는 지난해 인수한 모빌리티 플랫폼 '타다'와 온라인 상거래 활성화의 빠른 성장을 계기로 토스의 초기 서비스 중 하나인 결제 부문의 성장이 추가적인 고객 '락인 효과'를 강화할 수 있을 것으로 기대하고 있다. 또 10대들의 금융활동을 지원하는 '토스 틴즈'나 50대 이상 장년층을 대상으로 하는 '시니어 서비스' 등 특정 연령대를 타깃으로 하는 서비스를 출시하면서 금융 고객을 넓히고 있다. 토스는 가입할 때 주민번호 앞자리를 입력하면 연령대에 맞는 홈화면과 기능을 맞춤형으로 제공한다. '만보기'나 토스뱅크의 '매일이자받기' 같은 기능도 매일 고객들이 토스앱을 방문하게 해 자주 사용하게 되는 비중을 늘려준다. 그러나 수익이 나지 않으면 금융 혁신도 무의미하다는 것이 금융업계와 투자업계의 공통된 시각이다. 한 금융업계 관계자는 "아직은 이익보단 투자를 염두한 공격적인 경영이 토스에게 필요한 시기이긴 하지만 결국은 '빵' 터지는 서비스가 나와야 혁신도 인정을 받을 수 있을 것"이라고 말했다.━막둥이 자회사지만 중심 '토스뱅크'…최초의 '명암'━토스뱅크는 토스 내에서도, 인터넷전문은행 중에서도 '막내'다. 그럼에도 금융권에선 처음인 다양한 시도들을 하면서 시장에 적잖은 반향을 일으켰고, 단기간에 몸집을 키웠다. 토스뱅크는 계속해서 혁신적인 상품과 서비스를 출시한다는 계획이지만, 기존 금융문법에서 벗어난 전략들이 수익성과 건전성에 어떤 영향을 줄지는 미지수다.23일 금융권에 따르면 토스뱅크 가입자 수는 지난 3월 기준 약 235만명으로 나타났다. 수신 잔액은 3월23일 17조원을 넘어섰고, 여신 잔액은 4월말 기준 2조8354억원으로 집계됐다. 특히 여신 부문은 올해 1분기만에 1조8373억원 늘었다. '최초의 시도'가 실적으로 연결됐다. '토스뱅크통장'이 대표적이다. 토스뱅크통장은  수시입출식 통장인데도 1억원 이하 예치금에 대해 기본금리가 2%다. 보통의 수시입출식 통장은 0~1%대 금리를 준다. 택시나 대중교통, 편의점 등 결제 시 캐시백 혜택도 공격적이다. 그 결과 3월말 기준 가입 고객은 200만명을 돌파했다. 최근에는 '지금 이자받기 서비스'를 추가했다. 일 복리 효과가 있는 수시입출식 통장은 토스뱅크통장이 유일하다.개인사업자대출 시장에는 인터넷은행 중 가장 먼저 뛰어들었다. 토스뱅크는 지난 2월  중·저신용 자영업자를 타깃 고객으로 하는 '사장님대출'을 출시했다. 자체 개발한 신용평가 모형을 통해 대출이 이뤄졌는데, 은행에서 대출이 어려웠을 중·저신용자에 대한 대출 비중이 40%를 넘었다. 지난 16일 기준 출시 약 3개월 만에 사장님대출 잔액은 약 4000억원으로 나타났다. 지난 11일 출시한 '사장님대출 마이너스통장'은 출시 4일 만에 약정액이 200억원을 돌파했다.하지만 최초는 위험을 수반한다. 가장 큰 우려는 수익성이다. 은행은 대출을 통해 이익을 낸다. 대출을 해주기 위한 자금은 대부분 예금 등 수신을 통해 조달한다. 예금금리와 대출금리 차이(예대금리차)가 많을수록 돈을 많이 번다. 토스뱅크의 경우 다른 은행은 사실상 '공짜'로 조달하는 수시입출식 통장 금리가 2%다. 게다가 지난해 대출 영업을 못하는 동안 수신 잔액이 계속해서 늘었다. 그 결과, 토스뱅크의 지난해 10월부터 12월까지 성적표는 806억원의 순손실이다. 당장 대출을 크게 늘려야 수익성이 개선되지만 시장 상황이 여의치 않다. 총부채원리금상환비율(DSR) 규제가 오는 7월 더욱 강화되고, 금리 상승 등 영향으로 대출 수요도 쪼그라든 상태다.  토스뱅크 스스로도 이러한 측면을 감안해 토스뱅크통장의 캐시백 혜택을 한 차례 줄였고, 매일 이자받기 서비스도 올해까지만 한시적으로 운영한다.건전성 이슈도 있다. 토스뱅크는 다른 인터넷은행들에 비해 더욱 중·저신용자 고객에 집중하고 있다. 지난 3월말 기준 중·저신용자 대출 비중은 토스뱅크 31.55%, 케이뱅크 20.2%, 카카오뱅크 20%로 나타났다. 인터넷은행 설립 취지에는 부합하지만 중·저신용 고객은 부실 위험이 크다. 물론 토스뱅크 자체 신용평가모형이 금융당국의 검토를 거쳤다고 해도, 대안 신용평가 방식인 만큼 향후 어느 정도 부실이 발생할지는 지켜봐야 한다. 당장 토스뱅크는 성장에 집중한다는 방침이다. 토스뱅크는 올 하반기 전세자금대출 상품을 출시할 계획이다. 내년에는 주택담보대출 상품을 내놓을 예정이다. 조만간 해외송금 서비스도 출범할 것으로 보인다. 토스뱅크 관계자는 "'지금 이자받기 서비스' 등 혁신적인 사고와 아이디어는 기존 금융권이 놓치고 있던 것으로, '탈금융권 사고'에서 비롯됐다"며 "고객, 금융 소비자를 중심으로 이뤄진 고민이 후발주자의 한계를 뛰어넘은 결과를 창출한다고 생각한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>토스, 카카오페이 즐겨쓰는 '뉴시니어', "모바일 익숙하지만 오프라인도 중요"</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005091071?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>전체 거래액 3분의 1 차지하는 '큰손' 뉴시니어은행 이용할 땐 영업점 보다는 '앱' 즐겨써안정적·지속적 수익 추구제공=하나금융경영연구소경제력을 갖춘 데다 토스, 카카오페이등 디지털 기반 핀테크(금융+기술) 서비스도 자유롭게 이용하는 '뉴시니어' 세대가 부상하고 있다. 이들은 안정적인 정기 수익을 추구하는 한편 디지털에 익숙하면서도 여전히 오프라인 만의 역할이 중요하다고 강조했다.19일 하나금융경영연구소는 이 같은 내용을 담은 '뉴시니어가 원하는 금융' 보고서를 발표했다. '뉴시니어'는 1957~1971년생 중 금융자산이 1억원 이상인 이들을 뜻한다. 하나금융경영연구소가 하나은행의 50대 이상 고객을 분석한 결과 이들의 거래 규모는 전체 거래액의 절반을 넘었다. 특히 만50~64세인 뉴시니어 세대의 거래 규모는 전체의 3분의 1 이상을 차지했다. 50대 이상 고객의 인당 평균 거래액은 1억원 이상으로 40대 이하 고객 대비 1.8배 높았다. ◆디지털에 익숙…토스, 카카오페이 OK=뉴시니어들은 디지털에 익숙했다. 90% 이상이 온라인 쇼핑, 유튜브 시청, 키오스크 주문 등 일상생활에서도 타인의 도움 없이 디지털 채널을 이용할 수 있다고 답했다. 금융거래 시 이용하는 수단(최근 6개월 기준)으로는 은행 애플리케이션(앱)이 83.3%로 가장 높았다. 이어 인터넷뱅킹은 75.8%였다. 영업점은 49.3%에 그쳤다.제공=하나금융경영연구소새로운 서비스 이용에도 거부감이 없는 편이었다. 64%가 최근 1년 내 새롭게 거래를 금융기관이 있다고 답했는데 토스, 토스뱅크, 카카오뱅크와 같은 핀테크 업체가 상위권을 차지했다. 그 이유로는 '앱 이용 편리'가 15.8%로 가장 많았다. 이어 '금융 수익 우수(14.4%)', '신규 서비스와 기능(0.1%)' 등의 순서였다. 은행을 주로 거래하는 요인으로는 '급여 이체 때문(36.8%)'과 '바꾸는 과정이 귀찮음(33.1%)'이라는 응답이 각각 1, 2위를 차지했다.그럼에도 오프라인 영역이 필요하다고 강조했다. 조사대상 뉴시니어의 78%가 '반드시 영업점을 방문해서 처리해야하는 업무가 있다'고 응답했다. 주로 ▲상품 만기/해지 ▲현금/수표 입출금 ▲대출 상담/가입 등의 업무였다. 디지털 채널 활성화를 위해 반드시 필요한 기능도 '상담원과 쉽게 연결(77.1%)'을 꼽았다.◆'한탕' 보단 안정적 수익 중시=뉴시니어가 금융상품을 선택할 때 고려하는 요건(복수 응답)은 '원금 보장(55.7%)' 및 '정기적 수익 발생(55.3%)'이었다. '높은 수익성(39.7%)'을 고려한다는 응답을 크게 앞질렀다. 또한 '현금화 인출 용이성(34.5%)'도 중요하다고 봤다. 기대하는 금융상품 수익률은 ‘5~6%’라는 답변이 가장 많았다.제공=하나금융경영연구소비슷한 맥락에서 향후 가입의향이 높은 상품도 하루만 돈을 맡겨도 이자를 받을 수 있는 '파킹통장'과 월지급식 또는 주가지수와 연계돼 비교적 안정적인 '간접투자상품'을 꼽았다. 연금신탁과 보험 같은 정기지급형 상품도 선호했다.윤선영 하나금융경영연구소 연구위원은 "뉴시니어가 디지털 금융 전환에도 큰 거부감 없이 적응하고 경제적 혜택보다 채널 편리성 및 신규 서비스를 우선시하므로 향후 다양하고 적극적인 금융생활이 예상된다"며 "여전히 오프라인·인적 서비스에 대한 요구가 큰 만큼 금융회사들은 이에 부합하는 맞춤형 상품과 서비스를 제공해야 한다"고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>박앤박, 주문 전용 앱 '혼밥대왕' 서비스 오픈</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001032733?sid=103</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>㈜박앤박(대표이사 박형주)이 주문 전용 앱 '혼밥대왕'을 출시하고 본격적인 서비스에 돌입한다.전국 150여개 매장을 운영 중인 혼밥대왕은 앱을 통해 신메뉴 출시, 인기 메뉴, 할인 쿠폰 등 고객이 필요한 정보를 제공하고 가까운 배달 매장을 검색 및 주문이 가능하도록 제작했다. 첫 구매 이용자에게 할인 쿠폰 혜택을 적용하며, 카카오페이, 토스, 휴대폰 등으로 간편 결제 기능을 지원한다.해당 앱 서비스는 iOS 앱스토어, 안드로이드 구글 플레이스토어에서 다운로드 받아 이용 가능하다.관계자는 "최근 혼밥대왕을 찾는 고객 니즈를 반영해 새롭게 선보이게 된 주문 전용 앱을 통해 고정 고객을 위한 혜택을 폭넓게 적용하고 브랜드 가치를 살린 차별화된 기능들을 계속해서 선보일 예정이다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>"대출 슈퍼앱 도약" 핀다, 하나은행·토스뱅크 대출상품 추가</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000817221?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>사진=핀다 대출비교 플랫폼 핀다는 하나은행, 토스뱅크 등 대출 상품이 새로 입점됐다고 27일 밝혔다. 이로써 핀다는 총 62개 제휴사와 200여개의 대출 상품을 선보인다.핀다는 하나은행과 제휴해 오토금융에 진출한 데 이어 개인 맞춤형 대출상품을 선보인다. 지난 4월 양사는 '커넥티드 카 원큐 오토론'을 출시한 바 있다.토스뱅크의 사장님 대출 상품도 입점됐다. 이 상품은 매출액이 크지 않아도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자보다 높은 신용도를 인정받을 수 있다.세람저축은행의 개인회생자대출도 선보인다. 개인회생 면책자나 변제자를 위한 대출 상품으로 12개월 이상 변제계획을 성실하게 이행하고 있거나 최근 1년 이내 개인회생 변제가 끝난 경우 이용할 수 있다.박홍민 핀다 공동대표는 "핀다 이용 고객이 각자의 상황에 맞는 가장 유리한 대출상품을 선택할 수 있도록 제휴 금융사와의 파트너십을 강화하면서 다양한 상품 라인업을 갖췄다"며 "대출을 갖고 있거나 대출이 필요한 누구든지 핀다를 통해 개인이 중심이 되는 금융 서비스를 누릴 수 있도록 서비스를 고도화해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.05.25.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>토스, 개발자 컨퍼런스 '슬래시 22' 온라인 개최</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002606844?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>토스가 내달 개최하는 개발자 컨퍼런스 슬래시 22 소개 포스터 ⓒ토스[데일리안 = 김효숙 기자] 토스를 운영하는 비바리퍼블리카는 내달 개발자 컨퍼런스 '슬래시 22'를 개최한다고 25일 밝혔다.이번 행사는 내달 8일부터 10일까지 3일간 온라인으로 진행되며, 인원 제한 없이 누구나 참여할 수 있다. 발표 영상은 행사 홈페이지 혹은 토스의 유튜브 채널을 통해 행사 기간 중 매일 오후 2시부터 실시간 시청이 가능하며, 일자별 발표 영상은 해당일 오후 6시에 전체 오픈된다.토스는 이번 행사를 통해 소규모 IT 관련 모임에후원도 진행한다. 오늘부터 오픈되는 행사 사전 신청 시, 참가자 본인이 속한 개발 동아리 혹은 스터디 모임을 입력하면, 행사 종료 후 추첨을 통해 15곳의 단체에 총 2000만 원의 운영 지원금을 제공할 예정이다.올해 진행되는 슬래시는 작년 대비 연사 규모가 확대되었다. No User, No Technology(사용자 없이는 기술도 없다)라는 슬로건 아래 토스를 비롯해 토스뱅크, 토스증권, 토스페이먼츠 등 계열사 소속 인원 24명이 연사로 나서, 22개의 주제로 발표할 예정이다.행사 첫날에는 이형석 테크놀로지 헤드가 오프닝 키노트를 통해 지난 1년간 토스가 금융의 슈퍼앱을 목표로 어떤 기술적 변화를 만들어냈는지 소개한다. 이어서, '개발 생산성과 사용자 경험'을 주제로 iOS 개발자 및 안드로이드 개발자, 프론트엔드 개발자 등 8명이 연사로 나선다.둘째 날에는 '토스가 만드는 서비스'를 주제로 데이터 사이언티스트, 서버 개발자 등 7명이 발표를 한다. 특히, 토스뱅크, 토스증권 등 주요 계열사 소속 인원들이 처음으로 발표에 나서 간편하고 안전한 서비스 환경을 구현하기 위한 고민과 경험을 공유한다. 마지막 날에는 머신러닝 엔지니어, 데이터 엔지니어, 데브옵스엔지니어 등 9명의 연사가 '인프라 및 자동화, 데이터'를 주제로 발표를 한다.이형석 토스 테크놀로지 헤드는 "올해에는 토스 커뮤니티가 함께 행사에 참여할 수 있게 돼 더욱 풍성하고 구체적인 사례를 공유할 예정"이라며 "토스의 성장 과정에서 얻은 기술적 성취와 산물을 가감 없이 공유드릴 수 있는 뜻깊은 자리인 만큼, 행사에 참여하는 모든 분에게 배움과 공감의 시간이 될 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>'간편결제 페이수수료' 공시 득될까 실될까</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011195744?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>기사내용 요약금감원, 간편결제수수료율 공시 TF 킥오프반기 단위 공시…연내 최종 공시 방안 확정"수수료 산정 체계 다른데 동일 비교 무리""소상공인한테 도움되는 방안인지가 중요"[서울=뉴시스] 박은비 기자 = 금융당국이 간편결제 수수료를 비교 공시하기 위한 실무작업에 착수했다. 하지만 업계에서는 수수료 인하 논의만큼이나 반발이 거세다. 업체마다 수수료 산정 체계가 달라 단순 비교가 어렵다는 지적이다.19일 금융권에 따르면 금융감독원은 이날 오후 전자금융업자 결제수수료율 공시 태스크포스(TF) 킥오프 회의를 개최했다. 핀테크산업협회, 한국인터넷기업협회를 비롯해 빅테크인 카카오페이와 네이버파이낸셜, 비바리퍼블리카(토스), 결제대행(PG)사, 선불업자, 종합쇼핑몰 책임자 등이 참여했다.이날 회의는 업체간 토론 형식으로 진행됐으며 참석자는 서비스 유형별 대표업체를 선정했다. 금감원은 수수료 산정 원칙을 제시하는 가이드라인을 제정한 뒤 공시방안을 구체화하기로 했다. 가맹점 수수료는 결제 관련 수수료와 일반 상거래 관련 기타 수수료로 구분해야 하며 각 업체 홈페이지에 공시하는 주기는 반기 단위다. 추가 실무회의를 수시로 진행한 뒤 올해 안으로 최종 공시 방안을 확정할 예정이다.금감원 관계자는 "다수 업체가 참석하기는 어려워 효율적인 논의를 위해 서비스 유형별 대표업체를 선정했다"며 "참석 업체는 업체의 규모 순이 아니라 업체가 제공하는 간편결제 방식에 따라 선정했다"고 설명했다.간편결제 수수료 공시는 대통령직 인수위원회가 공개한 110대 국정과제 중 37번째 '금융소비자 보호와 권익 향상' 항목에 포함됐다. 빅테크 기업이 소상공인 등에게 부과하는 간편결제 수수료에 대한 공시와 주기적인 점검을 추진하겠다는 내용으로 은행 예대금리차 1개월 단위 공시와 함께 내놓은 정책이다.하지만 업계에서는 공시대상 범위를 확정하는 것조차 쉽지 않다고 입을 모은다. 수수료 산정 체계가 업종·업체별로 제각각이라 동일한 잣대로 비교가 불가능하다는 시각이다. 특히 중소 PG사들의 반발이 거센 것으로 알려졌다.예를 들어 네이버파이낸셜은 PG사지만 단순히 결제수수료만 받지 않는다. 네이버쇼핑을 활용하면서 주문관리수수료 개념이 추가된다. 일부 항목만 공시대상으로 삼을 경우 업체들이 공시대상 항목 수수료만 낮추는 꼼수를 내놓을 가능성도 배제할 수 없다. 반대로 전체 수수료를 비교하면 각 서비스 특성을 고려하지 않아 왜곡된 정보를 제공한다는 지적이 나온다.전자금융업 관계자는 "커머스 쪽 수수료 체계가 훨씬 복잡한데 커머스수수료와 결제수수료를 어떤 기준으로 구분해서 공시할 지가 관건"이라며 "자칫 공시를 위한 수수료에 그쳐 공정경쟁이 되기 어려울 것이라고 본다"고 지적했다.최종적으로 커머스수수료를 공시대상에 포함시킬 경우 금융당국이 규율하는 범위를 넘어서는 게 아니냐는 지적도 있다. 공정거래위원회는 정기적으로 유통업계 수수료 실태조사를 실시하고 있다. 이 때문에 금감원이 주도해서 업체별 수수료를 비교하는 방식보다 업체 홈페이지에 개별 공시하는 방식을 선택한 것으로 풀이된다.합리적인 수수료 체계를 만들기 위해서는 자율적인 시정조치를 유도해야 한다는 의견도 있다. 카카오페이와 네이버파이낸셜은 지난 1월 금융위원회가 카드 수수료 인하 정책을 내놓자 영세·중소사업자 부담 경감을 위해 0.05~0.30%포인트 인하에 나섰다.금융권 관계자는 "140여개 PG사 수수료를 한 번에 비교공시하는 게 쉽지 않다는 걸 금융당국도 이미 알고 있다"며 "결국 생각해야 하는 건 가맹점주인 소상공인에게 얼마나 도움이 되느냐가 아니겠냐"고 언급했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스증권 예탁금 연 1% 이자로 돌려준다</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003017054?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>토스증권이 고객의 예탁금 계좌 잔액에 대해 지급하는 이자에 해당하는 '예탁금 이용료'를 연 1%(세전)로 인상한다고 16일 밝혔다. 기존 0.2%에서 0.8%포인트 인상했다.예탁금 이용료란 투자자가 계좌에 예치한 현금성 자산을 증권사가 증권금융 등에 예탁하면서 발생하는 이자 수익이다. 이용료율은 증권사가 예탁금을 맡기는 기관의 금리 변동에 맞춰 정할 수 있다.금융투자협회 공시자료에 따르면, 현재 국내 35개 증권사의 평균 예탁금 이용료는 연 0.199%로 집계됐다. 연 1% 예탁금 이용료는 이달 기준 국내 증권사 중 가장 높은 수준이다. 토스증권은 고객의 예탁금으로부터 발생한 이용수익의 대부분을 고객에게 돌려줌으로써 투자자 편익을 한층 강화한다는 계획이다.토스증권 고객은 이날부터 누구나 금액에 제한없이 예탁금에 대해 연 1% 이자를 적용받을 수 있다. 단, 해당 이자는 원화 자산에 한해 적용되며, 외화(달러) 자산 및 투자 중인 금액에는 적용되지 않는다.이자 지급 주기도 기존 분기별 지급에서 1달 주기로 변경해 이자금액에 대한 유동성을 높였다. 매달 마지막 영업일에 전 날까지의 예탁금 평균 잔액을 계산해 당월 이자를 지급한다.토스증권 관계자는 “토스증권은 고객 예탁금에서 발생하는 수익을 과감히 포기하고 고객에게 돌려드리는 선택을 하게 됐다"며, “고객이 투자금을 입금하는 순간부터 믿고 거래할 수 있는 투자 서비스를 만들어 나갈 것” 이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>빅테크 수수료 반기마다 공시…금융감독원 공동작업반 구성</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004966361?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>[사진 출처 = 연합뉴스] 금융감독원이 빅테크 등 전자금융업자의 간편결제 수수료 산정 투명성을 제고하기 위해 가이드라인을 마련하고 수수료 공시를 추진하기로 했다.19일 금감원은 수수료 공시를 위해 업계 등 공동 작업반(TF)을 구성하고 첫 회의를 개최했다고 밝혔다. 이날 회의에는 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 빅테크와 결제대행업자, 선불업자, 종합쇼핑몰 등이 참석했다. 금감원은 카드사와 빅테크 등의 투명성을 제고하기 위해 가이드라인을 마련한다는 방침이다. 가이드라인에는 수수료를 합리적 근거로 산출하도록 기본 원칙을 제시할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>"이건 몰랐는데" 74년 만에 베일 벗은 청와대 직접 가보니…</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004968492?sid=103</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>청와대 춘추관 앞 헬기장으로 향하는 시민들.  /사진= 강예신 여행+ 기자 새 정부가 들어서고 74년 만에 활짝 열린 청와대는 관람 시작 전부터 현재까지 연일 화제의 중심에 서고 있다. 개방 하루 만에 경내 불상을 훼손한 사건이 발생하는가 하면, 복잡한 신청 절차와 현장 상황까지 좋고 나쁜 의견들로 논쟁이 한창이다. 청와대 관람의 기회가 찾아와 직접 현장 상황을 살펴봤다.​1. 청와대 관람 당첨부터 찾아가는 길까지.네이버 국민비서 구삐 서비스를 통해 받은 당첨메세지. 청와대 관람은 청와대 개방 홈페이지나 네이버, 카카오톡, 토스 앱을 통해 신청 가능하다. 하루 관람 인원은 총 3만 9000명으로, 오전 7시부터 오후 7시까지 2시간 단위로 구분해 단위별로 6500명씩 받는다. 관람 8일 전 당첨자에 한해 안내 연락이 온다. 당첨이 하늘의 별 따기라고 해 주말 오후로 신청한 기자는 큰 기대 없이 기다렸고, 예상대로 연락이 오지 않았다. 그런데 평일 첫 타임, 오전 7~9시 시간으로 예약을 잡은 지인의 당첨 소식이 들려왔다. 오전 이른 시간에는 공연이 열리지 않고, 관광 약자를 위한 다누림 셔틀버스도 운행하지 않아 상대적으로 경쟁률이 낮았던 것으로 보인다. 이렇게 화제의 중심이 된 청와대 관람의 기회가 행운처럼 찾아왔다. 올해 받은 것 중 가장 기억에 남는 선물이 아닐까 싶다. 경복궁역 근처 안내문. /사진= 강예신 여행+ 기자 주차 대란을 예상하고 대중교통을 이용해 방문하기로 했다. 지하철 3호선 경복궁역에 내리는 순간부터 청와대에 도착할 때까지 지도 한 번 켜지 않고 쉽게 찾아갈 수 있었다. ‘청와대 가는 길’이라는 안내문과 파란 선만 잘 따라가면 도보 15분 만에 도착한다. 장애인, 만 65세 이상, 임산부, 만 8세 이하 및 동반자의 경우 경복궁역 4번 출구 앞에서 청와대 앞까지 가는 다누림 셔틀버스를 무료로 이용할 수 있다. 오전 10시부터 한 시간 간격으로 있다. 영빈문 앞 길게 늘어선 줄.  /사진= 강예신 여행+ 기자 6시 50분경 도착해 빨리 왔다고 생각했는데 이미 긴 줄이 늘어서 있었다. ‘도대체 다들 몇 시부터 온 걸까’하는 의문과 함께 걱정이 앞섰다. 7시부터 입장을 시작했고, 7시 10분 경 당첨 바코드를 찍고 영빈문에 들어섰다. 지하철역에서 안내된 길로 따라오면 이리로 도착하게 된다. 그러나 정문, 춘추문 등 다른 입구로도 들어갈 수 있다고 한다. ‘안내가 좀 더 명확히 돼 있었다면 상대적으로 한적했던 다른 입구를 이용했을 텐데’하는 아쉬움이 남았다.2. ‘여길 이제야 와보네’... 놀라움의 연속이었던 내부 관람기​ 영빈관.  /사진= 강예신 여행+ 기자 예상보다 지체된 입장으로 한적하게 사진을 찍기 어렵지 않을까 하는 걱정도 잠시, 눈앞에 펼쳐진 영빈관의 웅장하고 세련된 자태에 감탄하기 바빴다. 18개 돌기둥이 건물 전체를 떠받들고 있는 형태인 영빈관은 대규모 회의와 외국 국빈들을 위한 공식 행사를 열었던 곳이다. 한국을 알리는 각종 민속공연과 만찬이 열리는 행사장으로 쓰이거나 연회를 위한 장소로도 사용됐다고 한다. 당시에는 내부 관람이 불가했지만, 지난 23일부터는 춘추관과 함께 영빈관 내부를 관람객에게 공개하고 있다.​떨어지지 않는 발걸음을 재촉해 영빈관을 뒤로 하고 본관으로 향했다. 경사길이 이어졌지만 쉬지 않고 빠른 걸음으로 올랐다. 더 많은 이들이 몰리기 전 본관 사진 스폿 줄을 서기 위해서다. 부지런히 걸어 도착했지만 이미 길게 늘어진 줄. 팔작지붕에 올라간 15만 여 개의 청기와와 넓은 잔디밭이 펼쳐진 대정원. ‘청와대’하면 가장 먼저 머릿속에 떠오르는 본관의 실물을 마주하던 순간 머리부터 발끝까지 소름이 싹 돋았다. 목조 건축양식의 한국적인 미가 담겨 있으면서도 팔작지붕이 중후한 느낌을 가미한다. 본관 포토존에서 20분 기다려 남긴 인증 사진. /사진= 강예신 여행+ 기자 ​이곳에서만큼은 인증 사진을 포기하지 못 한다는 생각으로 왔기에 서둘러 줄 끝에 섰다. 그렇게 20분 가까이 기다려 본관 정중앙에서 사진을 남기는 기회가 찾아왔지만, 뒤로 길게 늘어선 줄에 재빨리 찍고 물러나야 했다. 오랜 기다림 끝에 건진 사진이라 그런지 뿌듯함이 배가됐다. 본관 앞에 많은 사람들이 몰려 있다.  /사진= 강예신 여행+ 기자 그런데 눈살이 찌푸려지는 장면을 종종 목격했다. 잔디를 밟지 말라는 직원의 안내에도 불쑥 들어가 사진을 찍는가 하면, 포토존 뒤에서 사진을 찍어 많은 이들의 기다림을 허무하게 하는 사례도 발생했다. 비교적 사람이 적은 아침 이른 시간인데도 불구하고 이런 일들이 꽤나 자주 발생해 “오후나 주말에는 관람이 더 쾌적하지 못할 것 같다”는 우려가 여기저기서 들려왔다. 주변에서 직원들이 제지를 하고 있지만 추가적인 조치가 필요해 보인다. 관저 가는 경사길.  /사진= 강예신 여행+ 기자 본관 다음으로 인기가 많은 관저로 향했다. 상당히 긴 경사길을 올라야 하는데, 가는 길에 하얀 제복을 입은 근무자를 만났다. 함께 사진 촬영을 요청하니 흔쾌히 포즈를 취해줬다. 관저 입구.  /사진= 강예신 여행+ 기자 기나긴 숲길을 걷다보니 앞서 관람한 영빈관이나 본관과는 사뭇 느낌이 다른 한옥이 보이기 시작했다. 본관처럼 팔작지붕에 청기와를 얹은 게 매력적이었다. 입구에 줄이 길게 늘어서 있지만, 현재 내부 관람은 할 수 없어 줄이 금방 빠진다. 후기글에 긴 줄만 보고 관저 관람을 포기한 이들이 많았는데, 본관 앞 포토존보다 훨씬 빨리 줄어드니 꼭 기다렸다가 한 번 둘러보는 걸 추천한다. 관저 내부 모습.  /사진= 강예신 여행+ 기자 ​관저에는 생활공간인 본채와 접견 행사 공간인 별채가 ‘ㄱ’자 형태로 자리하고 있고, 그 앞으로 마당이 있다. 마당 안쪽에는 ‘청와대의 편안한 곳’이라는 의미를 가진 사랑채 청안당이 있고, 관저 바로 앞에 의무실이 있다. 상춘재.  /사진= 강예신 여행+ 기자 ​관저를 둘러본 뒤 녹지원으로 향하는 길에 침류각, 상춘재 등을 둘러봤다. 경복궁 후원에 연회를 베풀기 위해 지은 건물인 침류각 옆쪽에는 연못과 다양한 식물이 있는 공간이 있다. 사람들이 많이 붐비지 않고 사진 찍기 좋은 스폿들도 곳곳에 많이 있어 이곳이 ‘청와대의 숨겨진 명소’라는 생각이 들었다. 바로 근처에 있는 상춘재는 ‘항상 봄이 머무는 집’이라는 의미로, 외국 귀빈들을 맞이하는 의전 행사나 비공식 회의 장소로 사용한 한옥이다. 침류각과 상춘재 사이에 있는 연못. /사진= 강예신 여행+ 기자 원래 관광 목적으로 지어진 곳이 아니라 그렇겠지만 각 건물들에 대한 설명이 미비했다. 기자에게 “이 건물이 상춘재가 맞냐”는 질문을 하는 이도 종종 있었다. 처음 가본 기자가 지도로만 건물을 파악하기는 어려움이 많았다. 주변에선 “어디가 어딘지 하나도 모르겠다. 어딘지 알아도 여기가 뭘 하던 곳인진 알고 봐야하는데”하는 아쉬움의 목소리도, "아무렴 어떠냐. 별로 안 궁금하다. 그냥 이곳을 거닐 수 있다는 것 자체로만으로도 좋다"는 행복한 목소리도 들려왔다. 녹지원.  /사진= 강예신 여행+ 기자 별 기대 없이 왔다가 가장 반전으로 아름다웠던 곳을 꼽자면 녹지원이다. 상춘재를 지나면 바로 앞에 청와대 최고의 녹지 공간인 녹지원이 펼쳐지는데, 이곳에는 170년 넘은 반송을 비롯한 120여 종의 나무가 있다. 바람에 살랑살랑 흔들리는 ‘투톤’ 청보리밭은 기자의 취향을 저격했다. 역대 대통령들의 기념식수들이 곳곳에 숨어 있어 찾아보는 재미도 있다. 할머니부터 유모차 탄 아기까지 대가족 관람객부터 다정한 연인까지, 함박웃음을 지으며 녹지원을 거니는 이들을 가만히 바라보니 마음이 따뜻해지는 기분이다. 춘추관 앞 헬기장 피크닉 존. ​춘추관 앞 헬기장은 현재 피크닉존으로 탈바꿈했다. 햇살 맞으며 편안하게 앉아서, 또는 누워서 달콤한 휴식을 취하는 이들로 가득 찼다. 9시쯤 가니 빈자리 하나 찾을 수 없었다. 오전에는 공연이 따로 열리지 않아 아쉬웠는데, 이곳에서 추후에 열리는 줄타기 공연을 연습하고 있는 학생을 볼 수 있었다. 시민들과 함께 환호하고 박수치며 응원하다 문득 지금 이곳이 74년간 굳게 닫혀 있던 곳이라는 사실을 떠올리니 기분이 이상했다. 관람을 마치고 국내외 언론사 기자 300여명이 출입하는 청와대 프레스센터 춘추관 앞 춘추문을 통해 퇴장했다. 퇴장할 때도 바코드를 찍으며, 재입장은 불가능하다. 춘추관.  /사진= 강예신 여행+ 기자 3. 총평무궁화와 봉황이 새겨진 문은 인증 사진 명소로 꼽힌다. /사진= 강예신 여행+ 기자 ​기대를 많이 했는데 그 이상의 감동으로 다가온 건 사실이다. 처음 방문하더라도 추천 코스를 잘 마련하고 있어 관람에 큰 어려움이 없었다. 천천히 둘러보는 데 2시간 정도면 충분하다. 기자는 관람하지 못했지만 다채로운 공연도 많이 열리고, 후기도 좋은 편이다. 곳곳에 안내를 도와주는 직원도 많이 있었다.하지만 ‘국민의 품으로 돌아왔다’고 표현하기엔 아직 부족한 점이 많다. 우선 한정한 인원만 관람할 수 있는 점, 건물 내부는 영빈관, 춘추관을 제외하면 공개되지 않은 점이 가장 아쉽다. 나눠주는 지도나 건물 근처에 관련 정보가 현저히 부족하고 사진 촬영할 때 룰을 어기는 사람들에 대한 규제가 필요해 보인다. 가장 불만스러운 시설은 화장실이다. 간이 화장실을 곳곳에 설치했는데, 멀리서도 악취가 심한 편이라 이용이 꺼려졌다. 초기라 시행착오가 있을 것이라고 생각한다. 더 많은 이들이 편하고 쾌적하게 이용할 수 있도록 보완하길 기대해본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>가족이 코로나19 감염돼도 안 걸리는 ‘슈퍼 면역자’ 있다…왜?</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003696369?sid=103</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>다른 코로나바이러스의 ‘기억T세포’ 몸 안에 남아…면역 반응슈퍼전파자 아니면 전파율 낮아…“가족 간 감염 12%에 불과”“개인의 유전적 차이, 감염 확률에 큰 영향 ” 가설도 설득력    게티이미지뱅크     국민 3명 중 1명이 신종 코로나바이러스 감염증(코로나19)에 걸렸거나 걸린 이력이 있는 것으로 최근 밝혀졌다.    이런 가운데 함께 사는 가족 전원이 걸렸는데도 코로나19에 감염되지 않는 이른바 ‘슈퍼 면역자’들이 있어 주목받고 있다. 이들은 바이러스에 일부러 노출됐는데도 코로나19에 감염되지 않은 사람들이다.    전 세계 과학자들은 이 같은 사람들을 연구하면 코로나19 뿐만 아니라 앞으로 새롭게 등장할 감염병에 맞설 방안을 찾을 수 있을 것으로 보고 속속 연구에 뛰어들고 있다.    동아일보의 보도에 따르면 현재까지 여러 연구를 종합해본 결과, 슈퍼 면역자들이 코로나19에 감염되지 않는 요인에는 선천적인 면역력과 백신 영향, 바이러스 전파 특성이 작용한 것으로 분석된다.    코로나바이러스는 인간을 포함한 동물을 감염시키는 바이러스 계통이다. 지난 2003년 유행했던 사스(SARS·중증급성호흡기증후군)와 2012년 유행한 메르스(MERS·중동호흡기증후군)도 코로나바이러스 계열의 바이러스다.    코로나바이러스 중 인간에게 감염되는 것은 현재까지 7종으로 알려져 있는데, 이 중 4종은 감기처럼 가벼운 호흡기 감염을 유발하는 것으로 전해졌다. 감기 발생의 약 20%가 이들 바이러스가 원인이다.       게티이미지뱅크     과학자들은 코로나바이러스에 한 번 감염된 사람의 경우 같은 계열의 코로나바이러스를 기억하는 면역세포인 ‘기억 T세포’를 보유할 가능성이 높다고 보고 있다. 인체는 병원체에 감염돼 면역반응이 일어날 때 면역세포인 T세포가 다량 생성되는데 이 중 일부는 기억 T세포로 분화한다.   기억 T세포는 평소 몸속에 장기간 남아 있는데 유사한 병원체가 다시 침입하면 면역반응이 더 빠르게 일어나도록 돕는다. 과학자들도 코로나19에 감염되지 않는 사람에게 발견되는 기억 T세포에 주목하고 있다.    영국 유니버시티칼리지런던(UCL)과 싱가포르의 듀크-싱가포르대 의학대학원 연구팀은 감염 위험이 큰 의료종사자 731명 중 코로나19에 미감염된 58명이 코로나바이러스에 대한 높은 수준의 기억 T세포를 보유하고 있다고 국제학술지 ‘네이처’에 작년 11월 발표했다.    이들의 기억 T세포는 코로나19에 감염돼 생성된 것이 아니라 그전에 다른 코로나바이러스에 감염됐을 때 만들어진 것으로 분석됐다.    영국 임피리얼칼리지런던(ICL) 연구팀도 올해 1월 코로나19 확진자 가족 52명을 조사한 결과 코로나19에 감염되지 않은 사람은 이전에 다른 코로나바이러스를 통해 생성된 기억 T세포를 다량 보유하고 있다는 연구 결과를 국제학술지 ‘네이처 커뮤니케이션스’에 발표했다.    코로나19 백신은 코로나19에 대한 기억 T세포를 생성하는 데 큰 역할을 한다. 백신 접종으로 생성된 기억 T세포는 오미크론 변이에도 반응한다는 연구 결과도 있다.    스웨덴 카롤린스카연구소는 메신저리보핵산(mRNA) 백신 접종을 받은 40명, 코로나19에 감염된 48명, 백신 접종이나 감염 경력이 없는 48명의 혈액 샘플을 비교한 결과 백신 접종으로 생성된 기억 T세포가 오미크론 변이에 반응한다는 사실을 알아냈다.       코로나19 바이러스. 게티이미지뱅크     또한 코로나19에 감염된 가족과 함께 있어도 같이 걸릴 확률이 그리 높지 않다는 연구 결과도 나왔다. 미국 유타대 연구팀은 코로나19 유행 초기였던 2020년 5∼6월 8000건의 혈액 샘플을 분석한 결과 가족 중 한 명이라도 확진자가 있을 때 다른 가족 구성원도 감염될 확률이 12%에 불과하다는 사실을 알아냈다.   이 연구를 주도한 데이먼 토스 유타대 의대 내과 교수는 전체 결과의 80%는 전체 원인의 20%에서 비롯된다는 ‘파레토 법칙’으로 이를 해석했다. 가족 간 감염 가능성보다는 ‘슈퍼 전파자’ 20%가 전체 감염의 80%를 유발한다는 이론이다.    실제로 중국 선전시 보건당국이 2020년 4월 확진자 391명과 밀접접촉자 1286명을 분석한 결과 확진자 10∼20%가 80%의 감염을 유발한 것으로 나타났다. 유타대 연구팀은 다만 “가족 간 전파 확률 12%도 결코 낮은 수치는 아니다”라며 “가족 간에도 밀접한 관계일수록 전파 확률이 높았으며, 부부간 전파 확률은 43%에 이른다”라고 덧붙였다.    개인의 유전적 차이도 감염 확률에 큰 영향을 미친다는 것도 점점 과학적 설득력을 얻고 있다. 미국·영국·중국·일본 등 50개국 기관이 참여하고 있는 ‘코로나19 인간 유전적 노력’ 컨소시엄은 “일부 사람이 바이러스 유입에 자연적으로 내성을 갖게 하는 단일 유전자 변이를 갖고 있다”는 가설을 세우고 연구에 들어갔다.    컨소시엄 측은 9일 “코로나19에 내성을 갖는 사람들의 유전자를 수집하고 있으며 현재까지 약 700명의 유전자를 확보했다”며 “5∼6개월 후 분석이 완료될 것으로 보인다”라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>"쉽고 빠른 디지털 전환, 설명서도 필요없죠"</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004967919?sid=105</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>산딥 샤르마 워크데이 亞 사장이젠 데이터 예측·분석이 필수설치만 하면 누구나 쓸 수 있어직원 수보다 역량 관리가 중요체계적인 기술 습득 방안 제시 "기업들이 직원들의 '몰입(engagement)'을 관리하는 것이 중요해졌습니다. 인사관리(HR) 관점에서 '머릿수(head count)' 중심 관리가 아니라 '역량(skill)' 중심 관리가 필요한 이유죠."산딥 샤르마 워크데이 아시아 총괄 사장은 최근 방한 일정 중 매일경제와 만나 코로나19 이후 달라진 인사 트렌드에 대해 이같이 밝혔다. 그는 "예전에는 각 부서에 직원이 몇 명인지를 따졌다면, 이제는 자바 인력은 몇 명인지, 앞으로 얼마나 늘려야 하는지 목표를 파악할 수 있는 식의 인사관리가 필요하다"며 "워크데이가 이 같은 체계 수립을 용이하게 해줄 수 있다"고 강조했다. 그러면서 "재택·하이브리드 근무로 고립감을 느끼는 직원들을 심층적으로 이해하는 일이 중요해졌다"며 "직원 입장에서도 자신이 현재 보유한 역량이 무엇이며, 앞으로는 어떤 역량을 추가로 확보해야 할지 가늠하는 데 도움을 얻을 수 있는 솔루션"이라고 설명했다. 워크데이는 2005년 설립된 클라우드 기반 인사·재무관리, 분석 솔루션 기업이다. 중견기업부터 포천 500대 기업의 절반 이상을 고객사로 두고 있다. 샤르마 사장은 지난해 4월부터 워크데이의 아시아 지역 C레벨 대상 영업, 전략 수립·운영을 책임지고 있다. 그는 "아무것도 안 하고 현상을 유지하는 것이 리스크가 적어 보일 수 있지만 이제는 기업이 빠르게 디지털 전환을 이루는 것이 오히려 리스크가 적은 옵션이 됐다"고 말했다.샤르마 사장은 팬데믹 이후 기업의 디지털 전환을 위해서는 완전히 새로운 차원의 민첩성이 요구된다고 역설했다. 실제로 워크데이가 전 세계 1150명의 고위급 비즈니스 리더들을 대상으로 설문을 실시한 결과, 55%의 응답자가 시장 상황이 기업의 기술과 업무 처리 프로세스보다 빠르게 변화하며 디지털 가속화의 간극이 커지고 있다고 느끼는 것으로 파악됐다. 샤르마 사장은 "직원 관리를 위해 원한다면 언제든 상시로 전 직원 설문도 가능한 역량이 필요해졌다"며 "이를 따라가기엔 조직 자체 역량으로는 부족할 수밖에 없는 만큼, 머신러닝 기반의 데이터 예측·분석 역량을 갖춰야 한다"고 말했다. 샤르마 사장은 기업의 빠른 디지털 전환을 지원할 워크데이 솔루션의 강점으로 쉬운 사용성을 들었다. 이른바 '컨슈머 인터넷 레디' 서비스라는 것이다. 그는 "따로 매뉴얼을 읽을 필요 없이 누구나 내려받자마자 영화를 볼 수 있는 넷플릭스처럼 워크데이 솔루션도 인터넷을 사용하던 경험 그대로 모든 직원들이 빠르게 이용할 수 있다"고 말했다.샤르마 사장은 워크데이 솔루션을 기반으로 성공적으로 디지털 전환을 수행한 국내 파트너로 '토스'를 들었다. 그는 "디지털 태생의 토스와 클라우드 네이티브 솔루션 워크데이는 문화가 잘 맞았다"며 "토스는 핵심 자산인 직원들에게 맞춰 빠르게 움직일 플랫폼으로 워크데이를 선택해 유니콘으로 성장한 사례"라고 평가했다. 샤르마 사장은 한국을 '매우 흥미롭고 중요한 시장'이라고 짚었다. 그는 "한국은 코로나19 이후 디지털 기술을 굉장히 적극적으로 도입했다"며 "한국이 이렇게 성장하는 데 워크데이가 기여할 수 있다면 필요한 역할을 할 것이며, 반대로 한국의 혁신을 워크데이도 배우고 받아들일 준비가 돼 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>인터넷은행, 1분기 중저신용자 대출 비중↑…토스뱅크 1위</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005095489?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크·토스뱅크 등 인터넷 은행 3사의 중저신용자 대출 비중이 지난 1분기 증가한 것으로 나타났다. 특히 토스뱅크의 비중이 가장 큰 폭으로 늘었다. 27일 은행연합회 공시에 따르면 각 인터넷 전문은행의 '중·저신용자 대상 신용대출 비중(잔액 기준)'은 카카오뱅크 19.9%, 케이뱅크 20.2%, 토스뱅크 31.4%로 집계됐다. 지난해 말에 비해 카카오뱅크는 2.9%포인트, 케이뱅크는 3.6%포인트, 토스뱅크는 7.5%포인트 비중이 늘었다.이 수치는 각 인터넷 은행의 전체 가계 신용대출에서 개인신용평가회사 코리아크레딧뷰로(KCB) 기준 신용평점 하위 50%(KCB 850점 이하) 대출자에 대한 대출이 차지하는 비중을 뜻한다.금융당국은 지난해 5월 인터넷 전문은행이 중·저신용층에 대한 대출 공급을 확대하겠다는 당초 설립 취지와 달리 고신용층 위주의 보수적인 대출 영업을 한다고 지적하며 중·저신용자 대출 비중 확대를 주문했다. 지난해 연말까지는 3사 모두 당초 목표한 수준에는 도달하지 못했다. 올해 연말 목표치로 제시한 비중은 카카오뱅크와 케이뱅크가 25%, 토스뱅크가 42%다.토스뱅크는 인터넷은행 중 유일하게 30%를 넘었다. 토스뱅크 관계자는 "분기별 공시를 시작한 지 2번째 만에 인터넷은행 중 유일하게 30% 넘는 성과를 달성했다"며 "올해 중저신용자 신용대출 비중 목표치는 42%로, 전사적인 노력과 시스템 고도화를 통해 중저신용고객이 제1금융권의 테두리 안에서 정상적인 경제생활과 금융소비자로서의 최상의 혜택을 누릴 수 있도록 앞장서겠"고 말했다.카카오뱅크는 "4월 말 기준으로는 중저신용자 대출 비중이 20.8%"라며 "새로운 신용평가모형을 적용한 지난해 6월부터 매월 약 1%포인트씩 비중이 상승해 연말 목표인 25%는 무난히 달성할 것으로 예상된다"고 밝혔다. 카카오뱅크는 향후 대안정보 신용평가모형을 개발해 중저신용 고객에 대한 변별력을 높이고, 기존에 다른 금융회사 대출을 이용하던 고객을 위한 '대환 신용평가모형'도 개발할 계획이다.케이뱅크 역시 이달 말 기준으로는 중저신용 대출 비중이 22.7%까지 오르는 등 비중이 계속 상승하고 있다. 케이뱅크 관계자는 "금융소외 계층을 포용한다는 인터넷은행 설립 취지에 맞게 중저신용자 대출공급을 지속적으로 확대하고 있다"며 "앞으로도 금융소외 계층에 다양한 혜택을 제공하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>핀다, 하나銀 신용대출·토뱅 사장님 대출 입점</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004751643?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>사진제공=핀다데이터 기반 대출비교 플랫폼 핀다가 하나은행 개인 맞춤형 대출 상품 등이 새로 입점됐다고 27일 밝혔다. 이로써 핀다는 총 62개 제휴사의 200여개 대출 상품을 고객들에게 노출할 수 있게 됐다.하나은행 뿐만 아니라 토스뱅크의 사장님 대출 상품도 입점됐다. 이 상품은 매출액이 크지 않아도 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자보다 높은 신용도를 인정받을 수 있는 상품이다. 아울러 핀다는 세람저축은행의 개인회생자대출도 추가했다. 개인회생 면책자나 변제자를 위한 대출 상품이다. 12개월 이상 변제계획을 성실하게 이행하고 있거나 최근 1년 이내 개인회생 변제가 끝난 경우 이용할 수 있다. 박홍민 핀다 공동대표는 "핀다 이용 고객이 각자의 상황에 맞는 가장 유리한 대출상품을 선택할 수 있도록 제휴 금융사와의 파트너십을 강화하면서 다양한 상품 라인업을 갖췄다"라며 "대출을 갖고 있거나 대출이 필요한 누구든지 핀다를 통해 개인이 중심이 되는 금융 서비스를 누릴 수 있도록 서비스를 고도화해 나가겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>책 사면 대출 기회 생긴다고?… 인뱅 3사의 영업 비밀</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000678187?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>'보석 차주' 발견하기 위해 각종 정보 활용도서 구입·휴대폰 요금제·쇼핑 패턴 등 분석인뱅 3사, 1분기 중·저신용자 대출 비중 ↑인터넷전문은행(인뱅)들의 중·저신용자 대출에 불이 붙었다. 각자 개발한 신용평가모델(CSS)이 속속 진가를 발휘하면서 신용평점이 상대적으로 낮아도 대출 기회를 주고 있다. 중·저신용자 대출 비중을 늘리기 위한 인뱅의 CSS는 기존 은행과 다르다. 연체 없이 돈을 잘 갚을 '보석' 차주를 다양한 정보 분석을 통해 골라낸다. CSS가 똑똑해 질수록 인뱅은 연체율을 낮추고, 신용도 낮은 고객은 대출 기회가 늘어난다.   가장 눈에 띄는 건 카카오뱅크의 '책 구입 정보' 활용이다. 시중은행 평가에선 가치가 없는 정보로 치부되지만 카카오뱅크는 '미래를 대비한다'는 가치를 부여했다. 책을 사 볼 정도라면 연체율을 낮출 수 있는 정보로 충분히 활용할 수 있다는 것이다. 카카오뱅크는 3분기부터  책 구입을 비롯해 △카카오모빌리티 △카카오커머스 이력 정보 등에 가점을 부여하는 CSS를 구축할 예정이다. 케이뱅크는 2월 휴대폰 요금제·쇼핑 패턴 정보 등을 활용한 CSS 개선을 통해 대출 승인율을 끌어올렸다.  토스뱅크는 CSS 분석 능력에 인공지능 분야인 머신러닝(기계학습)을 도입해 신용점수 454점(과거 KCB 기준 8등급) 차주까지 고객으로 확보했다. 다만 인뱅들은 CSS 운영 노하우가 중·저신용자 대출 확대의 핵심 비결인 만큼,  '영업 비밀'을 구체적으로 공개하지는 않고 있다. 은행연합회 제공CSS 고도화 덕에 인뱅들의 중·저신용자 대출 비중도 최근 일제히 상승했다. 31일 은행연합회에 따르면 케이뱅크는 지난해 말 16.6%에서 올해 1분기 말 20.2%로, 같은 기간 카카오뱅크는 17%에서 19.9%로 늘어났다. 특히 가장 늦게 출범한 토스뱅크는 23.9%에서 31.4%까지 끌어올려 인뱅 최초로 ’30%’을 돌파했다. 전체 가계 신용대출에서 중·저신용자(KCB 신용평점 기준 하위 50%) 대상 신용대출이 차지하는 비중이 30%가 넘었다는 얘기다. 지난해 자체 목표에 미달했던 인뱅 3사는 올해만큼은 목표 달성을 자신하고 있다. 케이뱅크·카카오뱅크의 올해 달성 목표는 25%, 토스뱅크는 42%다. 인뱅 관계자는 "2023년까지 최종 목표 달성에 실패하면 각종 인·허가 심사 시 불이익을 받게 된다"며 "CSS 개발이 결실을 맺으면서 올해 목표치 달성이 가능할 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>구직자 72.3% "스타트업 취업도 OK"</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004838764?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 구직자와 직장인 절반이상이 스타트업 기업의 취업에 긍정적인 것으로 나타났다. 이들은 스타트업 취업의 장점으로 기업의 높은 성장 가능성과 수평적이고 자율적인 기업문화를 꼽았다.   19일 취업 플랫폼 잡코리아가 구직자와 직장인 1063명을 대상으로 스타트업 기업의 취업(이직) 의향에 대해 설문조사를 진행한 결과, 전체 응답자 10명중 7명에 달하는 72.3%가 '의향이 있다'고 답했다.   이들은 스타트업 기업에서 일할 의향이 있다고 답한 이유1위로 '기업의 높은 성장 가능성'을 꼽았다. 복수응답으로 조사한 결과 '기업의 성장 가능성이 높아 보여서' 스타트업 기업에 취업할 의향이 있다는 응답자가 52.9%(응답률)로 가장 많았다. 이어 '일하면서 배울 점이 많을 것 같아서' 스타트업 기업에 취업할 의향이 있다는 응답자도 35.0%로 다음으로 많았다. 다음으로는 '직원 복지제도가 우수해서(29.5%)', '수평적인 조직문화를 갖고 있을 것 같아서(27.2%)', '연봉 수준이 높을 것 같아서(19.5%)'순으로 답변이 높았다.   직장인과 구직자들은 '스타트업 취업의 가장 큰 장점(메리트)'도 '기업의 높은 성장 가능성'이라 답했다. 이어 수평적이고 자율적인 문화와 다양한 직원 복지제도가 스타트업 기업의 메리트라 답한 응답자가 많았다.   조사결과 '기업의 높은 성장 가능성'이 응답률 43.7%로 가장 높았고, 이어 수평적인 조직문화(38.0%), 자율적인 기업문화(30.1%), 다양한 직원 복지제도(26.6%), 직원 개인 역량의 발전 가능성(24.6%) 순으로 스타트업 기업 취업의 장점을 꼽았다.   잡코리아 관계자는 "성장 가능성이 높은 사업 비전과 수평적이고 자율적인 기업문화를 갖춘 스타트업 기업에 대한 직장인과 구직자들의 관심이 높은 것으로 보인다"며 "특히 자율적인 문화가 반영된 이색 복지제도를 펼치는 스타트업 기업들이 나타나고 있는데 이는 인재 영입과 유지를 위해 긍정적인 효과를 내고 있는 것으로 보인다"고 분석했다.   이어 직장인과 구직자들에게 '가장 혜택을 받고 싶은 복지제도'에 대해 복수응답으로 조사한 결과 '주4일근무제'를 꼽은 응답자가 29.0%로 가장 많았다. 다음으로 '유연근무제'가 응답률 26.8%로 많았고, 재택근무제(20.8%), 교통비·유류비 지원(17.7%), 본인·자녀 교육비 지원(15.9%), 스톡옵션 제도(14.3%) 순으로 답변이 높았다.   실제 스타트업 중에는 다수의 기업이 '주4일제'와 '주4.5일제'를 운영하고 있다. 배달의민족을 운영하는 우아한형제들은 주4일제를 운영하고 있고 애슬레저 스타트업 뮬라도 주4일근무제를 운영하고 있다. 토스앱을 운영하는 비바리퍼블리카와 숙박앱 여기어때는 주4.5일제를 운영하고 있다. 주4일제를 운영하는 기업들은 근무시간을 효율적으로 사용하기 위한 방안으로 근무시간을 단축하면 업무 집중도가 높아진다고 설명한다.   '시차출퇴근제', '겨울방학' 등 자율출퇴근, 휴무제도를 운영하는 스타트업도 있다.   한편, 잡코리아는 퓨처랩 서비스를 통해 취업 준비에 필요한 다양한 기업정보를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>'카뱅·카카오페이' 쓰는 사람은 많은데...떨어진 주가 돌파구는</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004746144?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 금융 플랫폼 시대가 열리면서 금융산업에 활기가 돈다. 혁신과 디지털로 중무장한 빅테크들의 금융영토 확장 행보가 가속화하면서다. 카카오, 네이버, 토스 등 빅테크 3강은 차별화된 색깔과 전략으로 금융시장의 전통적인 강자들을 위협하고 있다. 대형 금융지주도 생존을 위한 플랫폼 전쟁에 뛰어들었다. 이른바 '신주류'로 떠오른 빅테크를 해부하고 금융산업의 변화와 미래를 조망해 본다.[[MT리포트] 금융 빅테크 삼국지(上)카카오]━"규제엔 면허로" 카카오의 정공법…이젠 종합금융그룹━카카오가 금융업에 첫 발을 들인 건 2017년 4월 카카오페이를 설립하면서부터다. 포털 경쟁사인 네이버도 네이버페이와 네이버파이낸셜을 내세워 추격 중이지만 금융 빅테크(IT대기업) '리딩 컴퍼니'는 단연 카카오다. 시장 선점효과도 있지만 금융업을 바라보는 시각과 전략이 차이를 만들었다는 분석이다. 불과 5년여 만에 인터넷전문은행 맏형인 카카오뱅크와 간편결제플랫폼에서 종합금융플랫폼 도약을 시도 중인 카카오페이를 주류 금융회사로 성장시켰다. 카카오페이 상장 후 터진 '먹튀 사건' 등으로 금융업에서 가장 중요한 '신뢰'를 잃은 점은 카카오엔 가장 큰 과제로 꼽힌다.  ◇'금융 라이선스' 정공법 카카오…규제 방향 바뀌어도 이상無카카오의 금융 영토 진입 전략은 '정공법'이었다. 카카오가 금융업에 본격 진출할 당시 금융당국은 핀테크(금융기술기업) 육성에 올인했다. 금융 플랫폼 기업은 기존 금융사와 제휴해 금융업에 쉽게 접근했다. 대형 은행 등 기존 금융회사는 '기울어진 운동장'이라며 거세게 반발하기도 했다. 카카오는 반면, 제휴가 아닌 홀로서기를 시도했다. 4000만명이 넘게 사용하는 카카오톡 메신저 플랫폼을 활용하면 독자노선도 충분히 경쟁력이 있다고 판단한 것이다. 금융업은 기본적으로 규제 산업이다. 홀로 서려면 '금융업 면허'(라이선스)'가 있어야 한다. 카카오는 금융 비즈니스에 필요한 대부분의 '라이선스'를 획득했다.  카카오의 정공법에는 실패의 경험도 녹아 있다. 과거 카카오모빌리티는 카풀 산업에 진출하려다 택시산업 종사자들은 물론 국토교통부와 갈등을 빚었다. 결국 택시운수회사 인수를 통해 해결책을 모색했다. 카카오페이 역시 삼성화재와 합작손보사를 설립하려다 의견 차이로 무산된 전례가 있다. 결과는 현재로선 성공적이란 평가가 지배적이다. 최근 금융당국의 정책 방향이 빅테크 등 온라인 플랫폼에 녹록지 않게 변했지만 사업 면허가 있는 카카오는 상대적으로 큰 영향을 받지 않는다. 반면, 제휴 전략을 선택한 일부 빅테크·핀테크는 강화된 당국 규제에 발목이 잡혀 있다. 카카오 금융회사들이 제도 금융권에 속해 있다는 점에서 기존 금융사들과 갈등이 크게 노출되는 경우도 적다. 카카오페이 한 관계자는 "라이선스 취득이 목적이라기보다는 정책상 필요하다고 생각해서 결정한 사항"이라며 "라이선스와 별개로 여러 금융사들과 적극적인 협업도 하고 있다"고 말했다.  ◇은행·증권·보험 라이선스 다 있다···사실상 종합금융그룹카카오는 종합금융그룹이라고 해도 과언이 아닐 정도로 금융 영역을 확장했다. 인터넷은행인 카카오뱅크와 전자금융업자인 카카오페이가 양대 축이다. 카카오페이는 △마이데이터(본인신용정보관리업) △대출모집업 △GA(보험대리점) △증권 △디지털손해보험 등의 라이선스를 획득한 상태다. 특히 지난 4월 빅테크 최초로 설립 허가를 받은 디지털손보사에 거는 기대가 크다. 카카오페이 디지털손보사는 상반기 출범 후 이르면 3분기 중 첫 상품을 출시할 계획이다. 여행자보험이나 휴대전화 파손보험 등 생활밀착형 미니 보험을 우선 시작한다. 아울러 GA 자회사인 KP보험서비스를 통해 카카오페이 디지털손보사와 타 보험사의 상품을 중개한다. 카카오페이는 새로운 수익원이 될 것으로 기대한다. ◇쪼개기 상장+경영진 리스크 비판 받기도···"급성장 한만큼 책임도 져야"카카오는 단기간 급성장에 따른 성장통도 겪고 있다. 카카오는 문어발식 사업 확장과 함께 '쪼개기 상장'을 남발한다는 비판도 받았다. 카카오는 상장 계열사 대다수를 초기 사업 단계에서 신규 법인으로 육성했다는 점에서 '사업 쪼개기'와는 거리가 있다고 항변한다.  하지만 시장에선 카카오톡 기반의 사업 확장이란 점에서 본질적으로 '쪼개기'와 큰 차이가 없다고 인식한다. 카카오뱅크와 카카오페이 등 금융 계열사들도 논란에서 자유롭지 못하다. 급성장 과정에서 기업 윤리와 경영상의 오판이 평판에 악영향을 미치기도 했다. 카카오페이 경영진이 상장 40여일만에 보유주식을 매각해 900억원을 챙긴 사건은 엄청난 파장을 불러왔다. 신규 상장 임원은 주식을 의무적으로 6개월간 보유해야 한다는 제도가 만들어진 계기가 됐다. 카카오가 금융산업의 주류로 성장하고 있는 만큼 그에 상응하는 기업 윤리와 사회적 책임을 고민해야 한다는 게 금융권의 공통된 의견이다.━카카오뱅크·페이 동반자? 경쟁자?···시너지 가능할까━카카오 금융의 양대 축은 카카오뱅크와 카카오페이다. 카카오 그룹 내에선 동반자지만 금융시장에선 경쟁자이기도 하다. 계열사의 독자성을 폭넓게 인정하는 카카오의 경영 방침을 감안하면 두 회사 모두 독자 노선을 걷고 있다고 봐도 무방하다. 카카오 안팎에서 양사의 시너지를 기대하기 쉽지 않다는 얘기가 나오는 배경이다.  경영진의 출신부터가 다르다. 카카오페이를 설립한 류영준 전 대표는 김범수 카카오의장과 같은 삼성SDS 출신으로 동료들과 함께 핀테크(금융기술기업)로 넘어왔다. 반면 윤호영 카카오뱅크 대표를 비롯한 초기 임직원들은 2014년 카카오와 합병한 다음 출신이 다수다. 인적 접점이 크지 않다.서비스 시작은 카카오페이가 빨랐지만 시장 가치는 카카오뱅크가 앞선다. 먼저 시장에 안착한 것도 카카오뱅크다. 기업공개(IPO·상장) 과정도 경쟁적이었다. 내부적으론 카카오페이가 먼저 상장하는 쪽으로 교통정리가 됐으나 지난해 8월 상장한 카카오뱅크가 석달 빨랐다. 카카오페이는 주주구성 문제로 인한 마이데이터 사업 지연, 금융감독원의 공모가 정정요구, 빅테크(IT대기업) 규제 강화 등의 이슈로 상장이 잇따라 지연됐다.  '한 지붕 두 금융'의 라이벌 구도는 앞으로도 지속될 가능성이 높아 보인다. 은행에 비해 확장성이 큰 사업모델을 갖춘 카카오페이가 그룹 내 금융 2인자 위치에 안주할 것으로 보는 시각은 많지 않다.  카카오가 최대주주라는 점 외에 판이한 주주 구성도 이런 관측을 키운다. 주요 주주의 이해 관계에 따라 경영 방침이 달라질 수밖에 없어서다. 카카오페이는 카카오와 알리페이싱가포르홀딩스가 주식 대부분을 갖고 있다. 카카오뱅크는 카카오와 한국투자금융지주, 국민은행, 넷마블, SGI서울보증, 우정사업본부, 이베이, 텐센트, 예스24 등 주주 구성이 다양하다. 카카오뱅크가 은행업계 이익을 대변하는 은행연합회 회원사라는 점도 눈여겨볼 요인이다. 카카오페이는 GA(보험대리점), 증권, 디지털손해보험사 등 기존 금융업 라이선스를 취득해 제도권에 발을 들였지만 주력은 온라인 간편결제 플랫폼이다. 은행 플랫폼인 카카오뱅크와는 시각차가 존재한다. 카카오는 계열 금융사들의 경쟁과 협력을 동시에 강조한다. 카카오페이 자산관리 서비스에서 카카오뱅크 계좌 목록과 이용 내역을 확인하는 등 주요 은행 업무를 할 수 있고, 대안신용평가모델 고도화를 위한 데이터 교류 등 다양한 방면에서 양사가 협력하고 있다는 것이다. 카카오페이 관계자는 "카카오 공동체 안에서 금융 혁신이란 공통된 목표를 갖고 있는 만큼 앞으로도 상호 경쟁과 협력을 통해 산업 발전에 이바지할 계획"이라고 말했다.━'찐고객 1위'인데 공모가 밑으로....카뱅의 미래는?━카카오뱅크 성장 추이/그래픽=이호연 디자인기자카카오뱅크는 지난해 8월 증시 입성 후 단숨에 금융 대장주 지위를 차지하는 등 4대 금융지주와 어깨를 나란히 하는 은행으로 성장했다. 실사용자 수가 가장 많은 금융 플랫폼으로도 우뚝 섰다. 소매금융만으로 올린 성과라는 점에서 의미가 작지 않다. 다만, 기존 은행의 텃밭인 기업금융 부문에서도 금융시장의 메기 역할을 할 지는 미지수다.  최근 주가가 공모가 밑으로 떨어지면서 시장에 성장성에 대한 확신을 심어 주는 게 최대 과제다.  15일 금융권에 따르면, 지난 1분기말 카카오뱅크 고객 수는 1861만명으로 전년 말보다 62만명 증가했다. 은행 앱 월간활성이용자수(MAU)는 1503만명(닐슨미디어 데이터 기준)으로 전체 고객의 80% 수준에 달한다. 독보적인 금융 앱 1위다. 가입만 하는 '유령고객'보다는 자주 쓰는 '진성고객'이 대다수란 의미다.  금융 플랫폼에 익숙한 MZ세대(1980년대 초반~2000년대 초반 출생)뿐 아니라 모든 세대가 두루 쓰는 금융 플랫폼이란 특징도 있다. 1분기 새로 유입된 고객의 70%가 40대 이상이었다. 전체 고객에서 40대 이상이 차지하는 비중도 40%를 넘는다. 10대 청소년 전용 서비스 미니(mini)가 128만 고객을 확보하는 등 흥행을 거두면서 모든 연령층을 품는 은행으로 성장했다. 카카오뱅크는 2017년 출범 당시부터 공인인증서가 아닌 간편 로그인 방식을 선보였고, 직관적이고 편리한 UI(사용자환경), UX(사용자경험)로 눈길을 끌었다. 복잡하고 무거운 기존 은행 앱과 또렷이 대비됐다. 이체, ATM(현금자동인출기) 등 각종 수수료를 무료로 하고 금리인하요구권 활성화로 소비자 권리를 강화해 기존 은행들에 자극을 줬다. 대형 은행들이 소비자 편의성에 초점을 둔 금융 플랫폼 경쟁에 모두 가세했다는 점을 감안하면 금융시장의 '메기' 역할을 충실히 한 셈이다. 문제는 카카오뱅크의 성장성에 대한 물음표다.  금융 영토가 제한적인 소매금융 업무 중심인 데다 기업금융에는 아직 발을 들이지 못 한 상태다. 상장 초기 거품이 서서히 빠지고 있는 것도 포트폴리오 부재에 다른 성장성에 대한 의문 탓이다.  카카오뱅크는 지난 13일 3만8450원에 거래를 마쳤다. 공모가(3만9000원)보다 주가가 떨어진 것이다. 상장 직후인 지난해 8월 중순 최고점(9만4400원)과 견주면 60% 가까이 하락했다.  시가총액도 KB금융지주(24조402억원)와 신한금융지주(21조6971억원)에 크게 못 미친다. 지난해 증시 데뷔 당시 단숨에 금융 대장주 자리를 꿰찼던 상황을 돌아보면 민망한 성과다. 최근 글로벌 긴축과 금리 인상에 상승세에 접어든 금융주 주가 행보와는 반대 흐름이다.  카카오뱅크가 지난 2월 비대면 주택담보대출을 선보인 것도 수익원 다변화와 포트폴리오 확대를 위한 승부수다.  올 하반기엔 개인사업자 대출과 수신상품을 출시해 기업금융 시장에 뛰어들 계획이다.  금융 플랫폼 강점을 극대화하기 위해 가상자산(암호화폐) 거래소 제휴도 검토 중이다. 증권계좌, 연계대출, 신용카드 발급 서비스와 관련한 제휴사도 늘려가고 있다. 글로벌 시장에 진출할 준비도 하반기부터 본격화할 계획이다. 윤호영 대표는 최근 1분기 실적을 발표하면서 "플랫폼 경쟁력을 강화할 기초 전략은 제휴사 확대"라며 "내년부터 금융 플랫폼의 성격을 좀더 견고히 할 것"이라고 했다.━실적 부진에 주가도…카카오페이 반등 전략은?━'상장 대박'을 터뜨리며 승승장구할 것 같던 카카오페이가 기대보다 못한 실적에 체면을 구기고 있다. 성장주에 대한 투자심리가 약화한 데다, 상장 후 6개월 보호예수물량 해제에 따른 오버행(매도 대기 물량) 우려까지 겹치며 주가도 곤두박질쳤다. 무엇보다 경영진의 무책임한 스톡옵션(주식매수선택권) 행사로 잃어버린 주주와 소비자 신뢰를 되찾아야 하는 과제도 안고 있다. 카카오페이는 금융당국으로부터 본허가를 받은 디지털손해보험사와 카카오페이증권의 MTS(모바일트레이딩시스템) 등을 앞세워 반전 기회를 모색한다는 구상이다.15일 한국거래소에 따르면 카카오페이는 지난 13일 8만6000원에 거래를 마쳤다. 지난해 상장 당시 공모가(9만원)보다 내려간 것이다. 지난해 11월30일 기록한 최고가(24만8500원)와 비교하면 거의 3분의 1 수준이다. 지난 12일에는 8만5000원까지 밀리며 신저가를 경신하기도 했다.카카오페이 주가 하방의 결정타는 이른바 'CEO 먹튀' 사건이었다. 류영준 전 카카오페이 대표를 비롯한 주요 경영진은 상장 한달 여만에 스톡옵션 대량 행사로 주주들의 공분을 샀고 이후 주가가 곤두박질치기 시작했다. 최근 증시 하락과 전세계적인 성장주 재평가로 주가가 힘을 못쓰고 있다.실적도 기대치에 못미친다. 카카오페이는 올해 1분기 연결기준 약 38억원의 당기순이익을 거뒀다. 지난해 동기(약 120억원) 대비 68.4% 감소한 실적이다. 매출(1233억원)은 지난해(1071억원)보다 15.1% 늘었지만, 영업이익이 적자전환(약 11억원 영업손실)하면서 순이익 규모가 쪼그라들었다. 카카오페이는 "인건비가 지난해 동기 대비 30.8% 증가했는데, 인력 증가와 연간 인센티브 비용 증가 등이 반영된 결과"라고 설명했다.◇보험·증권으로 반등 노린다2017년 4월 카카오에서 분사해 설립된 카카오페이는 '국민 금융 플랫폼' 기치로 성장했다. 대한민국 전체 인구(약 5100만명)의 74%인 3788만명의 등록 유저를 확보했다. 단순히 등록 고객만 많은 게 아니라 실제 카카오페이를 활용해 금융생활을 하는 사람들을 끌어모았다는 게 강점이다. 실제 월간 활성 이용자수(MAU)가 2156만명에 달한다. 국민 10명 중 4명은 카카오페이로 금융생활을 하고 있다는 의미다.기존 금융회사들이 각자 영역의 금융서비스를 앱으로 제공해온 것과 달리 카카오페이는 출범 때부터 신선한 충격을 줬다. '종합 금융 플랫폼'을 표방한 카카오페이는 국내에서 처음으로 모바일 간편결제 서비스를 시작한 이후 △송금 △증권 △대출 △보험 △자동차 관리 △신용관리 △전자문서 △환전 △멤버십 관리 △자산관리까지 모든 생활영역으로 서비스 범위를 넓혔다.은행과 보험사, 카드사 등이 뒤늦게 플랫폼 전환을 추진 중이지만 현재로선 역부족이다. 그러는 사이 카카오페이는 마이데이터(본인신용정보관리업)를 통해 '내 손안의 PB(프라이빗 뱅커)'로 또 한번의 진화를 꿈꾸고 있다. 카카오페이 하나만 있으면 모든 자산을 관리할 수 있는 맞춤형 금융서비스를 제공한다는 목표다.우선 보험과 증권 부문 신사업을 통해 주가와 실적 반등을 노린다는 계획이다. 당장 상반기 내 디지털손해보험사를 정식 출범하고 이르면 3분기 첫 상품을 내놓을 예정이다. 카카오페이는 손해율이 높은 자동차보험과 장기보험 등은 상품라인업에서 일단 배제했다. 대신 접근성이 좋은 단기 상품인 △휴대전화 파손보험 △동호회 보험 △여행자보험 △홀인원보험 등 생활밀착형 상품 서비스에 집중한다는 계획이다. 카카오 계열사인 카카오모빌리티와 연계한 택시·바이크·대리기사 소액 단기보험이나 카카오커머스와 함께하는 반송 보험 등도 고려 중이다.얼마 전 정식 출시된 카카오페이증권 MTS에 거는 기대도 크다. 최근 MTS를 기반으로 한 해외주식 소수점 거래 서비스를 시작했다. 하반기에는 카카오톡에서 종목을 공유하고, 시세를 확인할 수 있다. 조만간 간단한 주식거래까지 가능하게 한다는 목표다. 아울러 신용융자, 주식담보, 매도대금 담보, 대주거래 등 다양한 대출 서비스도 하반기 중 내놓을 예정이다.코로나19(COVID-19) 사회적 거리두기 전면 해제에 따른 오프라인 소비 증가 추세에 발맞춰 오프라인 결제처도 확대한다. 테마파크나 대학가, 쇼핑몰, 그리고 나아가 해외 가맹점까지 제휴를 늘릴 계획이다. 신원근 카카오페이 대표는 컨퍼런스콜에서 "올해는 카카오페이 핵심서비스의 편의성 향상을 통해 비용효율적 성장을 추진하고, 디지털 손해보험사를 출범시켜 성공적으로 안착시킬 것"이라며 "마이데이터나 송금 등 트래픽을 일으키는 서비스와 수익창출을 일으키는 서비스의 연결고리를 명확히 해 수익적으로도 카카오페이의 역량을 보여줄 것"이라고 밝혔다.◇대외 상황 악재…주주·소비자 신뢰 회복은 과제과제도 작지 않다. 당장 경영진 먹튀에 따른 주주와 소비자들의 신뢰를 회복하는 게 시급하다. 내부 직원들의 동요도 잠재워야 한다. 실제 카카오페이는 경쟁사와의 '연봉 인상 경쟁'과 스톡옵션 사건에 대한 내부 반발을 잠재우기 위해 올해 초 성과급과 별도로 전직원 연봉을 1000만원씩 올렸다. 복지지원금액도 360만원씩 늘리기로 했다. 이런 조치는 비용 상승에 따른 실적 하방 압력 요인으로 '부메랑'이 돼 돌아올 가능성이 크다.대외적 상황도 만만치 않다. △미국 연방준비제도(Fed)의 빅스텝(기준금리를 한번에 0.5%포인트 인상하는 것) △우크라이나 전쟁 장기화로 인한 인플레이션 △중국의 '제로 코로나' 정책에 따른 도시 봉쇄 등으로 성장주 전반에 대한 투자심리가 얼어붙어 있다. 금리가 인상되면 주식 등 위험자산 선호도는 줄어들기 마련이고, 경기 침체 우려가 커질수록 성장주에 대한 불안감이 높아져 주가는 더 큰 폭으로 빠진다.카카오페이가 연일 하락세를 이어가자 SK증권은 목표주가를 14만5000원에서 11만원으로 낮추기도 했다. 최관순 SK증권 연구원은 "하반기 카카오톡을 통한 주식거래, 디지털 손해보험사 등 성장세가 확대되며 연간 영업이익은 흑자전환이 가능할 전망"이라면서도 "다만 4분기 연속 영업적자에 따른 수익성 개선 지연으로 목표주가를 하향한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>땅스부대찌개, 간편결제 서비스 차이 입점 프로모션 진행</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003868590?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>땅스부대찌개가 간편결제 서비스 차이앱에 입점하고 기념 프로모션을 진행한다. '차이'는 핀테크 기업 차이코퍼레이션이 출시한 간편결제 서비스다. 땅스부대찌개는 지난 5월 1일부터 차이 서비스를 도입했다.16일 땅스부대찌개에 따르면 프로모션은 자사앱에서 차이페이로 결제 진행할 경우 결제금액의 일부를 '차이 포인트'로 페이백 하는 형태로 진행된다. 환금금액은 2000원이다. 기간은 상시 진행되며 예산소진시 종료된다. 땅스부대찌개는 차이 외에도 휴대폰, 신용카드를 포함해 카카오페이, 토스 등의 간편결제 서비스를 도입해 선보이고 있다. 땅스부대찌개 관계자는 "데이크아웃 밀키트 전문점답게 고객 편의를 위해 다양한 결제 방식을 도입하고 있다"며 "고객 편의성 확대를 위해 다양한 노력을 기울일 계획"이라고 말했다. ▶ 당신은 모르는 그 사람이 숨기고 있는 비밀- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>엔데믹 시대 한 자리에 모인 금융-재계-경제 수장들 [2022 GFC]</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001032585?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>재계, 금융계 수장들이 19일 그랜드 하얏트 서울 그랜드볼룸에서 열린 2022 세계 경제·금융 컨퍼런스' 개막을 앞두고 기념촬영을 하고 있다.사진은 (윗줄 왼쪽부터) 김주현 여신금융협회 회장, 홍원식 하이투자증권 대표, 이영창 신한금융투자 대표, 이명호 한국예탁결제원장, 성대규 신한라이프 사장, 임영진 신한카드 사장, 강왕락 코스닥협회 부회장, 이창근 다올투자증권 대표, 이재원 푸본현대생명 사장, 배재규 한국투자신탁운용 사장, 조재민 신한자산운용 사장, 홍민택 토스뱅크 대표(두번째줄 왼쪽부터) 권태신 전국경제인연합회 상근부회장, 윤종원 IBK기업은행장, 이원덕 우리은행장, 박성호 하나은행장, 이재근 KB국민은행장, 김태현 예금보험공사 사장, 홍우선 코스콤 사장, 이병성 미래에셋운용 대표, 이현승 KB운용 사장, 강영구 화재보험협회장, 조동철 KDI국제정책대학원 교수(아랫줄 왼쪽부터) 나재철 금융투자협회장, 정희수 생명보험협회장, 손병두 한국거래소 이사장, 정은보 금융감독원장, 조주현 한국경제TV 대표이사, 방기선 기획재정부 1차관, 누리엘 루비니 뉴욕스턴 경영대 경제학 교수, 김광수 은행연합회장, 정지원 손해보험협회장, 유일호 전 경제부총리, 김중수 전 한국은행 총재.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>[갈길 먼 마이데이터]④ 지출 분류·분석 정교한 미국·유럽...뭉뚱그려진 한국</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005091518?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t># 영국에 사는 A씨는 지출 관리를 위해 '메니가(Meniga)' 앱을 사용한다. 소셜미디어(SNS)의 타임라인 방식으로 수입과 지출 상황을 정리해주고, 과소비를 했거나 세금·보험료 등이 납부되지 않았을 경우 경고나 알림 메시지가 떠서 지출을 관리하기가 쉽다. 지난 저녁에 친구들과 파티를 하면서 과음을 했더니 여지없이 경고 메시지가  떴다. 그래도 이번 달엔 앱에 있는 챌린지를 통해 주류 소비 줄이기를 하고 있는데, 지난 달에 비해 술 먹는 데 들어간 지출이 크게 줄었다.# 서울에 사는 직장인이자 주부인 B씨는 요즘 가계부 정리가 수월해졌다. 마이데이터를 사용하면서 각종 지출과 수입을 한꺼번에 관리할 수 있게 됐기 때문이다. 이전에는 매월 본인 카드와 남편 카드 내역을 일일이 체크해야 했지만 지금은 주거래은행의 마이데이터를 통해 한 눈에 볼 수 있다. 특히 어느 부분에 지출이 많은지 분석해주고 같은 연령대의 사람들과 비교도 해주기 때문에 지출을 합리적으로 조정할 수 있다는 점도 많은 도움이 되고 있다. 다만 지출 내역을 더 세분화해 저장하고 싶은데 분류 카테고리가 제한적인 점은 보완됐으면 좋겠다고 생각한다.마이데이터에서 '지출 관리'는 가장 대표적인 서비스 중 하나다. 대부분의 금융사 마이데이터에서 지출 관리 서비스를 제공하고 있다. 소비자들은 지출을 할 때마다 알림 메시지를 받고 내 지출 항목을 빠짐없이 한 눈에 체크할 수 있다. 금융사에서는 축적된 지출 데이터를 바탕으로 맞춤형 소비 리포트를 제공하거나 소득, 연령, 지역 등이 비슷한 그룹과의 비교를 통해 새로운 소비 패턴을 추천해주기도 한다. 해외에서는 이미 단순한 지출 관리를 넘어서 지출 항목을 우리나라보다 훨씬 더 정교하게 분류해 생활에 도움이 되게 분석해주고, 잔돈까지 관리해주며 차별화된 서비스를 운영 중이다.◆해외선 일찍부터 지출 관리 시작…자투리 돈 관리도아이슬란드의 핀테크 기업인 메니가는 개인 소비 지출 관리 서비스로 유명하다. SNS처럼 친근한 타임라인 방식으로 고객과 소통하면서 다양한 서비스를 제공한다. 주간, 월간 소비 리포트 뿐 아니라 월세와 공과금 납부 현황 등을 제공한다. 또한 내 소비패턴을 분석해 과소비에 대한 경고를 해주고 할인 쿠폰도 제공한다. 개인별로 선호하는 지출 카테고리에 따라 가장 최적의 카드 상품을 추천해준다.특히 메니가 앱은 자동으로 지출을 카테고리별로 분류해주는 서비스가 유명한데 고객이 초기에 앱이 추천하는 분류가 적절한지에 대해 ‘예’ 또는 ‘아니오’로 답을 주면 앱이 이를 학습해 지출 분류 및 분석서비스를 정교화한다.예를 들어 취미나 여가생활의 경우 국내에서는 대부분 취미·여가 카테고리로만 단순 분류되지만 메니가 앱에서는 미술·공예, 엔터테인먼트&amp;나이트라이프, 하이킹&amp;캠핑, 승마, 골프 등 다양하게 세분화돼 있다. 쇼핑&amp;서비스 카테고리에는 옷과 액세서리를 비롯해 꽃과 양초 등 인테리어 소품, 보석, 세탁 및 수선, 주류, 담배는 물론 우편요금 및 택배비, 탄소 상쇄까지 나뉘어져 있다.미국의 핀테크 기업 에이콘스(Acorns)는 이미 2012년에 ‘자투리 투자’ 콘셉트로 소비와 투자를 연계한 금융상품을 출시해 선풍적인 인기를 끌었다. 에이콘스의 ‘잔돈을 저축하세요(Save your spare chages)’ 서비스는 고객이 지출한 금액을 반올림해 해당 금액과 반올림한 금액의 차이를 자동으로 저축해준다. 예를 들어 3.75달러를 지출했다면 반올림한 4달러와 3.75달러의 차액인 0.25 달러를 저축하는 방식이다. 또한 소비자가 자투리 금액을 1달러로 설정해놓고 14달러짜리 물건을 구매했다면 자투리를 채워 15달러를 결제해주고 대신 남은 돈 1달러를 저축한다.에이콘스에 이어 콰피털(Qapital), 레볼루트(Revolut), 쿼인스(Qoins) 등 여러 핀테크 업체도 비슷한 서비스를 제공하고 있다. 미국의 콰피털앱은 고객이 미리 정한 규칙에 따라 소액을 자동 저축해준다. 예를 들어 점포별로 목표 예산을 정한 뒤 예산보다 돈을 적게 쓰면 남은 돈을 저축할 수 있다. 미국의 코인스는 잔돈이나 기간별 자동 적립으로 모은 금액으로 고객 신용·학자금 대출 등 빚을 갚아준다. 기존 업체처럼 저축·투자가 아닌 빚 상환에 초점을 맞춘 게 특징이다. 영국의 레볼루트 앱은 잔돈을 이용해 가상화폐 투자를 할 수 있다.◆국내도 지출관리 제공하지만 차별화는 과제 국내에서도 마이데이터에서 지출 관리 서비스는 기본으로 제공된다. 하나은행은 최근 마이데이터 기반 개인 자산관리 플랫폼 ‘하나 합’에서 가구별 자산과 지출을 집중 관리해주는 ‘합계부’ 서비스를 출시했다. 합계부에서는 개별 가구의 자산 규모와 지출에서 높은 비중을 차지하는 주택과 자동차는 물론 자녀, 반려동물과 같은 지출 항목도 포함시켜 통합 지출 관리를 할 수 있다. KB국민은행은 마이데이터 ‘목표챌린지’를 통해 고객별 자산과 지출내역을 분석 및 진단해 고객에게 금융 목표를 제안하는 고객 참여형 콘텐츠를 제공하고 있다.잔돈 관련 서비스들도 속속 선보이고 있다. 카카오뱅크의 저금통 서비스는 대표적인 잔돈 관리 상품이다. 저금통은 연결된 계좌에 1000원 미만 잔돈이 있다면 자동으로 저축을 해준다. 카카오페이증권은 카카오페이 결제 후 남은 잔돈을 펀드에 투자하는 '동전 모으기' 서비스를 제공하고 있다. 토스는 물건을 구매한 뒤 1000원 미만 잔돈을 토스머니 계좌에 저축하는 서비스를 내놨다. 토스카드로 3700원을 결제하면 300원은 저축하는 방식이다. 핀크의 ‘습관 적금’은 소비패턴에 따라 결제금액의 일정 비율을 자동 저금해준다. 카페, 쇼핑, 편의점, 치킨집, 빵집, 패스트푸드점 등 총 6가지 분야에서 결제금액의 5~50%를 정해 저축할 수 있다.한 은행 관계자는 "각 은행별로 마이데이터를 통해 지출 관리 서비스를 제공하고 있는데 아직까지는 다들 비슷한 수준"이라며 "각자 다른 곳과 조금이라도 차별화된 서비스를 선보이기 위해 노력하고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>오늘의집, 초특가 혜택 '캠핑 페어'…최대 71% 할인한다</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011202995?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>기사내용 요약캠핑 브랜드 300곳 800개 상품  [서울=뉴시스] 오늘의집 '제1회 캠핑페어'. (이미지=오늘의집 제공) 2022.05.23. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 오늘의집은 다양한 캠핑 아이템을 초특가 혜택으로 제공하는 '제1회 캠핑 페어'를 실시한다고 23일 밝혔다. 다음달 19일까지 총 300여곳 브랜드의 800여개 상품이 최대 71% 할인된다. 스토어 내 캠핑용품 카테고리를 통한 캠핑 용품 구매까지 한 번에 가능하다. 이전 행사는 특별세일관, 캠핑입문관, 전문캠퍼관의 3개의 전시장으로 운영된다. 고객들이 자신에 맞는 유형에서 필요한 상품을 쉽고 빠르게 구매할 수 있다. 코베아, 카즈미, 콜맨 등 유명 브랜드의 인기 텐트 상품을 한정수량 선착순으로 최저 10만원대부터 구입이 가능하다. 캠핑페어 기간 중 신한카드를 통해 15만원 이상 상품을 구매할 경우 최대 3만원 한도 내에서 7% 추가 할인이 적용된다. 카카오페이 이용 시 최대 3만원 즉시 할인, 토스페이 이용 시 최대 7% 즉시 할인이 제공된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>은행권청년창업재단 "10년 간 28조 경제적 가치·11만명 고용 창출 성과"</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002257558?sid=105</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>"국내 유니콘 9개 기업 초기 투자·144개 기업 186억원 직접 투자"은행권청년창업재단(이사장 김광수)이 설립 10주년을 맞아, 그간 약 28조원 경제적 가치를 만들고 약 11만 명 고용 창출에 기여했다고 23일 발표했다.은행권청년창업재단은 청년세대 창업을 돕고 일자리 창출에 기여하고자 2012년 만들어졌다. 설립 당시 19개 금융기관이 은행권 사회공헌활동 일환으로 약정한 5천억원과 , 2018년 은행권일자리펀드 조성 때 약정한 3천450억원을 합친 총 8천450억원 재원을 바탕으로 운영돼 왔다. 이 재단은 2013년 서울 강남에 창업 생태계 공간인 '디캠프'와 2020년 마포구 '프론트원'을 개소하면서 유망 스타트업을 발굴하고, 이들의 성장을 지원해왔다.설립 10주년을 맞아 발표한 재단의 경제적 파급 효과에 따르면 재단은 지난 10년간 약 5천707억원 예산을 투입해 28조1천819억원에 해당하는 경제적 가치를 만들었다. 또 약 10만9천 명 고용 창출에 기여했다. 예산 10억원당 494억원 경제적 가치와 19명의 고용 창출 효과를 창출하는 높은 성과를 달성한 셈이다.4월 부산 디데이 디캠프 직원이번 성과 분석을 맡은 박남규 서울대 경영대 교수는 "한국벤처산업 총 투자 금액의 연평균 성장율이 14%인 점을 고려한다면 향후 10년간 재단이 만들어내는 경제적 가치는 68조6천930억원에 달할 것으로 전망된다"며 "25만여 명 일자리 창출 혹은 32만여명의 취업 효과에 기여할 수 있다"고 말했다.이어 “재단의 출연기관들이 국내 19개 금융기관이라는 사실을 감안해 보면 현재 한국의 금융기관들이 창업 생태계 육성에 매우 의미 있는 경제적, 사회적 공헌을 하고 있다”고 부연했다.■ 국내 유니콘 18개 중 9개 기업 초기 투자디캠프 IF2020 SM타운 전광판 광고은행권청년창업재단은 지난 10년간 재단 설립 약정액 8천450억원 90%인 7천513억원을 성장사다리펀드·은행권일자리펀드 등 총 26개 펀드에 출자해 12조8천997억원 규모 펀드를 조성해왔다.지난해 말까지 총 2천868개사가 간접 투자 형태로 지원을 받았고 배달의민족, 토스, 당근마켓, 직방, 야놀자, 핑크퐁, 오늘의집과 같은 유니콘 기업이 대표적인 수혜 기업이다. 이는 국내 유니콘 기업 18개의 절반에 해당하는 숫자다. 재단은 올해 직간접투자 예산 280억원을 확보하고 15개의 펀드를 조성할 계획이다.■ 10년간 144개 기업에 186억원 직접 투자3월 디데이 출전기업 단체사진재단은 지난 10년간 144개 기업에 186억원을 직접 투자해 오면서 5천235억원 후속 투자도 이끌었다. 재단은 스타트업에 무리한 성장률 혹은 자금회수를 요구하지 않고 스타트업들이 성장할 수 있는 충분한 시간을 제공하면서 장기적인 파트너의 역할을 수행해 왔다고 설명했다.재단은 올해 25개 초기 스타트업에 40억원을 투자한다. 재단의 직접 투자를 받고 고공비행중인 스타트업은 한국신용데이터, 핀다, 에잇퍼센트, 핏펫, 자란다 등이 있으며 고피자와 어썸레이는 동남아 시장에 진출해 활발한 활동 중이다.직접투자 검토 대상은 20:1의 스타트업 등용문 디데이를 거친 기업에 한해서 이뤄진다. 디데이는 2013년 6월부터 지난 해 말까지 총 92회 개최, 6천여 개가 넘는 스타트업이 지원한 대표적인 스타트업 행사다. 주요 액셀러레이터와 벤처캐피탈리스트가 심사위원으로 참가해 우수한 스타트업을 발굴해 왔는데 토스, 삼쩜삼, 삼분의일, 구루미, 집토스, 탈잉 등이 대표적인 기업이다. 콥틱, 알고케어, 엔씽, 웨인힐스벤처스는 지난 CES2022에서 혁신상을 받기도 했다.■ 다음 10년 목표는 '글로벌 진출'디캠프은행권청년창업재단의 디캠프는 해외 파트너사가 국내 스타트업계를 만나는 접점이자 스타트업들의 비즈니스 확장을 위한 다양한 파트너십 프로그램을 운영하고 있다. 글로벌 교류 및 협력 화동에는 세계적인 거점을 가진 UN산업개발기구, 세계은행 등 다양한 국제기구가 포함돼 있다.최근 재단은 일본과 동남아시아로 진출하려는 기업들을 위해 현지 파트너사를 연결해 주고, 글로벌 인재 채용을 지원하는 등 다양한 형태의 서비스를 준비 중에 있다. 디지털 문구 콘텐츠 플랫폼을 운영하는 누트컴퍼니와 포장 영상 솔루션을 제공하는 인베트는 일본의 주요 도시를 돌면서 사업을 소개하는 ‘로켓피치 나이트 스프링’에 참여한다.은행권청년창업재단 김영덕 상임이사는 "10년 전과 달리 지금은 창업 저변이 확대되고, 생태계도 많이 무르익어서 다음 10년의 도전 과제를 글로벌 진출로 삼았다"며 "해외 진출 기업을 위해 디캠프가 사전에 현지의 믿을 만한 파트너를 검증해 스타트업의 현지 적응 시간과 예산을 줄여주는 게 목표"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>'K스타트업 요람' 디캠프, 10년간 10.9만명 고용창출</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004056810?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>은행권청년창업재단 설립 10주년 성과 발표국내 유니콘 기업 18곳 중 9곳에 초기 투자배달의민족·토스·당근마켓 등 디캠프서 투자10년 성과 바탕으로 글로벌 시장 진출 목표지난 3월 열린 은행권청년창업재단의 ‘디데이’. 사진 제공=디캠프[서울경제] 설립 10주년을 맞은 은행권청년창업재단(디캠프)이 지금까지 약 10만 9000여명의 고용을 창출했다는 조사 결과가 나왔다.23일 재단은 설립 10주년 성과를 발표하며 “지난 10년간 5707억 8000만원의 예산을 투입해 28조 1819억원에 해당하는 경제적 가치를 만들었다”며 이 같이 밝혔다. 예산 10억원당 494억원의 경제적 가치와 19명의 고용 창출 효과를 창출하는 성과를 달성했다는 설명이다.이번 성과 분석을 맡은 박남규 서울대 경영대 교수는 “한국벤처산업의 총 투자 금액의 연평균 성장율이 14%인 점을 고려한다면 향후 10년간 재단이 만들어내는 경제적 가치는 68조6930억원에 달할 것으로 전망하며, 25만여명의 일자리 창출 혹은 32만여명의 취업 효과에 기여할 수 있다”고 말했다.디캠프는 설립 당시 19개 금융기관이 은행권 사회공헌활동의 일환으로 약정한 5000억원과 2018년 은행권일자리펀드 조성 때 약정한 3450억원을 합쳐 총 8450억원의 재원을 바탕으로 만들어진 국내 최대 규모의 스타트업 지원 기관이다.특히 국내 유니콘으로 성장한 기업 18곳 중 9개 기업에 초기 투자를 했다. 배달의민족, 토스, 당근마켓, 직방, 야놀자, 핑크퐁, 오늘의집 등 초기 투자를 받았다. 재단은 지난 10년간 144개 기업에 186억원을 직접 투자해 오면서 5235억원의 후속 투자도 이끌었다.재단은 지난 10년의 성과를 바탕으로 앞으로는 글로벌 시장 진출에 박차를 가한다는 목표다. 디캠프 김영덕 상임이사는 “10년 전과 달리 지금은 창업 저변이 확대되고, 생태계도 많이 무르익어서 다음 10년의 도전 과제를 글로벌 진출로 삼았다"면서 "해외 진출 기업을 위해 디캠프가 사전에 현지의 믿을 만한 파트너를 검증해 스타트업의 현지 적응 시간과 예산을 줄여주는 게 목표”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>디캠프 "10년 간 경제적 가치 28조원와 10만여명 고용 창출"</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004702274?sid=105</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>국내 최대 스타트업 지원 기관인 디캠프(은행권청년창업재단)가 지난 10년 동안 28조원이 넘는 경제적 가치를 만들었다는 분석 결과가 나왔다. 2012년에 설립된 디캠프는 국내 은행으로부터 총 8450억원의 재원을 바탕으로 국내 스타트업을 지원하고 있다. 최근 설립 10주년을 맞아 디캠프가 발표한 디캠프의 경제적 파급 효과는 지난 10년 동안 28조1819억원에 해당하는 경제적 가치를 만들었다.   10만9000명의 고용 창출에도 기여했다. 같은 기간 5707억8000만원의 예산을 투입한 결과다. 예산 10억원당 494억원의 경제적 가치와 19명의 고용 창출 효과를 창출한 셈이다. 디캠프의 성과 분석을 맡은 박남규 서울대 경영대 교수는 “한국벤처산업의 총 투자 금액의 연평균 성장률이 14%인 점을 고려한다면 향후 10년간 재단이 만들어내는 경제적 가치는 68조6930억원에 달할 전망”이라며 “25만여 명의 일자리 창출 혹은 32만여명의 취업 효과에 기여할 수 있다”고 말했다. 이어 “재단의 출연기관들이 국내 19개 금융기관이라는 사실을 감안해 보면 현재 한국의 금융기관들이 창업 생태계 육성에 매우 의미 있는 경제적, 사회적 공헌을 하고 있다”고 덧붙였다. 디캠프는 지난 10년간 재단 설립 약정액 8450억원의 90%인 7513억원을 성장사다리펀드, 은행권일자리펀드 등 총 26개 펀드에 출자해 12조8997억원 규모의 펀드를 조성해왔다. 지난까지 총 2868개사가 간접 투자 형태로 지원을 받았다.   배달의민족의 우아한형제들, 토스의 비바리퍼블리카, 당근마켓, 직방, 야놀자 등 국내 유니콘 기업도 투자를 받았다. 디캠프는 올해 직간접투자 예산 280억원을 확보하고 15개의 펀드를 조성할 계획이다.  디캠프는 그동안 144개 기업에 186억원을 직접 투자했고, 5235억원의 후속 투자도 이끌었다. 스타트업에 무리한 성장율 혹은 자금회수를 요구하지 않고 스타트업들이 성장할 수 있는 충분한 시간을 제공하면서 장기적인 파트너의 역할을 수행해 왔다고 디캠프 측은 설명했다. 올해는 25개 초기 스타트업에 40억원을 투자한다. 한국신용데이터, 핀다, 에잇퍼센트, 핏펫, 자란다 등이 디캠프의 주요 직접 투자 대상이다. 디캠프의 직접투자 검토 대상은 '스타트업 등용문'으로 불리는 스타트업 경진대회 '디데이'를 거친 기업들이다. 디데이는 지난 2013년 6월부터 지난해까지 총 92회 열려 6000개가 넘는 스타트업이 지원했다. 김영덕 디캠프 상임이사는 “10년 전과 달리 지금은 창업 저변이 확대되고 생태계도 많이 무르익어서 다음 10년의 도전 과제를 글로벌 진출로 삼았다"라며 "해외 진출 기업을 위해 디캠프가 사전에 현지의 믿을 만한 파트너를 검증해 스타트업의 현지 적응 시간과 예산을 줄여주는 게 목표”라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>머니투데이 오프라인 헤드라인-24일</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004749754?sid=102</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>[종합]"반도체·배터리·미래차 역내 호혜적 공급망 구축"내달중 분양가상한제 개편안 나온다탈탄소·청정에너지 협력…원전·태양광·수소시장 커진다尹 "新무역질서 동참, 국익 위한 길…中, 배제 시도 아니다"식단 짜기 버거워…高물가 학교급식 비상[금융 빅테크 3강 대해부…②토스]20조 공룡 '오프·해외·증시' 동시다발 상륙작전…판 또 흔들까[the300]봉하마을서 총집결…與 "국민통합" 野 "민주주의 수호"[오피니언]바이오 혁신 뒷받침한 미국의 '법규 혁신'직원이 투표로 CEO 뽑던 회사[국제]세계기업인들 "30년 세계화 시대 끝" 경고[산업]사회적가치 18조 일군 SK, 환산법 첫 공개음료도 '탄산대란'…콜라 생산 김 빠질라[금융]e커머스 소상공인도 은행대출 쉬워진다[바이오]15개국 뚫은 '원숭이두창'…"마스크·손씻기로 예방 가능"[유니콘팩토리]28조원 경제적 가치 일군 '스타트업의 요람'"덕질하며 '돈'도 버는 세계 창작자·팬 동반성장커머스"[ICT·과학]"러로 기우는 에너지안보 무게추…원전동맹, 美가 더 급했다"[건설 부동산]'8월 전세대란' 우려에 …실거주 의무 '전월세 금지법' 푼다[사회]檢 신임 지휘부 "검수완박 부작용 최소화"[정책사회·문화]벌써 38만명 다녀간 청와대, 개방효과 톡톡[증권]캠코 자본확충형 기업지원펀드 JKL파트너스, 첫 운용사로 선정고평가 되돌리는 '역금융장세' 배당 검증된 '귀족주' 찾아야반도체·전기차·배터리 논의 뜨거웠지만…투심은 '미지근'</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>임성훈 대구은행장 “고객과 ‘100년 은행’ 꿈 이뤄가겠다”</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001992644?sid=102</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>DGB대구은행의 오늘과 내일반세기 넘어 ‘넥스트 노멀’ 시대로고객 부자로 만드는 1등 조력은행시나리오 플래닝·빅데이터 의사결정민첩하게 실행하고 최상의 성과 낼 것코로나 시대 어깨동무 지원센터 운영지역 소상공인 든든한 금융 동반자로지역 넘어 더불어 사는 풍요로운 세상올 ESG 기반한 사회공헌활동 계획도임성훈 DGB대구은행장은 은행들의 디지털경쟁 심화에 대한 대처에 대해 “앞으로의 100년 글로벌 기업을 위해 급속한 언택트 시대에 적극 대응해 IM뱅크를 기반으로 디지털 혁신에 힘쓰겠다”고 말했다. [대구은행 제공]“고객을 부자로 만드는 1등 조력 은행으로서 고객과 함께 100년 은행의 꿈을 이뤄 나가기 위해 최선의 노력을 다하겠습니다.”임성훈 DGB대구은행 은행장은 18일 헤럴드경제와의 인터뷰를 통해 “기나긴 코로나19 시기를 지나 본격적인 위드 코로나 시대로 접어들고 있다”며 “이제는 고객을 위로하고 소상공인의 빠른 일상 회복을 위한 역할을 해야 할 때”라고 강조했다.‘코로나로 생존의 절벽 끝에 서있는 이들을 찾아가 손을 잡아줘야 한다’는 임 은행장과의 일문일답을 통해 새로운 도약에 나서고 있는 대구은행의 오늘과 내일을 들어본다.- 대구은행에 대해 간략히 소개한다면.▶1967년 국내 최초의 지방은행으로 출범한 DGB대구은행은 지난 반세기를 넘어 넥스트 노멀(Next Normal)시대 100년 DGB를 향해 나아가고 있다. DGB대구은행은 ‘고객감동경영’이라는 핵심 경영철학 아래 새로운 금융환경의 예측하기 어려운 급격한 변화와 위험을 극복하고 고객에게 새로운 경험과 가치를 제공하며 고객과 더불어 성장하기 위해 모든 역량을 집중하고 있다. 또 지역대표은행이자 기업으로서 지역성장을 위한 책임 있는 역할을 다하는 동시에 미래성장의 핵심 동력인 디지털 금융과 글로벌 금융을 체계적으로 확대시켜 더 높은 수익과 서비스를 제공하며 고객을 부자로 만드는 1등 조력(助力)은행으로서 고객과 함께 100년 은행의 꿈을 이뤄 나가고 있다.- 지속가능경영은 CEO들의 바람이자 최대 목표라고 생각하는데 경영키워드를 중심으로 한 경영철학과 스타일은.▶앞으로 대구은행은 고객을 최우선 가치에 두고 고객을 부자로 만드는 1등 조력 은행이 되기 위해 다함께 노력해야 할 것이다. 이를 위해 평소에 생각하는 경영방침은 Always Ready ‘항상 준비된’ 자세로, Act Now ‘민첩한 실행’을 통해 A+ Performance ‘최상의 성과’를 창출하는 DGB를 만드는 것이다. 트리플 A를 위해서는 다양한 시나리오 플래닝과 빅데이터 기반의 의사결정을 통해 항상 준비된 전략으로 민첩하게 실행하고 합리적인 성과평가와 보상시스템을 통해 최상의 성과를 낼 수 있게 해야 한다. 철저한 성과주의를 바탕으로 의사결정을 하고 있다. 임원회의를 비롯한 모든 은행 회의체는 숫자를 기반으로 철두철미한 성과주의적 사고가 기본이 될 것이며 성과기반의 평가시스템과 성과기반의 보상시스템을 도입해 최상의 성과를 내는 조직을 만들겠다. 이런 성과와 보상혁신은 신바람나는, 일하는 방식에 접목돼 궁극적으로 은행장으로 재임하는 기간동안 지방은행 중 생산성 1등을 반드시 달성할 수 있도록 노력하겠다.- 대구경북 지역이 코로나19로 많은 어려움을 겪었다. 이를 극복하기 위해 대구은행이 많은 노력을 한 것으로 알고 있는데.▶DGB대구은행은 2020년 초부터 대구경북 지역에 코로나19 확진 환자가 지속 발생함에 따라 관련 피해기업 지원과 지역 내수경제 침체 방지를 위해 지역 대표은행의 사회적 책임을 다하는 다양한 금융지원 정책을 실시했다. 금융적 지원은 물론 임직원의 마음을 모은 사회공헌활동에도 힘썼다. 우선 대구경북이 코로나19로 가장 어려움을 겪고 있을 때 대구시의 ‘코로나19 긴급생계자금 재정지원 행정요청’에 지역 대표기업 DGB대구은행은 최선의 인력 운용으로 협조했다. 대구시 코로나19 긴급생계자금 지급을 위해 지역 내 DGB대구은행 전영업점에서 지원신청서를 접수하는 한편 선불카드·상품권 지급 업무를 위해 대구시 행정복지센터 139개소에 직원을 파견했다. 당시 파견됐던 직원은 대략 1800여명 이상으로, 이는 DGB대구은행 직원의 절반이 넘는 숫자다. 이 밖에도 그룹 차원의 성금 10억원을 대구경북에 전달했으며 DGB대구은행을 비롯한 금융그룹 전계열사 임직원들이 자발적으로 참가해 모은 임직원 성금 1억5000만원을 전달했다. 여기에 소외계층 마스크 지원, 대민지원에 힘쓰고 있는 군장병 지원금 전달, 자발적 헌혈 실시, DGB대구은행연수원을 경증환자 생활치료시설로 제공하는 등 코로나19극복을 위한 전 임직원의 단합된 힘을 보여줬다. DGB대구은행이 대구시가 유례없는 감염병 재난을 맞아 위기에 처했을 때 희생과 헌신으로 코로나19 극복에 큰 도움을 준 것에 대한 대구 시민의 감사의 마음을 담아 대구시로부터 감사패를 받기도 했다.- 본격적인 위드 코로나 시대를 앞두고 있다. 대구은행이 어려운 시기를 견뎌온 시민을 위로하고 소상공인들의 빠른 회복을 지원하기 위한 역할이 중요하다고 여겨지는데.▶지난해 취임 당시 ‘지역 상생 프로젝트’를 통해 지역민의 신임과 함께 상생하겠다고 밝혔었는데 코로나19 시대 힘들어진 지역 소상공인의 든든한 금융 동반자 역할을 하기 위해 ‘어깨동무종합지원센터’를 개소했다. 지역 자영업자와 소상공인의 창업·매출증대를 위한 종합지원을 목적으로 하는 이 센터는 상담·교육 컨설팅 등의 대면 지원은 물론 코로나19 시대 언택트 업무 지원을 위한 비대면 관련 서비스를 지원해 금융지원, 경영컨설팅, 교육훈련 지원 프로그램을 운영한다. ‘적극 발굴해 널리 알리고 돕겠다’는 마인드는 어깨동무종합지원센터의 개설 목표로 대구은행 고객이 아니라도 소상공인·자영업자가 신뢰하고 제일 먼저 찾을 수 있는 곳으로 만드는 것이 목표다.- 대구은행이 창립 55년이 됐다. 그동안 많은 사회공헌활동을 했는데 장기화된 코로나19로 지역사회가 많은 어려움을 겪고 있다. 특별한 계획이 있는지.▶DGB대구은행은 창립 이래 지역경제와 금융의 발전을 위한 중추적인 역할을 다해 왔다. 역사상 유례없는 경제 위기와 그에 이은 혹독한 기업 및 금융 구조조정의 한파 속에서 숱한 기업과 금융기관들이 퇴출되는 가운데서도 시련을 딛고 우량은행의 자리를 굳건히 지켜온 것은 지역민의 성원과 애정의 결과라고 생각한다. 대구은행은 지역과 함께 발전하는 우리 고장 은행으로 굳건히 뿌리내리고 ‘따뜻한 금융으로 모두가 꿈꾸는 세상을 만들다’라는 미션을 바탕으로 한 기업의 사회적 책임(Corporate Social Responsibility)을 다하기 위해 금융 본연의 역할을 충실히 수행해 기업·고객·직원·사회 환경 전체에 기여하는 ‘지역을 넘어 더불어 사는 풍요로운 세상’을 만들고자 한다. 특히 올해는 ESG경영에 기반한 사회공헌활동을 계획하고 있다. E(environment)는 환경을 생각하는 사회공헌활동, S(social)는 지역 사회와 공감하는 사회공헌활동, G(governance)는 건전한 사회구조 형성을 위한 사회공헌활동을 의미한다. 이 같은 원칙 하에 다양한 사회공헌활동을 진행할 예정이다. 코로나19, 아동학대 등 사회적 이슈에 적극 대응하는 맞춤형 사회공헌사업을 통해 사회적 책임을 강화하고 지역 상생 사회공헌활동을 지속적으로 추진할 것이다. 지역의 아동·청소년 미래 지원 사업과 복지 소외 이웃 지원 사업을 통해 지역사회의 구석구석까지 대구은행의 온기가 닿을 수 있도록 하겠다.- 인터넷은행의 출현 등으로 은행의 디지털경쟁이 점점 심화되고 있다. 어떻게 대처하고 있는지.▶지금 우리는 오픈뱅킹, 마이데이터 등 급변하는 핀테크 환경에 발 빠르게 대응하고 있지만 아직 가야 할 길은 먼 것이 현실이다. 디지털 혁신을 통한 IM뱅크는 반드시 성공시켜야 할 DGB의 핵심전략이자 미래 성장 동력이다. IM뱅크의 전국화 추진을 위해서는 접근성, 편의성, 보안, 디자인 등 모든 면에서 최고가 돼야 할 것이다. 고객경험분석을 토대로 IM뱅크에 탑재하는 상품 라인업을 더욱 다양화해야 할 것이며 인공지능(AI) 챗봇과 시나리오봇을 활용해 대고객 상담 기능을 획기적으로 개선함과 동시에 빅데이터 분석을 기반으로 대면과 비대면에서 맞춤형 타겟마케팅을 동시에 강화해 나갈 계획이다. DGB대구은행의 IM뱅크는 시중은행과 빅테크(네이버,카카오), 핀테크(토스, 핀크 등), 지방은행 앱과의 치열한 경쟁 속에 있다. 최근 전국권 기반강화를 위해 대형 금융상품몰에 입점해 본 결과 상품성만 있다면 수도권에서도 타지역에서도 고객의 손길을 받을 수 있다는 것을 직접 체감할 수 있었다. 앞으로 더욱 공격적이면서 활발한 제휴사업과 비대면 상품성으로 시장에서 경쟁할 것이다. 또 지난해 9월 대구은행은 마이데이터 본허가를 획득했다. 종합금융 플랫폼 완성을 위한 첫 단추가 이제 꿰어진 만큼 단순한 채널의 디지털화를 넘어 전사적 디지털혁신으로 후속 대응전략들도 신속하고 치밀하게 진행돼 ‘DGB 종합금융 플랫폼’이 신시장 개척의 첨병 역할을 할 수 있도록 노력해야 할 것이다. 이를 통해 앞으로의 100년 글로벌 기업을 위해 급속한 언택트 시대에 적극 대응해 IM뱅크를 기반으로 디지털 혁신에 힘쓰겠다.대구=김병진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>"못올렸던 전셋값 한번에 올린다"…역대급 '전세대출' 예고된 8월</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004750907?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>[전세가격 상승+DSR 미적용…"가계대출 안정 흐름 바뀔 수도"]오는 8월 전세자금대출 '큰 장'이 선다. 올해 초부터 시작된 가계대출 안정세가 8월 전세대출을 계기로 하반기에 급변할 수 있다는 주장도 나온다. 은행들은 가늠할 순 없지만 전세대출이 증가할 것으로 보고 금리 인하 등 수요를 끌어오기 위한 전략을 구상하고 있다. 25일 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 전날(24일) 기준 전세자금대출 잔액은 지난해말과 비교해 2조4344억원 증가한 132조1313억원으로 집계됐다. 서울을 중심으로 전세 공급이 줄고, 오는 7월말 임대차보호법 적용 만료를 앞두고 전세가격이 조금씩 오른 영향이다. 한국은행에 따르면 지난달말 국내 은행의 가계대출 잔액은 전월 대비 1조2000억원 늘어나며 5개월 만에 증가 전환했는데, 전세대출 증가가 주 요인으로 나타났다. 주담대 잔액이 2조1000억원 증가했는데 전세대출 증가분이 1조1000억원이었다.은행권은 임대차보호법 적용이 만료된 전세 매물이 시장에 풀리는 8월부터 본격적으로 전세대출이 증가할 것으로 본다. 전월세상한제로 2년 동안 전셋값을 올리지 못한 집주인들이 신규 계약시 전셋값을 크게 올릴 가능성이 높아서다. 특히 전세대출은 하반기 대출 시장도 주도할 수 있다. 대부분이 실수요인 전세대출은 총부채원리금상환비율(DSR) 규제 적용 대상이 아니다. 7월 DSR 규제가 한 단계 더 강화되면 신용대출 등 다른 대출들은 한도가 줄겠지만, 전세대출은 영향을 받지 않는다. 시중은행 관계자는 "서울에는 신규 전세 가격과 갱신 가격이 수억원까지 차이 나는 곳도 있다"며 "수도권을 중심으로 전세대출이 늘어날 수밖에 없는 상황인데, 사실상 대출 규제가 없다"고 말했다.안정적인 대출 시장도 전세대출로 바뀔 수 있다. 신용상 한국금융연구원 가계부채 센터장은 "전세대출을 필두로 한 주택담보대출 증가로 인해 현재 지속되고 있는 가계대출 안정 흐름이 변할 수도 있다"고 말했다. 은행 입장에선 대출 영업 부진을 메꿀 수 있는 기회다. 이에 은행들은 전세대출 관련 전략을 구상하고 있다. 대표적인 방식으로는 금리 인하가 거론된다. 국민은행은 지난달 5일부터 전세대출 금리를 최대 0.55%포인트 인하했다. 8월부터는 금리를 한시적으로 인하하는 은행이 더 나올 수 있다.인터넷전문은행, 지방은행들도 하반기 전세대출 시장을 눈여겨 보고 있다. 케이뱅크는 카카오페이 대출 상품 중개 서비스에 전세대출 상품을 추가했다. 토스뱅크는 올해 하반기에 전세대출 상품을 출시할 계획이다. DGB대구은행은 이날 비대면 전세대출 상품인 '무방문전세자금대출'을 출시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>"꼼짝마 보이스피싱" 토스앱, 일평균 550여 명 피해 막았다</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000150155?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>악성앱 탐지 기능 토스앱에 내재화…4월 한달간 악성앱 약 19만건 잡아내18일 토스에 따르면 지난 4월 한 달간 토스는 악성앱 탐지 기능을 통해 매일 평균 550여명의 피싱 피해를 막았다. /토스 제공모바일 금융플랫폼 토스는 지난 4월 한 달간 토스의 악성앱 탐지 기능을 통해 매일 평균 550여명의 피싱 피해를 막았다고 18일 밝혔다.토스는 앱 자체에 악성앱을 탐지하는 기능을 탑재했다. 유저가 토스앱을 실행하는 순간, 단말기에 설치된 앱들을 점검하고, 악성앱이 발견될 경우 해당 앱을 삭제하도록 안내 메시지를 띄운다. 위험도가 높은 경우, 악성앱을 삭제하지 않으면 토스를 사용할 수 없다.지난 4월 한 달간 토스의 악성앱 탐지 기능을 통해 탐지 된 악성앱은 총 18만9000건에 달한다. 토스는 이를 통해 총 1만6000여 명, 일평균 고객 550명의 보이스피싱 피해를 막은 것으로 분석했다.토스의 악성앱 탐지 기능은, 보이스피싱 목적의 정보 탈취 앱을 중점적으로 탐지하고 제거할 수 있다. 화이트해커로 구성된 토스의 '시큐리티테크팀'이 개발을 맡아, '공격자' 관점에서 기능을 설계 한 것이 특징이다.해당 팀은 다년간 보안 취약점 점검과 모의해킹을 수행한 해킹 및 보안 전문가들이 모인 팀으로, 변이된 신종 악성앱의 실시간 탐지를 위해 '악성앱 분석 자동화 시스템'을 활용 중이다.또한 자체 개발한 이상행위 탐지 시스템(FDS)과 연계해 보이스피싱이 의심될 경우 전담 모니터링 요원이 먼저 고객과 통화하여 상황을 점검하고, 자산을 보호할 수 있도록 하고 있다. 토스는 매일 새롭게 만들어지는 수많은 악성앱들을 지속적으로 데이터베이스(DB)에 업데이트하고 있으며, 최근에 추가된 악성앱만 약 6000종이 넘는다고 밝혔다.정한솔 토스 시큐리티테크팀 연구원은 "일단 감염이 되면, 해당 단말기에서 실제 은행이나 금융감독원등의 대표번호로 전화를 걸어도, 고객센터가 아닌 보이스피싱범에게 연결되므로 피해자 입장에서는 속을 수 밖에 없다"고 설명했다.피싱범들은 대부분 문자 또는 메신저를 통해 스마트폰 사용이 미숙한 중장년층을 타겟으로 접근, 원격제어앱 또는 악성앱을 설치하도록 유도하는 것으로 나타났다. 이런 앱들은 은행앱, 백신앱, 소상공인 대출앱등으로 위장하고 있으며, 설치시 단말기의 전화번호부와 통화내역, 문자메시지 내용이 모두 탈취된다. 설치 직후 특정 사이트의 가입관련 문자메시지 인증번호 등이 수신되는 경우도 있으며, 이 인증번호는 보이스피싱범에게 동시에 전달된다.악성앱이 설치 된 경우 토스앱을 실행해 악성앱을 제거하거나, 플레이스토어 등 정식 앱 배포 채널에서 백신프로그램을 다운받아 바이러스를 검사하고 악성앱을 삭제하면 된다.토스는 지난 3월부터 시큐리티테크팀 주도로, 토스 앱에 악성 피싱앱 탐지 및 제거 기능을 개발해 운용하고 있다.이종호 팀리더는 "외부 백신을 별도로 설치하는 타 금융앱과 달리, 토스는 악성앱 탐지 내재화를 통해 매일 새롭게 만들어지는 악성앱에 실시간으로 대응할 수 있고, 고객센터에서도 악성앱의 위험도에 따라 보다 정확한 대처를 고객에게 안내할 수 있는 것이 장점"이라고 설명했다.발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>네이버·카카오페이·토스, '페이 수수료' 반기마다 공시한다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000814766?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>앞으로 카카오페이, 네이버파이낸셜, 토스 등 빅테크들은 간편결제 서비스의 수수료율을 매년 두 차례 공시해야 한다./사진=머니S 앞으로 네이버파이낸셜, 카카오페이, 토스 등 빅테크들은 간편결제 서비스의 수수료율을 매년 두 차례 공시해야 한다.19일 금융감독원은 이날 오후 3시 금감원 대회의실에서 '결제수수료 공시 작업반 TF(태스크포스)'를 구성하고 첫 회의를 진행했다고 밝혔다. 자리에는 핀테크산업협회, 한국인터넷기업협회를 비롯해 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스), 롯데멤버스, 우아한형제들 등이 참석했다.그동안 빅테크 등 전자금융업자의 간편결제 수수료는 카드사보다 높아 소상공인에게 부담이 된다는 지적이 있었다. 특히 카드 수수료는 금융당국의 관리 아래 지난 2007년 이후 지속적으로 인하된 반면 빅테크 간편결제 수수료는 상대적으로 관리감독이 부족하다는 목소리도 있었다. 여기에 지난해 말 카드수수료 개편방안에 따라 1월 31일부터 영세·중소 카드 가맹점의 우대수수료율은 기존 0.8∼1.6%에서 0.5∼1.5%로 한 차례 더 인하됐다.이에 네이버파이낸셜, 카카오페이 등은 같은 날부터 영세·중소 가맹점을 대상으로 수수료를 낮췄다. 정부가 카드 수수료를 인하하며 소상공인의 부담을 낮춘 만큼 정책에 발 맞추기 위해서다. 네이버파이낸셜은 영세 사업자 대상 네이버페이 수수료를 0.2%포인트, 중소 사업자는 규모에 따라 0.05~0.15%포인트 인하, 카카오페이는 온라인 카드 결제 수수료를 영세 가맹점은 0.3%포인트, 중소 가맹점은 0.1~0.2%포인트 낮췄다.빅테크들은 간편결제 수수료와 신용카드 수수료는 구조적으로 달라 동일선상에서 비교할 수 없는데다 소상공인과 상생하기 위한 다양한 지원책을 내놓고 있다는 주장이다. 하지만 카드업계에선 빅테크들과 동일규제가 적용되어야 한다는 지적이 이어져 왔다.이에 금감원은 간편결제 수수료의 투명성을 제고하기 위해서 가이드라인을 마련하고 수수료 공시를 추진할 예정이다. 금감원의 행정지도로 추진되는 가이드라인엔 수수료를 합리적인 근거에 따라 산출하도록 하는 등 기본 원칙을 제시하도록 하고 가맹점 수수료를 결제관련 수수료와 기타 결제 수수료(일반 상거래 관련)로 구분해 수취·관리하도록 한다. 아울러 공시서식에 따라 작성한 수수료율을 업체 홈페이지에 반기 단위로 공시하도록 하는 내용이 포함됐다.금감원 관계자는 "이번 첫 회의에서 제기된 의견을 중심으로 보완방안 마련 등을 위한 추가 실무회의를 수시로 진행하고 관계 부처 및 업계와 충분한 논의를 거쳐 연내 최종 공시 방안을 확정할 예정"이라고 말했다.표=금융감독원</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>토스뱅크 “전통은행과 차이, 슬림한 '서비스 쪼개기' 구조”</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003017785?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>18일 서울 중구 대한상공회의소에서 열린 IT서비스학회에서 토스뱅크 박준하 최고기술책임자(CTO)가 디지털뱅크 세션에서 IT 서비스 아키텍처 변화와 은행 시스템 혁신 방안을 주제로 발표하고 있다.박준하 토스뱅크 최고기술책임자(CTO)가 18일 IT서비스학회 2022 춘계학술대회에 연사로 나섰다. 서울 중구 대한상공회의소에서 열린 이번 행사에서 박 CTO는 IT 서비스 아키텍처 변화와 은행 시스템 혁신 방안을 주제로 발표했다.박 CTO는 “현재 대부분의 은행들은 굉장히 큰 모놀리틱 시스템을 운영하며, 거의 20, 30년전의 모습을 그대로 가지고 있다”며 “하지만 IT서비스 기반의 회사들은 그렇지 않으며, 이것이 토스뱅크가 기존 은행들과 다른 이유”라고 강조했다.토스뱅크가 활용하고 있는 시스템은 '마이크로 서비스 아키텍처(MSA)라고 불리는 체계'다. 전통적인 금융권이 갖추고 있는 모놀리틱 시스템과 달리, 각각이 서비스별로 쪼개지는 구조를 갖추고 있다. 이로 인해 토스뱅크의 경우 여신 수신 카드 서비스는 서버와 데이터베이스가 별도로 분리되며, 시스템의 직접적인 참조 대신 HTTP API 등의 통신을 통해서만 참조를 진행한다.박 CTO는 이를 두고 “기존 모놀리틱 시스템에 비해 매우 슬림해진 구조를 갖출 수 있게 됐다”며 “쪼개지는 서비스가 많아졌지만 리소스 낭비 등의 문제는 기술 발전으로 대부분 해결된 상황”이라고 설명했다.가상화 기술이 발전함에 따라 물리적인 리소스를 유연하게 사용할 수 있게 돼 서비스를 쪼개는 과정이 낭비로 이어지지 않게 됐다는 것이다.기존 금융권이 제기하는 각 모듈간 정보 공유의 단절 문제, 네트워크간 빈번한 호출에 따른 레이턴시 영향 극대화 문제 등도 상당 부분 해결했다. 동시에 유연한 변경과 새로운 서비스의 배포가 가능하다는 장점을 더해 고객 맞춤형 서비스를 구현한다.토스뱅크가 기존 은행과 가장 큰 차이점은 채널계가 전달자 역할에 그치는 것이 아니라, 실제로 수행자의 역할을 하고 있다는 점이다. 이는 모놀리틱 시스템인 계정계가 더 커지는 것을 방지하고, 테스트 자동화, 서비스 배포 시점의 문제 인지 및 빠른 롤백 등의 시스템을 구축하는 결과로 이어지고 있다.박 CTO는 “토스뱅크도 계정계는 은행 서비스를 빠르게 구축하는 과정에서 아직은 과도기적으로 기존 금융사의 것을 유지하고 있으며 이 또한 점차 토스뱅크만의 모습으로 구축해 나갈 계획”이라며 “현재 추가되는 서비스는 채널계 서버에 반영해 빠르고 유연하게 대처해 나가고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>대통령 부부가 쓰던 침실부터 욕실까지…</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000030885?sid=102</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>74년 만에 내부 공개된 구중궁궐 청와대 본관과 사저 영부인이 외빈 접견과 집무실로 사용하던 본관 1층 무궁화실. 벽에 역대 영부인 사진이 걸려 있다. [뉴스1]5월 26일부터 일반 국민이 대통령 집무실이 자리하던 청와대 본관 내부를 관람할 수 있게 됐다. 대통령과 그 가족이 살던 관저도 내부를 볼 수 있게끔 창문을 전면 개방했다. 청와대뿐 아니라 본관 및 관저 내부 개방은 건국 이래 74년 만에 처음이다. 그간 청와대는 12명 대통령의 집무실과 관저로 쓰였다.청와대 본관은 대통령 공식 집무와 접견을 위해 사용하던 공간이다. 이번에 공개된 구역은 본관 1층 영부인 집무실과 접견실이 있는 무궁화실, 다과 행사 시 사용되던 인왕실, 2층 대통령 집무실과 외빈 접견실, 동쪽 별채인 충무실 등이다. 관저는 개방된 창문을 통해 내부를 볼 수 있다.청와대를 관람하려면 온라인(네이버, 카카오톡, 토스)으로 신청해야 한다. 신청자가 워낙 많다 보니 당첨돼야 방문할 수 있다. 당첨된 경우 관람 신청 날짜를 기준으로 8일 전 국민비서로 알림이 온다. 가장 가까운 6월 4일 신청 내역만 봐도 신청자가 7만 명을 넘는 시간대도 있다. 문화재청은 일정 기간이 지나면 상시 개방하는 방안을 고려하고 있다. 5월 10일 청와대 개방 후 26일 현재까지 40만 명 이상이 다녀갔다.청와대 본관과 관저가 5월 26일부터 국민에게 공개됐다. [뉴시스]외빈 만찬이나 공연, 임명장 수여식 등이 열린 동쪽 별채 충무실. [뉴스1]대통령과 영부인이 공식 행사 등에 앞서 용모를 꾸몄던 관저 메이크업룸. [동아DB]264㎡(80평) 규모로 알려진 관저 침실. [동아DB]10인용 식탁이 놓여 있는 관저 다이닝룸. [동아DB]침실에 딸린 사우나룸(왼쪽)과 욕실. [동아DB]</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[단독] 尹정부, ‘카카오뱅크식 신용평가’ 도입한다</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001529333?sid=101</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>서민금융진흥원, 햇살론 신용평가모형 신규 개발보험가입·세금납부내역 등 ‘비금융 정보’ 활용금융정보이력 부족한 ‘씬파일러’ 대출길 확대될듯지난 15일 서울의 한 시중은행 외벽에 대출금리 안내문이 개재돼있다. 연합뉴스인터넷전문은행을 주축으로 형성된 중·저신용자 대상 서민대출 시장에 정부가 확대 참전하기로 방향을 잡았다. 빅테크에서 활용하는 보험가입·세금납부 등 ‘비금융 정보’를 반영한 통합신용평가모형을 개발해 금융정보가 부족한 이들에게도 대출 길을 확대해준다는 계획이다.29일 금융권에 따르면 서민금융진흥원은 정책서민금융상품 ‘햇살론’에 사용되는 신용평가 시스템을 새롭게 구축 중이다. 올해 신규 부임한 이재연 원장의 ‘1호 지시’로 알려졌다.서금원이 새롭게 구축하는 통합신용평가모형의 핵심은 비금융정보를 이용한 신용도 평가다. 보험가입 정보, 세금납부(자동이체) 정보, 소액결제 정보 등이 반영된다. 서금원 금융교육이나 부채컨설팅을 이수한 차주에게는 가점을 부여하는 등 정성평가도 이뤄진다. 상환 의지를 객관적으로 평가해 성실하게 빚을 갚지만 정작 정책금융에서는 소외된 ‘씬파일러(금융이력부족고객)’들을 구제한다는 목적이다.기존 신용평가 시스템은 차주의 금융정보에 의존해 신용 점수를 매겼다. 따라서 상환 의지가 강하다고 해도 금융정보상 연체 이력이 있거나 과거 불찰로 금융질서 문란 정보가 등록되는 등 요건에 미달했다면 대출이 거절됐다.기존 모형의 이 같은 단점을 보완하기 위해 나온 것이 자체 신용평가모형(CSS)이다. 현재 인터넷은행 3사(카카오뱅크·토스뱅크·케이뱅크)는 은행업권에서 대중적으로 쓰이는 신용평가모형 대신 비금융정보를 활용한 고유의 모형을 사용 중이다. 카카오뱅크 신용평가모형(CSS)의 경우 통신·교통정보를 반영해 인공지능(머신러닝) 방식으로 신용도를 평가한다. 토스뱅크(TSS)는 아르바이트 근무내역, 자영업자 매출정보까지 취합해 신용점수를 매긴다. 네이버·쿠팡 등 빅테크도 빅데이터를 활용해 사실상의 소액대출인 BNPL(Buy now pay later·후불신용결제) 시스템을 시행 중이다.서금원 관계자는 “정책성 대출일지라도 가장 중요한 것은 상환 능력인 만큼 지금까지는 연체 이력이 있는 등 분들에게는 대출을 내주기 쉽지 않았다”며 “독일 등 선진국의 경우 마을 이장이 성실상환자에 대한 보증을 서주는 등 다양한 방법으로 신용을 평가한다. 갚을 능력이 있는지를 조금 더 심층적으로 바라보고 사각지대를 줄여나가자는 취지로 신규 신용평가모형을 개발하고 있다”고 말했다.업계에서는 민간 빅테크 기술력을 정부가 받아들임에 따라 금융소외계층에 대한 대출 공급이 더 원활해질 것으로 기대하고 있다. 서금원 통계를 보면 지난해 기준 햇살론15 신청자 26만6592명 중 12만4042명(46.5%)이 금융정보 부족 등을 이유로 탈락했다.반면 기존 신용평가모형에서 ‘부적합’ 판정을 받은 이들 중 상당수는 인터넷은행 자체평가에서 고신용자로 재평가돼 대출 길이 열렸다. 토스뱅크의 경우 중·저신용자의 26.3%를 고신용자로 재평가했다. 케이뱅크는 중·저신용 고객 대출 승인율이 18%, 씬파일러 승인율이 32% 올랐다.새 체계가 도입되면 현재 민간은행이 사실상 떠맡고 있는 중·저신용자 대상 대출을 정부도 상당부분 부담하게 될 것으로 보인다. 서금원 통계에 따르면 지난해 기준 햇살론 대출실행액은 1조962억원이었다. 인터넷은행업계(카카오뱅크 1조7166억원·케이뱅크 7510억원)의 중·저신용자 대출실행액 절반에도 미치지 못한다. 이 때문에 일각에서는 정부가 금융소외자에 대한 구제를 은행에 떠넘긴 게 아니냐는 지적이 있어왔다.김정식 연세대 경제학부 교수는 “현재는 대출기관과 차주 간 정보의 비대칭성으로 인한 부실대출 리스크 문제로 중·저신용자에 대한 대출이 쉽지 않은 상황”이라며 “교통, 납세, 통신 등 비금융정보를 활용해 이 정보격차를 줄이면 이들에 대한 대출 저변을 확대하는 데 도움이 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.05.21.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>윤석열표 '1억통장' 출시 전부터 시끌</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005092049?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>윤석열 대통령 [이미지출처=연합뉴스]'1억통장'으로 불리는 윤석열 정부의 주요 대선 공약인 '청년도약계좌'에 대한 청년층의 관심이 날로 뜨거워지고 있다. 도입 전부터 회원수 7000명에 이르는 '청도계'라는 인터넷 카페가 등장하는가 하면 온라인커뮤니티 등에는 관련 문의글이 꾸준히 올라오고 있다. 하지만 금융권에서는 손실 등을 은행이 떠안는 것 아니냐는 우려도 나오고 있다.21일 금융권에 따르면 윤석열 정부는 기존 청년지원상품이 포괄하지 못하고 있던 장기(최대 10년) 자산형성 지원상품인 '청년장기자산계좌(가칭)'를 내년 신규 출시한다는 계획이다. 김소영 금융위원회 부위원장은 앞서 지난 2일 대통령직인수위원회 브리핑에서 "청년들의 장기 목돈 마련에 도움을 주기 위해 마련된 '청년도약계좌' 공약의 추진 방향을 적극 검토하겠다"고 말했다. 청년장기자산계좌는 소득수준 등을 고려해 차등을 두는 방식으로 형평성을 제고한다는 방침도 밝혔다.윤 정부가 구상하는 핵심 골격은 '청년내일저축계좌+청년장기자산계좌'다. 윤 정부의 대선 공약에 따르면 만 19~34세 일하는 청년 대상으로 매달 70만원 한도 안에서 일정액을 저축하면 정부가 비과세·소득공제 혜택 또는 기여금 등으로 월 최대 40만원을 지원해 10년 만기로 1억원을 만들어주는 계좌다. 다만 소득에 따라 정부의 혜택이 다르다.이와관련 김 부위원장은 브리핑 당시 기자들과 만나 "원래 (공약이) '1억원 만들기'였기 때문에 가능한 10년 안에 1억원을 만들 수 있도록 그런 방향으로 진행하고 있는 상태"라며 "월 70만원을 납입하고 금리가 3.6%일 경우 1억원이 되지만, 금리가 불확실하니까 75만원으로 늘리는 등 여러 생각을 하고 있는 상황"이라고 설명했다.이와관련 금융위와 은행연합회, 시중은행, 금융투자협회 등이 현재 여러 안을 검토 중인 단계다. 특히 새 정부의 주요 공약인 만큼 주요 5대 시중은행은 대부분 참여할 것으로 보인다. 다만 문재인 정부가 추진한 '청년희망적금' 판매 당시 가입자가 예상보다 훨씬 웃돌면서 데인 경험이 있는 은행권에서는 이번 제도 시행에 대한 걱정의 목소리가 나온다. 한 시중은행 관계자는 "새 정부가 추진하는 정책에 참여하지 않기는 힘들 것"이라며 "정부가 재원을 마련해서 지원하는 형태로 가면 문제가 없지만 현실적으로 예산을 마련하기가 쉽지 않을 것으로 보이고, 그렇게되면 이자율을 높이는 형태로 가면 은행이 다 부담을 떠안을 수 밖에 없는 구조"라고 말했다. 형평성 문제를 거론하기도 했다. 문재인 정부가 시행했던 청년희망적금의 경우 정작 20~30대가 주요 고객인 카카오뱅크·토스뱅크·케이뱅크 등이 참여하지 않았다. 이 때문에 시중은행들에서는 인터넷전문은행들이 좋은 것만 하고, 금융당국의 정책과 관련된 부담을 나누지 않으려 한다는 볼멘소리가 나왔다. 또 다른 은행 관계자는 "이번에도 청년희망적금 때처럼 인터넷전문은행들이 참여하지 않는다면 형평성에서 상당한 불만이 생길 것"이라고 분위기를 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.05.22.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>청와대 개방 행사, 12일 동안 38만명 관람</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005222546?sid=100</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>6월 11일까지 관람 신청 500만명 육박내달 12일부터 새로운 예약시스템 도입[이데일리 송주오 기자] 대통령실은 지난 10일부터 시작한 ‘청와대, 국민 품으로’ 개방 특별행사가 22일 오전 11시 기준 37만7888명이 관람했다고 밝혔다. 청와대와 연계된 북악산 등산로를 이용한 등산객은 5만9536명으로 집계됐다.청와대 개방 후 첫 주말인 15일 서울 종로구 청와대를 찾은 시민들이 즐거운 시간을 보내고 있다.(사진=방인권 기자)청와대를 찾은 방문객들은 경내를 자유롭게 움직이며 대정원과 녹지원 등 녹음(綠陰) 속에서 자연을 느끼고, 본관·관저 등 주요 건물 앞에서 사진을 찍으며 즐거운 시간을 만끽했다. 시간대별로 준비된 경내외 다양한 문화예술 공연과 관람 해설 프로그램 또한 관람객들에게 다채로운 볼거리를 제공하며 행사의 흥겨움을 더했다. 청와대 인근 권역에서도 경복궁 궁중문화축전과 같이 개방 행사와 연계된 다양한 문화행사들이 진행되었으며, 일명 ‘김신조 사건’ 이후 54년 만에 완전 개방된 북악산도 작년 동 기간 대비 약 9배(작년 동 기간 6307명)가 증가한 5만9536명의 등산객들이 찾을 정도로 관심이 뜨거웠다. 대통령실은 건물 내부에 대한 전 국민적 관심에 부응하기 위하여 23일부터 내부 정리가 완료된 영빈관과 춘추관을 우선 공개하기로 결정했으며, 추후 본관과 관저 등 건물들까지 순차적으로 공개할 계획이다.한편, 청와대 관람 신청은 22일 0시 기준으로 497만 명을 돌파하고 있는 가운데, 현재 네이버앱·카카오톡·토스를 통해 내달 11일 관람분까지 신청이 가능하며 6월 12일부터는 새로운 예약시스템이 도입될 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>“천하의 삼성도 속앓이” 직원 평균 연봉 억대 ‘여기’로 몰린다</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001996503?sid=105</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>[123RF][헤럴드경제=홍승희 기자] “삼성은 이미 제꼈다!”최근 IT업계의 종사자들이 ‘천하의 삼성’보다도 더 선호하는 직장이 있다. 바로 ‘네카라쿠배당토’다.‘네카라쿠배당토’은 네이버·카카오·라인·쿠팡·배달의민족·당근마켓·토스의 줄임말로 MZ(밀레니얼+Z)세대 사이에서 가장 취업하고 싶은 회사로 꼽힌다. 연봉, 복지가 최고 수준이다. 이 가운데도 가장 인기가 많은 직장은 ‘네이버’라는 조사 결과가 나왔다.27일 커리어테크 스타트업 퍼블리는 이용자 431명을 대상으로 ‘네카라쿠배당토 중 이직할 회사를 하나 고를 수 있다면?’이라는 설문조사를 진행했다.해당 설문조사에서 가장 많은 비중인 응답자의 28%가 ‘네이버’를 선택했다. 2위는 17%의 선택을 받은 ‘토스’였으며 3위는 카카오(13%)로 집계됐다. 이어 ▷당근마켓 12% ▷배달의민족 12% ▷라인플러스 5% ▷쿠팡 2% 순이다.커리어테크 스타트업 퍼블리는 IT업계 커리어 SNS 커리어리를 통해 ‘꿈의 직장 ‘네카라쿠배당토’ 이직 원하는 기업 1위는?’라는 설문조사를 진행했다.[퍼블리 제공]‘이직할 기업을 고를 때 가장 중요하게 생각하는 것’을 묻는 질문에는 303명 중 44%가 ‘직무에 대한 적성’을 가장 우선으로 꼽았으며 연봉(30%), 복지(20%)가 각각 2,3위에 올랐다.네이버의 경우 IT업계에서는 ‘삼성전자보다 네이버’라는 말이 나올 정도로 이직을 원하는 사람들 사이에서 인기다. 지난해 네이버의 평균 연봉은 1억2915만원에 달한다. 올해는 10% 더 인상했다. 카카오의 경우 지난해 직원들은 평균 1억7200만원의 연봉을 수령했으며 올해 임금 인상률도 15%로 네이버보다도 더 높다.한편 ‘네카라쿠배당토’ 기업들로 취업 및 이직을 희망하는 사람들이 많아지면서 교육 플랫폼에는 전용 강의까지 속속 개설되고 있다.김광종 커리어리 사업리더는 “최근 평생 직장의 개념이 사라지면서 MZ세대 직장인들은 안정성보다 주체적인 사회생활을 통해 자신의 성장을 모색하는 추세”라며 “네카라쿠배당토에서 이러한 커리어 경쟁력을 높일 수 있을 뿐 아니라 높은 연봉과 차별화된 복지 혜택까지 누릴 수 있어, 많은 이들이 이직을 희망하는 것 같다”고 분석했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>증시 둔화에 허리띠 졸라맨 증권사…광고비 '뚝'</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005223788?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>상위 10곳 증권사 1분기 광고비 33%↓거래대금 위축에 광고비 축소키움증권 광고비 감소율 70% 육박토스증권 등 중소 증권사 광고비 확대 지속[이데일리 김응태 기자] 증권사들이 올 1분기 광고선전비 지출을 줄였다. 연초부터 글로벌 경기 둔화 우려로 국내 증시의 거래대금이 위축되면서 실적이 악화된 탓이다. 이와 달리 중소 증권사들은 거래대금 감소에도 신규 고객 유치에 집중하며 광고비 지출을 확대했다.23일 금융투자협회에 따르면 자기자본 기준 상위 10개 증권사(한국투자·미래에셋·삼성·NH·키움·메리츠·대신·KB·하나·신한)의 별도 기준 올해 1분기 광고선전비는 455억2891만원으로 집계됐다. 전년 대비 32.8% 감소했다.상위 10개 업체 중 6곳에서 광고비가 축소됐다. 이 가운데 가장 큰 감소율을 보인 증권사는 키움증권(039490)이다. 키움증권의 올 1분기 광고비는 77억695만원으로 전년보다 69.0% 줄었다. 뒤이어 삼성증권(016360)이 66.9% 감소한 16억6803만원의 광고비를 집행했다. 신한금융(055550)투자는 53.5% 축소된 13억9638만원, 미래에셋증권(006800)은 20.9% 줄어든 110억3590만원으로 집계됐다. KB증권과 한국투자증권은 각각 5.5%, 0.1% 줄었다. 광고비 규모는 KB증권이 34억7772만원, 한국투자증권이 75억2690만원이었다.과반의 증권사가 올 들어 광고비 축소한 것은 과거 흐름과 상반된다. 지난해 상위 10개 증권사가 지출한 광고선전비는 2592억원으로 전년 대비 43.9% 증가한 바 있다. 이들 증권사가 최근 태세를 전환한 것은 글로벌 경기 둔화에 따른 주식 거래대금이 감소한 영향이 컸다. 코로나19 확산이 심화하고 금리 인상이 본격화하면서 주식 시장이 위축되자 광고비를 축소한 것이다. 실제 이달 일평균 주식 거래량은 23억5898만주로 전년 대비 40.1% 감소했다. 한 증권사 관계자는 “지난해에는 시장 상황이 좋아서 신규 고객 유입률이 높고 거래량이 늘어나면서 이벤트나 광고를 진행하는 경향이 있었다”며 “시장이 안 좋을 때는 비용을 들여 광고를 하기가 쉽지 않다”고 말했다. 반면 메리츠증권(008560), NH투자증권(005940), 대신증권(003540), 하나금융투자는 올 1분기 광고비가 전년 대비 확대됐다. 가장 증가율이 높은 곳은 메리츠증권(008560)으로, 광고비는 61.3% 늘어난 8억8251만원을 기록했다. 메리츠증권은 디지털 마케팅 전담부서 설립 및 유튜브 채널 론칭으로 비용이 늘었다고 설명했다. 이밖에 △NH투자증권 46.3% △하나금융투자 28.5% △대신증권 5.8% 등의 증가율을 나타냈다. 중소 업체를 포함한 전체 증권사 중 가장 두드러진 광고비 증가율을 기록한 업체는 토스증권이었다. 토스증권의 광고선전비는 전년 대비 2586% 증가한 13억5023만원이었다. 중소형 증권사들은 주식 시장이 악화했음에도 점유율 확대에 주력하면서 광고비를 크게 늘린 것으로 풀이된다. 토스증권 관계자는 “서비스 초기 모객을 위한 주식 1주 주기 이벤트와 해외주식 서비스 오픈으로 마케팅 비용이 증가했다”며 “토스증권은 전통적인 증권사와 달리 지점 운영 등의 고정 비용이 없어 그만큼 고객에게 혜택으로 돌려주려 하고 있다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜, 3대 빅테크 중 유일 흑자…비결은?</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004752172?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>[편집자주] 디지털 금융 플랫폼 시대가 열리면서 금융산업에 활기가 돈다. 혁신과 디지털로 중무장한 빅테크들의 금융영토 확장 행보가 가속화하면서다. 카카오, 네이버, 토스 등 빅테크 3강은 차별화된 색깔과 전략으로 금융시장의 전통적인 강자들을 위협하고 있다. 대형 금융지주도 생존을 위한 플랫폼 전쟁에 뛰어들었다. 이른바 '신주류'로 떠오른 빅테크를 해부하고 금융산업의 변화와 미래를 조망해 본다.[[MT리포트] 금융 빅테크 3강 대해부 (下)네이버파이낸셜②]네이버파이낸셜은 3대 빅테크(IT대기업) 중 후발주자다. 주력인 네이버페이 결제 서비스는 경쟁 빅테크 카카오페이보다 9개월 가량 늦게 출시됐고, 핀테크(금융기술기업) 법인이 분리된 시기는 2년 이상 차이난다. 그러나 실속은 네이버파이낸셜이 챙기고 있다. 3대 빅테크 중 유일한 흑자기업이다. 라이선스 획득보단 협업에 의지하다보니 규제 흐름 변화와 제휴사와의 갈등 등이 불안요인이라는 점과 서비스 라인업이 경쟁사보다 부족하다는 점은 극복할 과제다. ━빅테크3사 중 유일한 흑자…포털+스마트스토어 통해 급성장━29일 핀테크업계에 따르면 네이버파이낸셜은 지난해 528억원의 당기순익을 올렸다. 2019년 설립한 네이버파이낸셜은 이듬해인 2020년에도 555억원의 흑자를 냈다. 올해 1분기도 흑자 기조를 유지하고 있다는 것이 네이버파이낸셜의 설명이다. 다만 올해 1월 결제 수수료율 인하로 순이익 규모는 다소 감소한 것으로 알려졌다. 네이버파이낸셜의 흑자 비결은 규모의 경제다. 윤창현 국민의힘 의원실이 최근 공개한 자료에 따르면 지난해 네이버파이낸셜의 결제 규모는 44조188억원이다. 카카오페이 17조4536억원, 토스 2조1978원보다 월등히 많다. 네이버라는 포털 공룡과 그 안에 입점해 있는 스마트스토어들의 주요 결제 수단으로 네이버페이가 이용되면서 짧은 기간 급성장할 수 있었다. 네이버파이낸셜은 지난해 빅테크 3인방 중 유일한 흑자를 낸 주요 요인도 네이버페이 결제덕분이라고 설명한다. 그 외 금융서비스는 수익보다는 결제액 증대에 기여한다. 입점 사업자들의 성장을 지원해 네이버페이 거래액을 증가시켜 수익을 내는 선순환 구조다. 올해 하반기부터 중·소상공인(SME)을 위한 대출비교 서비스를 출시하는 것도 선순환 구조를 더욱 공고히 하기 위한 복안이다. 네이버파이낸셜 관계자는 "수수료율을 높여 이익을 내기 보다는 가맹점을 적극 확대하고 사업자 성장을 돕는 금융 지원 서비스들을 만들어 내는데 집중하고 있다"고 말했다.━플랫폼 본연에 집중해 비용 절감…규제 체력 약하고, 한정적 라인업 극복 과제━네이버파이낸셜의 실속 챙기기는 플랫폼 중심의 종합금융그룹을 꿈꾸는 경쟁사들과 다른 비즈니스 모델을 처음부터 정립했기 때문으로 해석된다. 가장 잘 할 수 있는 플랫폼 본연의 역할만 하겠다는 전략을 이어가고 있다. 그러나 네이버파이낸셜이 설립됐던 2019년와 달라진 금융당국의 규제 기류가 네이버파이낸셜에 어떤 영향을 미칠 지 주목된다. 금융당국은 지난 몇 년간 금융혁신을 촉진하고 소비자 편익을 높이기 위해 빅테크 플랫폼의 금융 진출을 유도했다. 혁신금융과 지정대리인 제도 등 정책 활용을 가장 많이 한 곳도 네이버파이낸셜이었다. 그러나 최근 금융당국은 '동일기능 동일규제' 원칙을 내세우며 플랫폼 기업을 압박하고 있다. 네이버파이낸셜의 라인업이 경쟁사 대비 한정적이라는 지적도 정식 라이선스를 받지 않는데서 나온다. 아울러 협업을 추진했던 제휴사와의 관계가 어긋날 경우 서비스가 아예 엎어질 수도 있다. 실제로 네이버파이낸셜은 2020년 손해보험사들과 손잡고 자동차보험 비교견적 서비스 론칭을 추진했지만 이견으로 무산된 경험이 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>FLEX 대신 ‘짠테크’로 몰리는 MZ세대…1만보 걸어 100원 벌고 ‘잔돈’은 바로 저축</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000075267?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t># 20대 직장인 김서정 씨는 걸을 때마다 틈틈이 스마트폰을 켠다. 얼마나 걸었는지 확인하기 위해서다. 하루에 1만걸음을 걷는 게 그녀의 목표다. 1만걸음을 채우지 못하면 늦은 밤이라도 꼬박꼬박 나가서 걷는다. 그가 걸음 수를 꼼꼼히 세는 이유는 다름 아닌 ‘돈’ 때문이다. 김 씨는 걸음 수에 따라 돈을 주는 앱 ‘캐시워크’를 설치하고, 걸을 때마다 포인트를 받는다. 평소 걷는 것을 좋아하던 김 씨는 ‘걸음 수 측정하고 돈까지 받을 수 있다’는 친구 추천을 받고 앱을 설치했다. 1만보를 걷고 나면 하루 최대 100원의 돈이 들어온다. 적은 돈이지만 김 씨의 만족도는 대단히 높다.최근 들어 젊은 세대를 중심으로 ‘짠테크’ 열풍이 분다. 짠테크란 인색하다는 뜻의 ‘짜다’와 투자를 일컫는 ‘재테크’의 합성어다. 적은 돈을 아껴서 모으거나 투자하는 것을 의미한다. 이는 지난 몇 년과 정반대의 현상이다. 지난해까지만 해도 코인·주식 투자에 성공한 젊은 세대를 중심으로 ‘과시형 소비’ 열풍이 불었다.그러나 올해 3월부터 상황이 바뀌었다. 기준금리 상승으로 투자 시장이 침체에 빠졌다. 코인과 주식 투자로 웬만해서는 돈을 벌기 힘들게 됐다. 여기에 ‘인플레이션’이 덮쳤다. 물가가 오르면서 청년층의 생활이 급격히 어려워졌다. 경제적 불확실성이 커지자 돈을 최대한 아껴 쓰려는 MZ세대가 급증했다. 세븐일레븐은 ‘라스트오더’ 앱을 통해 전국 1만여 점포에서 ‘마감 할인’을 제공한다. 주 제품은 도시락, 삼각김밥 등이다. -(세븐일레븐 제공)  ▶걸으면 돈 주는 ‘만보기’ 앱 눈길 ▷마감 주문하는 라스트오더도 인기 up IT업계는 각종 ‘앱테크’ 상품으로 청년 세대를 공략한다. 앱테크란 앱에서 요구하는 간단한 미션을 수행하면 포인트나 소액 현금 등을 보상받는 형식의 재테크를 일컫는다. 미션 유형은 다양하다. 매일매일 앱에 접속해 출석 체크를 하거나 하루에 몇 걸음 이상 걷는 식이다.캐시워크는 하루에 1만보를 걸으면 100캐시를 보상으로 주는 앱이다. 이때 보상으로 받은 ‘캐시’는 주요 사용처에서 현금처럼 쓸 수 있다. 인기가 대단하다. 모바일인덱스에 따르면 올해 4월 ‘캐시워크’의 월간 활성 사용자 수(MAU)는 517만명에 달한다. 한 달 동안 517만명의 사람이 ‘캐시워크’를 썼다는 뜻이다.송금 앱 ‘토스’는 최근 ‘토스 만보기’ 기능을 넣었다. 10걸음, 5000걸음, 1만걸음을 걸을 때마다 돈을 10원에서 20원까지 적립한다. 토스가 지정하는 장소까지 걸어가면 100원을 추가로 제공한다. 하루 최대 140원씩 모을 수 있다. 모은 돈은 토스 계좌에서 자유롭게 사용이 가능하다.삼성금융네트웍스가 지난 4월 선보인 ‘모니모’는 높은 보상 금액으로 인기를 끈다. 모니모는 미션을 수행한 사용자에게 ‘젤리’를 보상으로 지급한다. 젤리는 모니모 앱에서 걸음 수 5000보 이상 걷기 등 특정 미션을 수행하면 적립된다. 이렇게 적립한 젤리는 젤리교환소라는 곳에서 랜덤 모니머니로 교환한다. 젤리 1개당 모니머니 10원으로 바꿀 수 있다. 유통가에서는 폐기를 앞둔 음식을 값싸게 판매함으로써 높아진 물가 부담을 낮춰주는 ‘마감 할인 서비스’가 인기를 끈다. 특히 MZ세대 고객 비중이 높은 편의점이 적극 도입하고 있다. 세븐일레븐은 ‘라스트오더’ 앱을 통해 전국 1만여 점포에서 ‘마감 할인’을 제공한다. 도시락, 삼각김밥, 유제품 등이 주요 품목이다. 할인율이 최대 75%에 달한다. 2022년 들어 인기가 급증했다. 지난해 11월 6만명대에 머무르던 라스트오더의 월간 활성 사용자 수는 올해 4월 8만명을 넘어섰다. CU의 자체 마감 할인 서비스 ‘그린세이브 서비스’ 역시 올해 사용량이 부쩍 늘었다. 그린세이브 서비스는 이용 건수가 처음 서비스 시작 당시 대비 62.4% 증가했다.뒤질세라 금융업계도 ‘짠테크’ 열풍에 풍덩 뛰어들었다. NH농협은행은 지난해 ‘샀다치고적금’ 상품을 내놨다. 사고 싶은 물건이 생기면 소비를 참은 뒤, 앱에서 사려 했던 물건의 구매 가격만큼 입금하는 상품이다. 매월 1000~30만원의 소액을 저축할 수 있고, 최대 연 3.1%의 금리가 적용된다.남은 잔돈을 투자나 저축에 쓸 수 있는 상품도 있다. 하나은행은 ‘잔돈투자 서비스’를 운영 중이다. 결제할 때마다 1000원 미만의 남은 잔돈 등을 펀드에 자동 투자하는 방식이다.카카오뱅크는 계좌 속 잔돈을 자동으로 저축해주는 ‘저금통 계좌’ 상품이 ‘대박’을 터뜨렸다. 누적 개설 계좌 수만 410만좌를 넘어섰다.▶불확실한 미래 대비한 짠테크 ▷쓸 땐 쓰지만, 줄일 땐 줄인다 젊은 소비자를 중심으로 한 짠테크 열풍의 배경은 뭘까.경기 악화, 저성장 등으로 미래가 불안정해진 것이 단연 첫손에 꼽힌다. 여기에 ‘만보 걸으면 100원’ ‘클릭 할 때마다 10원’ 같은 서비스 자체의 재미가 더해졌다. 서용구 숙명여대 경영학부 교수는 “경제적 불안감을 매일 티끌을 모으는 소소한 재미를 통해 해소하는 것”이라면서 “이와 함께 ‘앱테크’ 서비스를 통해 고객을 확보하려는 토스 등 플랫폼 기업의 니즈까지 맞아떨어져 서비스가 확산되고 있다”고 설명했다.짠테크 열풍은 기존에 알려진 MZ세대의 ‘플렉스’ ‘한탕’ 등의 소비 특성과 배치돼 보이기도 한다. 그러나 오히려 ‘쓸 땐 쓰되, 줄일 땐 줄이는’ 소비 풍조로 변화하고 있다는 것이 전문가 분석이다. 이은희 인하대 소비자학과 교수는  “MZ세대 소비자는 자기가 만족할 만한 것에는 확실히 돈을 쓰는 경향이 있지만, 경기가 어려워지면서 소비를 줄일 부분은 졸라매기 시작한 것으로 보인다”고 분석했다.짠테크 직접 해보니  40분 걸어 100원 ‘줍줍’…폐기 임박 도시락 ‘획득’  일상에서 ‘티끌’을 버는 각종 짠테크. 기자가 직접 도전해봤다.먼저 설치한 것은 만보기형 적립 앱. 가장 대중적인 ‘토스 만보기’를 이용했다. 10보를 걸으면 10원, 5000보에는 10원, 1만보째에 50원을 주는 식이다. 여기에 지도에 표시된 식당, 공원 등 인근의 여러 곳을 방문하면 10원씩, 최대 100원을 더 준다. 5월 17일 이날 서울의 최고 기온은 27도. 땀을 뻘뻘 흘리며 40분을 걸어 10곳을 방문해 100원을 몽땅 적립받았다. 이날 1만보를 채우지는 못해 하루 동안 적립된 금액은 120원. 아쉬운 마음을 지인에게 토로했더니, ‘자동 걷기 기계’가 있다는 팁이 돌아왔다. 휴대폰을 거치하면 좌우로 움직여 ‘걷는 상태’로 인식되게 하는 기계란다.다음은 마감 할인 플랫폼 라스트오더를 활용했다. 기자의 위치인 서울 종로구 숭인동 인근의 앱상 지도에는 할인 판매 중인 다양한 매장이 나타났다.지도를 살피다 눈에 띈 것은 편의점의 도시락. 유통 기한이 이날 오후 3시인 4500원짜리 도시락을 3150원에 판매한다는 내용이다. 반찬 가짓수가 12개나 되는 나름 ‘호화 도시락’이다. 판매 기한은 유통 기한 20분 전인 오후 2시 40분. 앱으로 결제한 뒤, 아슬아슬하게 10분을 남기고 편의점에 도착했다. 창고에서 도시락을 찾아 건네준 직원은 “주로 도시락을 판매하고, 유제품도 가끔 나온다. 보통 기한이 다 되기 6시간 전에 판매를 시작하는 편”이라고 설명했다.총평. 이날 각종 짠테크 앱을 활용한 결과 120원을 벌고 1350원을 절약했다. 100원을 벌기 위해 이곳저곳 일부러 돌아다녀야 하는 ‘방문형’은 크게 손이 안 갈 것 같다. 근처에서 쉽게 구할 수 있는 마감 할인 상품은 만족스러웠다.[본 기사는 매경이코노미 제2160호 (2022.05.25~2022.05.31일자) 기사입니다]</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>네이버·카카오·토스 '페이 수수료', 1년에 두 번 공시한다</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002605329?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>서울 여의도 금융감독원 ⓒ금융감독원[데일리안 = 김효숙 기자] 금융당국이 네이버페이 등 빅테크들의 간편결제 수수료를 1년에 두 번 공시하기로 했다.금융감독원은 관련 업계와 함께 빅테크 등의 결제수수료 공시를 위한 작업반(TF) 첫 회의를 열고 이같이 결정했다고 19일 밝혔다. 이날 회의에는 네이버파이낸셜, 카카오페이, KG이니시스, SSG닷컴, 십일번가 등 유관 기관이 참석했다.앞서 빅테크 등 전자금융업자의 간편결제 수수료가 카드사보다 높아 소상공인에게 부담이 된다는 제기되면서, 금융당국은 간편결제 수수료의 투명성을 제고하기 위해 가이드라인을 마련하고 수수료 공시를 추진한다고 밝혔다.이날 협의된 가이드라인에는 ▲수수료 산정 원칙 ▲수수료 구분 관리 ▲수수료율 공시 등 내용이 담겼다.신용카드·전자금융업자 등 온·오프라인 수수료 구성항목 차이 ⓒ금융감독원앞으로 빅테크 등은 수수료를 합리적인 근거에 따라 산출하는 기본 원칙에 따라야 한다.또 가맹점 수수료를 '결제 관련 수수료'와 '기타 수수료'로 구분해 관리하기로 했다.그간 빅테크와 카드사는 서비스 제공 방식에 따라 수수료 산정 방법이 달라 일관된 기준으로 바라보기 어렵다는 지적이 있었다.네이버페이 등 전자금융업자의 온라인 간편결제의 경우 카드결제와 선불충전 방식에 따라 다른 '결제 수수료'를 떼간다. 그동안 이들은 호스팅 수수료, 오픈마켓 입점 수수료 등 일반 수수료를 결제 수수료에 포함해 산정했는데, 이를 따로 '기타 수수료'로 구분하겠다는 것이다. 카드사는 오프라인에서 결제 수수료만 받는 구조다.아울러 공시 기준에 따라 작성한 수수료율은 업체 홈페이지에 1년에 2번, 반기 단위로 공시된다.금감원 관계자는 "첫 회의에서 제기된 의견을 중심으로 보완방안 마련 등을 위한 추가 실무회의를 수시로 진행할 것"이라며 "관계 부처 및 업계와 충분한 논의를 거쳐 연내 최종 공시방안을 확정할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>평균 금리 보고 신용등급 따져라… 슬기로운 대출 생활</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001529775?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>신용대출 평균 금리 우리銀 최저마통, 1~2등급 케뱅이 가장 유리“은행별 신용평가 시스템 달라”기준금리 인상으로 대출 부담이 커지는 가운데 4대 시중은행(KB국민·신한·하나·우리은행)과 인터넷전문은행 3곳(카카오·케이·토스뱅크)이 책정하는 신용대출·마이너스통장 금리가 천차만별인 것으로 나타났다.30일 국민일보가 은행연합회 자료를 분석한 결과 시중은행 4곳·인터넷전문은행 3곳 중 지난 4월 취급 신용대출 평균 금리가 가장 낮은 곳은 우리은행(4.59%)이었다. 하나은행(4.76%)과 신한은행(4.79%)이 근소한 차이로 그 뒤를 이었고 4대 시중은행 중에서는 KB국민은행(5.10%)이 유일하게 5%대를 기록했다.케이뱅크는 5.73%, 토스뱅크는 6.38%, 카카오뱅크는 7.41%로 인터넷전문은행 3곳은 금리가 상대적으로 높았다. 다만 카카오뱅크는 1~2등급 고신용자 대출을 취급하지 않아 평균 금리가 높게 산출된 것으로 보인다.하지만 평균 금리가 낮다고 무턱대고 우리은행을 찾아가서는 손해가 날 수 있다. 신용등급별 금리 차이가 작지 않기 때문이다. 신용도가 최상급인 1~2등급의 경우 케이뱅크(3.57%) 하나은행(3.60%) 토스뱅크(3.96%) 순으로 금리가 낮았다. 평균 금리가 가장 낮은 우리은행은 신용 1~2등급 금리가 4.22%로 4대 시중은행 중 가장 높았다.신용 3~4등급은 카카오뱅크(4.77%) 우리은행(4.78%) 케이뱅크(5.07%)가 유리하다. 신용 5~6등급은 우리은행(5.71%) 카카오뱅크(6.72%) 하나은행(6.78%)이, 신용이 낮은 7~8등급은 우리은행(8.09%) 하나은행(8.51%) 카카오뱅크(9.33%) 금리가 낮다. 금리 산정 기준이 되는 개인 신용등급은 1000점 만점인 KCB·나이스평가정보 신용 점수를 바탕으로 각 은행이 자체적으로 적용한다. 신용 점수는 카카오·토스뱅크 애플리케이션에 접속해 조회할 수 있다.마이너스통장의 경우 은행 간 평균 금리 격차가 비교적 적었다. 하나은행(4.27%) 신한은행(4.50%) 우리은행(4.59%) 토스뱅크(4.68%) 케이뱅크(4.71%) KB국민은행(4.86%) 등 모두 4%대였다. 1~2등급 고신용자 마이너스통장을 취급하지 않는 카카오뱅크(6.59%)는 제외다.다만 신용등급별로는 다소 차이가 있다. 신용 1~2등급은 케이뱅크(3.83%)가, 신용 3~4등급은 토스뱅크(4.31%)가, 신용 5~6등급은 우리은행(5.75%)이, 신용 7~8등급은 하나은행(8.20%)이 가장 유리하다. 신용 9~10등급은 우리은행(12.00%)과 신한은행(13.15%)만 취급해 선택권이 적다.금융권 한 관계자는 “한국은행 기준금리는 같지만 은행별로 신용평가시스템(CSS)이 달라 평균 금리가 다르게 매겨진다”면서 “다만 이 지표는 각 신용등급에서 실행된 대출의 평균 금리라 개인별 상황은 다를 수 있다. 금리 비교 플랫폼 등을 이용해 직접 확인해 볼 필요가 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>은행 추격에… 케뱅 앱, 고객맞춤형 개편</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002735847?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>시중은행 모바일앱 MAU 확대에예적금 만기 등 취향별 알림 적용인터넷은행들이 MAU 확보를 위해 앱 편의성을 개선하는 등 개편에 나섰다. 케이뱅크 제공    최근 시중은행들도 디지털금융전환에 따라 모바일앱 월간활성이용자수(MAU) 확대에 나서면서 확실한 선두를 달리는 인터넷전문은행들이 플랫폼 개편을 꾀하고 있다.친숙함·디자인 등 요소에 더해 알고리즘 등 기술적 요소를 적용하면서 '개인화'에 초점을 둔 MAU 확보 전략으로 풀이된다.24일 금융권에 따르면 케이뱅크는 앱을 고객 행동패턴을 반영한 '개인 맞춤형'으로 새롭게 개편한다고 밝혔다. 머신러닝 알고리즘(MLOps)을 적용해 고객의 취향에 맞게 정보를 취합한다. 새 케이뱅크 앱을 켜면 첫 화면 상단의 '알림창'에서 개인 맞춤형 정보를 시의적절하게 보여준다. 예적금 만기, 카드 재발급, 대출 연장 등 고객이 놓치기 쉬운 알림은 물론 월급 입금, 생일 축하 등 중요한 최근 소식도 알려준다는 설명이다.케이뱅크 상품과 서비스를 모아놓은 추천 탭에서도 고객별 최적화가 적용됐다. 상품, 서비스, 이벤트 중 앱을 사용하는 개인 고객의 최근 관심도가 높고 필요한 내용부터 노출된다.케이뱅크는 개인 맞춤화된 앱을 구현하기 위해 독자적으로 개발한 빅데이터 시스템을 도입했다. 머신러닝 알고리즘 (MLOps ·Machine Learning Operations)을 기반으로 앱을 이용하는 고객의 선호도, 체류 시간 등 행동 데이터를 실시간으로 감지해 분석했다. 이 알고리즘을 적용해 여타 쇼핑 앱에서 고객 취향에 맞게 상품을 추천하듯이 개개인 고객에게 최적화된 알림, 추천 상품, 서비스 등을 우선 제안해 실용적인 맞춤형 솔루션을 제시한다.앱 전반에 걸쳐 시각적 직관성을 높이는 작업도 진행했다. 새로운 공통 디자인 시스템을 도입해 앱 화면의 통일성을 추구했다. 전체적인 화면을 간단하게 구성해 보다 보기 편하게 바꿨으며, 화면에 따라 다양한 색감과 이미지를 활용해 쉽게 눈에 띄게 했다. 케이뱅크는 이번 앱 개편을 시작으로 앱 내 타임라인을 개편하는 등 추후 고객 편의성을 높이는 작업을 지속적으로 진행한다는 계획이다.케이뱅크 관계자는 "금융앱에서 알고리즘이 적용되는 경우가 거의 없다고 볼 수 있다"며 "고객 입장에서 원하는 서비스를 바로 이용할 수 있어 자주 들어오게 될 것"이라고 밝혔다.인터넷전문은행 중 가장 유리한 곳은 카카오뱅크다. 모바일 메신저 '카카오톡'과 연계돼 지난해 3월말 기준 1500만명에 달하는 MAU를 보유하고 있다. 이어 핀테크 앱 토스와 '원앱전략'을 펼치고 있는 토스뱅크도 1400만명의 MAU를 확보하고 고객수를 늘려가고 있다.시중은행 MAU도 만만치 않다. 리딩뱅크인 국민은행은 1000만명대, 신한은행이 800만명대, 하나은행은 500만명대, 우리은행은 500만명대 후반으로 알려져 있다.시중은행들은 올해 초부터 인터넷은행들처럼 앱 이용 활성화에 사활을 걸었다. 특히 이재근 국민은행장은 금융플랫폼부를 신설, '수퍼앱 전략'을 통해 올해 1500만명까지 MAU를 끌어올리겠다는 포부를 밝힌 바 있다.신한은행 또한 금융 서비스 뿐 아니라 비은행 서비스까지 강화해 차별화에 나설 전망이다. 신한은행은 올해 195조원의 예산을 투입해 모바일 앱 '신한쏠(SOL)'을 개편하는 '뉴 앱 프로젝트'를 추진하고 있다. 주요 은행인 농협은행도 '체크인 이벤트' 등을 통해 이용자의 발길을 돌리고 있다. 로그인하기, 금융서비스 이용, 방명록 남기기, 소원남기기 등 미션을 제시하고 완료한 고객 1만2005명에게 추첨을 통해 다양한 상품을 제공하는 식이다.은행권 관계자는 "은행들이 모바일 앱을 전면 개편·통합해 새로운 사용 경험을 제공하려는 것 같다"며 "고객 활동성이 높아지면 고객수도 확보되는 등 긍정적인 효과로 이어지기 때문"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>세계최고 해커가 매일 공격한다는 이 은행…군사훈련 빰치는 철통방어</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004970629?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>보안에 사활 건 인터넷은행세계최고 화이트해커 이종호토스 보안시스템 불시에 공격실전 군사훈련하듯 보안 강화카뱅, 고객 데이터 삼중 백업케이뱅크, 보안 글로벌 인증토스 보안기술팀이 내부 시스템 해킹을 시연하고 있다. 세계 3대 해킹 방어 대회에서 우승한 이종호 보안기술팀 리더(오른쪽)가 팀을 이끈다. [사진 제공 = 비바리퍼블리카] 점심시간도 예외 없다. 개발자들의 손가락이 키보드를 부술 것처럼 맹렬히 움직인다. 세계 최고 해커의 무차별 공습을 막기 위해서다. 매일 취약점을 보완하고 보안을 강화하지만 해커는 '막을 수 있으면 막아보라'는 듯 매번 빈틈을 찾아내 파고든다.금융 앱 '토스'는 요즘 하루에도 수차례 '모의 해킹 공격'을 받는다. 해킹의 주인공은 이종호 토스 보안기술팀 리더로, 그는 세계 3대 해킹방어대회를 모두 석권한 천재 화이트해커다. 불시에 순찰을 나서는 사단장처럼 그는 언질을 주지 않고 토스, 토스뱅크, 토스증권 등 내부 시스템 전방위를 급습한다. 이 리더가 '창'이라면 '방패'는 각 서비스를 담당하는 '보안팀' 팀원들이다. 실전보다 더 무서운 맹공을 막아내며 보안벽을 쌓고 또 쌓는다. 이 리더는 "서비스 설계부터 소비자 사용 환경까지 토스의 모든 서비스에 대해 보안성 체크를 한다"며 "우리 기술팀원은 물론 토스의 모든 직원이 보안 의식을 가질 수 있도록 노력하고 있다"고 말했다.  최근 '신뢰'가 생명인 금융권에서 크고 작은 보안 사고가 잇따르며 고객 불안이 커지고 있다. 해킹 사고의 여파는  핀테크 기업·인터넷은행에 더 크게 미친다. 전통 금융사와 달리 온라인에서 모든 거래가 이뤄져 허점이 생기면 직간접적인 피해가 걷잡을 수 없이 확산될 수 있는 탓이다.토스는 예고 없는 '모의 해킹'으로 보안을 강화한다. 정보 보호업계에서는 '레드팀 훈련'이라고 부르는 방식이다. 군대의 모의 전쟁에서 유래한 개념으로 보안이 중요한 정보기술(IT) 회사들은 오래전부터 활용해왔다. 이미 보고된 취약점들을 점검하고 대비하는 수동적인 보안보다 훨씬 효과적이다. 지난해 1월 토스는 레드팀 주장으로 이 리더를 영입했다. 그는 미국 데프콘, 일본 세콘, 대만 히트콘 등 세계 3대 해킹방어대회에서 우승한 실력자로 이형석 토스 테크놀로지 헤드가 삼고초려했다. 이후 보안기술팀이 화이트해커들로만 재구성됐다. 현재 인원은 9명으로, 팀을 구성할 정도로 화이트해커가 많은 곳은 토스가 거의 유일하다. 지난해 금융보안원 주관 해킹대회에서 우승할 정도로 실력도 검증됐다. 기술력을 바탕으로 토스는 이상 행위 탐지 시스템, 악성 앱 탐지 솔루션, 모바일 보안 솔루션 등을 직접 만들어 쓴다. 보안 업체의 기성품을 구매하는 다른 금융사들과 달리 자사 거래에 특화시키고 추후 개량할 수 있다는 것이 장점이다. 토스 앱에 내재된 악성 앱 탐지 솔루션으로 지난 4월 한 달 동안에만 1만6000여 명이 스마트폰 내 악성 앱을 적발할 수 있었다.다른 인터넷은행들도 보안에 철저하기는 마찬가지다. 카카오뱅크는 고객 거래 데이터를 보호하고자 총 3개의 데이터센터를 구축해 운영 중이다. 서울 마포구 상암동 주전산센터, 경기도 분당구 야탑동 재해복구센터, 부산 제3전산센터 등이다. 카카오뱅크 관계자는 "제3전산센터로 실시간 데이터 백업이 진행돼 수도권 지역의 전쟁 혹은 이에 준하는 재해로부터 고객 데이터를 보호할 수 있다"고 했다. 통신망도 국내 3사(SK브로드밴드·KT·LG유플러스)를 모두 쓴다. 어느 한 곳의 통신망이 마비되더라도 다른 두 곳이 살아 있다면 카카오뱅크는 정상 운영된다.케이뱅크는 백신, 지능형 지속 위협(APT) 대응 솔루션을 국산과 외산 모두 쓴다. 외부에서 유입되는 데이터를 교차로 검증해 안전성을 강화한다는 취지에서다. 또 케이뱅크는 2017년 은행권 최초로 개인정보보호 관리체계 인증을 획득했으며 2021년 정보보호 및 개인정보보호 관리체계(ISMS-P) 인증도 받았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.05.25.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>삼정KPMG "빅테크, 독과점·금융안정성·소비자보호 주요 과제"</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000075235?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>'빅테크를 통해 바라본 디지털 금융의 방향' 발간"디지털금융 패러다임 변화...전략 재정비 필요" 강조(삼정KPMG 제공) 금융생태계의 빅블러(Big Blur) 현상이 가속화하고 있다. 빅테크 기업들이 플랫폼과 기술을 토대로 디지털 메가 트렌드를 선도하는 중이다. 이러한 가운데 독과점, 금융안정성, 소비자보호 등에 따른 규제가 주요 과제로 떠올랐다. 삼정KPMG가 5월 16일 발간한 보고서(빅테크를 통해 바라본 디지털 금융의 방향)에 따르면, 코로나19 발발 이후(2020년 1월~2022년 3월) 구글(62.1%)과 애플(30.5%) 등 미국 주요 빅테크 기업의 주가 상승률은 나스닥(11.1%)을 훨씬 웃돌았다. 카카오(249.2%)와 네이버(86.0%)도 코스피 상승률(24.6%)을 뛰어넘으며 빅테크가 주가와 비즈니스 차별화를 이끄는 양상이다.최근 글로벌 주요 빅테크의 금융업 행보를 살펴보면 각기 다른 전략을 보인다. 아마존과 애플은 페이먼트 사업을 중심으로 금융서비스를 강화하는 중이다. 구글과 메타는 기존 금융사와 협업을 유지하며 규제에 발맞춰 사업 전략을 변경하고 있다. 국내에서는 네이버가 네이버플러스 멤버십과 연계된 서비스로 원스톱 플랫폼 구축에 나섰다. 카카오는 카카오뱅크, 카카오페이 등 라이선스 확보를 통해 금융 고객에게 직접 침투한다. 토스는 국내 제3호 인터넷전문은행 토스뱅크를 출범하며 원앱 전략을 선보이고 있다.  보고서는 "빅테크·핀테크가 금융업 내 혁신과 편의성을 높였다는 점에서 긍정적"이라고 평가한다. 반면 독과점, 금융안정성, 데이터 이동 및 소비자보호 등에 관한 우려로 함께 짚었다. 실제 빅테크의 영향력 증대로 예금자보호제도가 적용되지 않는 금융상품 리스크와 데이터 독과점 등이 부각되며 미국, EU 등에서는 빅테크에 대한 규제를 정비 중이다.미국은 플랫폼 서비스를 통한 독점적 지위와 경제력 집중을 경계하며 규제 마련에 나섰다. 글로벌 빅테크기업이 없는 EU는 디지털 시장법·디지털 서비스법 제정 등으로 유럽 지역에 진출한 해외 빅테크를 규제하는데 적극적이다. 중국은 기관중심 규제 방식을 통해 금융자회사 중심으로 빅테크를 규제 및 감독한다. 주요 빅테크에 금융지주사 설립을 요구하고, 국영은행을 통해 간접적으로 감독하는 방안도 병행한다. 국내 금융당국도 율 체계를 재정비하고 있다. '혁신과 경쟁'을 뒷받침하며 '금융안정과 소비자보호'를 동시에 구현하는 게 목표다. 일례로 금융사의 디지털 트랜스포메이션(Digital Transformation)을 지원하고 금융-비금융간 융합과 다양한 사업 모델을 펼칠 수 있도록 금융회사의 업무 범위 규제를 정비한다. 한편, 금융위원회는 빅테크의 잠재 리스크를 점검할 수 있는 방안을 검토하겠다는 정책 추진방향을 발표했다. 금융감독원도 빅테크의 빠른 사업 확장 등에 따라 금융소비자보호법, 신용정보법 등을 고려해 종합적으로 점검하겠다는 방침을 밝히는 등 모니터링 수준을 높일 것을 예고하기도 했다.삼정KPMG는 금융사는 엄격한 건전성 규제를 준수하며 소비자 프라이버시 보호, 불완전 판매·금융상품 중개-대리인에 대한 관리·감독을 철저히 해야 한다고 조언했다. 아울러 축적된 금융 노하우와 디지털·플랫폼 역량 강화를 통해 자동차·헬스케어 등 비(非)금융 플랫폼으로의 진출과 디지털 신사업 전략을 재정비해야 한다고 덧붙였다. 조재박 삼정KPMG 핀테크 리더(전무)는  "기존 금융사는 상품 제조 역량 차별화 외 고객 접점을 지속적으로 확보하기 위한 제휴 및 투자에 나서야 한다"며 "온라인과 오프라인 역량을 결합해 고객에게 자산, 현금흐름, 건강, 리스크 보장의 최적 균형점을 제시하는 역할을 이어갈 필요가 있다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>토스뱅크, 고객 330만 돌파…중·저신용 대출 35%</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011220770?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 이정필 기자 = 토스뱅크는 출범 8개월 만에 가입고객이 330만명을 넘어섰다고 31일 밝혔다. 인터넷전문은행 처음으로 중저신용 고객 대출 비중 35%(잔액 기준)도 넘어섰다는 설명이다.토스뱅크에 따르면 이달 30일까지 토스뱅크를 가입·이용하는 고객은 총 331만명으로 집계됐다. 지난해 말 124만2700명보다 206만명 늘어난 규모다.고객들은 연 2% 금리(세전) 혜택을 제공하는 토스뱅크통장, 대출한도 조회와 실행 등 서비스를 이용했다. 6초에 1명이 토스뱅크의 신규 고객이 된 셈이란 설명이다.고객 5명 중 2명은 40대 이상으로 이용자층이 전 연령대로 확대되고 있다. 40대 고객은 24.2%를, 50대 이상 고객은 18.7%를 차지했다.  전체 이용 고객 가운데 연 2% 금리를 제공하는 토스뱅크통장을 개설한 고객은 300만3600명으로 집계됐다. 지난해 말 115만5000명 대비 2.6배 이상 늘었다.'지금 이자 받기' 서비스를 통해 매일 이자를 받는 상시 이용 고객들의 수가 130만명으로 늘며 이를 견인했다는 설명이다.통장 개설 고객 중 85%는 계좌에 1원 이상 잔고를 보유했다. 지난해 말 82.1%에 비해 실사용 고객 비중은 2.9%포인트 상승했다. 고객 수는 160만명 이상 늘었다. 고객들은 1인당 평균 3만6000원의 이자를 받았다.중저신용자 대출 비중은 35.2%를 달성했다. 올해 1분기 31.4%보다 2개월 새 3.6%p 상승했다.이는 출범 첫 해 토스뱅크가 약속한 비중(34.9%)을 넘긴 수치다. 토스뱅크는 지난해 10월 출범하면서 중저신용 고객을 적극적으로 포용하겠다고 약속한 바 있다. 8개월간 공급한 중저신용자 대출 규모는 총 1조4185억원(실행액 기준)으로 집계됐다.1분기 말 기준 총 여신잔액은 2조5900억원, 총 수신잔액은 21조원이다.순이자 이익은 올 1분기 -29억원으로 나타났다. 대출영업 재개와 함께 지난해 10월 출범 후 3개월간 발생한 약 -113억원(지난해 말 기준) 대비 큰 폭으로 감소했다.토스뱅크는 신규 대출이 늘며 대손충당금 234억원을 적립해 건전성을 강화했다. 당기순이익은 –654억원을 기록했다.고정이하 여신비율(NPL)은 0.04%, 1개월 이상 연체율은 0.04%로 집계됐다. 지난해 말 기준 은행권 가계대출 연체율은 0.16%, 저축은행 대출 연체율은 2.51% 수준이다.위험 가중 자산 취급 여부에 따라 은행의 자본 건전성을 측정하는 국제결제은행(BIS) 총자본비율은 17.6%로, 국제결제은행 기준치(8%)를 웃돌았다.토스뱅크는 앞으로 금융 사각지대를 포용하면서 건전성을 유지할 계획이라고 전했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>속도위반 과태료 고지서도 카톡으로 받는다</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002591654?sid=102</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>내일부터 국민비서에서 신청국민비서 누리집 갈무리앞으로 속도위반 과태료 고지서도 카카오톡 등 앱으로 받을 수 있다. 경찰청은 24일부터 2주간 모바일 전자고지 수신 희망자를 신청접수한 뒤, 다음달 8일부터 발송을 시작한다고 23일 밝혔다. 주로 교통 법규 위반 등 51종이 모바일 발송 대상이다. 행정안전부 국민비서 누리집(ips.go.kr)에서 신청하면, 7개 민간 앱(카카오·네이버·토스·국민은행·국민카드·신한은행·신한카드) 가운데 선택한 채널로 고지서를 받아볼 수 있다. 경찰청은 모바일 전자고지가 활성화되면 우편 비용을 크게 아낄 수 있을 것으로 기대했다. 모바일 발송 비용은 건당 5.5원으로, 등기(2530원)나 일반우편(400원)과 비교할 때 훨씬 저렴해서다. 경찰은 지난해 각종 고지서 등을 종이우편으로 발송하는데 쓴 비용을 311억원으로 집계했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>토스·두나무·컬리, ETF로 미리 투자한다</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001990956?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>KB운용, 창투사 투자 상품 출시플랫폼社 투자 테마 ETF도 선봬KB자산운용 제공[헤럴드경제=양대근 기자] KB자산운용(대표이사 이현승)은 17일 ‘KBSTAR Fn창업투자회사 ETF’, ‘KBSTAR Fn플랫폼테마 ETF’ 등 테마형 상장지수펀드(ETF) 2종을 출시했다.‘KBSTAR Fn창업투자회사 ETF’는 국내 최초로 창업투자회사에 투자하는 ETF다. 창업투자회사는 잠재력 있는 벤처기업에 투자한 후, 향후 기업가치가 극대화되면 지분을 매각하여 투자 자금을 회수한다. 국내 유니콘 기업(기업가치 10억 달러 이상, 설립 10년 이하 스타트업)의 투자 성공 사례가 늘어나며 창업투자회사의 실적도 가파르게 성장하고 있다.추종지수인 ‘FnGuide창업투자회사지수’는 국내 상장 창업투자회사 14종목으로 구성되어 있으며, 상위종목을 살펴보면 우리기술투자 15.3%, SBI인베스트먼트 11.4%, 아주IB투자 10.6%, 미래에셋벤쳐투자 10.3%, 에이티넘인베스트 9.1% 등이다.KB자산운용 ETF마케팅본부 금정섭 이사는 “토스, 두나무, 컬리, 무신사 등 비상장 기업에 직접 투자하는 것은 높은 수익을 기대할 수 있는 반면, 리스크가 크고 높은 비용을 수반한다”며 “다양한 비상장 기업의 지분을 보유한 창업투자회사에 선별적으로 투자한다면 비상장 기업 투자에 따른 리스크를 우회할 수 있다”고 말했다.한편 KBSTAR Fn플랫폼테마 ETF’는 플랫폼테마 관련 핵심기업에 투자하는 패시브 ETF다. 기초지수인 ‘FnGuide플랫폼테마지수’는 플랫폼테마 관련 31개 종목으로 구성된다.네트워크, 결제, 엔터테인먼트, IT, 헬스케어, 핀테크&amp;AI 등 6가지 영역의 플랫폼 기업을 포함하며, 종목별 비중은 네이버 8.2%, 카카오 7.9%, NHN 7.1%, 한글과컴퓨터 6.1%, 다날 5.9% 등이다. 분산투자 효과를 극대화하기 위해 투자비중은 8%로 제한한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>"신용점수 같은데…' 20대, 60대보다 대출이자 더 낸다</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005230351?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>인터넷은행, 20대 신용대출 금리 가장 높게 책정반면 시중은행에선 60대 금리 1%p 더 높아“신용평점·CSS 다르기 때문…20대는 씬파일러↑”[이데일리 김정현 기자] 신용점수가 동일하더라도 연령별로 금리격차가 상당한 것으로 나타났다. 시중은행은 60세 이상 고령층의 신용대출에 높은 금리를 산정했고, 인터넷전문은행은 20대 청년들에 금리를 높게 책정한 것이다.(사진=연합뉴스)31일 윤창현 국민의힘 의원실이 금융감독원으로부터 제출받은 자료에 따르면 신용평점이 동일한 구간에 있더라도 시중은행들은 60세 이상 고령층에 더 높은 금리로 신용대출을 일으킨 것으로 나타났다.KB국민은행의 경우 지난해 말 신용평점이 950~1000점인 고신용자 신용대출 금리가 평균 3.14%였는데, 60세 이상은 같은 신용평점 구간에 있더라도 금리가 3.85%로 0.71%포인트 높았다. 20대 30대와 40대, 50대가 각각 3.24% 3.01%, 3.07%, 3.12% 등 비슷한 구간에 위치하고 있었는데 60세 이상만 격차가 크게 벌어진 것이다.이 같은 경향은 신용평점을 막론하고 나타났다. 신용평점이 900~949점인 경우 평균이 3.06%였는데 60세 이상은 3.93%로 0.87%포인트 격차였다. 850~899점과 800~849점, 750~799점, 700~749점에서 각각 0.87%포인트, 0.86%포인트, 0.88%포인트 등 격차를 나타냈다.다른 시중은행도 마찬가지였다. 같은 기간 신한은행의 경우 950~1000점대 고신용자의 신용대출 평균 금리가 3.12%였는데, 60세 이상은 3.59%로 0.47%포인트 차이를 보였다. 신한은행의 경우 신용평점이 낮아질수록 격차가 확대되는 경향을 보였다. 900~949점은 평균 금리가 3.25%, 60세 이상은 3.93%로 0.69%포인트 차였다. 신용평점을 50점씩 구간을 나눠 나열했을 때, 동 평점대 평균금리와 60세 이상 금리 격차는 0.77%포인트→0.76%포인트→0.97%포인트→1.22%포인트 등으로 확대됐다.하나은행의 경우 지난해 말 950~1000점대 고신용자의 평균 금리와 고령층 금리는 각각 3.51%, 3.74%를 나타냈다. 0.22%포인트 격차다. 격차는 0.34%포인트→0.45%포인트→0.47%포인트→0.59%포인트 등으로 소폭 확대되는 경향이었다.인터넷전문은행에서는 정반대 현상이 나타났다. 동일한 신용평점 구간 중 20대의 금리가 단연 높았다. 60세 이상의 경우 인터넷은행에서는 평균과 비슷한 흐름을 보였다.지난해 말 카카오뱅크 신용대출을 보유하고 있는 950~1000점대 고신용자의 평균 금리는 3.82%였는데, 20대의 경우 4.14%로 연령대 가운데 단연 높은 금리를 나타냈다. 30대와 40대, 50대, 60세 이상의 경우 각각 3.91%, 3.79%, 3.73%, 3.76%를 기록했다.신용평점이 낮아질수록 그 격차가 점점 확대됐다. 고신용자부터 신용평점을 50점씩 구간을 나눠 나열하면, 20대와 전 연령 평균 금리 격차는 0.55%포인트→0.93%포인트→1.12%포인트→1.16%포인트→1.31%포인트를 나타냈다.케이뱅크도 마찬가지였다. 같은 기간 950~1000점대 20대 신용대출 금리는 4.64%, 전 연령대 평균 금리는 4.01%였다. 0.63%포인트 격차다. 격차는 신용점수에 따라 0.6~0.9%포인트를 오르내렸다. 토스뱅크 역시 20대 금리가 비교적 높았다. 차주 대부분이 분포한 750~1000점대 20대 신용대출 금리와 전 연령대 평균 금리 격차는 적게는 0.37%포인트, 많게는 1.63%포인트를 보였다.왜 이 같은 현상이 생기는 걸까. 금융당국과 은행들은 신용평가사들의 신용평점은 참고 요소일 뿐 은행들은 내부신용평가시스템(CSS)으로 금리를 산정하고 있다고 설명한다. 같은 신용평점 구간으로 묶여 있지만, 실제 은행들은 신용도를 다르게 평가하고 있어 금리도 격차가 생긴다는 것이다.한 시중은행 관계자는 “신용대출을 이미 보유하고 있던 차주가 퇴직하게 되는 경우 소득이 줄어들어 은행 CSS상 신용도가 하락할 수 있다”면서 “이 경우 신용평점은 같더라도 금리가 상승할 가능성이 높다”고 말했다.한 인터넷은행 관계자는 “20대의 경우 같은 신용평점 구간에 속한다고 하더라도 여타 연령대 대비 금융·비금융 이력이 적은 경우가 많다”면서 “이 경우 금리가 높아질 가능성이 있다”고 말했다. 인터넷은행이 금리 산정에 활용하는 통신사요금 납부기록 등 데이터가 부족해 은행들이 CSS상 신용도를 높게 책정하기 힘든 경우가 20대에서 자주 발견된다는 것이다.이 관계자는 또 “시중은행의 경우 대기업과 제휴를 맺어 저금리에 신용대출을 해주는 경우가 많은데 인터넷뱅크는 그렇지 못한 것이 현실”이라며 “이 같은 상황도 20대 평균 금리를 높이는 영향으로 작용했을 가능성이 있다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>[나와, 현장] 또다시 ‘선거 들러리‘로 전락한 게임/나상현 산업부 기자</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003274309?sid=110</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>나상현 산업부 기자 지난 10일 서울 여의도 국회에서 열린 윤석열 대통령 취임식. 삼성·SK·현대차·LG·롯데 등 5대 그룹 총수들이 자리잡은 가운데 최수연 네이버 대표와 김성수 카카오 이사회 의장 등 정보기술(IT) 업계 대표들도 속속 모습을 드러냈다. 대통령 취임식에 전통적인 대기업 총수와 주요 경제단체장 외에 IT업계까지 초청받은 것은 이례적이라는 후문이다. 새 정부의 친(親)IT 기조를 확인할 수 있는 순간이었다.반면 같은 IT지만 소외된 업종도 있었다. 바로 게임. 넥슨, 넷마블 그리고 엔씨소프트. 우리나라 게임업계를 대표하는 소위 ‘3N’을 비롯한 게임사들은 이번 취임식에 초청받지 못했다. 반대로 새 정부의 게임업계에 대한 무관심을 엿볼 수 있는 순간이었다.취임식 하나로 정부 기조를 확대해석한다는 지적이 나올 수도 있다. 하지만 게임업계가 상대적으로 중요도에서 밀렸다는 사실을 부인하긴 어렵다. 이번 취임식엔 네이버·카카오 등 IT 공룡뿐만 아니라 이커머스 플랫폼 컬리(마켓컬리), 배달 플랫폼 우아한형제들(배달의민족), 온라인동영상서비스(OTT) 왓챠, 모바일 금융플랫폼 비바리퍼블리카(토스) 등 유수의 중소 스타트업들도 함께 자리했다. 이 와중에 대기업집단 명단에 세 군데(넥슨·넷마블·크래프톤)나 이름을 올린 게임업계를 취임식 초청 명단에선 찾아볼 수 없다는 사실은 의미심장하다.정작 대선 후보 시절 윤 대통령은 게임에 대한 관심을 표하며 MZ세대 공략에 적극 나섰다. 당시 윤 대통령은 대선 후보로서는 이례적으로 ‘리그 오브 레전드’(LoL) e스포츠 경기장을 찾는 한편 ‘게임산업 발전 공약’을 잇달아 내놓기도 했다. 그러나 당선 이후 대통령직인수위원회가 발표한 110대 국정과제에 ‘게임’이라는 단어는 온데간데없이 사라졌다. 세부 내용을 꼼꼼히 뒤져 봐야 겨우 발견할 수 있지만 이마저도 K팝, 드라마와 함께 ‘K콘텐츠 초격차 장르 육성’이라는 목차로 묶여 있을 뿐이다. 게임은 선거 들러리에 불과했냐는 지적이 나오는 이유다.2018년 이후 틀어막힌 ‘중국 판호’(게임 서비스 허가증) 문제부터 제대로 된 논의조차 없이 방치되고 있는 ‘돈 버는 게임’(P2E) 이슈까지, 우리나라 게임 산업엔 풀어야 할 숙제가 산적하다. 물론 게임에 대한 몰이해 속에서 태어났다가 10년 만에 폐지된 ‘셧다운제’처럼 정부의 무관심이 차라리 낫겠다 싶을 때도 있다. 하지만 무서운 속도로 성장하는 글로벌 게임 산업 발전을 위해 정부가 해야 하는 역할도 분명 있다. 어설픈 겉핥기식 접근이 아닌 전문적이고 심층적인 접근이 필요하다. 윤 대통령이 보였던 관심이 그저 ‘표몰이’에 그치지 않기를 바란다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.05.31.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[알림] 헤럴드금융포럼 2022 ‘금융, 플랫폼이 되다’</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001997668?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>6월 23일 ‘더 플라자호텔’서헤럴드경제가 주관하는 ‘헤럴드금융포럼 2022’가 6월 23일 열립니다. 올해 주제는 ‘금융, 플랫폼이 되다’ 입니다.산업 간 경계가 무너지는 ‘빅블러(Big Blur)’ 시대가 열리면서, 전통 금융사와 기술 기업의 경쟁이 치열합니다. ‘마이데이터’가 본격화되며 기술로 무장한 혁신 서비스와 신뢰를 바탕으로 한 위험관리 능력을 동시에 갖춰야하는 도전의 시간이기도 합니다.이번 포럼에서는 김소영 금융위원회 부위원장과 윤창현 국민의힘 의원이 축사를 하고, 전광우 초대 금융위원회 위원장(現 세계경제연구원 이사장)이 ‘금융, 혁신의 중심에 서다’는 주제로 기조연설을 합니다. 기조연설 후 이어지는 1세션에서는 이형주 금융위원회 금융산업국장이 금융사의 플랫폼 변화에 대해 이야기합니다. 주제 발표 후에는 홍민택 토스뱅크 대표, 서래호 네이버파이낸셜 금융 총괄과 김명희 신한금융지주 CDO(최고디지털책임자), 조영서 KB금융지주 CDPO(디지털플랫폼총괄)가 함께 토론에 나섭니다.2세션에서는 정윤호 해빗팩토리 대표가 보험업계 디지털 전환을 위한 키워드를 제시합니다. 속속 주요 보험사가 디지털 또는 헬스케어 플랫폼을 구축하고 있는 이때, 차별화된 전략 등을 논의하는 자리가 될 것입니다.금융권의 ‘플랫폼 혁신’에 대해 깊이있는 지식과 다양한 의견을 논의하는 헤럴드 금융포럼에 많은 관심과 참여를 바랍니다.▶포럼명: ‘헤럴드금융포럼 2022’▶주제: 금융, 플랫폼이 되다▶일시: 2022년 6월 23일(목) 8:00~13:00(중식 및 휴식간 간식제공)▶장소: 서울 중구 소공동 더 플라자호텔 그랜드볼룸▶진행방식: 세션1, 2별 주제발표 및 토론▶문의: 헤럴드금융포럼 운영사무국▶주관: 헤럴드경제▶후원: 금융위원회, 금융감독원, 전국은행연합회, 생명보험협회, 손해보험협회, 여신금융협회, 저축은행중앙회 등</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>빅테크 `간편결제 수수료율` 6개월마다 공시 의무화 공감대</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002735121?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>금감원·업계, 공시체계 마련 TF 회의금융감독원은 카카오페이와 네이버페이 등 간편결제 사업자의 수수료를 연 2회 공시하도록 하는 방안을 추진한다고 밝혔다. 연합뉴스    금융당국이 카카오페이나 네이버페이 등 빅테크 간편결제 서비스 수수료율을 6개월마다 공시하는 방안을 추진하기로 했다.금융감독원은 수수료 공시를 위해 공동 TF를 구성하고 첫번째 회의를 개최했다고 19일 밝혔다.이날 회의엔 핀테크산업협회·한국인터넷기업협회 등 유관기관과 네이버파이낸셜·카카오페이·비바리퍼블리카(토스) 등 빅테크 3개사, NHN한국사이버결제·KG이니시스·제이티넷과 같은 결제대행업자, SSG닷컴·NHN페이코·롯데멤버스 등 선불업자, 지마켓글로벌·십일번가·우아한형제들(배달의민족)과 같은 종합쇼핑몰 3개사 등 총 14개사가 참석했다.이날 회의에서 참석자들은 수수료율 공시 가이드라인의 제정 취지에 공감했고 보완 필요성 및 세부 공시방안 등에 대해 다양한 의견을 교환했다고 금감원은 밝혔다.금감원은 향후 간편결제 수수료의 투명성을 높이기 위해 가이드라인을 마련하고 수수료 공시를 추진한다는 계획이다. 가이드라인에는 간편결제 수수료를 합리적인 근거에 따라 산출토록 하는 등 기본 원칙을 제시하고, 결제 관련 수수료와 기타 수수료로 구분해 수취·관리하도록 한다. 또한 공시 서식에 따라 업체 누리집에 반기 단위로 공시하도록 하는 내용이 담길 것으로 보인다.금감원은 "전자금융업자의 온라인 간편결제는 카드 결제 방식과 선불 충전금 결제 방식으로 구분되며 서비스 방법별로 다른 수수료를 수취하고 있다"며 "온라인 간편결제 시에는 일반 상거래 서비스 관련 수수료가 별도로 발생한다"고 했다.금감원은 이날 회의에서 제시된 의견을 중심으로 보완방안을 마련을 위한 추가 실무회의를 수시로 진행할 예정이다. 이후 관계부처 및 업계와 충분한 논의를 거쳐 연내 최종 공시 방안을 확정할 방침이다.한편 금융권에선 이날 회의에 쿠팡 등 주요 전자상거래 업체가 참석하지 않아 논란이 되기도 했다. 이에 금감원은 "참석 업체는 업체의 규모 순이 아니라 업체가 제공하는 간편결제 방식에 따라 선정했다"며 "쿠팡을 포함한 다수의 전자금융업자 의견을 폭넓게 청취해 방안을 마련할 계획"이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>인터넷은행 1분기 중·저신용대출 비중 상승…"신용평가 고도화"(종합)</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006122624?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>카뱅 19.9%·케뱅 20.2%·토뱅 31.4%…"연말 목표 달성 전망"© News1 최수아 디자이너(서울=뉴스1) 민선희 기자,서상혁 기자 = 인터넷전문은행들의 1분기 말 기준 중·저신용 대출 비중이 전분기 대비 상승했다. 금리 인상기 고신용자들의 대출 수요가 줄어든 가운데 인터넷전문은행들이 신용평가모형(CSS)을 고도화하면서 중·저신용 대출 공급액이 늘어난 영향이다. 27일 은행연합회 공시에 따르면 지난 3월말 기준 가계신용대출에서 중·저신용 대출이 차지하는 비중은 Δ카카오뱅크 19.9% Δ케이뱅크 20.2% Δ토스뱅크 31.4%를 기록했다. 각각 전분기 대비 2.9%p(포인트), 3.6%p, 7.5%p씩 높아졌다. 인터넷은행 3사의 올해말 기준 중·저신용대출 목표치는 Δ카카오뱅크 25% Δ케이뱅크 25% Δ토스뱅크 42%다. 지금 추세 대로라면, 인터넷은행들은 올해 금융당국과 약속한 중·저신용자 대출 비중 목표를 달성할 수 있을 것으로 보인다. 카카오뱅크는 지난해 6월 새로운 신용평가모형을 적용한 이후 중·저신용 대출 비중이 꾸준히 증가했다고 밝혔다. 카카오뱅크가 지난해 6월부터 지난 3월말까지 내준 중·저신용 고객 대상 신용대출을 검토한 결과 최저금리는 연 2.98%였다. 카카오뱅크는 중·저신용 고객에 대한 변별력 강화를 위해 '대안정보 신용평가모형'도 개발하고 있다. 카카오 공동체 외에 교보그룹과 데이터 협력을 진행 중이며, 다른 금융회사를 이용하고 있는 고객들을 위한 '대환 신용평가모형'도 개발한다는 계획이다. 카카오뱅크에 따르면 지난 2017년 7월 출범 이후 올해 4월말까지 중·저신용 고객에게 공급한 무보증 신용대출 규모는 총 4조9717억원이다. 지난달 말 기준 중·저신용 대출 잔액은 2조7987억원으로 집계됐다.케이뱅크도 지난 2월 중·저신용, 씬파일러 고객군별 특성을 반영한 특화 CSS를 구축해 적용했다. 케이뱅크 관계자는 "특화 CSS 적용 이후, 중·저신용 고객의 대출 승인율과 대출 한도가 높아지고 실행 금리는 낮아졌다"고 밝혔다.케이뱅크가 1분기 공급한 중·저신용 대출 금액은 전년 동기(1061억원) 대비 약 4배 늘어난 4234억원으로 집계됐다. 케이뱅크의 1분기 신규 중·저신용 대출 최저금리는 연 3.41%였으며  신용점수가 270점인 고객도 대출을 받았다. 토스뱅크 역시 비중이 늘어난 이유로 자체 개발 신용평가시스템 'TSS'를 꼽았다. 토스뱅크 관계자는 "TSS를 통해 신용평가가 어렵거나 데이터가 없는 금융이력부족자(씬 파일러)를 포용했다"며 "전사적인 노력과 시스템 고도화를 통해 중·저신용고객이 제1금융권의 테두리 안에서 정상적인 경제생활과 금융소비자로서의 최상의 혜택을 누릴 수 있도록 앞장서겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>[흔들리는 빅테크下] 네이버-카카오도 영향권, 위기돌파 어떻게?</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002125412?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 이전 기사 &lt;[흔들리는 빅테크上] 구글‧메타, 전세계 빅테크사도 휘청 “윈터 이즈 커밍”&gt;에서 살펴본 것처럼, 구글과 메타 등 글로벌 빅테크사는 불확실성에 직면해 있다. 이러한 세계적 흐름에서 네이버‧카카오와 같은 국내 빅테크사도 피해가긴 어렵다.    네이버와 카카오 주가는 6개월 전과 비교해 각각 31.7%, 34.8% 하락했다. 메타 주가가 45.6%, 알파벳 주가는 25.5% 줄어든 것처럼 네이버와 카카오도 전세계 빅테크사 주가 하락 추세를 비껴가지 못했다.    네이버와 카카오도 구글‧메타와 마찬가지로 코로나19 이후 폭발적으로 성장했다. 특히, 광고와 온라인 커머스 시장 성장세가 두드러졌다. 그러나 엔데믹과 함께 성장 폭은 줄어들 수밖에 없게 됐다. 또한, 네이버와 카카오 내부 홍역으로 임직원 달래기를 해야 하는 새 경영진은 연봉 인상 카드를 꺼낼 수밖에 없어, 인건비 부담도 커졌다.    이로 인해 네이버와 카카오 모두 지난 1분기 시장 기대치에 미치지 못한 성적표를 내놓았다. 네이버 검색‧디스플레이를 담당하는 서치플랫폼 매출은 8432억원으로, 5대 사업 중 전년동기대비 성장폭이 가장 낮았다. 카카오 포털비즈 매출은 1140억원으로, 카카오 사업에서 유일하게 전년동기대비 역성장했다. 광고경기 부진과 계절적 비수기 영향이다. 톡비즈 매출도 주요 광고상품 매출하락으로 전분기보다 3% 감소한 매출 4610억원에 머물렀다.    글로벌 금리인상, 러시아-우크라이나 전쟁 장기화 등 시장 불확실성이 전세계 광고 경기를 위축시켰기 때문이다. 여기에 더해 국내에서는 대통령선거까지 겹쳤다.    김남선 네이버 최고재무책임자(CFO)는 실적 컨퍼런스콜을 통해 “1분기까지는 대선과 거시적 리스크 등으로 광고주들이 마케팅을 줄여온 경향을 목격했다”며 “다만, 4월 들어 광고 요율이 다시 올라오고 있는 점은 긍정적”이라고 진단했다. 배재현 카카오 최고투자책임자(CIO)도 “2분기부터 여행 업종 중심으로 마케팅 수요가 회복되고 있으나, 연초 사업계획 수립 당시 대비 비우호적 사업 환경이 조성된 건 사실”이라고 말했다.    ◆스냅발 악재와 선 그은 네이버 김남선 CFO “검색 부문 두 자릿 수 성장 목표”=더군다나, 최근엔 동영상 기반 소셜미디어 서비스 스냅챗을 운영하는 스냅이 내놓은 우울한 전망에 메타와 트위터 등까지 영향을 미치며, 온라인 광고 시장 위축 예측과 함께 글로벌 증시를 강타했다. 스냅발 미국 기술주 급락에 네이버도 지난 25일 장 초반 한 때 26만2500원까지 떨어져 52주 신저가를 경신하기도 했다. 이틀 연속 장중 신저가다. 다만, 악재 선반영 인식에 저가 매수세 유입으로 전 거래일 종가와 같은 26만6000원 보합세로 마감했다.    이로 인해 국내 빅테크 기업에도 영향이 있을 것이라는 예상도 나오지만, 김남선 네이버 CFO는 25일(한국시간) 참석한 골드만삭스 GS 테크넷(TechNet) 컨퍼런스에서 스냅을 비롯한 여타 글로벌 빅테크들과는 광고사업 상황이 다르다고 강조했다. 김남선 CFO는 거시 전망이 우호적이지 않지만, 그동안 2~3년 주기 침체기를 겪을 때마다 네이버는 혁신을 만들어 성장을 해냈었던 만큼, 이번에도 방법을 찾겠다는 의지도 드러냈다.    이날 김 CFO는 “지난 2년간 코로나19가 네이버뿐 아니라 전반적인 커머스 사업 성장을 견인한 것은 사실이지만 네이버 검색광고사업과 코로나19는 크게 연관성이 없는 것으로 확인됐다”며 “네이버가 디스플레이 영역에 퍼포먼스 광고를 도입한 것이 2021년에 매출 성장을 견인했으며, 시장 변화에 따른 것이 아니라 네이버가 광고 솔루션을 개선하고 최적화하는 데 성공했기 때문이다. 여전히 광고 측면에서 수익화가 미흡하다고 보고, 앞으로 더 많은 것을 할 수 있다고 생각한다”고 말했다.    네이버는 핵심 검색 부문에서 두 자릿 수 성장을 달성하기 위해 새로운 광고솔루션과 상품을 만들고, 치열한 검색‧커머스 시장에 대응해 포맷을 다양화하겠다는 방침이다.    김 CFO는 “거시적 전망은 분명히 그렇게 긍정적이지 않다. 구글 최근 실적도 지난 18개월 대비 부진하다. 한국도 마찬가지일 것”이라며 “네이버는 검색 광고와 디스플레이 광고에서 우세한 플레이어지만, 계속해서 새로운 포맷이 나오고 있다. 이에 맞춰 새 광고상품과 솔루션을 만들어야한다”고 부연했다.   ◆카카오, 연간 전체로 광고 사업 견고한 성장…주가 15만원 회복 목표=카카오는 연간 전체로는 광고 사업의 견고한 성장을 이어갈 수 있을 것이라고 봤다. 파트너들이 플랫폼 내에서 오히려 예산을 증액하고 있고, 광고 상품 규모 확대를 위한 준비를 상반기 내 진행하고 있기 때문이다.    이와 함께 카카오는 카카오톡 서비스 개편과 글로벌 확대를 통해 기업가치 증대를 꾀한다. 카카오톡을 글로벌 유저들까지 포섭할 수 있는 개방형 공간으로 바꾸고, 오픈채팅 활성화를 통해 비목적성 가벼운 인터랙션 목적으로 재구성하겠다는 복안이다. 카카오톡 내 메타버스도 구현해, 새로운 경제활동도 지원한다.    남궁훈 카카오 대표는 “카카오톡 서비스 개편과 글로벌 확장 가능성이 보여지기 시작한다면, 카카오 기업가치는 충분히 주가 15만원 그 이상으로 회복할 수 있다고 믿는다”고 전했다. 남궁훈 대표는 주가 15만원 달성 전까지 최저임금만 받겠다고 선언하기도 했다.    그나마 구글‧메타 등과 비교해 다행인 점인 국내에서 네이버와 카카오 등 온라인 플랫폼 규제 수위가 낮아졌다는 점이다. 윤석열 정부는 플랫폼 규제를 법적으로 강제하기 보다 자율규제 쪽으로 바라보고 있다. 그도 그럴 것이, 과도한 규제가 국내 신산업을 이끄는 성장기업 행보를 막을 수 있는 우려가 상당했기 때문이다.    실제로, 한국경영자총협(경총) ‘우리나라 주요 신산업 규제 개선방안 보고서’는 과도한 규제로 한국 신산업의 경쟁력이 선진국보다 뒤처지고 있다고 분석했다.    보고서에 따르면 온라인 플랫폼, 바이오‧헬스, 핀테크 3대 신산업을 대표하는 국내 6개 기업 시가총액 합계가 중국 빅테크 기업 텐센트 시가총액의 3분의 1 수준이다. 지난달 28일 기준 네이버, 카카오, 삼성바이오로직스, 셀트리온, 카카오페이, 토스 등 6개사 시가총액 합계는 195조3000억원이다. 텐센트 시가총액은 630조4000억원에 이른다. 아마존 1857조5000억원, 구글 1971조6000억원, 메타 705조3000억원 등 미국 빅테크 기업과 비교하면 격차는 더 크다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>"사장님들 모셔라" 케이뱅크 vs 토스뱅크 격돌</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/241/0003214687?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>[일간스포츠 권지예]   사장님 대출    인터넷전문은행이 이번에는 개인사업자 대출을 두고 경쟁을 벌인다. 토스뱅크와 케이뱅크가 연이어 일명 '사장님 대출'을 출시했고, 카카오뱅크가 올해 4분기 출시를 예고하고 있다. 시중은행보다 낮은 금리에 높은 한도를 제공한다는 점에서 금융 소비자의 호응을 보이는 모습이다.  22일 은행권에 따르면 지난 2월 인터넷은행 중에서는 처음으로 토스뱅크가 사장님 대출을 출시하며 개인사업자 대출 시장에 진출했다. 이 상품은 출시 한 달 만에 대출 규모가 1160억 원을, 지난 16일 기준 잔액이 3940억 원을 기록했다.    토스뱅크 사장님 대출은 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여하는 개인사업자 신용대출로, 이날 기준 금리는 최저 연 3.85%부터 최고 15.00%고 최대 한도는 1억 원이다. 노란우산공제에 가입했다면 0.5%포인트 우대를 받는다.    토스뱅크 관계자는 "금융 사각지대 계층을 포용하고, 토스뱅크가 자체 개발한 신용평가모형(TSS)로 특히 운수업 종사자 등 기존에 증빙 소득으로 신용도 평가를 받기 어려웠던 금융 사각지대 계층을 포용하면서 단기간 내 좋은 성과를 거둔 것"이라고 말했다.    이어 토스뱅크는 지난 11일 '사장님 마이너스통장'도 출시했다.    토스뱅크에 따르면 사장님 마이너스통장은 출시 4일 만에 대출 약정액이 200억 원을 돌파했다. 이 상품의 최대한도는 5000만 원, 최저 금리는 연 4.40%(변동금리)이다.      케이뱅크 사장님 대출    연이어 케이뱅크가 신용보증재단과 손잡고 개인사업자를 위한 '사장님 대출'을 출시한다고 17일 밝혔다. 실제 사업을 운영하는 자영업자, 소상공인 등 개인사업자로 신용보증재단 보증서 발급이 가능한 고객을 대상으로 하는 상품이다.    대출 심사를 통과하면 신용등급과 관계없이 누구나 연 3.42%의 동일한 금리를 적용받을 수 있다. 대출 한도는 3000만 원, 대출 기간은 5년이다. 서류 제출 없이 모바일로 대출 신청부터 대출 실행까지 10분 이내로 진행할 수 있다.     케이뱅크 관계자는 "소상공인, 자영업자가 지점을 방문하지 않고 휴대전화로 간편하게 단일 금리를 이용할 수 있는 상품을 만들었다"고 말했다.     토스뱅크에서 시작된 개인사업자 대출 상품 출시는 케이뱅크로 이어졌고, 올해 4분기에는 카카오뱅크까지 합류할 전망이다. 윤호영 카카오뱅크 대표가 이달 3일 1분기 실적 발표 컨퍼런스 콜에서 "올해 4분기부터 개인사업자 수신 및 대출상품을 통해 기업 시장에 진출할 것"이라고 예고한 바 있다.    카카오뱅크는 하반기 개인사업자 대상 소호(SOHO) 대출 출시를 준비하고 있다. 역시 100% 비대면 서비스로 유관기관과 연계해 온라인 비대면에 최적화한 보증부 대출 상품을 출시한다는 계획이다.    인터넷은행의 사장님 대출 상품들이 소상공인·자영업자로부터 호응을 얻고 있는 데는 시중은행보다 낮은 금리로 돈을 빌릴 수 있다는 이유가 가장 크다.      신한은행의 사장님 대출 상품 '쏠편한 사업자 대출'은 최저 금리가 연 6.45%, 최고 금리는 연 7.45%이며 최대한도는 5000만 원이다. 우리은행의 비대면 개인사업자 대출 상품인 '우리 Oh!(5) 클릭 대출'은 최저 금리가 연 4.17%(변동금리)에 한도가 3000만 원이다.    게다가 최근 가계대출 증가세는 주춤해진 반면, 개인사업자 대출 수요는 늘고 있는 분위기도 인터넷은행들의 사장님 대출 출시 러시의 배경이 됐다. 강민국 국회의원이 금융감독원으로부터 받은 자료에 따르면 시중은행의 개인사업자 대출 규모와 건수는 지난해 말 221만3100건, 259조3000억 원으로 2019년보다 각각 1.6배, 1.2배나 늘었다.    시중은행 관계자는 "사장님 대출은 상품 출시가 활발하지 않은 편"이라며 "인터넷은행이 비대면으로 시중은행보다 낮은 금리를 제시해온 만큼 개인사업자 대출에서도 경쟁력을 가져갈 수 있을 것으로 판단한 것"이라고 말했다.    권지예 기자 kwon.jiye@joongang.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>인뱅 기업대출 고삐 풀어준 당국…은행권 개인사업자 대출 경쟁 본격화</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003273578?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>개인사업자 대출 출시한 케이뱅크토스뱅크, 석달 새 3940억원 취급이달 은행법 감독규정 개정안 시행케이뱅크 제공. 인터넷전문은행 케이뱅크가 개인사업자 대출을 출시하면서 은행권의 기업대출 경쟁이 본격화될 전망이다.케이뱅크는 17일 신용보증재단과 제휴한 보증부 개인사업자 대출을 출시했다고 밝혔다. 대출 한도는 3000만원, 기간은 5년으로 신용등급과 관계없이 연 3.42%의 동일한 금리가 적용된다. 고신용자(1~2등급)가 시중은행에서 신용대출을 받을 때와 비슷한 금리 수준으로 토스뱅크 개인사업자 고객 3명 중 2명(62%)가량이 연 4%가 넘는 금리로 대출을 받은 것과 비교해도 파격적인 금리다. 토스뱅크는 지난 2월 무보증·무담보 개인사업자 대출을 내놨다. 출시 석 달여 만인 전날까지 취급액은 3940억원에 달한다. 카카오뱅크는 4분기 개인사업자 대출을 출시할 계획이다.인터넷전문은행의 기업대출은 금융위원회가 은행법 시행령 및 감독규정 개정안을 마련하면서 물꼬를 텄다. 감독규정은 은행이 보유한 자금에 비해 과도한 대출을 내줄 수 없도록 대출금을 예수금으로 나눈 값이 100을 넘지 못하도록 규제한다. 이때 기업대출을 취급하는 시중은행에서 100만원의 가계대출이 나가면 115만원으로 산정되는 가중치가 적용된다.이달부터 시행된 개정안은 인터넷전문은행이 기업대출을 취급하더라도 신규 가계대출 취급분이 아닌 기존 취급분에 대해서는 2025년 4월 말까지 100%의 가중치만 적용되도록 예외를 뒀다. 현장실사가 필요한 경우 인터넷전문은행의 대면 거래도 허용했다. 지난해 출범 이후 대출 중단 사태를 겪은 토스뱅크는 예수금에 비해 대출 비중이 상대적으로 적어 개정안이 시행되기 이전부터 개인사업자 대출을 출시할 수 있었다. 케이뱅크는 당초 지난달 개인사업자 대출을 출시할 계획이었지만 개정안이 시행된 이후인 이날 상품을 출시하게 됐다.시중은행은 기업대출 파이를 뺏기지 않기 위해 고심하고 있다. 금리 인상으로 시중은행의 가계대출 규모 증가세가 지난해에 비해 크게 꺾였기 때문이다. 은행들 사이에서는 정권 교체에 따른 가계대출 규제 완화 기대가 있었지만 새 정부가 7월부터 적용되는 차주별 총부채원리금상환비율(DSR) 규제 확대 계획을 그대로 이행하는 것으로 가닥을 잡으면서 하반기에도 가계대출 확대를 기대하기 어려워졌다. KB국민·신한·하나·우리·NH농협·기업은행의 개인사업자 대출 잔액은 지난달 말 기준 372조 8735억원으로 올 들어 9조 5163억원 늘었다. 금융권 관계자는 “구조가 비교적 단순한 개인사업자 대출을 시작으로 인터넷전문은행이 중소기업·법인 대출을 확장할 것”이라며 “시중은행도 금리 등 경쟁력 강화가 필요하다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐', 금융기관 앱에서도 만난다</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013206260?sid=100</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>행안부, 4개 금융사와 업무협약KB스타뱅킹 국민비서(서울=연합뉴스) 김윤구 기자 = 앞으로 챗봇 행정정보 안내 서비스인 '국민비서' 구삐의 생활밀착형 행정정보를 은행, 카드사 등 금융기관의 모바일 앱을 통해서도 편리하게 안내받을 수 있게 된다.    행정안전부는 27일 정부서울청사에서 KB국민은행, KB국민카드, 신한은행, 신한카드 4개 금융사와 국민비서 서비스 제공 및 이용 활성화를 위한 업무협약을 체결한다고 26일 밝혔다.    국민비서 '구삐'는 각종 생활형 행정정보를 알려주는 서비스로, 네이버, 카카오톡, 토스 등 3개 앱에서 건강검진, 전기요금, 운전면허 갱신 등 23종의 알림 서비스를 제공한다. 이용자 수는 1천466만명이다.    지난해 백신접종 예약 안내 및 국민지원금 안내 등을 통해 대표적인 행정서비스로 자리매김했다는 평가를 받았다.    이번 업무협약을 통해 27일부터는 네이버 등 기존 3개 앱 외에 4개 금융기관 앱을 통해서도 국민비서 알림 서비스를 이용할 수 있다.    행안부와 4개 금융사는 국민비서 서비스의 이용 활성화와 공공 서비스의 편의성 향상을 위해 앞으로 협력하기로 했다.    행안부는 민간 모바일 앱 연계 확대를 추진해왔다.    한창섭 행안부 차관은 "국민비서는 정부와 민간이 서로 협력해 공공서비스를 제공하는 대표적인 사례"라면서 "앞으로도 민관 협업 모델에 기초한 다양한 행정서비스를 제공할 것"이라고 말했다.    ykim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>빅테크부터 인터넷은행까지…사업자대출 시장 커진다</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000673433?sid=101</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>업력, 신용도, 매장유무에 따라 갈려…"환경에 맞게 선택해야"#온라인스토어를 창업한 지 6개월이 된 A씨는 대출이 필요해 고민에 빠졌다. 점포가 없는 데다, 매출이 발생한 기간이 6개월 미만이기 때문에 은행권에선 조건이 부합하지 않기 때문이다.네이버파이낸셜에 이어 토스뱅크, 케이뱅크까지 가세하며 비대면 개인사업자대출 시장이 커지면서 사장님들의 고민도 깊어지고 있다. 여기저기서 유사상품이 등장했지만 어디가 유리할지 판단하기 어려운 탓이다.네이버파이낸셜, 토스뱅크, 케이뱅크 로고 이미지. [사진=박은경 기자]18일 금융권에 따르면 케이뱅크는 전날 신용보증재단과 손잡고 개인사업자를 위한 100% 비대면 '사장님 대출'을 출시했다.'사장님 대출'은 신용보증재단과 제휴한 '온택트 특례보증' 상품으로 대출 한도는 3천만원, 대출기간은 5년으로 상환 방식은 1년 거치, 4년 매월 원금균등분할상환이다. 언제 갚아도 중도상환 수수료는 무료다. 금리는 신용등급과 관계없이 연 최저 3.42%다.중요한 건 신용보증재단 보증서 발급이 가능해야 하며, 점포가 있고 사업자등록증명원상의 개업일이 12개월이 경과해야 한다. 또 휴폐업 없이 3개월 이상 연속 매출이 있고 신청 1주일 내에도 매출이 있어야 한다.만일 점포가 없거나 한도가 3천만원 이상 필요한, 매출발생 6개월 이상 사업자라면 '토스뱅크 사장님대출'을 노려볼만하다.앞서 토스뱅크는 무보증·무담보 개인사업자 대출인 '토스뱅크 사장님 대출'과 마이너스 통장인 '토스뱅크 사장님 마이너스 통장'을 선보였다. 이날 기준 토스뱅크 사장님 대출 금리는 연 3.79~15.00%, 한도는 최대 1억원이다. 노란우산공제에 가입했다면 0.5%p 우대를 받아 연 3.29%까지 낮아진다.차이점은 케이뱅크보다 한도가 높고, 기본 금리가 높다. 또 점포가 없는 온라인 사업주라도 개업 1년 또는 매출발생 6개월 이상이면 대출을 신청할 수 있다. 개인사업자 신용대출로써 보증서와 같은 담보가 필요하지 않아 매출이 낮아도 신용도가 우수하다면 유리하다.다만 케이뱅크와 토스뱅크는 은행인 만큼 신용도가 따라줘야 한다. 신용도가 내부기준에 적합지 않을 경우 한도가 줄거나 부결될 수 있다.신용도가 높지 않은 창업초기 사업주라도 대출이 가능한 곳이 있다. 네이버파이낸셜의 스마트스토어대출은 네이버 스마트스토어를 운영하는 사업주를 대상으로 6개월 미만의 창업초기 사업주에도 대출을 제공해준다. 다만 네이버 스토어를 운영 중인 사업자여야 한다.상품은 '우리은행 네이버 스마트스토어 대출'과 '미래에셋캐피탈 스마트스토어 사업자 대출'로 나뉘는데 신용도 등에 따라 선택하면 된다.'우리은행 네이버 스마트스토어 대출'은 한도 4천만원에 금리는 연 4.17~12.98% 이며, '미래에셋캐피탈 스마트스토어 사업자 대출'은 연 4.90~11.50%로 한도는 5천만원이다. 특히 미래에셋캐피탈 스마트스토어 사업자 대출'을 대표자 신용점수에 영향을 미치지 않는다.차이점은 '우리은행 네이버 스마트스토어 대출'은 업력 6개월 이상이 필요하고 '미래에셋캐피탈 스마트스토어 사업자 대출'은 스마트스토어 매출 등 비금융데이터가 반영된 대안신용평가(Acss)를 통해 신용평가를 하므로 3개월 이상 월 매출 50만원 이상의 창업 초기 사업자도 가능하다.네이버파이낸셜 관계자는 "우리은행 스마트 스토어대출은 은행권이다 보니, 내부 기준에 따라 신용도가 필요할 수 있고 미래에셋 캐피탈 스마트스토어대출은 창업 초기 사업자도 가능한 데다 신용점수 조건도 완화됐다"면서 "두 상품을 모두 조회해보고 필요한 한도 등에 따라 선택하면 된다"고 말했다.위 상품들 중 사업주는 업력, 매장 유무, 신용도 등의 여부에 따라 선택하면 된다.금융권 한 관계자는 "은행권 대출의 경우 사업자 업력 요건과 오프라인 매장 유무가 주요 요인이고, 스마트스토어 같은 무점포 사업자 전용 대출은 상대적으로 점포나 업력이 불리한 사업자도 이용할 수 있다"면서 "사업자대출이 다양화된 만큼 사업자 본인의 환경에 맞게 유리한 조건을 선택해야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>‘한도’의 토뱅, ‘금리’의 케뱅…개인사업자대출 어디서 받나</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001992151?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>한도 1억원까지 토스뱅크연 3.42% 동일금리 케이뱅크카카오뱅크는 4분기 출시인터넷은행, 여신 포트폴리오 강화 박차[연합][헤럴드경제=박자연 기자]인터넷은행들이 올해 개인사업자 대출을 출시하며 본격적인 여신 포트폴리오 다양화에 나선다. 시중은행과 비교했을 때 금리와 한도 차원에서 조건이 좋아 자금이 필요한 자영업자들에게는 ‘단비’가 될 것으로 예상된다.18일 금융권에 따르면 케이뱅크는 전날 비대면 개인사업자대출인 ‘사장님 대출’을 내놨다. 토스뱅크가 지난 2월 개인사업자 신용대출을 출시한 데 이어 두번째다. 카카오뱅크는 4분기 중으로 유사한 상품을 준비 중이다.두 은행 상품 모두 100% 비대면으로 신청이 가능하다. 신청부터 실행까지 10분 내외인 점도 특징이다. 중도상환수수료도 모두 받지 않는다. 특히 자체 신용평가모델(CSS) 기반으로 한도 등 대출 조건이 정해지기 때문에 신용점수가 낮은 이용자들도 접근 가능하다. 토스뱅크가 출시 한달 간 취급 내역을 분석한 결과 개인사업자 신용대출 취급액 중 중·저신용 고객 비중은 39.7%로 나타났다.케이뱅크 상품은 연 3.42%로 동일 금리가 적용된다. 사업자 등록 후 1년이 지나야 하고 신용보증재단의 보증서 발급만 가능하면 대출 대상이 된다. 기존 신용보증재단 대출이 있어도 중복으로 대출을 받을 수 있다. 한도는 최대 3000만원이다. 케이뱅크 자체 CSS와 모회사인 BC카드의 매출 데이터를 활용해 조건이 결정된다.토스뱅크 개인사업자대출 상품은 신용대출과 마이너스통장으로 나뉜다. 한도는 각각 1억, 5000만원이라 케이뱅크보다는 높은 편이다. 이날 기준 금리는 신용대출의 경우 최저 3.81%, 마이너스 통장은 최저 4.36%을 형성하고 있다. 이달 출시된 마이너스통장(한도대출)은 인터넷은행 업계에서는 처음 내놓은 상품이다. 토스뱅크 관계자는 “마이너스통장은 일반적으로 자금 입출금이 빈번한 개인사업자들에게 활용도가 높을 것으로 예상된다”고 말했다.카카오뱅크같은 경우 다른 각도로 개인사업자 대출을 고민 중이다. 카카오뱅크가 내놓을 개인사업자 대출은 수신상품과 연계하는 식인 것으로 알려졌다. 카카오뱅크 관계자는 “개인자금과 사업자금을 구분해서 관리하기 어려운 소상공인에게 직관적인 관리와 운영이 가능하도록 준비할 예정”이라고 말했다.인터넷은행들이 내놓은 개인사업자대출은 시중은행 상품에 비해 조건이 좋은 편이다. 높은 한도와 저렴한 금리로 알려진 한 시중은행 비대면 개인사업자 대출 상품은 최저금리가 3.99%, 한도가 1억원인데, 이날 기준 인터넷은행들이 내놓은 상품 금리보다 높은 편이다. 한도의 경우 토스뱅크 상품과 같다.인터넷은행들이 개인사업자 대출에 뛰어드는 이유는 여신포트폴리오 다양화에 있다. 일각에서는 내년 말까지 목표치를 맞춰야하는 중저신용자 비중을 높이기 위한 조치가 아니냐는 의견도 있지만 개인사업자 대출은 별개로 취급된다. 한 인터넷은행 업계 관계자는 “실적이 나오기 시작하면서 여수신 포트폴리오 다양화 필요성이 대두됐고, 이에 따라 개인사업자 대출 상품 출시가 잇따르고 있는 것”이라고 설명했다. 개인사업자 대출의 경우 일반 기업대출보다 비대면 운영이 상대적으로 용이하다는 점도 인터넷은행들이 개인사업자 대출을 택한 이유로 거론된다.제도적 요건이 마련된 것도 인터넷은행들이 개인사업자 대출을 적극적으로 할 수 있는 마중물이 됐다. 이달부터 시행된 ‘은행법 시행령 및 감독규정 개정안’에 따르면 인터넷은행이 취급한 기업대출에 대해 다른 시중은행에 적용되는 기업대출 가중치(중소기업 85%, 개인사업자 100%)를 적용하기로 했기 때문이다. 인터넷은행은 그간 일반 시중은행에 비해 높은(115%) 예대율이 적용됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>애플 뛰쳐나온 AI천재, 구글 갔다…이직자 줄 세운 '강력한 유인책'</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003198417?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>요즘 실리콘밸리에서는 인공지능(AI) 전문가인 이안 굿펠로우 전 애플 임원의 이직이 화제다. AI 머신러닝 분야의 최고 인재로 손꼽히는 굿펠로우는 애플의 머신러닝 개발 디렉터로 일했다. 애플의 야심작이라 할 수 있는 '애플카 프로젝트'에도 참여했다. 하지만 그는 최근 애플에 사직서를 던지고 구글의 AI 계열사인 딥마인드로 이직했다. 구글에서 일하다 애플로 스카우트 된 지 3년 만에 다시 구글로 돌아간 것이다. 딥마인드는 이세돌 9단과 겨룬 '알파고'를 개발한 회사로 유명하다.      애플을 떠나 구글 딥마인드로 이직한 이안 굿펠로우. 머신러닝 분야 최고의 인재로 꼽히는 '스타 개발자'다. [사진 위키피디아]      ━   주 3회 출근 싫어 이직한 '최고 인재'         이직의 결정적 계기가 된 건 '출근'이었다. 애플은 최근 재택근무를 단계적으로 축소하면서 주 3회 출근으로 근무 체계를 변경했다. 굿펠로우는 동료들에게 보낸 이메일에서 "더 큰 유연성이 이 팀에 최선이었을 것으로 믿는다"는 말을 남겼다. 블룸버그는 "굿펠로우는 회사 복귀 정책으로 인해 퇴사하는 최고위직이지만, (애플의 출근) 규정이 시행되면 퇴사자는 더 늘어날 것"으로 전망했다.      유튜브에 공개돼 있는 애플카 컨셉 이미지. [사진 유튜브 AutoEvolution 계정]           빅테크 기업을 중심으로 개발자 인력난이 심화하는 가운데 '재택근무'가 개발자를 끌어당기는 강력한 '유인책'으로 부상하고 있다. 정보통신기술(ICT) 업계에선 "근무 조건이 마음에 안 들면 다니던 회사에서 걸어 나와 바로 옆 회사로 들어간다"는 말이 나올 정도다.      ━   '영구 재택' 했더니 개발자 이직 줄이어           국내 ICT 업계도 개발자 모시기의 일환으로 '재택근무'를 내세우고 있다. 4월 초 출범한 NHN클라우드는 경력직 공채를 모집하면서 '코로나19 종식 이후에도 기본 주 4일 재택근무'를 내걸었다. 이 회사 관계자는 "IT 업계 내 인력 전쟁이 뜨거워지면서 인재 유치를 위한 복지 제도의 하나"라고 설명했다.      AI 전문 스타트업 업스테이지 직원이 제주도에서 풀리모트(완전원격근무)를 하고 있는 장면. [사진 업스테이지]           AI 전문 스타트업인 업스테이지는 2020년 10월 창업 당시부터 풀리모트(완전 원격근무)를 시행하고 있다. 근속 연수에 따라 재택근무 지원비도 500만~1000만원씩 현금 지원한다. 그 결과 이 회사에는 네이버·카카오·엔씨소프트는 물론 메타(옛 페이스북)·아마존 등 내로라하는 글로벌 기업 출신의 개발자가 모이고 있다.      ━   하이브리드 근무·거점 오피스 확산       하이브리드(혼합) 근무도 확산하고 있다. 네이버는 직원이 자유롭게 근무 시간과 장소를 정할 수 있는 근무제인 '커넥티드 워크'를 올해 7월부터 도입한다. 네이버 직원은 상·하반기 한 번씩 개인 사정이나 조직 여건, 프로젝트 등의 상황을 고려해 주 3일 이상 사무실로 출근하는 '타입 O'와 원격 근무를 기반으로 하는 '타입 R' 중 근무 형태를 자율적으로 선택할 수 있다.       네이버가 지난달 공개한 제2 사옥 '1784' 전경. 네이버는 사옥을 확장했지만 구성원의 의견을 반영해 '하이브리드 근무 형태인 '커넥티드 워크'를 7월부터 도입키로 했다. [사진 네이버]           이른바 '네카라쿠배(네이버·카카오·라인·쿠팡·배민)'로 불리는 기업뿐 아니라 '당토직야(당근·토스·직방·야놀자)'로 불리는 유니콘 역시 하이브리드 근무를 적극적으로 채택하고 있다. 현재 전사 재택근무 중인 배민은 코로나 종식 이후에도 주 2회 재택근무를 상시화하겠다고 밝힌 바 있다. 당근마켓은 사회적 거리 두기가 해제된 이후에도 사무실 출근과 재택을 병행할 수 있도록 하고 있다.       출근 형태도 변하고 있다. SK텔레콤은 지난달 7일부터 서울 신도림과 경기도 일산·분당 3곳에 거점형 업무공간인 ‘스피어’를 오픈했다. 앱을 통해 좌석을 예약한 뒤 책상에 있는 태블릿에 얼굴을 인식하면 ‘가상 데스크톱 환경(VDI)’과 연동돼 평소 쓰던 PC와 동일한 환경에서 업무를 볼 수 있다.       포스코센터 스마트오피스 전경. [사진 포스코인터내셔널]            포스코인터내셔널은 전 직원을 대상으로 '아묻따 데이(아무것도 묻지도 따지지도 않는 날)'을 시행한다. 일주일에 하루는 직원이 원하는 장소에서 눈치 보지 않고 근무하는 제도다. 이를 위해 이 회사는 송도 본사와는 별도로 5개의 스마트 오피스를 운영한다. 포스코타워 선릉·역삼, 서울역 그랜드센트럴빌딩 내 스마트오피스를 마련했고, 여의도 파크원과 을지로 금세기빌딩에도 공용 거점오피스를 운영하고 있다. 이 회사 관계자는 "스마트워크센터 확대와 아묻따 데이 시행이 창의적이고 유연한 조직문화 조성에 긍정적인 영향을 미칠 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.05.22.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>대통령실, 23일부터 청와대 건물 '내부'도 개방…'영빈관·춘추관'부터 순차 공개</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/629/0000150792?sid=100</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>'청와대 개방' 특별행사 성황리 마무리대통령실은 오는 23일부터 '영빈관'과 '춘추관' 내부를 우선 공개하며, 추후 본관과 관저 등 다른 건물 내부도 순차적으로 공개할 계획이라고 밝혔다. 지난 13일 청와대를 찾은 시민들이 본관 앞에서 기념사진을 찍고 있는 모습. /이효균 기자대통령실은 지난 10일부터 22일까지 진행된 '청와대, 국민 품으로' 개방 특별행사가 많은 국민들의 사랑을 받은 채 성황리에 마무리됐다고 밝혔다. 대한민국 정부 출범 당시부터 대통령의 집무실 및 관저로 활용된 청와대는 윤석열 정부가 출범한 지난 10일 74년 만에 전면 개방됐다. 특별행사 기간인 10~22일 오전 11시까지 13일간 청와대 관람 인원은 총 37만7888명이었으며, 청와대와 연계된 북악산 등산로를 이용한 등산객은 5만9536명으로 집계됐다. 청와대를 찾은 방문객들은 건물 내부를 제외한 경내를 자유롭게 움직이며 대정원과 녹지원 등 녹음 속에서 청와대가 품은 자연을 느끼고, 본관·관저 등 주요 건물 앞에서 사진을 찍으며 즐거운 시간을 보냈다. 여기에 시간대별로 준비된 경내‧외 다양한 문화예술 공연과 관람 해설 프로그램은 관람객들에게 다채로운 볼거리를 제공하며 행사의 흥겨움을 더했다. 청와대 인근 권역에서도 경복궁 궁중문화축전과 같이 개방 행사와 연계된 다양한 문화행사들이 진행되었으며, 이른바 '김신조 사건' 이후 54년 만에 완전 개방된 북악산도 작년 동 기간 대비 약 9배(작년 동 기간 6307명)가 증가한 5만9536명의 등산객들이 찾을 정도로 관심이 뜨거웠다. 대통령실은 건물 내부에 대한 전 국민적 관심에 부응하기 위해 23일부터 내부 정리가 완료된 '영빈관'과 '춘추관'을 우선 공개하기로 결정했으며, 추후 본관과 관저 등 다른 건물 내부도 순차적으로 공개할 계획이다.청와대 관람은 네이버앱·카카오톡·토스를 통해 6월 11일 관람분까지 신청이 가능하며 6월 12일부터는 새로운 예약시스템이 도입될 예정이다.   발로 뛰는 더팩트는 24시간 여러분의 제보를 기다립니다.▶카카오톡: '더팩트제보' 검색▶이메일: jebo@tf.co.kr▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>서울의 새로운 핫플 ‘청와대’, 역사 알고 가면 더 흥미로워</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004055726?sid=103</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>서울관광재단, 청와대 건물과 그 안에 얽힌 이야기 소개1991년 지어진 본관부터 전망대까지청기와가 얹어진 청와대의 본관 건물/사진=서울관광재단[서울경제] 74년만에 개방된 ‘청와대’가 서울의 새로운 관광 명소로 떠올랐다. 서울관광재단은 청와대 개방행사에 맞춰 청와대의 건물들과 그 안에 얽힌 이야기를 소개했다.이번 청와대 개방을 통해 대통령의 집무실인 본관과 부속 건물들은 물론 일반인들에 단 한 번도 공개된 적이 없는 대통령의 생활공간인 관저까지 모두 시민에 공개됐다. 시민에게 공개된 청와대는 곳곳에 한국적인 미가 녹아있으면서도 현대적이고 세련된 멋이 조화를 이루고 있어 건축과 자연풍경을 전시한 박람회장에 온 것 같은 느낌을 준다. 외국의 유명 궁전이나 공원이 부럽지 않을 정도로 아름다워 가볍게 방문해도 좋지만, 알고 가면 더 재밌고 흥미로운 곳이 청와대다. 본격적인 여행에 앞서 900년을 훌쩍 넘는 청와대의 역사를 소개한다.청와대가 자리한 북악산 남쪽의 역사는 고려 시대로 거슬러 올라간다. 1104년 고려 숙종 때는 북악산 아래 별궁을 짓고 남경으로 삼았다. 고려 남경의 별궁이 있었던 자리가 지금의 청와대 인근이라는 것을 추정할 수 있다. 이후 조선이 건국된 뒤 청와대 자리에 경복궁 후원이 조성됐으며, 이후 임진왜란 때 경복궁이 폐허가 되면서 방치돼 있다가 조선 말 고종 때에 이르러 흥선대원군에 의해 재건되며 경무대라는 이름의 후원을 만들었다. 일제강점기 때는 그 자리에 조선 총독의 관사를 지었다. 총독관사는 해방 후 대한민국 정부가 수립되면서 역대 대통령들의 집무실 및 관저로 이용되다가 1991년 지금의 본관 건물을 새로 지어 집무실을 옮기게 됐다.이처럼 1104년 고려부터 시작해서 조선, 일제강점기 그리고 지금까지 청와대는 일반인들에게 공개되지 않은 권력자의 땅이었다. 그랬던 청와대가 이제 시민의 공간으로 변화하고 있다. 서울의 새로운 핫플(핫플레이스)이 된 청와대 시설물과 그 공간의 숨은 이야기를 만나보자.청와대의 얼굴 ‘본관’청와대 본관은 조선총독부의 관사를 대통령의 집무실로 사용한다는 것이 바람직하지 못하다는 주장을 받아들여 1991년에 만들었다. 한옥에서 가장 격조 높고 아름답다는 팔작지붕을 올리고 15만여 개의 청기와를 얹었으며, 본관 앞으로는 대정원이라고 이름 붙은 넓은 잔디밭이 펼쳐져 있다.청기와는 청자의 나라였던 고려 시대부터 사용돼 조선 전기까지 궁궐 지붕에 쓰였던 기록이 남아 있다. 청기와를 만들기 위해선 전략자산이자 화약의 핵심 원료 염초(질산칼륨)가 다량으로 필요했다. 자연적인 초석 광산이 없던 한반도에서 염초는 그 생산이 매우 어려웠으며 군사용으로도 늘 재고가 부족했다. 그만큼 청기와는 중요한 건물에만 사용됐다. 현재 남아 있는 궁궐의 청기와는 창덕궁에 있는 선정전이 유일하다.본관에 가까이 다가갈수록 햇빛에 반짝이는 청기와가 눈길을 사로잡는다. 본관을 정면에서 바라보면 현관 통로 지붕과 본관 건물의 지붕이 계단처럼 연결된 듯 보여 거대한 파도의 푸른 물결을 마주하고 있는 것 같다.또한, 청와대 본관의 지붕에는 잡상 11개가 있다. 경복궁의 근정전에 잡상이 9개가 있는데 청와대가 근정전보다 격이 더 높은 셈이다. 전체적인 건물 구조는 궁궐의 목조 건축양식을 기본으로 하고 있어 한국적인 미가 담겨 있으면서도 팔작지붕이 중후한 느낌을 더한다.측면에서 바라본 청와대 본관의 현관/사진=서울관광재단청와대의 아늑한 숲 ‘소정원’본관에서 소정원을 통해 관저로 향할 수 있다. 대정원이 넓은 잔디밭이었다면 소정원부터는 아늑한 숲이다. 정원 사이로 난 숲길이 아기자기하다. 숲의 나무들도 꽤 울창해 햇빛이 파고들 틈이 없을 만큼 그윽한 그늘을 만든다.숲은 사방으로 연결돼 청와대 부속 건물 곳곳으로 들어오고 나가는 통로가 돼준다. 자연을 통해 막힘없이 공간이 연결되는 것이 우리나라의 전통 건축 방식인 차경(借景, 자연을 빌려 정원으로 삼는다)을 떠올리게 한다.본관과 관저 사이에 있는 소정원의 풍경/사진=서울관광재단경무대의 흔적 ‘수궁터’관저로 넘어가는 길에는 수궁(守宮)터가 있다. 경복궁을 지키던 병사들이 머물던 곳으로 이 일대를 경무대라고 불렀는데, 조선총독부가 전각을 허물고 총독관사를 지었다. 광복 이후에 대통령 집무실로 사용하다가 지금의 청와대 본관을 지으면서 총독관사는 철거했고, 현재는 총독관사 현관 지붕 위에 장식으로 놓여있던 절병통만 옛 자리에 놓아 과거를 기억하고자 했다.수궁터에는 수령이 700년이 넘는 주목이 오랜 세월 동안 자리를 지키고 서 있다. 고려 시대부터 이 땅을 지키며 격동의 대한민국을 바라봤을 나무인 셈이다. 절병통은 주목 뒤쪽으로 이어진 잔디밭 위에 놓여있으므로 주목을 먼저 찾는다면 절병통도 발견하기 쉽다.수령이 700년이 넘은 주목, 청와대의 옛 모습을 기억하고 있을 것이다./사진=서울관광재단대통령의 사적 공간 ‘관저’수궁터를 지나 오르막길을 약간만 오르면 관저에 도착한다. 관저는 본관과 마찬가지로 팔작지붕에 청기와를 얹은 전통한옥 구조로 이뤄져 있다. 생활공간인 본채와 접견 행사 공간인 별채가 ‘ㄱ’자 형태로 자리 잡고 있고, 그 앞으로 마당이 있다. 마당 한쪽에는 사랑채인 청안당이 있으며, 관저 바로 앞에는 의무실이 있다.청안당은 사랑채로 '청와대에서 편안한 곳'이라는 뜻을 품고 있다. 관저와 마당에서 역대 대통령들이 잠시나마 근심과 걱정을 잊고 마당으로 쏟아지는 따스한 햇볕을 맞으며 쉬어가는 시간을 보냈던 모습을 상상해본다.관저 정문/사진=서울관광재단청와대의 문화유산 ‘오운정’과 ‘미남불’관저 뒤로 이어진 숲길로 난 데크를 통해 언덕으로 올라가면 청와대 내의 역사문화유산인 오운정과 미남불(경주 방형대좌 석조여래좌상)을 볼 수 있다.오운정은 조선 고종 시대에 경복궁 후원에 지어졌던 오운각의 이름을 따른 것으로 추정된다. 오운(五雲)은 ‘다섯 개의 색으로 이루어진 구름이 드리운 풍경이 마치 신선이 사는 세상과 같다’라는 뜻을 담고 있다. 현판은 어린 시절부터 붓글씨에 능통했던 이승만 전 대통령이 직접 쓴 글자이다. 오운정 아래로는 짙은 숲이 펼쳐지고, 초록빛 나무 틈 사이로 청와대 관저와 종로 일대의 풍경이 얼굴을 내민다. 오운정을 지나 보물로 지정된 미남불(경주 방형대좌 석조여래좌상)로 가는 길에는 시야가 트여 경복궁과 광화문 일대가 한눈에 들어오는 포인트가 있으니 풍경을 감상하기도 좋다.미남불(경주 방형대좌 석조여래좌상)은 석굴암 본존상을 계승하여 9세기에 조각된 것으로 자비로운 미소를 띤 부처님의 얼굴과 당당한 풍채가 돋보이는 작품이다. 통일신라 전성기의 불교 양식을 보여주는 대표 유물로 생김새가 멋스러워 ‘미남불’이라는 별칭으로 불린다. 본래 경주에 있던 것이 일제에 의해 서울 남산의 총독관사에 놓였다가 청와대 자리로 총독관사를 옮기면서 함께 이곳으로 왔다.그 생김새가 멋스러워 미남불이라는 별칭으로 불린다./사진=서울관광재단외국 귀빈을 위한 한옥 ‘상춘재’상춘재는 외국 귀빈들을 맞이하는 의전 행사나 비공식 회의 장소로 사용된 한옥이다. 과거에는 조선총독부가 지은 일본식 목조건물인 상춘실이 있었던 장소였으나, 청와대 내에 한옥의 아름다움을 외국 손님에게 소개할 장소가 없었기에 1983년에 200년 이상 된 춘양목을 사용해 대청마루와 온돌방으로 구성된 우리의 전통 가옥을 지었다.상춘재 앞에는 120여 종의 나무가 심어진 녹지원으로 연결된다. 한옥과 숲을 동시에 감상하기 좋은 공간으로 외국에서 국빈이 오면 상춘재에서 만찬을 진행했었다.상춘재 위로는 1900년대 초에 지어진 것으로 추정되는 침류각이 있다. 침류각은 서울시 유형문화재로 등록돼 있으며 1989년 관저를 신축하면서 지금의 자리로 왔다고 한다.우리 전통 가옥을 외빈에게 보여주는 공간이자 만찬 회담을 하는 상춘재/사진=서울관광재단청와대의 숲 ‘녹지원’녹지원은 청와대 경내 최고의 녹지 공간이다. 넓은 공간으로 구성 돼 대통령과 국민이 만나는 다양한 행사가 열렸던 공간이다. 120여 종의 나무가 있으며 역대 대통령들의 기념식수들이 곳곳에 있어 찾아보는 재미가 있다. 또한, 녹지원에는 한국산 반송(盤松)이 있는데 그 수령이 170년을 넘었다.녹지원/사진=서울관광재단청와대의 프레스센터 ‘춘추관’대통령의 기자 회견 장소이자 출입 기자들이 상주하던 춘추관이 있다. 고려와 조선의 역사 기록 기관이던 춘추관에서 비롯된 이름으로 언론의 자유 정신을 상징하고 있다.춘추관 앞 잔디밭(헬기장)에는 쉬어갈 수 있는 공간이 마련됐다. 청와대 개방 기간 중에는 간이 텐트와 빈백이 놓여있다. 알록달록한 간이 텐트가 찾는 이의 감성을 자극하고, 북악산과 인왕산으로 이어지는 산등성이가 병풍처럼 펼쳐져 풍경도 제법 좋다.춘추관 앞의 휴식공간, 간이 텐트가 있어 캠핑 분위기가 난다./사진=서울관광재단국빈들을 위한 공식 행사장 ‘영빈관’청와대 본관 쪽으로 돌아가 왼쪽으로 가면 영빈관이 있다. 대규모 회의와 외국 국빈들을 위한 공식 행사를 열었던 건물이다.우리나라를 알리는 각종 민속공연과 만찬이 열리는 행사장으로 쓰이거나 회의와 연회를 위한 장소로도 사용되었다. 18개의 돌기둥이 건물 전체를 떠받들고 있는 형태이며 특히 앞의 돌기둥 4개는 화강암을 통째로 이음새 없이 만들어 2층까지 뻗어 있다. 정면에서 보는 영빈관은 웅장하고 세련된 느낌을 준다.영빈관/사진=서울관광재단후궁의 신위가 모인 곳 ‘칠궁’영빈관 앞쪽의 영빈문을 통해 나가면 청와대 담장 옆에 붙어 있는 칠궁으로 갈 수 있다. 칠궁은 조선의 왕을 낳은 어머니이지만 왕비가 되지 못한 후궁의 신위를 모신 장소다. 조선의 왕과 왕비는 종묘에 신주를 모시고 왕을 낳은 후궁 신주는 따로 모시는 공간을 만들어 왕이 자신의 어머니를 기리며 효를 다했다.1908년에 서울 곳곳에 흩어져 있던 다른 후궁의 사당들을 이곳으로 합치면서 모두 7개가 모였다고 하여 칠궁이라 이름 붙었다. 우리에게 잘 알려진 장희빈의 신주와 뒤주에 갇혀 죽었던 사도세자의 어머니인 영빈 이씨의 신주가 모셔져 있다. 궁궐의 다른 전각들처럼 규모가 크고 화려하지 않지만 검소하고 아늑한 느낌이 들어 마음이 차분해지는 장소이다.왕의 어머니이나 왕비가 아닌 후궁의 신주를 모시는 칠궁/사진=서울관광재단북악산 청와대 전망대1.21사태 후 폐쇄됐던 북악산이 전면 개방되고 북악산을 오르는 등산로 2개 코스도 공개됐다. 하나는 칠궁에서 출발하는 길이고, 다른 하나는 청와대 춘추관 뒤쪽으로 올라가는 길로 두 코스는 중간 거점 장소인 백악정에서 만나 하나로 연결된다.칠궁 방향 코스는 전체적인 길이는 좀 더 짧지만 가파른 계단 구간이라 다소 힘에 부치고, 춘추관 방향은 오르막길이지만 계단이 없이 경사가 급하지 않아 비교적 순탄한 편이다. 어느 길로 가든지 백악정까지는 약 20분 남짓이면 다다르고, 백악정에서 다시 청와대 전망대까지 약 10분이 소요된다.백악정에 앉아 잠시 숨을 고른 후에 뒤쪽으로 연결된 데크를 따라 올라가는 코스를 지나면 어느 순간 광화문 일대가 내려다보이는 직선 구간이 나온다. 청와대 아래로 자리한 경복궁과 광화문 일대의 탁 트인 풍경이 반긴다. 올라오는 길이 다소 고생스럽더라도 이 풍경을 보기 위해 1시간을 투자하는 것이 전혀 아깝지 않을 서울의 새로운 조망 명소다.북악산 청와대전망대에서 바라본 광화문과 경복궁의 풍경/사진=서울관광재단&lt;청와대 찾아가기 Tip&gt;▷도보: 청와대 사랑채를 검색하고 찾아가면 청와대 영빈관 입구에 도착할 수 있다. 청와대를 바라보고 오른쪽으로 좀 더 가면 본관으로 바로 이어지는 입구로 입장이 가능하다.▷대중교통: 3호선 경복궁역 4번 출구에서 도보 이동(15분) 하거나 1호선 시청역 또는 5호선 광화문역에서 1711번 버스이나 7016번 버스를 타고 효자동 정류장에서 하차 후 도보 이동(5분)▷예약방법: ‘청와대, 국민 품으로’ 홈페이지를 통해 네이버, 카카오톡, 토스에서 신청을 할 수 있다. 개인은 최대 4명까지, 단체는 30명에서 50명까지 신청이 가능하다. 7시부터 19시까지 2시간 간격으로 예약 신청이 가능하며, 현재 6월 11일까지 공개가 예정되어 있고, 차후에는 재정비를 통해 다시 개방할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>이수진 "대한민국에서 '尹·김건희' 딱 2명만 용산 집무실 고집... 당장 멈춰야"</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002275342?sid=100</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>이수진 "청와대 졸속 이전, 서울시민 위해 당장 멈춰야""김대중·노무현·문재인이라면 국민이 이런 불편 겪도록 결코 방치하지 않았을 것""건물은 건물일 뿐, 중요한 것은 그 안에 있는 사람""국민과 소통, 청와대에선 안 되고 용산에서 된다는 생각에 동의 불가" ◆…이수진 더불어민주당 의원 &lt;사진=연합뉴스&gt;이수진 더불어민주당 의원이 윤석열 대통령의 청와대 집무실 이전 사안에 대해 "대한민국에서 딱 두 명만 용산 집무실을 고집한다. 바로 윤 대통령 부부"라며 청와대 이전을 멈춰야한다고 주장했다.   이 의원은 지난 17일 자신의 페이스북에 "청와대 졸속 이전, 서울 시민을 위해 당장 멈춰야 합니다"라며 이같이 적었다.   이어 이 의원은 서울 용산과 강남에 거주 중인 시민들의 입장을 나열했다. 그는 "경북궁 근처 상가 주인이 그러더라. '용산으로 시위 넘어가서 시원하고 후련하다' 그 말을 듣고 분노했다"(용산에 25년째 거주중인 서울 시민), "고속터미널 인근은 상습정체구간인데, 대통령 출근하겠다고 앰뷸런스도 거기 멈춰 있더라. 대통령 출근 8분 위해 시민 자동차 수만 대가 묶여 있다(강남 거주 서울 시민)" 등의 내용을 소개했다.   이어 이 의원은 "오늘 국회에서 '청와대 졸속 이전 비판 토론회'가 열렸다. 현장에 참석하신 서울 시민들의 외침에 마음이 아프고, 답답했다"면서 "대한민국에 윤석열 대통령 부부 두명만 만족하는 청와대 이전, 송영길 후보를 반드시 당선시켜 대통령 집무실 이전 반대에 대한 시민들의 의지를 보여야 한다"며 서울시장선거 송 후보에 대한 지지를 호소했다.   이어 "오늘 토론회에서 송영길 후보는 기조연설을 통해 용산 집무실 이전은 정치, 외교, 국방 모두에서 문제가 있다고 지적했다"며 "영국 가디언지가 미신 의혹을 보도할 만큼 국격이 훼손됐다고 했다. 당선된다면, TF팀을 만들고 대통령 면담 등 모든 방법을 강구하겠다고 밝혔다"고 전했다. ◆…이수진 더불어민주당 의원 페이스북 캡처.나아가 그는 "용산으로 집무실을 이전할 때 생기는 문제는 한두가지가 아니다"며 "김철식 용산구청장 후보는 용산 코레일 부지에 들어서야 할 국제업무지구가 무산될 위기이며, 용산 미군부대의 토양오염문제가 심각해 공원화는 안된다고 지적했다"고 말했다.   그러면서 "안보 전문가인 우리당의 김병주 의원은 경호비용 증가, 교통난 심화, 통신권 침해는 물론이고 국방부 관련시설 연쇄 이동으로 막대한 비용이 들 것이라고 말했다"며 "대체 외국군 코앞에 대통령 집무실을 두는 국가가 어디있나 목소리를 높였다"고 힘줘 말했다.   이 의원은 또 "조명래 전 환경부 장관은 이전할거라면 세종시 중심으로 가야하고, 집무실 이전 비용의 불투명한 편성에 대한 지적도 했다"면서 "미래에 발생할 우려에 대한 부분도 중요하지만, 더 큰 문제는 당장 지금"이라고 역설했다.   그러면서 "오늘 토론회에 오신 용산에 25년째 살고 계신다는 서울시민은 '역대급 교통지옥'이라면서 다른 지역으로 이사가야하나 고민 중이라며, 용산 주민들 의견 물어봤냐고 목소리를 높이셨다"면서 "강남에 살고 계신 시민분은 앰뷸런스를 멈춰 세우는 대통령 출근길이 문제라고 하셨다. 서초동 주민들은 한 달이면 되지만, 5년 겪게 될 용산 주민들은 어떻게 하냐고도 하신다"고 말했다.   끝으로 그는 "김대중, 노무현, 문재인 대통령이라면 국민이, 시민이 이러한 불편을 겪도록 결코 방치하지 않았을 것"이라고 강조하며 "건물은 건물일 뿐, 중요한 것은 그 안에 있는 사람이다. 국민과의 소통이 청와대에서는 안 되고 용산에서는 된다는 어이없는 생각도 절대 동의 할 수 없다"고 덧붙였다. ◆…청와대 개방 후 첫 일요일인 지난 15일 오후 청와대 본관 모습.&lt;사진=연합뉴스&gt;한편, 전날 김오진 대통령실 관리비서관은 국회 운영위원회에 출석, 시민들에게 개방된 청와대 관람과 관련해 "6월 11일 이후로 상시 개방을 검토 중"이라며 "1단계 개방을 5월 22일까지 하고, 2단계 개방을 6월 11일까지 한다"고 밝혔다. 청와대 개방 초기 방문객이 대거 몰리는 점을 고려한 조치다.   이어 김 비서관은 "지금까지 404만명이 청와대 관람 신청을 한 것으로 보고 받았다"며 "4월 27일부터 신청을 받았는데 25만명 정도만 관람했다"고 말했다. 현재 청와대 관람 신청은 네이버, 카카오톡, 토스 등 온라인 플랫폼을 통해 이뤄지고 있다.   아울러 김 비서관은 "경복궁 관람하듯이 누구나 편하게 와서 (청와대를) 볼 수 있게 검토하는 중"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>토스뱅크, 자영업자 대상 마이너스 통장 약정액 200억원</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002256813?sid=105</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>최대 한도 5천만원…개인 신용도 따라 금리 등 책정토스뱅크가 인터넷전문은행선 처음으로 출시한 개인사업자를 위한 마이너스통장이 출시 4일 만에 약정액 200억원을 넘었다고 16일 밝혔다.개인사업자 대상 마이너스 통장인 '사장님 마이너스통장'은 최대 한도가 5천만원이며 최저 금리는 연 4% 초반(변동금리)이다.상환 방식은 만기 일시 방식이다. 대출기간은 1년이며, 고객들은 필요에 따라 최대 10년까지 연장할 수 있다. 중도상환 수수료는 무료다.대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행된다. 개인의 신용에 따라 한도가 부여된다.이용 가능 고객은 실제 사업을 영위하고 있는 자영업자, 소상공인 등 개인사업자다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생해야 한다. 최소 증빙 연소득은 소득금액증명원 기준 500만원 이상이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.05.16~2022.05.31).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.05.16~2022.05.31).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>모바일 OTP의 진화, 모바일 OTP 겸용 결제카드</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002125591?sid=105</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 신용카드로 대표되는 실물 카드는 여전히 효용성이 있을까? 디지털 결제 시장이 발전하고 스마트폰이 결제 채널로서 대두되고 있는 상황에서 실물 카드가 물리적 실체가 없는 모바일 카드 등으로 대체되고 있다. 우리나라의 경우 삼성페이 등 스마트폰 기반 결제 시스템이 보편화되면서 실물 카드를 사용하는 빈도도 줄고 있는 상황이다. 카드형태로 발급되던 OTP 역시 모바일로 수렴되고 있다. 하지만 여전히 실물카드의 필요성에 대해선 글로벌 시장에서 동의하고 있다. 무엇보다 디지털 금융 시대에 가장 중요한 ‘보안’을 확보하기 위해선 실물카드가 보완재로서 기능을 해야 할 필요성이 높아지고 있다. 최근 토스뱅크가 내놓은 OTP 기능이 탑재된 체크카드는 편리하면서도 강력한 보안을 동시에 지원한다는 점에서 시사하는 바가 크다. 인증보안 기술 스타트업 센스톤의 ‘스위치 OTP’가 탑재된 이 체크카드는 휴대폰 뒷면에 태깅하는 것만으로도 OTP 코드를 실시간으로 생성한다. 스위치 OTP에는 센스톤의 원천기술인 OTAC(One-Time Authentication Code)가 적용됐다. 근거리무선통신(NFC) 기술을 활용해 사용자가 본인의 휴대폰 뒷면에 카드를 태깅하면 금융 서비스를 이용하는 과정에서 본인 인증은 물론, 고액 송금 및 이체를 위한 2차 인증까지도 한 번에 가능하다. 카드 태깅형 모바일 OTP는 고액송금시 간편한 2차 인증 수단 확보와 모바일 OTP보다 보안성이 높은 솔루션이 필요하다는 요구에 따라 개발됐다. 일례로 싱가포르 2위 은행인 OCBC가 지난 1월 하드웨어 OTP를 디지털로 완전 전환하기로 했다가 보안사고 후 이 계획을 철폐하기도 했다. 2021년 12월 싱가포르 온라인 피싱으로는 역대 최대규모 사건으로 최소 469명이 약 72억원의 피해를 입는 사건이 발생했다. 당시 계좌이체시에 원래 SMS로 OTP를 받게 되어있는데, 해커들이 피해자들의 휴대폰에 심은 악성코드가 이 SMS OTP를 가로챘거나, SMS OTP를 해킹된 해외 통신사로 우회시켰을 가능성이 큰 것으로 알려진 상태다. 당시 OCBC은행은 하드웨어 OTP를 발행할 필요가 없고 SMS로 전송되는 일회성 비밀번호를 줄여 5년에 걸쳐 약 2500만 달러를 절약할 것으로 예상했지만 사고 이후 스마트폰 기반 모바일 디지털 환경의 위험성이 부각되어 하드웨어 OTP 서비스 종결에 대한 입장을 번복했다.  이러한 사고가 아니더라도 대부분의 시장조사 업체들도 글로벌에서 실물카드는 사라지지 않고 디지털 결제와 공존할 것이란 의견을 내놓고 있다. 실제 비자나 마스터카드는 컨택리스 결제를 위해 카드사들에게 카드 타입을 보다 발전한 ‘콤비카드’로 전환하는 것을 요구하기도 했다.  콤비카드는 중앙처리장치(CPU)를 내장한 스마트카드의 하나로, 접촉식 카드와 비접촉식 카드 기능을 통합해 하나의 카드에 서로 공유하는 메모리가 존재하는 스마트카드다. 하지만 금융사로선 단가 상승이 부담이다. 이에 대해 센스톤 관계자는 “카드 제조사들은 카드 단가 상승으로 주저하고 있는데 금융사의 콤비카드를 금융거래인증, 출입증/신분증 등 다른 용도로 확장 사용한다면, 카드 단가가 상승하더라도 의미가 있다”며 “센스톤의 IC 카드 내에 탑재가능한 ‘OTAC 애플릿(Applet)’을 통해 금융사들의 고민해결이 가능하다”고 밝혔다. 카드 애플릿(Card Applet)에서 동적으로 생성하는 1차 OTAC는 카드 내 고정 인증값 탈취에 의한 보안사고를 방지하고 1차 OTAC를 이용해 앱에서 생성되는 2차 OTAC는 통신이 안되는 카드에서 생성된 1차 OTAC를 이용해 해커에게 고유값 탈취를 방어하고 악성코드에 의해 스마트폰 원격제어로 고액송금까지 진행되는 사고도 방어할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>토스, 고려대와 개인정보보호 인력 양성 협력</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005224533?sid=105</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>정보보호대학원과 MOU[이데일리 김국배 기자] 금융앱 ‘토스’를 운영하는 비바리퍼블리카는 고려대학교 정보보호대학원과 개인정보보호 인력 양성을 위한 업무협약을 체결했다고 24일 밝혔다.이상진 고려대 정보보호대학원장(왼쪽)과 이승건 토스 대표가 개인정보보호 역량 강화 및 전문 인력 양성을 위한 업무협약을 체결했다. (사진=토스)토스 측은 “개인정보보 관련 교육 노하우를 보유한 고려대와 인프라 운영 경험을 쌓은 토스가 협력해 개인정보보호 환경 조성, 전문 인력 양성 등을 추진해 나갈 계획”이라고 했다. 양 측은 개인정보보호 예비 전문가들의 현장 실습과 인턴십 프로그램도 지원한다.이날 서울 역삼동 토스 본사에서 진행된 협약식에는 이승건 토스 대표, 신용석 개인정보보호책임자(CPO)를 비롯해 이상진 고려대 정보보호대학원장 등이 참석했다. 신용석 토스 CPO는 “이번 MOU를 통해 개인정보보호 전문 인력 육성과 핀테크 산업의 개인정보보호 역량 강화에도 기여할 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>성동구, 전국 최초 반부패경영시스템(ISO 37001) 인증 갱신한 비결?</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005094377?sid=102</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>[서울시 자치구 뉴스] 성동구, 인사, 재·세정, 공사, 인·허가 등 부패 취약 분야 ‘반부패 청렴’ 위한 관리체계 정착 높이 평가 2025년까지 3년간 인증 갱신... 중랑구, 4차 산업 원데이 진로 프로그램 운영 ... 노원구 6곳 운영 ‘청소년 아지트’ 인기 ...강북구, 모범 청소년 56명 표창...송파구,  6월부터 지방세 세액공제 확대 마일리지 적립까지 고지서 당 최대 1100원 혜택‘반부패 청렴 시책추진단’ 활유동 모습. 성동구는 청렴 리더십 강화 및 청렴도 향상을 위해 유보화 부구청장을 위원장으로, 각 국장 등을 구성원으로 하는 ‘반부패 청렴 시책추진단’을 운영하고 있다.성동구가 2019년 전국 최초로 획득했던 국제표준화기구(ISO) 반부패경영시스템(ISO 37001) 인증을 갱신했다.‘반부패경영시스템(ISO 37001)’이란 국제표준화기구(ISO)가 조직 내 부패발생 가능성을 시스템으로 방지하기 위해 2016년 제정한 국제표준으로 국내에서는 2017년4월부터 인증제도가 도입돼 시행되고 있다.청탁금지법, 공직자의 이해충돌방지법 등 법률을 통해 공직자의 부정청탁, 금품 등 수수에 대한 규제 방안이 마련돼 있지만 성동구는 자발적으로 조직 내 발생 가능한 부패위험을 체계적으로 관리하며 예방하기 위해 나섰다.이에 구는 2019년 전국 최초로 ‘반부패경영시스템(ISO 37001)’ 인증을 획득, 매년 반부패경영시스템 운영에 대한 사후 심사를 통과하면서 자발적인 통제와 부패방지를 통해 인증을 유지해오고 있다.올해 6월 인증 기간이 만료됨에 따라 성동구는 인증의 갱신을 위해 전 부서를 대상으로 조직현황을 분석, 최근 사회적 이슈를 반영한 부패위험 요인을 파악하며 위험성 평가 및 개선방안 등을 마련했다.이어 지난 4월 인증기관인 한국표준협회(KSA)의 현장실사 심사에서는 인허가, 공사, 보조금, 지도단속 등 부패 취약분야 업무담당자 19명을 대상으로 인터뷰가 실시되며 현장 운영 실태에 대한 엄정한 점검이 이루어졌다.심사 결과 성동구는 인사, 재·세정, 공사, 인허가 등 부패 취약분야에 걸쳐 부패방지경영시스템의 요구사항을 준수하며 효과적으로 시스템을 운영하고 있는 것으로 나타났다.아울러 ‘반부패 청렴 시책 추진단’ 운영을 포함한 33개 사업을 추진하는 '2022년 반부패 청렴 성동 추진계획'을 수립, 실천하는 등 성동구는 구민에게 신뢰받은 ‘청렴성동’을 구현하기 위한 지속적인 노력을 인정받았다.이에 부패방지경영시스템 정착화가 이루어지고 있다고 평가, 2025년까지 향후 3년간 인증을 유지하게 됐다.성동구 관계자는 “공직자에게 필요한 덕목에는 전문성, 성실성, 도덕성 등이 있지만 가장 기본적으로 갖춰야 하는 덕목은 청렴이라고 생각한다”며 “앞으로 반부패 경영시스템을 체계적이고 지속적으로 관리·운영, 공직자 자신으로부터 발생할 수 있는 부패 위험을 제도적으로 차단해 구의 청렴도 향상 뿐 아니라 청렴이 생활화가 될 수 있도록 더욱더 노력하겠다“고 말했다.방정환교육지원센터에서 학생들이 디지털 드로잉 체험 수업을 받고 있다.중랑구는 지역 초중생들을 대상으로 4차 산업혁명 기술을 체험할 수 있는 원데이 진로 프로그램을 운영한다.구는 4차 산업 관련 분야에 대한 높아진 관심과 중요도를 반영해 학생들이 학교 가까운 곳에서 미래기술을 접하며 새로운 경험을 쌓아 미래 유망 직업에 대해 진로탐색을 할 수 있도록 이번 프로그램을 운영하게 됐다고 밝혔다.교육은 로봇교육장과 메이커 스페이스룸, 멀티룸, VR 체험관 등 4차 산업 전용 체험공간이 마련된 방정환교육지원센터에서 실시한다.원데이 진로 프로그램은 4차 산업 직업군 및 일반 직업군 체험, 진로 콘서트로 진행된다. 4차 산업 직업군에서는 VR, 드론, 3D 프린터, 로봇을 중심으로 체험하고 일반 직업군에서는 푸드스타일리스트, 캔들 아티스트, 특수분장사 등에 대해 알아본다.특히 체험이 끝난 후 진행하는 진로 토크 콘서트는 전문 MC의 진행 아래 질의응답과 함께 공연이 더해져 학생들로부터 호응이 높다.구 관계자는 “원데이 진로 프로그램이 참여 학생들에게 미래 진로에 대해 탐색해보는 좋은 계기가 되기를 바란다”며 “미래사회가 요구하는 핵심역량과 창의적인 문제 해결력을 갖춘 인재를 길러내기 위해 앞으로도 다양한 진로교육을 마련할 것”이라고 말했다.한편 구는 지난해도 원데이 진로 프로그램을 운영해 총 45회, 4467명의 학생들이 참여했다. 올해는 높아진 인기로 지난해보다 더 많은 약 6800명 학생들을 대상으로 진행할 예정이다.미트업센터 밴드연습실노원구가 청소년을 위한 문화·여가공간 ‘청소년 아지트’를 확충하는 등 청소년 전용공간 마련에 힘을 쏟고 있다.현재 노원구에는 9만 명이 넘는 청소년들이 거주하고 있다. 하지만 교육특구로 지정될 만큼 훌륭한 교육 인프라에 비해 청소년이 건전하고 즐겁게 휴식을 취할 수 있는 맞춤형 공간이 부족했다.이에 구는 청소년들이 충분히 쉬고 어울리며 다양한 꿈을 키워갈 수 있는 공간 마련을 위해 2020년부터 청소년 아지트를 조성해 운영해 오고 있다.구에서 운영하는 청소년 아지트는 6곳이다. ▲꿈꾸는(월계3동) ▲끌림(상계6,7동) ▲미트업센터(월계2동) ▲오락실(중계2,3동) ▲하쿠나마타타(상계3,4동) ▲차오름(중계4동) 등이다. 작게는 74㎡의 아담한 공간부터 612㎡ 넓은 공간까지 6곳의 아지트는 다양한 시설과 각각의 테마를 가지고 있다.612㎡ 규모의 ‘미트업(Meet up) 센터’는 청소년들의 무한한 끼를 발산할 수 있는 1인 미디어실, 밴드 연습실, 댄스실, 미니극장 등을 갖추고 있다. 크리에이터를 꿈꾸는 청소년을 위한 1인 미디어실은 각종 영상편집과 유튜브 촬영이 가능한 공간, 민간 시설을 이용하기에는 대관료가 부담되는 밴드 및 댄스 연습실, 20석 규모의 미니극장도 이용 가능하다.편안한 휴식을 위한 놀이공간도 있다. 노원아동복지관 2층에 위치한 ‘오락실’은 편하게 쉬면서 책도 보고 누울 수 있는 포켓룸과 각종 게임공간이 마련돼 있고, 한내근린공원 인근 ‘꿈꾸는’ 아지트는 노래방과 보드게임을 즐길 수 있는 놀이방 등으로 꾸며졌다. 또 외모에 관심이 많은 여학생들을 위한 파우더룸(화장대)도 마련돼 있어 청소년들이 각자의 개성을 표출할 수 있어 인기다.상상이룸센터 내에 위치한 ‘끌림’은 노래, 댄스 공연 등 무대 공연장 뿐 아니라 다양한 장르의 책과 음료를 즐길 수 있는 북카페도 운영한다. 아지트가 위치한 상상이룸센터는 청소년 진로 직업 체험지원센터로서 청소년의 진로연계, 자립지원, 지역사회협력 등 다양한 연계프로그램을 운영해 청소년의 건강한 미래를 설계하는 데에도 도움을 주고 있다.특히 상계3·4동 주민센터 3층에 위치한 ‘하쿠나마타타’는 캠핑분위기를 느낄 수 있는 테라스 공간을 조성해 아늑한 분위기 속에서 청소년들이 자유롭게 쉬며 힐링할 수 있도록 했다. 올해 3월 문을 연 ‘차오름’ 아지트에는 태블릿존과 PC존, 커뮤니티룸, 밴드 및 댄스연습실을 조성해 또래들과 소통하며 즐길 수 있는 공간을 마련했다.이어 올 7월에는 월계동 지역에 아지트 1곳이 추가로 문을 연다. 청소년들이 가장 관심 있어 하는 VR 체험존과 댄스실, 놀이와 식음 공간 등을 갖출 예정이다.코로나로 시설 이용이 자유롭지 못했던 지난해에도 올해 초 개소한 1곳을 제외한 5개 아지트에 6만8000여 명의 청소년이 다녀갔다. 아지트 4개소가 연합해 운영한 그림책 전시회는 온·오프라인을 합쳐 1770여 명이 관람하는 등 청소년들의 큰 호응을 얻었다.이들 청소년 아지트는 시설마다 위원회가 구성돼 청소년 스스로 휴식, 놀이, 문화공간을 기획, 운영한다는 점에서 그 의미가 있다. 각 시설은 지역 내 학교와 연계해 학교폭력예방 캠페인을 진행하는 등 다양한 청소년 활동 사업을 이어 나가고 있다.구 관계자는 “아동·청소년들이 건강하게 놀 수 있는 권리를 보장하는 것은 어른들의 의무”라면서 “청소년에게 필요한 시설, 청소년이 원하는 활동을 지원하기 위해 누구보다 그들의 입장에서 운영되는 공간을 계속 확충해 나가겠다”고 말했다.강북구(구청장 박겸수)가 5월 청소년의 달을 맞아 타의 귀감이 되는 청소년에게 표창장을 수여했다.표창장 수여는 모범 학생을 찾아내 건강한 사회 구성원으로 성장할 수 있도록 격려하기 위해 매년 진행돼 왔다.지난해와 재작년은 코로나19로 인해 비대면으로 표창장을 전달했으나 올해는 25일 강북구청 4층 대강당에서 표창장 수여식이 진행됐다.구는 지역내 초·중·고등학교 및 특수학교, 동 주민센터, 강북구의회, 청소년 관련단체 및 기관 등으로부터 모범 청소년들을 추천받아 공적심사위원회 심의를 거쳐 총 56명의 모범 청소년을 선발했다.표창은 선행, 성취·포상, 효행, 참여·봉사 등 4개 분야에서 이뤄졌다.선행 분야는 가정, 학교, 사회에서 타의 모범이 될 만한 행동이나 자세, 선행을 보인 학생 17명이 선발됐다. 성취·포상 분야는 학업 및 예체능 분야에서 스스로 정한 목표 정해 우수한 성과를 이뤄낸 학생 9명이, 효행부문은 어버이, 웃어른을 공경하고 예의범절이 바른 학생 4명이 선발됐다. 또 참여·봉사 분야에서는 이타적 행동으로 공동체 의식과 봉사정신을 실천하고 있는 학생 26명이 선발됐다.박겸수 강북구청장은 이날 수여식에서 “타의 모범이 된 우리 학생들이 앞으로도 오늘과 같은 모습으로 올바르고 곧게 성장해 나가길 바란다”며 “청소년들이 우리 사회 핵심인재로 성장해 나갈 수 있도록 청소년희망원정대, 꿈나무키움장학재단 등 강북구만의 청소년 육성 정책들을 꾸준히 이어가겠다”고 말했다.송파구가 오는 6월 자동차세 1기분부터 지방세 전자송달 및 자동이체를 신청한 납세자에게 세액공제 혜택을 확대한다고 26일 밝혔다.지방세 전자송달과 자동이체 중 한 가지를 신청할 경우 고지서 1장 당 세액공제 금액이 기존 150원에서 250원으로, 두 가지 모두 신청하면 500원에서 600원으로 공제 금액이 확대된다.현금처럼 쓸 수 있는 마일리지도 제공된다. 전자송달 신청자 중 고지서 1장 당 부과금액 30만 원 미만인 경우 마일리지가 350원이 적립되고 30만 원 이상인 경우 850원의 마일리지가 적립돼 최대 1100원 혜택을 받을 수 있다. 또 전자송달과 자동이체 모두 신청하는 경우에는 부과금액과 상관없이 마일리지 500원이 적립된다.마일리지는 납기 내 전자고지서로 납부 시 지급되며 이후 지방세 등 납부할 세액 차감은 물론 교통카드 충전, 불우이웃돕기 성금 기부 등의 용도로 사용할 수 있다.세액공제가 적용되는 세목은 정기적으로 부과하는 지방세로 등록면허세(면허분 1월), 자동차세(6월·12월), 재산세(7월·9월), 주민세(개인분 8월)가 있다.공제 혜택을 받기 위해서는 세목별 부과 전월까지 전자송달 및 자동이체를 신청해야 한다.전자송달은 종이고지서 대신 이메일이나 모바일(스마트폰) 앱을 통해 고지서를 전달받는 방식으로 ▲이택스(etax.seoul.go.kr) ▲모바일 금융기관 앱 ▲간편결제사 앱(신한플레이·네이버페이·카카오페이·페이코·토스)에서 신청하거나, 구청 세무과에 방문하면 된다.자동이체는 은행계좌 자동이체와 신용카드 자동이체 방식이 있으며 ▲이택스 ▲모바일 앱(서울시 STAX)에서 신청하거나 가까운 은행(계좌 자동이체) 또는 구청 세무과(신용카드 자동이체)에 방문해 신청하면 된다.구 관계자는 “전자송달 및 자동이체는 고지서 분실 우려가 없고, 납부까지 한 번에 해결할 수 있어 편리하다”며 “여기에 세액공제와 마일리지 적립 혜택은 물론 종이사용을 줄여 환경보호까지 실천할 수 있으니 많은 참여 바란다”고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>뮤직카우, 카카오페이·토스 출신 김남진 CISO 영입</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002125292?sid=105</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 음악 저작권료 참여 청구권 투자 플랫폼 뮤직카우(총괄대표 정현경)가 이용자 보호와 정보보호체계 강화를 위해 김남진 정보보호최고책임자(CISO)를 영입했다고 24일 밝혔다.    김남진 CISO&lt;사진&gt;는 연세대학교 정보대학원 금융정보보호학 석사 졸업했으며 노무라증권, 골드만삭스 등 글로벌 금융사에서 인프라 시스템 개발 및 기술·운영리스크 관리자로 10년 이상 근무했다. 이후 쿠팡에서 핀테크 보안·개인정보 및 IT 인프라 책임자를, 토스증권과 카카오페이에서는 CISO로 재직했다.    김 CISO는 뮤직카우에서 새롭게 신설된 정보관리본부 본부장으로, 안정적 사업 운영을 위한 IT 성장 전략 마련 및 이용자 보호를 위한 서비스 보안을 강화한다. 이를 위해 전담 조직을 구성하고 효과적인 정보보호체계 구축과 보안시스템 운영 고도화를 통한 보안 신뢰성과 안전성을 제고하는 역할을 수행할 예정이다.   정보관리본부는 보안·인프라 및 네트워크 전문가, 시스템 엔지니어, 화이트 해커 등 우수 전문인력들로 구성됐다. 뮤직카우는 앞으로 필요 인력을 지속 채용할 방침이다.   뮤직카우는 “앞으로도 뮤직카우는 이용자 보호를 최우선 과제로 두고 제도 및 시스템 강화에 만전을 기할 것”이라며 “계속해서 K-콘텐츠를 기반으로 문화 산업 활성화와 창작자 지원에 힘쓰며 아티스트와 팬, 대중이 소통할 수 있는 문화의 장을 확대하겠다”고 말했다. 다음은 김남진 CISO 프로필   ◆출생  1976년   ◆학력   2013년 ~ 2015년 : 연세대학교 금융정보보호 석사 졸업  1995년 ~ 2002년 : 아주대학교 기계공학/정보컴퓨터공학 학사 졸업   ◆경력사항   2021.03 ~ 2022.05 : 카카오페이 CISO  2020.09 ~ 2021.03 : 토스증권 CISO/CPO  2019.08 ~ 2020.08 : 비바리퍼블리카 증권팀 CISO/CPO  2018.04 ~ 2019.07 : 쿠팡 핀테크 보안·개인정보 및 IT 인프라 책임자  2017.10 ~ 2018.03 : 골드만삭스증권 부문장, 아시아 태평양 지역 운영리스크 관리자  2016.03 ~ 2017.09 : 골드만삭스증권 부문장, 아시아 태평양 지역 기술리스크 관리자  2010.11 ~ 2016.03 : 골드만삭스증권 수석, 인프라 매니저  2009.06 ~ 2010.11 : 노무라 증권 부장, 아시아 태평양 지역 정보보호관리자  2006.06 ~ 2009.06 : 노무라 증권 부장, IT 프로젝트 매니저/ 인프라 매니저  2002.03 ~ 2006.05 : 소시에테제네랄 은행 과장, IT 매니저</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>국민비서 '구삐' 지식재산권 상담서비스 제공</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004836776?sid=102</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>행안부-특허청 협력, 24시간 365일 상담서비스특허, 실용신안, 디자인, 상표 등 지재권 관련  [파이낸셜뉴스] 국민비서 '구삐'가 지식재산권에 관한 궁금한 사항을 24시간 365일 상담한다. 국민비서 캐릭터 구삐는 정부가 국민이 필요한 행정정보를 알려주고 궁금한 사항을 채팅로봇으로 상담해주는 온라인 서비스다.   행정안전부는 특허청과 협업해 17일부터 국민비서 구삐의 채팅로봇(챗봇)으로 지식재산권 출원, 심사, 등록, 수수료 등에 대한 상담서비스를 제공한다고 16일 밝혔다.   이에 따라 그간 공무원 업무시간에만 가능했던 지식재산권과 관련된 상담 서비스를 시간 제약 없이 상담을 받을 수 있게 됐다.   지식재산권 관련 챗봇 상담서비스를 받으려면 특허고객상담센터 사이트 또는 국민비서 챗봇 사이트에 접속하면 된다. 대화창에 질문을 하면 가장 적합한 답변을 찾아준다.   이를 위해 행안부와 특허청은 지식재산권 출원 신청·심사·등록·심판·수수료 등 10개 분야 2만여개의 질문과 응답 데이터베이스를 구축했다.   구삐의 챗봇은 현재 전자통관, 자연휴양림, 민원사무안내, 개인정보보호, 사이버범죄 등 12종의 행정 분야에 대한 상담을 제공 중이다. 챗봇을 이용하면 인터넷, 모바일로 언제 어디서든지 민원상담을 받을 수 있다. 회원가입 절차도 없다.   구삐는 챗봇 상담서비스뿐아니라 국민이 자주 이용하는 민간 앱(네이버·카카오톡·토스) 등에서 개인 맞춤형 알림서비스도 제공하고 있다. 놓치기 쉬운 교통 과태료·범칙금 납부 기한 등의 개인별 생활정보, 백신접종 안내 등에 대한 알림서비스를 제공한다.   이세영 행안부 공공지능정책과장은 "올해 6월경에는 국민콜110, 운전면허·교통안전교육 등에 대한 상담을 추가로 제공하는 등 챗봇 상담서비스를 확대하겠다"고 말했다.  행정안전부는 특허청과 협업해 17일부터 국민비서 구삐의 채팅로봇(챗봇)으로 지식재산권 출원, 심사, 등록, 수수료 등에 대한 상담서비스를 제공한다. 행안부 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>"전셋값 얼마나 오르나"…8월 역대급 '전세대출' 예고된 전세 시장</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/057/0001665890?sid=101</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>전세가격 상승+DSR 미적용…"가계대출 안정 흐름 바뀔 수도"서울의 빌라 밀집 지역 모습 / 사진=게티이미지뱅크올해 초부터 시작된 가계대출 안정세가 8월 전세대출을 계기로 하반기에 급변할 수 있다는 주장이 나왔습니다. 이에 은행들은 정확하게 가늠할 수는 없지만 전세대출이 증가할 것으로 보고 금리 인하 등 수요를 끌어오기 위한 전략을 구상하고 있는 상황입니다.25일 KB국민·신한·하나·우리·NH농협은행 등 5대 은행의 전날(24일) 기준 전세자금대출 잔액은 지난해 말과 비교해 2조4344억원 증가한 132조1313억원으로 집계됐습니다. 서울을 중심으로 전세 공급이 줄고, 오는 7월말 임대차보호법 적용 만료를 앞두고 전세가격이 조금씩 오른 영향으로 분석됩니다.한국은행에 따르면 지난달말 국내 은행의 가계대출 잔액은 전월 대비 1조2000억원 늘어나며 5개월 만에 증가 전환했는데, 전세대출 증가가 주 요인으로 나타났습니다. 주담대 잔액도 2조1000억원 증가했는데 전세대출 증가분이 1조1000억원이었습니다.은행권은 임대차보호법 적용이 만료된 전세 매물이 시장에 풀리는 8월부터 본격적으로 전세대출이 증가할 것으로 예측했습니다. 전월세상한제로 2년 동안 전셋값을 올리지 못한 집주인들이 신규 계약시 전셋값을 크게 올릴 가능성이 높아서입니다.특히 전세대출은 하반기 대출 시장도 주도할 수 있습니다. 대부분이 실수요인 전세대출은 총부채원리금상환비율(DSR) 규제 적용 대상이 아닙니다. 7월 DSR 규제가 한 단계 더 강화되면 신용대출 등 다른 대출들은 한도가 줄겠지만, 전세대출은 영향을 받지 않습니다. 시중은행 관계자는 "서울에는 신규 전세 가격과 갱신 가격이 수억원까지 차이 나는 곳도 있다"며 "수도권을 중심으로 전세대출이 늘어날 수밖에 없는 상황인데, 사실상 대출 규제가 없다"고 말했습니다.안정적인 대출 시장도 전세대출로 바뀔 수 있다는 분석입니다. 신용상 한국금융연구원 가계부채 센터장은 "전세대출을 필두로 한 주택담보대출 증가로 인해 현재 지속되고 있는 가계대출 안정 흐름이 변할 수도 있다"고 말했습니다.인터넷전문은행, 지방은행들도 하반기 전세대출 시장을 눈여겨보고 있습니다. 케이뱅크는 카카오페이 대출 상품 중개 서비스에 전세대출 상품을 추가했습니다. 토스뱅크는 올해 하반기에 전세대출 상품을 출시할 계획입니다. DGB대구은행은 이날 비대면 전세대출 상품인 '무방문전세자금대출'을 출시했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[1mm 금융톡]모임통장 원조는 시중은행인데…카뱅이 '하하호호'</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005092750?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>카카오뱅크 모임통장 화면#동네 주민들과 여행 계모임을 하고 있는 주부 이희애(49)씨는 지난해부터 카카오뱅크 모임통장을 개설해 사용 중이다. 모임통장을 쓰기 전에는 개인 계좌로 관리하고 일일이 수기로 회비 장부를 기입해 카카오톡 단체방에 사진을 찍어 올렸지만 이젠 카카오뱅크 어플리케이션(앱)을 통해 멤버들과 잔액 등을 공유한다. 회비 요청도 단톡방에 카톡 이모티콘이 그려진 메시지를 보내면서 유쾌하게 대화를 나눈다.인터넷전문은행이 시중은행이 원조였던 ‘모임통장’ 자리를 꿰차면서 웃음을 짓고 있다. 모임통장은 일종의 공동계좌 개념이다. 동호회, 친목모임 등에서 회비를 모은 계좌의 사용 내역 등을 구성원들과 공유할 수 있는 서비스다. 시중은행들은 총무의 업무를 덜어주는 ‘모임통장’을 먼저 개발했지만, 편의성 측면에서 인터넷전문은행들에게 뒤처지면서 이 상품을 접고 있는 추세다.23일 금융권에 따르면, 우리은행의 경우 2011년 ‘우리U모임통장’을 출시했지만 현재 판매가 종료된 상태고 하나은행도 지난 2월 ‘모임통장’의 신규가입을 중단했다. 신한은행이 내놓은 모임회비 관리 서비스인 ‘김총무’도 종료됐다. KB국민은행이 ‘KB짝꿍통장’을 운영하고 있지만 커플 통장 개념으로 인원수가 2명으로 제한된다. NH농협은행 정도가 ‘NH모여라통장’을 운영 중이다.반면 카카오뱅크의 모임통장 이용자는 최근 1000만명을 돌파했다. 2018년 출시 이후 하루 평균 8800명이 새로 참여하고 있는 셈이다. 특히 모임통장이 시니어 고객들의 유입통로가 되면서 카카오뱅크는 즐거운 비명을 지르고 있는 중이다. 카카오뱅크 고객의 연령별 분포를 살펴보면 30대가 34.7%로 가장 많았지만 40대(24.1%)와 50대 이상(14.1%)의 비율도 38.2%에 달했다. 토스 역시 ‘돈 같이 모으기’라는 유사 서비스를 운영 중이다. 입·출금 내역을 참여자 전원이 확인할 수 있고, 인원수 제한없이 참여가 가능하다. 토스뱅크도 이와 별개로 ‘모임통장’ 서비스 출시를 준비 중이다.카카오뱅크 모임통장이 원조를 뛰어넘은 것은 편의성을 크게 개선한 데다가 국민 메신저인 카카오톡이 혁혁한 공을 세웠다는 평가다. 우선 시중은행 모임통장의 경우 대표자가 회의록, 명부 등의 필요 서류를 준비해 은행에 방문해야 한다. 모임원들이 은행 고객이 아닌 경우 인증서까지 설치해 은행앱에 가입해야 하는 다소 번거로운 절차가 있었다. 반면 카카오뱅크의 모임통장의 경우 카톡을 활용하는 것이 최대 강점이다. 카카오뱅크 계좌가 없어도 카카오톡으로 초대해 가입이 가능하고, 대표자는 모임통장 안에서 공지 내용이나 알려야 할 내용을 쓰고 카톡을 통해 바로 공유할 수도 있다.이와 관련 은행권 관계자는 "핀테크들이 등장하면서 시장 변화로 노화된 상품들이 종료된 것"이라며 "특히 모임통장 같은 경우는 카카오톡이 서비스에 접목되면서 경쟁에서 이길 수가 없다고 판단해 폐기 수순"이라고 분위기를 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>핀다, 하나은행 합류…62개 제휴 금융사와 대출상품 범위 넓혀</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000675199?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>직장인, 자영업자, 주부, 개인회생자까지 아우르는 상품 라인업 강화핀다는 62개 제휴 금융사로 대출상품 범위를 확대했다고 27일 밝혔다.핀다, 제휴 금융사 확대 관련 이미지 [사진=핀다]핀다는 하나은행과 제휴해 개인 맞춤형 대출상품을 선보인다. 개인신용대출 상품으로 이용자 목적에 따라 필요한 서비스를 제공하겠다는 방침이다.토스뱅크의 사장님 대출 상품도 오픈했다. 이 상품은 고객 매출액이 크지 않더라도, 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 인정받는 게 특징이다.또 세람저축은행과 손잡고 개인회생 면책자·변제자를 위한 개인회생자대출을 선보인다. 12개월 이상 변제계획을 성실하게 이행하고 있거나 최근 1년 이내 개인회생 변제가 끝난 경우 이용할 수 있다.박홍민 핀다 공동대표는 "핀다 이용 고객이 각자의 상황에 맞는 가장 유리한 대출상품을 선택할 수 있도록 제휴 금융사와의 파트너십을 강화하면서 다양한 상품 라인업을 갖췄다"며 "대출을 갖고 있거나 대출이 필요한 누구든지 핀다를 통해 개인이 중심이 되는 금융 서비스를 누릴 수 있도록 서비스를 고도화해 나가겠다"고 말했다.한편, 핀다는 현재 총 62개 제휴사와 200여개의 대출 상품을 보유한 업계 최대 대출 비교 플랫폼으로, 신용점수대별로 다양하게 분포된 이용 고객별 맞춤 대출 서비스를 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.05.30.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>"신입 대신 경력"…5대 은행 정기공채 반토막</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004705565?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>얼어붙은 은행 채용시장디지털 열풍에 신입채용 줄고IT 인력 중심 수시채용 늘어4대 은행, 하반기 공채 계획 미정인터넷銀, 고연봉 내세워 입도선매작년 채용 52% 늘어 564명 뽑아5대 시중은행이 정기 공개채용을 통해 뽑은 직원 수가 최근 2년 연속 1000명을 밑돈 것으로 나타났다. 2018년만 해도 이들 은행의 연간 공채 인원은 3000여 명에 달했다. 은행 취업 문턱이 갈수록 높아지고 있다는 지적이다. 디지털 전환 바람이 거세게 불면서 은행들이 일반 행원 공채를 줄이고 정보기술(IT) 인력 중심의 수시채용을 늘리는 등 금융권의 채용 트렌드가 급변하고 있다. ‘몸집 다이어트’로 경영 효율화30일 윤두현 국민의힘 의원이 금융감독원으로부터 제출받은 자료에 따르면 국민 신한 하나 우리 농협 등 5대 은행이 작년 정기공채로 뽑은 직원은 936명에 그쳤다. 2018년 2979명, 2019년 2113명, 2020년 980명 등 해를 거듭할수록 은행권의 공채 출신 신입 직원이 급감하고 있다. 올해도 비슷한 기조가 이어질 전망이다. 국민 신한 하나 우리은행이 지난 4월까지 정기공채로 채용한 인원은 단 한 명도 없었다. 4대 은행은 올해 하반기 정기공채 계획도 ‘미정’이라고 밝혔다. 지점이 가장 많은 농협은행만 올 들어 4월까지 580명을 정기공채로 선발했다.한 시중은행 관계자는 “비대면 금융 환경이 보편화하면서 일선 영업점에서 일할 일반 은행원을 채용할 이유가 점점 사라지고 있다”고 했다. 은행들은 ‘몸집 다이어트’를 통한 경영 효율화에 나서고 있다. 5대 은행의 전체 직원 수는 2017년 말 7만6912명에서 작년 말 7만3198명으로 3714명(4.8%) 감소했다. 금감원에 따르면 같은 기간 지점과 출장소를 포함한 5대 은행의 영업점 수도 4726개에서 4188개로 538개(11.4%) 줄었다.정기공채 대신 수시채용이 대세로 떠오르고 있다. 5대 은행의 수시채용 인원(콜센터 직원 등 포함)은 2019년 2865명에서 2020년 3046명, 작년 3626명으로 3년 연속 증가했다. 한 은행권 관계자는 “플랫폼 서비스 고도화, 데이터 비즈니스 확대, 디지털 신산업 진출 등 은행들이 생존을 위해 디지털 역량을 갖춘 인재를 수시로 채용하고 있다”며 “인터넷전문은행 및 빅테크와의 경쟁이 격화하면서 디지털 경력직 선호도는 더 높아질 것”이라고 했다. 덩치 키우는 인터넷은행 3사카카오뱅크 케이뱅크 토스뱅크 등 인터넷은행 3사는 시중은행과 달리 몸집을 불리고 있다. 인터넷은행이 새로 채용한 인원(정기공채와 수시채용 합계)은 2020년 372명에서 작년 564명으로 192명(51.6%) 늘었다. 대부분이 수시채용이다. 금융권 한 관계자는 “인터넷은행들이 높은 연봉을 내세워 전자회사, 게임사, 플랫폼 기업 등에서 디지털 전문가를 입도선매하고 있다”며 “호봉제 등으로 인해 파격적인 조건을 내걸고 디지털 인재를 수혈하기 힘든 시중은행들의 고심이 깊어지고 있다”고 말했다.국책은행들도 낡은 기준으로 인해 조직의 고령화를 걱정하는 처지에 놓였다. 5대 은행에선 작년에만 300~600명대 직원이 명예퇴직을 하는 등 매년 수백 명의 명퇴자가 나오고 있다. 이들의 빈 자리를 젊은 직원들로 채우고 있다. 하지만 기획재정부 지침에 따라 시중은행만큼 명퇴금을 챙겨주지 못하는 국책은행에선 이 같은 세대교체가 이뤄지지 않고 있다. 기업은행의 임금피크제 적용 대상 직원 수는 2019년 530명에서 2020년 666명, 작년 992명으로 급증했다. 산업은행은 작년 말 기준 전체 직원 중 8.9%가 임금피크제를 적용받고 있는 것으로 집계됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>최태원號 개혁에 재계가 뭉쳤다…신기업가정신협의회 출범</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002606582?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>최태원 "사회문제 해결에 기업 역할 해야…전 경제계 확산 필요"정의선 "신기업가정신은 기업과 사회 생존 해결책"경제계 '청년 채용 릴레이' 등 챌린지 제안24일 서울 중구 대한상공회의소에서 열린 신(新)기업가정신 선포식에서 최태원 대한상의 회장이 강연하고 있다. ⓒ데일리안 홍금표 기자[데일리안 = 박영국 기자] 기업들이 사회적 문제 해결에 앞장서고 이해관계자와 공동 이익을 위해 노력해야 한다는 최태원 대한상공회의소 회장의 ‘신기업가정신’ 선언에 대한민국 대표 기업인들이 동참하며 큰 변화의 물결을 예고했다.대한상공회의소를 비롯한 경제계는 24일 서울 중구 상의회관에서 ‘신기업가정신 선포식’을 갖고 ‘대한민국이 직면하고 있는 새로운 문제들을 기업의 기술과 문화, 아이디어 등을 통해 전혀 새로운 해법으로 풀어내겠다’는 뜻을 모았다. 또 실천다짐을 전 경제계로 확산해 나가겠다는 의지를 밝혔다.이날 선포식에서 최태원 회장은 ERT(Entrepreneurship Round Table, 신기업가정신협의회) 언팩(Unpack) 강연을 통해 ‘신기업가정신이 필요한 이유’에 대해 설명했다.최 회장은 “시대가 계속 변하고 있고, 국민들은 기업에 새로운 역할을 원하고 있다”면서 “변해야 하는 원칙은 알지만 어떻게 변해야 할까 하는 고민 끝에 대한상의는 지난 1년간 국민, 전문가, 회원기업들과 소통하고 연구해 왔고, 그 결과물이 신기업가정신”이라고 말했다.그는 “기후변화, 공급망 재편, 사회 양극화, 포스트코로나 시대와 관련된 각종 사회적 문제, 이런 것들을 전부 정부에만 맡겨서는 해결할 수 없는 상황”이라며 “기업들이 직접 이걸 나의 과제로 생각하고 해결에 동참하겠다고 하는 자세가 중요하다. 실제로 무엇인가 작은 실천들을 해가나는 게 중요하다”고 강조했다.앞서 방영된 오프닝 영상 ‘왜 신기업가정신인가’에서는 ‘기업을 향한 달라진 국민들의 시선’을 소개했다. 시민들은 “지금 기업은 꼰대문화, 환경문제, 기업갑질, 보여주기 등의 느낌”이라며“시대변화에 따라 환경에 나서는 기업, 실천하는 기업, 청년을 위한 좋은 일자리를 만드는 기업으로 변화해야 한다”고 질책했다.이에 대해 반기문 전 UN 사무총장은 “기업의 사회적 역할이 필요하다. 그것이 지금의 스탠더드”라며 “개별기업이 혼자 하긴 어렵지만 여럿이 힘을 모아 실천에 옮긴다면 사회에 긍정적인 변화를 이끌어 낼 수 있다”고 말했다. 염재호 전 고려대 총장도 “오늘 선포식을 통해 세계에서 모범이 되는 신기업가정신이 뿌리 내리길 기대한다”고 말했다.24일 서울 중구 대한상공회의소에서 열린 신(新)기업가정신 선포식에서 정의선 현대차그룹 회장이 축하사를 하고 있다. ⓒ데일리안 홍금표 기자정의선 회장은 축사를 통해 “최근 환경오염과 기후변화 문제가 기업과 사회의 생존 자체를 위협하는 상황이 발생하고 있다”며 “기업을 둘러싼 이해관계자들을 소중히 여기며 기업 역할을 사회가치 증진까지 확장하는 신기업가정신이야 말로 이러한 문제에 대한 답”이라고 강조했다.정 회장은 현대차그룹이 내딛는 실천에는 환경, 사람, 사회를 위한 다양하고 구체적인 행동이 포함될 것이라고 약속했다. 정 회장은 “전동화 차량 출시 및 수소 모빌리티 확대, 계열사 RE100 참여에 더해 향후 자동차 제조, 사용, 폐기 등 전 과정에서 탄소중립을 달성하겠다”며 “미래 모빌리티 산업으로의 전환기를 맞은 자동차산업 생태계를 강화하고 청년 및 사회적 일자리 창출에도 기여할 것”이라고 말했다.또, “신기업가정신 협의회를 통해 경제계의 실천활동이 내실을 더하고 더 많은 기업이 함께 하길 바란다”고 덧붙였다.김슬아 컬리 대표도 젊은 기업의 변화상을 말했다. 김 대표는 “스타트업은 사람들이 피부로 느끼는 공통의 문제를 해결하는 것을 목표로 한다”며 “지속가능한 유통생태계 구축을 통해 소비자 뿐 아니라 임직원, 투자자, 농민, 어민, 중소상공인들의 삶에 긍정적인 변화를 불어넣겠다”고 말했다.손경식 경총 회장은 시대가 바라는 새로운 기업가 정신이 발휘돼야 한다고 강조했다. 손 회장은 “기업가정신은 시대에 따라 그 폭을 더욱 넓혀가고 있으며 기업에 대한 사회적 바람 역시 매우 커졌다. 기업은 경제개발의 선구자로서, 지속 가능한 사회를 만드는 핵심축으로 기대를 받고 있다. 이제 뚜렷한 목표의식을 가지고 불굴의 도전을 지속하는 새로운 기업가정신이 다시 발휘되어야 할 때”라고 밝혔다.이날 경제계는 ERT(신기업가정신협의회)를 별도의 실천기구를 출범시켰다. 앞서 미국은 ‘BRT(Business Roundtable) 선언’을, 유럽은 ‘CSR(Corporate Social Responsibility) Europe’, 일본은 ‘기업행동헌장’을 통해 기업의 실천의지를 밝힌 바 있다.ERT는 전 경제계가 함께하는 ‘공동 챌린지’, 개별기업의 역량에 맞춘 ‘개별 챌린지’ 2가지 방식으로 실천과제를 수행한다.이날 회의에서 언급된 ‘공동 챌린지’ 예시에는 임직원이 모두 눈치 보지 않고 정시 퇴근하는‘눈치가 없네’, 하루 동안 플라스틱 사용을 자제하는 Zero 플라스틱 데이, 북유럽식 플로깅(Plogging: 조깅하며 환경을 생각하는)을 벤치마킹한 ‘줍줍’, 다회용 용기로 포장시 할인해 주는 ‘용기내 챌린지’ 등의 과제를 경제계 전반으로 공동 실천한다는 계획도 있다.개별기업의 실천과제(챌린지)도 행사장에 소개됐다. 먼저 일자리 창출과 관련된 과제들이 눈에 띈다. 현대차는 ‘H-온드림’프로젝트를 통해 청년 스타트업에 자금과 네트워킹을 지원하고, 이를 통해 청년 일자리를 창출하겠다고 밝혔다. ‘윤리적 가치 제고’와 관련, 배달의 민족은 외식업종 자영업자에게 경영컨설팅을 제공하는 배민의 ‘꽃보다 매출’을 소개했다. 현대중공업은 ‘1% 나눔 사업’을 벌이고 있다.‘기업문화 향상’과 관련, 토스는 수평적인 조직문화를 형성하기 위해 사내 모든 정보를 투명하게 공개하고 직급과 무관하게 능력있는 구성원이 권위를 획득할 수 있도록 할 것이라고 말했다.‘친환경 경영’도 눈에 띈다. 마켓컬리는 종이 박스 회수 서비스를 통해 마련된 수익금을 토대로 나무를 심는‘샛별 숲 조성’사업(연 1만5200kg 산소를 도시로)으로 환원하고 있다. ‘지역사회와의 상생’과 관련, 한화는 유치원과 학교에 공기정화기를 제공하는 ‘해피선샤인’사업을 소개했다.최근 대한상의가 706명의 국민을 대상으로 ‘국민이 바라는 기업의 실천과제는 무엇입니까?’를 물은 질문에, 조사대상의 29.6%는 워라벨 실천, 즐거운 일터, 임직원 성장 등과 관련된 ‘기업문화 향상’을 꼽았다.다음으로 환경문제 해결(자원순환 활성화, 자연보호, 탄소 감축 등) 25.6%, 윤리경영(윤리의식 확산, 투명한 기업, 파트너사 상생 등) 18.3%, 지역사회 상생(지역소비 활성화, 지역 소외계층 지원, 지역투자 확대 등) 15.3%, 경제적 성장(미래산업 발굴, 일자리 창출, 창업생태계 활성화) 11.2% 순이었다.일회성 실천이 되지 않도록 관리도 해 나갈 계획이다. 최 회장이 제시한 방법은 ‘측정’이다. 대한상의측은 “기업의 실천성과를 측정할 계획”이라며 “측정의 목표는 기업간 비교가 아니라, 기업들이 얼마나 변했는지를 지표로 만들어 반기업정서를 줄이는 매개체로 활용할 방침”이라고 밝혔다. 측정을 통해 기업의 역할이 부족하다는 지적은 겸허히 받아들이고, ‘보여주기’라는 오해가 있다면 제대로 알려나가겠다는 것이다.ERT는 기업선언문 서명을 통해 전체 경제계의 신기업가정신을 유도한다는 방침이다. 기업선언문은 기업인, 전문가 등이 만든 실천과제의 공통분모인 셈이다. 선언문에는 5대 실천과제를 담았다. ▲경제적 가치 제고 ▲윤리적 가치 제고 ▲기업문화 향상 ▲친환경 경영 ▲지역사회와 상생 등이 그것이다.이날 행사에는 최태원 대한상의 회장, 정의선 현대차그룹 회장, 손경식 경총 회장 외에도 이인용 삼성전자 사장, 하범종 LG 사장, 이동우 롯데지주 부회장 등 대기업 대표, 이종태 퍼시스 회장, 정기옥 LSC푸드 회장 등 중소‧중견기업 대표, 김봉진 우아한형제들 의장, 이승건 비바리퍼블리카 대표 등 유니콘 기업 대표 등 40여명의 CEO들이 20~30초간 기업별 실천의지를 다졌다.선포식에 앞서 삼성전자·현대차 등 대기업과 배민·토스 등 벤처기업, 미래에셋증권·기업은행 등 금융권, 경총·무역협회·중견기업연합회 등 경제단체까지 총 76명의 기업인이 서명한 바 있다.우태희 대한상의 상근부회장은 “신기업가정신 선포가 일회성 선언에 그치는 것이 아니라 기업의 기술과 문화로 각종 사회적 문제를 해결하고 지역사회와 상생할 수 있도록 구체적 실천과제를 계속 진행할 계획”이라며 “국민들께서도 응원해 주시고 어떤 성과를 거두어낼지 관심 있게 지켜봐 달라”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>'니가 가라 실리콘밸리' 타입드, 스타트업 대상 웨비나 개최</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004747776?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>문서협업 솔루션 '타입드(Typed)' 개발사 비즈니스캔버스가 국내외 스타트업을 대상으로 'Essential^2: 니가 가라 실리콘밸리' 웨비나(온라인 세미나)를 개최한다고 18일 밝혔다. 오는 19일 오후 8시30분에 개최되는 웨비나는 '글로벌 비즈니스 전략'을 주제로 진행된다. △글로벌 탑 액셀러레이터 선정 비결 △한국 스타트업으로서의 미국 현지 네트워킹 노하우 △구글 등 글로벌 IT 기업과 스타트업의 시너지 전략 등이 소개된다.이외에도 비즈니스캔버스와의 파트너십을 주도한 구글 코리아의 김경태 담당, 비즈니스캔버스에 투자한 카카오벤처스의 정신아 대표가 초청 연사로 참여해 지원사격에 나설 예정이다.지난달 '스타트업의 Go-to-market(시장진출) 전략'을 주제로 열린 웨비나 'Essential^' 때는 튜터링 공동창업자인 최경희 소풍벤처스 파트너와 토스 공동창업자 이태양 블루포인트파트너스 수석심사역이 참여했다. 이번 웨비나를 기획한 김여경 한국 마케팅 총괄은 "앞으로도 여러 시행착오를 겪으며 성장하는 스타트업 간 지식나눔을 통한 시너지 창출에 기여하는 것이 목표"라고 했다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.05.21.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>세상에서 가장 비싼 바이올린 나오나</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001527560?sid=103</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>308년 된 ‘명기 중의 명기’ 바이올린스트라디바리우스 다 빈치·엑스 세이델내달 9일 미국서 경매, 낙찰예상가 256억원미국 악기 전문 경매회사 타리시오가 다음 달 9일 경매에 내놓는 1714년산 스트라디바리우스 다 빈치 엑스 세이델의 소리통과 머리 부분. 최고 낙찰 예상가가 2000만 달러(약 256억원)로 역대 바이올린 최고가를 기록할 가능성이 있다. 타리시오 홈페이지스트라디바리우스와 과르네리는 클래식 음악을 잘 모르는 사람들도 들어본 적 있는 현악기 브랜드다. 17~18세기 이탈리아 북부 크레모나 지역 현악기 제작 가문에서 만들어진 것으로 ‘명기 중의 명기’로 평가받는다. 제작된 지 300년이 넘은 지금도 연주자들의 사랑을 받는 것은 물론 미술품처럼 많은 투자가의 관심 속에 고가로 거래되고 있다.공식적으로 공개된 역대 바이올린 최고가 기록은 2014년 경매에서 1600만 달러(약 205억원)에 낙찰된 1741년산 과르네리 델 제수 비외탕(Vieuxtemps)이 갖고 있다. 다음은 1721년산 스트라디바리우스 레이디 블런트(Lady Blunt)다. 2011년 1590만 달러(약 204억원)에 팔렸는데, 일본음악재단이 2008년 1000만 달러에 샀다가 동일본 대지진 직후 구호기금 마련을 위해 내놓은 것이다.스트라디바리우스와 과르네리는 악기 이력 중 유명한 소유자의 이름이 더해지는 경우가 많다. 과르네리 델 제수 비외탕은 19세기 벨기에 출신 유명 바이올리니스트 앙리 비외탕이 소유했던 데서 유래했다. 스트라디바리우스 레이디 블런트는 영국 시인 바이런 경의 손녀인 앤 블런트 부인이 가졌던 데서 이름이 지어졌다.바이올리니스트 레지스 파스키에와 그가 소유한 1736년산 과르네리 델 제수. 이 바이올린은 다음 달 3일 프랑스 경매회사 아퀴트가 경매에 올린다. 아퀴트 홈페이지이들 명품 바이올린 2대가 다음 달 미국과 프랑스의 경매에 잇따라 나온다. 역대 최고가 역사를 새로 쓸 가능성이 크다. 먼저 3일(현지시간) 프랑스 경매회사 아퀴트에 나오는 1736년산 과르네리 델 제수는 최고 낙찰 예상가가 1050만 달러(약 135억원)로 역대 바이올린 거래 탑5에 들 수 있다. 노령으로 무대에 잘 서지 않게 된 바이올리니스트 레지스 파스키에(76)가 내놓은 것으로 10여년 만에 경매에 나온 과르네리 델 제수다.러시아 출신 미국 바이올리니스트 토스차 세이델과 그가 사용했던 스트라디바리우스 다 빈치 엑스 세이델. 타리시오 홈페이지9일에는 미국 악기 전문 경매회사 타리시오에 1714년산 스트라디바리우스 다 빈치·엑스 세이델(da Vinci·ex-Seidel)이 출품된다. 최고 낙찰 예상가가 2000만 달러(약 256억원)로 역대 바이올린 최고가를 경신할 가능성이 있다. 이 악기의 이름은 1923년 프랑스 파리의 악기상이 당시 보유하던 스트라디바리우스에 이탈리아 화가들의 이름을 붙인 뒤 제정 러시아 시절 우크라이나 출신으로 1930년대 미국으로 건너온 바이올리니스트 토스차 세이델(1899~1962)이 소유한 데서 붙여졌다. 세이델은 뮤지컬 영화 ‘오즈의 마법사’ 등 여러 할리우드 작품에서 이 악기를 연주해 인기를 얻었다.바이올린의 탄생과 명기 음색의 비밀크레모나는 ‘바이올린의 고향’으로 불린다. 16세기 즈음 아마티 가문이 중세 시대 현악기를 개량해 오늘날의 바이올린을 만들었기 때문이다. 스트라디바리우스는 안토니오 스트라디바리(1644~1737)와 두 아들이 만든 현악기를 포함하지만, 일반적으로 90세 넘게 장수하며 현악기의 표준을 완성한 아버지 스트라디바리가 만든 것을 지칭한다. 18세기에는 라벨에 제작자와 지명을 라틴어로 써야 했는데, 요즘은 대체로 스트라디바리우스는 악기·스트라디바리는 제작자를 가리킬 때 사용한다.어린 시절 아마티 공방에서 배운 뒤 독립한 스트라디바리는 젊은 시절부터 섬세한 음질과 정교한 세공으로 명성을 얻었다. 평생 1100여대의 악기를 만들었지만 현존하는 것은 바이올린 550여대, 첼로 50여대, 비올라 12대를 포함해 650대 정도다. 실제 연주되는 것은 100대가 채 안 되며 소장용 가운데 일부는 연주자에게 대여해주곤 한다.아마티, 스트라디바리와 함께 3대 바이올린 제작 가문으로 불리는 과르네리는 1650년대 안드레아 과르네리가 아마티 공방 견습생을 하면서 시작돼 손자인 주세페 과르네리(1698~1744)에 와서 이름을 떨쳤다. 주세페 과르네리는 악기 라벨에 자신의 라틴어 이름인 요제프 과르네리우스와 함께 십자가, 예수의 첫 세 글자를 로마자로 표기한 I.H.S를 적었기에 ‘과르네리 델 제수’(예수의 과르네리)라는 별명을 얻었다.과르네리 델 제수는 스트라디바리우스에 비해 디자인은 거칠지만 깊고 풍부한 소리를 낸다. 유럽 궁정에선 수요가 거의 없었지만 높지 않은 가격에 좋은 소리를 원하는 일반 음악가들에게 인기가 많았다. 주세페 과르네리는 평생 200대 정도의 바이올린밖에 만들지 않았다. 스트라디바리우스보다 희소성은 더 크다.스트라디바리우스와 과르네리 델 제수가 명기인 이유에 대해선 다양한 연구가 행해졌다. 제작자의 기량 외에 1645년부터 100년간 지속한 ‘미니 빙하기’가 바이올린 음색에 큰 영향을 끼쳤을 것으로 추정된다. 당시 크레모나의 현악기 제작자들은 크로아티아산 단풍나무를 썼는데, 추운 겨울로 인해 나무의 밀도가 높아 음색이 좋아졌다고 한다. 나무를 갉아 먹는 해충과 곰팡이를 억제하기 위해 각종 화학 약품으로 방부 처리를 하고 이전과 다른 고품질의 바니쉬(니스칠)를 한 것도 음색의 질을 높였다는 연구결과가 나와 있다.가격 높아질수록 악기 둘러싼 논란도 이어져스트라디바리우스와 과르네리 바이올린의 가격은 보관상태, 음질, 이력 등에 따라 달라진다. 기본적으로 100만 달러 이상을 호가하며 1700~1725년 ‘황금기’에 만들어진 것은 500만 달러 이상에 거래된다. 사적 거래에선 경매 등에서 공개된 가격보다 더 높게 팔렸을 가능성이 크다.스트라디바리우스나 과르네리 델 제수의 가격이 천문학적으로 올라가다 보니 2000년대 들어 이들 악기에 투자하는 전문 펀드도 등장했다. 이들의 평균 수익률은 20% 안팎이나 됐고 일부는 40%에 육박해 다른 펀드 수익률을 압도했다. 이 때문에 요즘 연주자들은 고가인 이들 악기를 직접 소유하기보다 임차하는 경우가 많다. 젊은 연주자들은 콩쿠르에서 우승하거나 후원자의 도움을 받아 연주 기회를 얻곤 한다.스트라디바리우스나 과르네리 델 제수의 가격이 타당한지를 둘러싼 논란은 오랫동안 이어지고 있다. 수차례 블라인드 테스트에서 현대 악기가 이들 악기 못지않다는 게 드러났기 때문이다. 연주자는 안대를 낀 채 연주하고, 음악에 식견 있는 청중은 무작위로 소리를 듣는 실험을 한 결과 연주자와 청중 모두 소위 ‘명기’와 현대 악기를 구분하지 못했다. 음색과 음향방사도 등에서 현대 악기가 더 우수하다는 평가를 받은 적도 있다. 스트라디바리우스가 300년 이상 되면서 원목의 심한 건조로 음색이 점점 나빠진다는 연구도 나왔다.하지만 스트라디바리우스나 과르네리 델 제수에 대한 열망은 시들지 않고 있다. 이들 악기가 단순한 연주를 넘어서는 영감과 의미를 가졌기 때문이다. 경매에 나올 때마다 최고가를 경신할 가능성이 큰 것은 이 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>장외시장 큰손 떠오른 ‘Z(자이낸스)’세대…비상장주식 투자자 23%가 20대</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001996455?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>증권플러스 비상장 20대 이용자 급증모바일 기반 편리하고 직관적인 UI 덕분토스·배민·야놀자 등 신흥 플랫폼 투자열풍[헤럴드경제=박이담 기자] # 20대 직장인 A씨는 비상장 주식투자에 흠뻑 빠져 있다. 일상에서 자주 사용해 관심이 컸던 모바일 플랫폼인 토스, 배달의민족, 야놀자 등에 투자할 수 있기 때문이다. 투자방법도 간편하다. 증권플러스 비상장 앱을 이용하면 손쉽게 사고팔 수 있다.금융투자업계에 따르면 A씨처럼 새로운 금융 트렌드를 이끄는 젊을 세대를 ‘자이낸스(Zinance)’라고 부른다. ‘자이낸스’는 Z세대의 ‘Z’와 ‘금융(Finance)’의 합성어로, Z세대가 이끄는 금융 트렌드를 의미한다.이들은 스마트폰이 일상화된 모바일 네이티브로 ‘재미’와 ‘간편함’을 중시하며 모바일 애플리케이션을 이용해 투자한다. 금융에서도 자신의 가치에 잘 맞고 생활 속에서 익숙한 서비스들을 선호하며, 자산과 소득은 적지만 다양한 재테크에 과감하게 뛰어드는 경향이 있다.최근 비상장 주식시장에도 자이낸스가 상륙했다. 실제로 비상장 주식거래 플랫폼인 증권플러스 비상장의 이용자비율을 살펴보면, 20대 이용자가 2021년 5월 19.12%에서 2022년 1월 22.55%로 증가했다. 회원 수도 2021년 6월 50만명 이상에서 올해 3월 기준 약 120만명 이상으로 증가했으며, 누적 거래 건수는 27만건을 돌파했다. 소액투자를 선호하는 Z세대 성향에 따라 50만원 이하 소액거래자도 지난해 3월 대비 올해 3월 66% 증가했다.비상장 주식시장을 뒤흔든 자이낸스의 중심에는 증권플러스 비상장의 혁신 서비스가 있다. 증권플러스 비상장은 업계 최초로 증권사 안전거래 서비스를 연계해 기존 비상장 주식시장이 갖고 있던 거래 불안정성, 허위 매물, 높은 유통마진 등의 고질적 병폐를 해소하고 시장접근성을 높였다. 두나무 콘텐츠밸류팀이 집약한 종목정보를 제공해 비상장시장에 만연하던 정보절벽을 없애고 정보 과부하, ‘TMI(too much information)’를 싫어하는 Z세대의 니즈를 충족했다는 평가다.증권플러스 비상장만의 다양한 편의 기능 또한 Z세대 유입을 견인하는 데에 큰 몫을 했다. 증권플러스 비상장이 선보인 모바일 기반의 편리하고 직관적인 UX(User Experience)와 UI(User Interface)는 스마트폰 위주의 라이프스타일을 영위하는 Z세대에 매력적인 소구 포인트로 작용했다. 3000만원 이하 바로 주문, 공휴일 포함 24시간 예약 주문 등의 기능으로 이용자 경험을 획기적으로 개선함으로써 ‘간편함’을 최우선 가치로 생각하는 Z세대의 취향을 저격했다. 실시간 업데이트되는 인기 토론 메뉴와 종목별 토론방은 소통과 교류를 중시하는 Z세대 사이에서 재테크정보를 공유하는 새로운 창구로 부상하며 주목받고 있다.2020년 말부터 이어진 대규모 IPO와 비바리퍼블리카(토스), 우아한형제들(배달의민족), 야놀자(야놀자) 등 Z세대가 일상에서 자주 사용하는 모바일, 핀테크 서비스 운영사가 대부분 비상장 기업인 점도 Z세대의 비상장 주식투심에 불을 지폈다.두나무 관계자는 “기존 세대의 재테크공식을 따르지 않는 Z세대는 차세대 금융의 주역으로 다가올 변화에 앞서 가장 주목해야 할 세대”이며 “증권플러스 비상장은 앞으로도 투자자 편의 개선 및 안심 투자환경 조성에 힘써 시장의 건강한 발전에 기여하고 미래 금융 트렌드를 이끄는 비상장 주식거래 애플리케이션으로 자리 잡겠다”고 전했다.한편 증권플러스 비상장은 2019년 11월 두나무와 삼성증권이 의기투합해 선보인 넘버원(No.1) 비상장 안전거래 플랫폼이다. 2022년 3월 기준 회원 수 120만명 이상을 기록하고 있으며, 누적 거래 건수는 27만건 이상에 달한다. 2020년 4월 금융위원회 혁신금융 서비스로 지정됐으며, 올해 4월 지정이 연장됐다.업계 최초로 증권사와 연동된 안전거래 시스템을 도입해 거래 불투명성, 허위 매물, 높은 유통마진 등 기존 비상장 주식거래가 가진 병폐를 해소하고, 24시간 예약 주문, 집약된 종목정보 제공과 같은 다양한 편의 기능으로 비상장 주식시장의 혁신을 선도하고 있다.오는 7월 전문적이고 체계적인 종목심사 관리를 토대로 종목 등록 기준 상향 등 한층 더 강화된 투자자보호정책을 시행할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>국민은행·카드, 신한은행·카드 앱에서 '국민비서 구삐' 서비스 이용하세요</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003149324?sid=102</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>오는 27일부터 국민은행·카드, 신한은행·카드 모바일 앱에서 국민비서 ‘구삐’의 행정정보를 제공받을 수 있게 된다.KB스타뱅킹 앱 내의 국민비서 구삐 서비스 화면. 행정안전부 제공.행정안전부는 27일 정부서울청사에서 KB국민은행, KB국민카드, 신한은행, 신한카드 등 4개 금융사와 국민비서 서비스 제공 및 이용 활성화를 위한 업무협약을 체결할 예정이라고 26일 밝혔다. 이에 따라 27일부터 국민비서 구삐가 제공하는 행정정보를 KB국민은행의 KB스타뱅킹, KB국민카드의 KB Pay, 신한은행의 신한 SOL, 신한카드의 신한pLay 등의 모바일 앱을 통해서도 이용할 수 있게 된다.신한은행 쏠 앱 내의 국민비서 구삐 서비스 화면. 행정안전부 제공.구삐는 각종 생활형 행정정보를 국민들이 자주 이용하는 모바일 앱을 통해 알려주는 서비스다. 2021년 3월 서비스를 시작했으며 지난 23일 현재 이용자 수는 약 1466만명으로 집계됐다. 기존에는 네이버앱, 카카오톡, 토스 등 3개 모바일 앱을 통해 건강검진, 전기요금, 운전면허 갱신, 세금 고지 등 7개 분야 23종의 알림서비스를 제공해 왔다. 행안부는 지난해 백신접종 예약 안내 및 국민지원금 안내 등을 통해 구삐가 대표적인 행정서비스로 자리매김한 것으로 평가하고 있다.행안부는 국민이 보다 다양한 채널을 통해 구삐를 이용할 수 있도록 민간 모바일 앱 확대를 추진해 왔다. 행안부는 지난 1월부터 5월까지 누적 다운로드 100만건 이상의 이용량, 보안성, 기능성 등의 자격요건을 갖춘 민간 앱의 연계 신청을 받았으며, 전체 신청기관 12곳 중 4개 금융사를 대상으로 협약을 체결하게 됐다고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[단독] 토스뱅크, 1000억원 추가 유상증자 나선다…출범 후 세번째</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004705063?sid=101</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>여·수신 '고속 성장'에다음달 추가 자본확충출범 8개월만에 세번째하반기 추가 증자 계획토스뱅크.  /사진=연합뉴스인터넷전문은행 토스뱅크가 다음달 1000억원 규모의 유상증자에 나선다. 지난해 10월 출범 이후 약 8개월 사이 세 번째로 이뤄지는 증자다. 공격적으로 영업을 확대하고 있는 토스뱅크는 이번에 확보하는 자본금으로 대출 여력을 더 끌어올리겠다는 계획이다. 29일 금융권에 따르면 토스뱅크는 기존 주주들을 대상으로 다음달 말께 1000억원 규모의 유상증자를 추진한다. 이번 증자를 마치면 토스뱅크의 총 납입자본금은 현재 8500억원에서 9500억원으로 늘어나게 된다.  '초고속 성장'에 목표보다 증자 앞당겨 하반기 또 한 차례 추가 증자도 협의중 토스뱅크가 유상증자에 나서는 것은 이번이 벌써 세 번째다. 자본금 2500억원으로 출발한 이 은행은 출범 직후인 지난해 10월 말과 올 2월 말 각 3000억원씩 두 차례 증자를 마쳤다. 출범 당시 토스뱅크는 5년간 1조원, 매년 최대 3000억원의 추가 증자가 목표라고 했지만 출범 1년도 안 돼 이미 7000억원의 추가 자본 확충에 성공했다.  토스뱅크는 주주들과 올 하반기 한 차례 추가 증자를 위한 협의도 함께 진행하고 있는 것으로 확인됐다. 토스뱅크 고위 관계자는 "대출이 예상보다 훨씬 빠른 속도로 성장하고 있어 원활한 서비스를 위해 당초 보수적으로 구상했던 증자 계획보다 일정을 앞당기고 있다"고 했다. 한 직장인이 토스뱅크 홈페이지를 살펴보고 있다.  /허문찬 기자 이번 증자가 마무리되면 토스뱅크의 대출 여력도 더 확대된다. 토스뱅크의 대출 잔액은 지난해 말 5315억원에서 올 4월 말 2조8354억원으로 4개월 만에 다섯 배 넘게 급증하며 빠르게 성장하고 있다. 지난해 가계대출 총량 규제로 막혔던 신용대출을 재개한 데 이어 올 2월 인터넷은행 최초로 출시한 무보증·무담보 개인사업자 대출도 3개월 만에 잔액이 4000억원을 넘어서며 흥행에 성공했다.  대출 확대·수익성 강화 목표 기존 주주 빠짐없이 참여할듯 그럼에도 토스뱅크는 수익성을 끌어올리기 위해 대출 영업에 더 드라이브를 걸고 있다. 수시입출식 예금에 연 2% 이자를 주는 수신 전략으로 단기간에 17조원 넘는 예금을 조달하는 데 성공했지만, 그만큼 예금 이자로 지출하는 비용이 대출로 벌어들이는 이익보다 커졌기 때문이다. 이 은행은 지난해 이자수익 312억원, 이자비용 424억원을 기록해 112억원의 이자순손실을 냈다. 토스뱅크는 올 하반기 출시 예정인 비대면 전세자금대출을 포함해 대출 상품 라인업을 더 확대하겠다는 계획이다. 선제적인 자본 확충도 이를 위해서다. 은행권의 한 관계자는 "전세대출은 취급 금액이 큰 만큼 앞으로 대출이 늘어나는 속도는 더 빨라질 것"이라고 했다. 김재우 삼성증권 연구원은 "현재 토스뱅크의 대출 가능금액은 총자본(7424억원 추정)의 10배인 약 7조4000억원으로 추정된다"며 "그 이상으로 대출을 늘리려면 추가적인 유상증자가 동반돼야 한다"고 분석했다.  토스뱅크의 기존 주주들은 이번 증자에도 빠짐 없이 참여할 전망이다. 한 주주사 관계자는 "올해 상·하반기 추가 증자에 대한 협의를 꾸준히 진행해 왔다"며 "기존 주주들은 지분율을 지키기 위해 참여할 것"이라고 했다.  토스뱅크의 최대주주는 토스 운영사인 비바리퍼블리카(34.91%)다. 이어 하나은행·한화투자증권·이랜드월드가 각 10%, 중소기업중앙회가 9.99%, SC제일은행이 7.91%, 알토스벤처스가 5.33%, 굿워터캐피탈이 3.61%, 웰컴저축은행이 3.24%, 한국전자인증이 2.59%, 웰컴캐피탈이 1.76%, 리빗캐피탈이 0.66%의 지분을 보유하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.05.25.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[기자의 눈]실천 결과 투명 공개 '신기업가 정신' 이번엔 다르다</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006114936?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>최태원 "반기업정서 사라지고 국민 박수 받는 날 오길 기대"최태원 대한상공회의소 회장이 24일 서울 중구 대한상의에서 열린 신기업가정신 선포식에서 ERT(Enterpreneurship Round Table)에 대해 발표하고 있다. (공동취재) 2022.5.24/뉴스1 © News1 이동해 기자(서울=뉴스1) 김종윤 기자 = "기업이 내놓은 개별 과제의 실천 현황을 측정하고 그 결과를 투명하게 공개하겠습니다. 변화를 지표로 알리고 '보여주기'라는 오해에서 벗어날 것입니다."경제계가 지난 24일 이윤 창출을 넘어 사회적 공헌에 앞장서겠다는 '신기업가 정신'을 선포하며 국민과 약속한 말이다. 해마다 반복되는 기업들의 그저 그런 행사가 아니라는 점을 알리기 위한 실천 의지였다. 단순한 선언에서 한발 더 나아가 변화의 결과를 지표로 알린다면 국민에게 믿을 줄 수 있다는 판단이다. 기업들은 해마다 비슷한 행사를 열고 다양한 이해관계자들과 함께 발전하겠다고 약속했지만 일반인들은 기업들의 진정성을 별로 느끼지 못했다. 최태원 대한상의 회장도 기업과 국민 간 인식 차이에 대해 뼈저리게 느끼고 있다고 했다. 그래서 꺼내든 카드가 '결과 공개'다. 최 회장은 "기업이 만들어낸 사회적 가치 성과에 대한 총량 지표를 개발해 국민께 정확한 지표를 알릴 것"이라며 "우리 사회에 자리 잡은 반기업 정서가 사라지고 국민으로부터 많은 박수를 받는 날이 올 것으로 기대한다"고 실천 의지를 강조했다.한국을 대표하는 삼성·SK·현대차·LG·롯데·포스코·한화 등은 물론이고 쿠팡, 토스, 마켓컬리, 배달의민족 등 벤처기업도 공개적으로 실천 결과를 알리겠다고 선언했다. 현대차는 청년 스타트업에 자금과 네트워킹을 지원하는 'H-온드림' 프로젝트를 내놨다. 배달의민족은 외식업종 자영업자에게 경영컨설팅을 제공하는 '꽃보다 매출'을 소개했다. 이를 별도 조직 ERT(Entrepreneurship Round Table·신기업가정신협의회)가 점검하고 실행하는 이중 장치까지 마련했다. 선포식이 열린 이날 삼성은 5년간 450조원, 그중 80%인 360조원을 국내에 투자하고 8만명의 고용을 창출하겠다는 대규모 투자계획을 내놨다. 현대차그룹도 3년간 국내에 63조원을 투자하겠다고 발표했다. 신기업가 정신 선포를 계기로 기업들이 국민으로부터 사랑받는 그날이 빨리 오기를 희망해 본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>대출 필요한 자영업 사장님들…토뱅 케뱅 3%대로 해준대요</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004965204?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>케이뱅크, 신보와 제휴맺고최대 3천만원까지 대출시중銀보다 금리 2%P 낮아토스뱅크 최대 1억 사장님 대출출시 석 달새 약정 4천억 육박카뱅, 4분기 신규상품 출시예정 토스뱅크와 케이뱅크 등 인터넷전문은행이 개인사업자를 대상으로 파격적인 금리와 한도를 내세운 대출상품을 내놓고 있어 주목된다. 이들 은행의 대출은 시중은행보다 금리가 많게는 2%포인트가량 낮을 뿐만 아니라 대출 한도도 두 배 이상 높은 것으로 조사됐다.케이뱅크는 17일 신용보증재단중앙회와 손잡고 보증부 대출 상품인 '케이뱅크 사장님 대출'을 출시했다. 대상은 실제 사업을 영위하는 개인사업자 중 신용보증재단 보증서 발급이 가능한 사람이다. 기존 신용보증재단 대출이 있어도 중복으로 대출받을 수 있다. 대출 심사를 통과하면 신용등급과 관계없이 누구나 연 3.42%의 동일한 금리를 적용받는다. 대출 한도는 3000만원이며, 대출 기간도 5년으로 통상 1~3년인 시중은행보다 길다. 중도상환수수료도 무료다. 케이뱅크는 사장님 대출 출시를 기념한 프로모션도 실시한다. 6월 30일까지 대출을 받은 고객은 따로 신청하지 않아도 한 달치 이자를 돌려준다. KT의 소상공인을 위한 간편 매출 관리 애플리케이션인 'KT세모가게' 1년 무료 사용 혜택도 받을 수 있다.앞서 토스뱅크는 무보증·무담보 개인사업자 대출인 '토스뱅크 사장님 대출'과 마이너스 통장인 '토스뱅크 사장님 마이너스 통장'을 출시하며 소비자에게 호응을 얻고 있다. 이날 기준 토스뱅크 사장님 대출 금리는 연 3.79~15.00%, 한도는 최대 1억원이다. 노란우산공제에 가입했다면 0.5%포인트 우대를 받아 연 3.29%까지 낮아진다. 시중은행 대비 최저금리는 낮고 한도는 더 높다. 이날 기준 A시중은행 개인사업자 대출 금리는 연 5.286~7.426%, 한도는 최대 2000만원이다. B시중은행 개인사업자 대출 금리는 연 4.23~7.86%, 거래 한도는 5000만원이다. 대출 한도와 금리 측면에서 인터넷전문은행의 조건이 유리하다.토스뱅크 사장님 대출은 지난 2월 출시한 지 석 달 만에 대출 잔액이 3940억원(지난 16일 기준)으로 4000억원에 육박한다. 17일 기준 토스뱅크 '사장님 마이너스 통장' 금리는 연 4.04~12.61%, 한도는 최대 5000만원이다. 이 상품도 출시 4일 만에 대출 약정액이 200억원을 넘었다.카카오뱅크도 오는 4분기 출시를 목표로 개인사업자 대상 대출상품을 만들고 있다. 카카오뱅크는 현재 소상공인들이 개인 자금과 사업 자금을 구분해 관리할 수 있는 직관적인 시스템 등을 마련 중이다. 주택담보대출에서 시중은행보다 낮은 금리를 제시한 만큼 개인사업자 대출에서도 가격 경쟁력을 보일 것으로 예상된다.시중은행에 비해 인터넷전문은행이 보다 좋은 조건으로 대출해줄 수 있는 건 점포와 행원 없이 온라인으로 모든 거래를 진행하면서 판매관리비를 크게 낮출 수 있기 때문이다. 우수한 신용평가모형 덕분이라는 설명도 있다. 한 인터넷전문은행 관계자는 "대출해줄 수 있는 사람을 구분할 수 있고, 못 갚는 사람들 비율도 낮아져 대출 가격을 낮출 수 있다"며 "고객의 금융거래 정보, 매출 규모, 수입의 정기성 등 소상공인에게 특화된 심사 기준을 반영해 고객 맞춤형 한도와 금리를 산정한다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>'혼밥대왕' 주문 전용 앱 출시.."첫 구매 할인 혜택"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006104977?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>© 뉴스1(서울=뉴스1) 임해중 기자 = 배달 프랜차이즈 브랜드 박앤박은 ‘혼밥대왕’의 주문 전용 앱을 출시하고 서비스에 들어간다고 20일 밝혔다. 혼밥대왕은 전국 153개 매장을 돌파한 한식 배달 전문 브랜드다. 혼밥대왕 주문 전용 앱은 신메뉴 출시, 인기 메뉴, 할인 쿠폰 등 고객이 필요한 정보를 제공하고 가까운 배달 매장을 검색해 손쉽게 주문이 가능하도록 만들어졌다. 첫 구매 누구나 3,000원 할인(쿠폰) 혜택이 적용되며 카카오페이, 토스, 휴대폰 등 간편 결제 기능을 지원한다. 회사 관계자는 “최근 혼밥대왕을 찾는 고객 니즈를 반영해 새롭게 선보이게 된 주문 전용 앱을 통해 고정 고객을 위한 혜택을 폭넓게 적용하고 브랜드 가치를 살린 차별화된 기능들을 계속해서 선보일 예정”이라고 말했다. 해당 앱 서비스는 iOS 앱스토어, 안드로이드 구글 플레이스토어에서 다운로드 받아 이용 가능하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[인터뷰] “디지털금융發 빅뱅 온다… M&amp;A에 지식재산권까지 법률자문도 융합형으로 진화”</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000813788?sid=102</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>김동은 법무법인 광장 디지털금융그룹장 인터뷰前 금감원장 등 베테랑 전문가 50여명 포진김동은 법무법인 광장 대표 변호사(디지털금융그룹장)가 조선비즈와 인터뷰를 하고 있다./김지호 기자 “디지털금융산업은 한마디로 지금 ‘빅뱅’의 전조에 와 있습니다.”김동은(사법연수원 23기) 법무법인 광장 대표 변호사(디지털금융그룹장)는 지난 13일 서울 중구 소공동 사무실에서 진행한 조선비즈와의 인터뷰에서 “4차 산업혁명이 진행되고 있음을 매일 실감하고 있다”며 변화상을 설명했다.그는 네이버, 카카오처럼 디지털 전환에 경험을 쌓은 기업들이 금융과 유통을 포함한 산업 생태계 전반에 걸쳐 영향력을 미치는 ‘디지털 네이티브 기업’으로 진화하면서 기업간 인수합병(M&amp;A)이 더욱 가속화할 것이라고 진단했다. 거대 공룡 기업이 탄생하는 반면 나머지는 생존을 걱정하는 이른바 ‘양극화 상황’이 펼쳐지고, 결국 모든 산업을 망라한 역학 관계의 재편을 가져오게 될 것이라는 전망이다.그는 “금융 플랫폼으로 진화한 네이버, 카카오, 토스 등의 성장세가 어마어마하다. 이들의 자산규모를 합치면 기존 전통적인 금융기관의 규모와 비슷한 정도”라며 “이 분야는 한 번 우위를 차지하면 말 그대로 ‘독식’해버린다는 점에서, 양극화는 더욱 심해질 수 밖에 없다”고 지적했다.이를테면 카카오톡 송금 서비스를 이용하는 사람은 다른 플랫폼으로 갈아탈 여지가 낮다. 즉 이용자들의 저항감이 강한 편이다. 이는 승자독식 구조를 가속화하게 된다.로펌업계에선 디지털금융산업을 미래 먹거리로 보고, 우위를 차지하기 위한 경쟁이 치열하다. 핀테크를 시작으로 한 디지털금융산업은 블록체인 기술을 바탕으로 NFT(대체불가능토큰)와 메타버스(가상세계) 영역까지 발전한 상황이다.광장은 이러한 흐름을 간파하고 2015년 업계 최초로 핀테크팀과 블록체인팀을 구성하는 등 선도적으로 대응하면서 노하우를 축적해왔다. 이후 2020년 디지털금융팀으로 확대·개편한 후, 올해 초 ‘디지털금융그룹’으로 거듭났다.디지털금융그룹은 블록체인팀(팀장 윤종수 변호사), NFT팀(공동팀장 이정명·최우영·이한경 변호사), 메타버스팀(공동팀장 김태주·맹정환 변호사) 등 전문팀을 구성해 산업 변화 및 규제당국 동향을 파악하고 다양한 법률 자문 수요에 솔루션을 제공하면서 전문성을 입증하고 있다.김 대표는 “로펌 평가기관이 생긴 이래로 광장은 파이낸싱과 관련해 탑티어(일류)를 놓쳐본 적이 없다”면서 “여기에 전자금융, 기술·미디어·통신(TMT), 지식재산권(IP), M&amp;A 뿐만 아니라 금융감독 및 규제 대응 관련 이슈, 그리고 이에 따른 민·형사 문제와 택스(세금) 등 크로스보더 이슈까지 총체적인 원스톱 서비스를 제공하겠다”고 강조했다.특히 디지털금융산업이 변화 속도가 매우 빠르다는 점에서 ‘규제 컴플라이언스’ 이슈가 더욱 많아질 수밖에 없다. 산업간 융합이 진행되면서 놓칠 수 있는 ‘법률상 공백(갭)’을 신속하게 메꿔야 한다는 점에서 기업들의 니즈가 쏟아지고 있는 상황이다. 이에 발맞춰 법률 자문의 영역도 폭이 넓어졌다.김 대표는 “지금까지 금융당국은 ‘애써’ 가상화폐 등 디지털금융에 대해 ‘아직까지 우리 영역이 아니야’라며 사실상 외면해왔다”며 “하지만 이제는 신사업에 대한 금융기관의 등록 및 인·허가는 물론, 검사와 그에 따른 제재, 그에 따른 영향과 민·형사상 대응까지 법률 대응 영역으로 들어와버렸다”고 했다.법무법인 광장 디지털금융그룹 소속 구성원들이 한 자리에 모여 포즈를 취하고 있다. (왼쪽 아래부터 시계 반대방향으로) 김동은 대표 변호사, 진웅섭 고문, 이정명 변호사, 고환경 변호사, 윤종수 변호사, 최우영 변호사, 강현구 변호사, 이한경 변호사, 맹정환 변호사/사진=김지호 기자        광장은 베테랑 전문가 50여명으로 그룹을 결성해 자문하고 있다. 금융시장 감독 및 규제 관련 전문위원들을 영입해 ‘역대급 고문단’을 구성하면서 차별화에 성공했다.진웅섭 전 금융감독원 원장, 조영제 전 한국금융연수원 원장, 하은수 전 금감원 은행준법검사국장을 중심으로 김상대 전 금감원 분쟁조정 국장, 금감원 IT감독국에서 20년 이상 근무한 김철준 전 농협은행 정보보안부문 부행장이 포진해있다.최근에는 전자금융거래법 전문가로 손꼽히는 김시홍 전 금융결제원 금융테이터융합센터장을 전격 영입하는데 성공했다. 씨티그룹을 거쳐 토스 법무총괄 실장을 지낸 이정명 변호사도 영입(현 NFT팀 팀장)했다.김 대표는 “전자금융거래 관련 규제 전문가, 금융결제 전문가, 기업에서 직접 실무를 담당했던 분들, 그리고 기존의 금융과 IT전문가들까지 포섭한 업계 최고의 조직”이라고 자평했다.광장은 올해 초 판교 사무소를 설치, 빅테크 및 핀테크 기업들과 ‘실시간 소통’하며 맞춤형 법률서비스를 제공하는데 공을 들이고 있다. 김 대표는 판교 센터장을 겸하고 있으며, 상주 인력은 12명이다. TMT, 금융은 물론 IP, 노동, 인사 분야 전문인력도 들어가 있다. 같은 건물에 네이버와 카카오 일부 부서가 입점해있다.김 대표는 “판교 센터는 디지털금융산업을 커버하기 위한 광장의 베이스캠프 같은 곳”이라며 “판교에서는 젊은 변호사들이 옷도 캐주얼하게 입고 발 빠르게 대응하며 실시간으로 결정한다”고 말했다.그는 “앞으로 디지털금융산업 분야에서 고객들이 법률적 자문의 흠결로 인해 피해보는 일이 없도록 완벽한 시스템을 갖추겠다”면서 “신사업의 모든 수요에 대응할 수 있는 실질 있는 자문을 통해 클라이언트들의 자산을 지키겠다”고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.05.25.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[서지명의 메이크머니] 매일 이자받는 맛, 일복리로 저축금 불리는 ‘파킹통장’</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003197383?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>서지명           글로벌 경제의 불확실성이 커지면서 국내외 증시를 둘러싼 변동성이 높아 동학개미, 서학개미 할 것 없이 투자자의 한숨이 늘어가고 있다. 투자자금이 있다 한들 섣불리 물타기나 저가매수에 나서기가 망설여져 갈 곳 잃은 자금이 있다면 ‘파킹통장’을 활용할 필요가 있다.      파킹통장은 수시입출금이 가능한 통장으로 투자자들이 잠시 주차하듯 자금을 둔다는 의미로 ‘파킹(parking)’이라고 불린다. 특별한 조건 없이 6개월이나 1년씩 돈이 묶이지 않고 언제든 뺄 수 있는데도 24일 현재 최대 연 2.2%의 금리를 제공해 단기간 자금을 굴리기에 용이하다.      주로 인터넷은행과 저축은행 등에서 제공하는 금리 혜택이 좋은데 BNK저축은행의 경우 500만원까지 기본금리 연 2%에 마케팅 동의 시 우대금리 0.2%를 줘 연 2.2% 금리로 돈을 맡길 수 있다. 500만원을 1년간 예치해두면 세전 11만원의 이자를 받을 수 있다. 물론 15.4%의 세금을 떼야 한다.      500만원 이상의 목돈이라면 토스뱅크통장이 유리하다. 연 1억원까지 2%의 금리를 제공한다. 1억원을 넣어두면 세전 기준 연 200만원의 이자를 받을 수 있는데 매일 5500원가량 이자를 받는 셈이다. 하루에 요즘따라 부쩍 더 비싸진 커피 한 잔 값 정도는 벌 수 있다는 계산이 나온다.      또 하나 일복리가 가능하다는 점도 알아두자. 토스뱅크 앱에서 매일 이자를 확인한 뒤 이자받기를 누르면 하루 단위로 이자를 받을 수 있다. 예컨대 5000만원을 넣어뒀다면 하루치 이자가 세전 2740원가량 붙게 되는데 다음날에는 5000만2740원에 이자가 더해져 계산된다. 매일 이자받기를 누르지 않으면 월복리로 계산된다. 소액이지만 매일 앱에서 이자 받기를 누르는 소위 ‘손맛’을 보는 재미는 덤이다. 매일 아침 나만의 이자 받기 루틴을 가져보는 것도 좋겠다.        다만 최대한도를 넘어가는 돈에 대해서는 금리가 0.1% 수준으로 뚝 떨어지고 5000만원까지만 예금자보호가 된다는 점은 알아두자.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>아마존도, 네이버도 몸 달았다…‘온라인 외상 시장’ BNPL</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/050/0000060753?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>자체 알고리즘으로 신용 평가해 연체율 낮춰첫걸음 내디딘 한국형 BNPL[비즈니스 포커스]클라르나의 앱 화면. 사진=클라르나 제공#한국. 출산으로 회사를 그만둔 주부 A 씨는 고민이 생겼다. 육아 용품 사는 게 만만치 않아 할부 금융이 가능한 신용카드가 필요하지만 회사 다닐 때 만든 카드의 연회비가 너무 비싸다. 해지하고 다른 카드를 발급받고 싶지만 ‘주부’로서 신용카드를 만들기 어려웠다. 그러다 최근 네이버페이와 쿠팡에서 신용카드 없이도 후불 결제가 가능한 서비스가 있다는 것을 알았다.#해외. 아디다스·갭(GAP)·세포라·H&amp;M 등 글로벌 유명 브랜드 온라인 쇼핑몰과 메이시스(미국 최대 백화점), 월마트 등 오프라인 매장에 새로운 문구가 눈에 띄기 시작했다. ‘지금 사고 나중에 결제하라(Buy now, Pay over time).’ 세계 최대 전자 상거래 업체 아마존에서도 물건을 구매하고 결제하기 버튼을 누르면 ‘나중에 지불하라(Pay over time)’는 문구가 보인다. 아마존은 어펌(Affirm)을 도입했다. 이 소식에 미국 나스닥에선 어펌의 주가가 한때 40% 가까이 폭등했다. 손정의 소프트뱅크 회장의 비전펀드2 등은 스웨덴 핀테크 업체 클라르나에 7000억원대 투자를 단행했다. 잭 도시 트위터 창업자가 이끄는 미국 핀테크 업체 스퀘어는 호주의 스타트업 애프터페이를 290억 달러(약 34조원)에 인수했다. 호주 인수·합병(M&amp;A) 역사상 최대 규모 거래다. 아마존·손정의펀드·스퀘어가 손잡거나 투자·인수한 기업의 공통 키워드는 ‘외상(후불 결제)’이다. 어펌‧클라르나‧애프터페이는 해외에서 가장 잘나가는 후불 결제(BNPL : Buy Now, Pay Later) 기업이다. BNPL은 ‘지금 사고 돈은 나중에 내라’는 의미로, 일단 소비자가 물건을 받은 뒤 향후 몇 달 동안 비용을 나눠 갚는 방식이다. 한국도 네이버·카카오·토스·쿠팡 등이 BNPL 시장에 출사표를 던졌다. KB은행과 신한은행 등 금융권에서도 눈독을 들이고 있다.뱅크오브아메리카는 BNPL 시장이 2025년까지 1조 달러(약 1152조원) 규모로 커질 것이라고 내다봤다.  BNPL이 뭐야해외에서 붐을 일으킨 BNPL…. 그런데 ‘할부 결제’, ‘후불 결제’ 하면 가장 먼저 떠오르는 단어는 ‘신용카드’다. BNPL은 신용카드와 무엇이 다를까.우선 소비자는 신용카드를 만들기 위해선 말 그대로 개인의 신용을 증명할 수 있는 정보를 입력해야 한다. 직장이나 사는 곳, 계좌 등이다. 또 카드사들은 그동안의 결제 데이터를 분석해 카드를 발급해 주고 한도를 정해 준다. 금융 이력이 없는 주부나 학생, 사회 초년생 등이 신용카드를 만들기 어려운 이유다. 반면 BNPL은 서비스 가입 과정에서 신용카드와 달리 개인 신용도 확인 절차를 거치지 않는다. 일정 연령 이상이면 ‘누구나’ 가입해 서비스를 이용할 수 있다. 업체마다 약간의 차이는 있지만 대부분 할부 수수료도 없다. 손쉽게 BNPL 서비스에 가입한 소비자는 쇼핑몰에서 물건을 구매하고 일정 기간 나눠서 갚는다. 한국보다 신용카드 발급이 더 까다롭고 할부 결제 서비스가 없는 해외에서 BNPL이 소비자에게 환영 받고 있는 이유다.코로나19 팬데믹(감염병의 세계적 유행)은 BNPL 시장 성장에 불을 댕겼다. 사회적 거리 두기로 온라인 쇼핑 시장이 커지며 덩달아 BNPL 시장도 확대됐다. 온라인 쇼핑에 익숙하지만 지갑이 얇은 젊은층이 체크카드 전액 결제 대신 무이자 할부 서비스가 가능한 BNPL를 이용하는 사례가 늘었다. 글로벌 시장 조사 업체 스태티스타에 따르면 미국 내 BNPL 서비스를 한 번이라도 이용한 사용자 비율(2020년 7월 대비 2021년 3월)은 18~24세가 38%에서 61%로 훌쩍 뛰었다. 25~34세도 47%→60%로, 35~44세는 50%→61%로 증가했다. 기업의 비즈니스 구조는 간단하다. BNPL은 밴(VAN)사나 신용 정보 회사 등 중간 단계가 없다. 소비자, BNPL 업체, 판매자만 있을 뿐이다. 소비자가 물건을 구매하면 BNPL 업체가 소비자 대신 판매자에게 일시불로 물건 값을 지불한다. 소비자는 BNPL 업체에 할부 기간 동안 매달 비용을 지불하면 된다.중개 역할을 한 BNPL 업체는 가맹점에서 높은 수수료를 받아 수익을 챙긴다. 신용카드 가맹점 수수료가 대개 2~4%라면 BNPL 업체들은 가맹점 수수료를 5~6%까지 받는다. 또 소비자에겐 연체율을 받는다. 이를 바탕으로 충당금을 쌓아 부실 리스크에 대비한다.그래픽=배자영 기자  판매자들은 왜 도입할까그런데 이런 의문이 든다. 누구나 쉽게 이용할 수 있다는데 연체율이 높지 않을까. BNPL이 빠르게 성장한 미국에선 금융 당국과 언론 등이 예의 주시하고 있다. 야후파이낸스는 “미국 BNPL 이용자의 34%는 최소 1건 이상의 결제를 연체했고 72%는 신용 등급이 떨어졌다”며 금융회사 크레디트 카르마의 조사를 인용했다. 미국 소비자금융보호국(CFPB)은 ‘과소비’와 ‘연체율 급증’ 등을 지적하며 어펌‧애프터페이‧클라르나 등 주요 BNPL 업체들에 대한 조사에 착수하기도 했다. 다만 BNPL 업체들은 자체 알고리즘과 내부 신용 평가 모델 등을 활용해 채무 불이행 비율을 낮출 수 있다고 주장한다. 한국에서도 연체율에 대한 지적이 나왔다. 지난해 가장 먼저 BNPL 서비스를 선보인 곳은 네이버파이낸셜이다. 국민의힘 윤창현 의원실이 금융감독원에서 받은 자료에 따르면 네이버페이 후불 결제 고객의 지난 3월 연체율(1개월 이상)은 1.26%로 파악됐다. 지난해 말 신용카드 연체율 0.54%의 두 배가 넘는다. 네이버페이 후불 결제 서비스의 총채권액은 75억9900만원으로, 그중 9600만원이 30일 이상 연체된 것으로 나타났다.이에 대해 네이버파이낸셜 측은 “수백만, 수천만원인 카드사의 월 결제 한도와 최대 30만원인 네이버페이 후불 결제를 동일 기준으로 비교할 수 없다”고 반박했다. 적은 금액이 밀려도 연체율이 높게 나타난다는 설명이다.둘째 의문은 수수료율이다. 수수료율이 높은데 판매자는 왜 BNPL 서비스를 도입할까. 한 가지 사례. 미국 온라인 결제 업체 페이팔은 2020년 말 ‘페이 인 4(Pay in 4)’라는 BNPL 서비스를 도입했다. 페이 인 4 서비스 사용량은 지난해 블랙 프라이데이(미국 최대 규모 쇼핑 행사) 기간 전년 대비 400% 증가했다. 디자이너 브랜드나 노트북 등 값비싼 제품들을 바로 구입할 수 있는 방법을 찾는 젊은층이 늘어난 영향이다. 미국 매체 페이먼트닷컴에 따르면 온라인 쇼핑객의 54%는 BNPL 옵션이 있다면 다른 국가에서 물건을 살 의향이 있는 것으로 나타났다. 소비자 사용량이 많은 결제 시스템을 판매자들은 도입하지 않을 수 없는 상황인 것이다.클라르나는 유럽의 최대 BNPL사로 17개국에 진출했고 가맹점 25만 개를 보유하고 있다. 미국 내 2000만 명을 포함해 전 세계 사용자는 9000만 명이다. 호주를 중심으로 성장 중인 애프터페이는 1000만 명이 사용한다. 호주 전체 인구의 38%다. 시장이 커지자 대기업들도 BNPL 시장에 출사표를 던진다. 신용카드 회사 아메리칸익스프레스는 100달러 이상 구매 시 최대 24개월간 무이자로 분할 납부할 수 있는 ‘플랜 잇(Plan it)’ 서비스를 내놓았다. 예컨대 아메리칸익스프레스 카드로 델타항공에서 100달러 이상 결제하는 사람들에게 BNPL 서비스를 제공한다. 글로벌 정보기술(IT) 공룡 애플도 ‘애플 페이 레이터’라는 이름으로 BNPL 서비스를 준비 중이다. 아이폰 등 애플 기기에 설치된 애플페이로 물건을 살 때 BNPL을 사용할 수 있도록 선택 옵션을 제공한다는 얘기다.애프터페이와 아마존 홈페이지  BNPL 서비스 설명 화면 캡처.  한국 시장은 ‘다르다’한국의 BNPL 시장은 해외와 조금 다르다. 한국은 신용카드 문화가 잘 정착돼 있다. 해외 BNPL 업체들이 내세우는 ‘무이자 할부’는 우리에겐 친숙한 문구다. 또 현행법상 후불 결제는 신용카드사 외에는 불가능하다. 그동안 이미 후불 결제 시장을 꽉 잡고 있는 신용카드사가 구태여 금융 이력이 없는 소비자를 공략하기 위해 BNPL 서비스를 출시할 이유는 없었다.하지만 지난해부터 분위기가 달라졌다. 금융 당국이 규제 샌드박스를 통해 빅테크가 ‘제한적인’ 소액 후불 결제 서비스가 가능하도록 길을 열어 줬다. 네이버파이낸셜·카카오페이·토스 등을 중심으로 BNPL 서비스가 ‘시범적’으로 출시됐다. 제한적인 만큼 해외 BNPL 서비스와 다른 점이 있다. 분할 납부가 안 되고 온라인 결제에만 한정돼 있다. 최대 한도는 30만원이다. 또 판매자에게 높은 수수료를 부과해 수익을 내는 해외와 달리 네이버와 토스는 수수료가 비싸지 않다. 신용·체크카드 등 다른 결제 방식의 수수료와 동일하다. 한국 기업들이 당장 수익성을 쫓기보다 편리한 서비스를 제공해 플랫폼 이용자(판매자·소비자)들이 계속 머무르게 하기 위한 플랫폼 잠금(lock-in) 효과를 노리고 있기 때문이다. 네이버의 수수료는 1.8%(연매출 3억원 이하)~3.3%(연매출 30억원 이상)다. 토스는 구체적인 수치는 밝히지 않았지만 “토스페이 수수료 체제를 따른다”고 말했다. 또 다른 점은 한국의 BNPL은 타깃층이 명확하다는 것이다. 해외도 젊은층을 중심으로 퍼져 나간 것은 분명하지만 4050 직장인들까지 범위가 확대되고 있다. 반면 한국에선 신용카드 혜택이 많아 직장인의 마음을 홀리기가 쉽지 않다. 결국 긱 워커(조직과 정해진 출퇴근 시간 없이 수입을 올리는 노동자)·주부·대학생 등이 고객이 되는 셈이다. 짚고 갈 점은 최근 이들을 타깃한 새로운 신용 평가의 필요성이 높아졌다는 것이다. 신파일러(thin filer : 금융 이력 부족자)는 1300만 명 정도인데, 이는 신용 등급을 매길 수 있는 국민 중 4분의 1 정도 되는 규모다. 최근 카드사를 중심으로 금융권이 BNPL 서비스에 관심을 보이며 핀테크 업체가 의기투합하는 배경이다. 신한금융에선 은행과 카드가 탐색전을 펼치고 있다. 신한카드는 한국 1호 대안 신용 평가 기업 크레파스솔루션과 함께 개발한 대안 신용 평가 모형을 금융사와 후불 결제사에 제공할 것으로 보인다. 신한은행은 NHN페이코와 BNPL 서비스를 개발한다. KB금융에선 KB국민카드가 앞장섰다. KB국민카드는 올해 하반기 BNPL 서비스를 출시한다. KB국민카드 사내벤처팀 하프하프는 통합 결제 서비스 기업 다날과 손잡았다. 이들은 비금융 정보 기반의 대안 신용 평가 시스템을 공동으로 구축한 후 금융 이력이 부족한 젊은층을 겨냥해 BNPL 결제 플랫폼을 선보인다는 복안이다. 서지용 상명대 경영학부 교수는 “가맹점 수수료율 인하, 카드론에 대한 차주별 총부채 원리금 상환 비율(DSR) 적용, 기준금리 인상에 따른 조달비용 상승 등 카드사의 영업 환경이 좋지 않다”며 “그간 리스크 관리 능력과 신용 평가 모형 고도화에 노력을 기울인 카드사로선 새로운 수익원으로 BNPL 서비스에 관심을 가질 만하다”고 분석했다. 이어 “후불 결제는 안정적인 상환을 위해 주로 급여 소득자를 대상으로 하는 서비스였는데 BNPL이 이 같은 전통적인 이론을 깼다”며 “데이터 분석 능력, 신용 평가 모델, 플랫폼 경쟁력, 위험 관리 노하우 등 4가지가 경쟁력”이라고 덧붙였다. 그래픽=송영 기자 돋보기한국형 BNPL은 쿠팡이 1등? 쿠팡은 네이버와 카카오보다 앞서 후불 결제 시험 서비스를 운영 중이다. 2020년 후불 결제 서비스 ‘나중 결제’를 도입했고 2021년 한도를 월 30만원에서 50만원 이상으로 늘리며 소비자들을 끌어들이고 있다. 소비자들의 연체 상황 등에 따라 한도를 늘리거나 축소해 소비자가 연체하지 않도록 유도하는 것이 특징이다. 다만 쿠팡은 금융 당국의 규제 샌드박스와는 무관하다. 쿠팡이 직매입해 판매하는 로켓 배송 상품을 주문할 때만 나중 결제 서비스를 제공하기 때문이다. 판매자가 쿠팡인 만큼 후불 결제에 해당하지 않는 셈이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>개방된 청와대 자세히 들여다 보기①-천년 자취</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001992454?sid=103</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>청와대는 이제 국민 놀이터가 됐다.경복궁 후원(지금의 청와대 자리) 침류각은 왕이 머무르는 곳이라고는 하지만 머물렀다는 흔적은 거의 없다. 누란의 위기 속에서 왕이 도처에 건재함을 보여주기 위한 건물로도 추정된다.[헤럴드경제=함영훈 기자] 서울관광재단(대표이사 길기연)은 지난 5월 10일 국민에게 74년 만에 개방된 청와대의 건물들과 그 안에 얽힌 이야기들을 18일 자세히 공개했다. ▶헤럴드경제 5월10일자 ‘청와대 안팎 명소·문화재..촛대바위,성혈,王사냥쉼터’ 참조 청와대는 곳곳에 한국적인 미가 녹아있으면서도 현대적이고 세련된 멋이 조화를 이루고 있어 건축과 자연풍경을 전시한 박람회장에 온 것 같은 느낌을 준다.청와대 숲길외국의 유명 궁전이나 공원이 부럽지 않을 정도로 아름다워 가볍게 방문해도 충분히 좋지만, 알고 가면 더 재밌고 흥미로운 곳이 청와대다. 900년을 훌쩍 넘는 청와대의 역사와 현재를 들여다 보자.청와대가 자리한 북악산 남쪽의 역사는 고려 시대로 거슬러 올라간다. 1104년 고려 숙종 때는 북악산 아래 별궁을 짓고 남경으로 삼았다. 고려 남경의 별궁이 있었던 자리가 지금의 청와대 인근이라는 것을 추정할 수 있다.관저 사랑채이후 조선이 건국된 뒤 청와대 자리에 경복궁 후원이 조성됐으며, 이후 임진왜란 때 경복궁이 폐허가 되면서 방치되어 있다가 조선 말 고종 때에 이르러 흥선대원군에 의해 재건되며 경무대라는 이름의 후원을 만들었다.일제강점기 때는 그 자리에 조선 총독의 관사를 지었다. 총독관사는 해방 후 대한민국 정부가 수립되면서 역대 대통령들의 집무실 및 관저로 이용되다가 1991년 지금의 본관 건물을 새로 지어 집무실을 옮기게 됐다.오운정과 미남불 사이에 숲길에 시야가 탁 트인 포인트가 나온다이처럼 1104년 고려부터 시작해서 조선, 일제강점기 그리고 지금까지 청와대는 일반인들에게 공개되지 않은 권력자의 땅이었다. 그랬던 청와대가 이제 시민의 공간으로 변화하고 있다. 평일에도 줄서서 방문할 정도로 서울의 새로운 핫플이 된 청와대 시설물과 그 공간의 숨은 이야기를 만나보자.▶청와대 찾아가기 Tip- 도보: 청와대 사랑채를 검색하고 찾아가면 청와대 영빈관 입구에 도착할 수 있다. 청와대를 바라보고 오른쪽으로 좀 더 가면 본관으로 바로 이어지는 입구로 입장이 가능하다.춘추관 방면에서 올라가는 북악산 등산로- 대중교통: 3호선 경복궁역 4번 출구에서 도보 이동(15분) 하거나 1호선 시청역 또는 5호선 광화문역에서 1711번 버스이나 7016번 버스를 타고 효자동 정류장에서 하차 후 도보 이동(5분)- 예약방법: ‘청와대, 국민 품으로’ 홈페이지(opencheongwadae)를 통해 네이버, 카카오톡, 토스에서 신청을 할 수 있다. 개인은 최대 4명까지, 단체는 30명에서 50명까지 신청이 가능하다. 7시부터 19시까지 2시간 간격으로 예약 신청이 가능하며, 현재 6월 11일까지 공개가 예정되어 있고, 차후에는 재정비를 통해 다시 개방할 예정이다. 〈계속〉[도움: 서울관광재단]</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>빅테크 간편결제 수수료 '6개월'마다 공시한다</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004748233?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>금감원 사옥/사진제공=금융감독원금융당국이 빅테크 간편결제 수수료를 구성항목별로 관리하고, 반기별로 공시한다는 가이드라인을 세웠다. 업계와 충분한 논의를 거쳐 연내 최종 공시방안을 확정할 예정이다. 금융감독원은 19일 오후 서울 금감원 대회의실에서 빅테크 등의 결제수수료 공시를 위한 TF(태스크포스)를 구성하고, 첫 번째 회의를 열었다고 밝혔다. 회의에는 핀테크산업협회, 한국인터넷기업협회를 비롯해 네이버파이낸셜, 카카오페이, 비바리퍼블리카(토스) 등 12개 업체 책임자가 참석했다.이날 회의에선 수수료 공시 가이드라인에 대한 논의가 진행됐다. 가이드라인에는 △수수료 산정 원칙 △수수료 구분 관리 △수수료율 공시 등으로 구성됐다. 수수료를 합리적인 근거에 따라 산출하고, 가맹점 수수료를 결제 수수료와 기타 수수료로 구분해 수취·관리하는 방안이 논의됐다. 이와 함께 공시서식에 따라 작성한 수수료율을 업체 홈페이지에 반기 단위로 공시하는 방안이 가이드라인에 포함됐다. 폭넓은 의견 청취를 위해 빅테크 외에도 결제대행업자, 선불업자, 종합쇼핑몰 업체도 TF에 포함됐다. 연내에 최종 공시 방안을 결정할 계획이다.  그간 시장에서는 빅테크 등 전자금융업자의 간편결제 수수료가 카드사보다 높아 소상공인에게 부담이 된다는 지적이 있었다. 윤석열 정부도 빅테크의 간편결제수수료가 투명하고 합리적으로 부과될 수 있도록 공시시스템을 구축하겠다는 목표를 제시했다.  빅테크 등에서는 서비스 제공범위에서 차이가 있어 카드 수수료와 간편결제 수수료를 단순비교하기는 힘들다는 설명이다. 온라인 간편결제 수수료에는 신용카드가맹점 수수료, 계좌이체 수수료(선불충전금 결제) 외에도 결제대행(PG) 수수료와 선불결제 수수료가 따로 붙는다. 또 온라인쇼핑몰 구축 등을 위한 호스팅 수수료, 오픈마켓 입점수수료 등이 발생한다. 호스팅 수수료는 온라인 쇼핑몰 구축·관리 등의 명목으로 전자금융업자나 제3의 호스팅사가 수취하고, 입점수수료는 종합쇼핑몰(오픈마켓) 등을 운영하면서 가맹점 입점 또는 프로모션 명목 등으로 부과된다. 이에 금융당국은 결제관련 수수료와 일반 상거래 관련 수수료로 구분해 공시하는 방안 등을 업계와 논의할 계획이다. 간편결제 수수료의 투명성을 높이기 위해 수수료를 구성항목별로 체계적으로 구분·관리하도록 유도할 예정이다. 금감원 관계자는 "참석자들이 가이드라인 제정 취지에 공감하고 다양한 의견을 교환했다"며 "첫 회의에서 제기된 의견을 중심으로 보완방안 마련 등을 위한 추가 실무회의를 수시로 진행할 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>토스뱅크, 사외이사에 정완규 전 증권금융 사장 선임</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005227186?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>FIU 원장 지낸 글로벌 금융 전문가"인터넷銀 사회적 역할·책임 강화"[이데일리 서대웅 기자] 토스뱅크가 정완규 전 한국증권금융 사장을 사외이사로 선임했다.정완규 신임 토스뱅크 사외이사.(사진=토스뱅크)토스뱅크 지난 26일 임시 주주총회를 열고 이같이 결정했다고 27일 공시했다.정 신임 이사는 금융위원회 산하 금융정보분석원(FIU) 원장, 한국증권금융 사장 등을 지냈으며 글로벌 금융 전문가로 꼽힌다.토스뱅크는 정 이사가 한국증권금융 사장으로 재임할 당시 내세웠던 ‘스마트 증권금융’ 등의 가치가 토스뱅크의 혁신 정신과 부합한다고 판단했다고 밝혔다.토스뱅크 관계자는 “토스뱅크가 지향하는 포용과 혁신 금융에 필요한 전문가를 모셨다”며 “많은 조언과 지원을 바탕으로 성장하고자 한다”고 했다.토스뱅크는 정 이사의 합류로 불확실한 글로벌 시장에 대한 예측 가능성을 높이고 경영 투명성, 인터넷전문은행으로서의 사회적 역할과 책임 등을 강화하겠다는 계획이다.정 이사는 “글로벌 경제에 대한 전문성을 바탕으로 토스뱅크의 안정적인 성장과 사업에 대한 시야를 확장하고자 한다”며 “역량 있는 사외이사로서 토스뱅크의 도약에 실질적으로 기여하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>'실리콘밸리行 지원사격'…타입드, 스타트업 위한 웨비나 개최</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004838187?sid=105</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>카카오벤처스 정신아 대표 참석 예정'글로벌 비즈니스 전략' 주제  [파이낸셜뉴스] 문서협업 솔루션 '타입드(Typed)'를 개발 중인 비즈니스캔버스가 국내외 스타트업의 해외 진출 및 성장을 돕기 위한 웨비나(온라인 세미나)를 진행한다.   비즈니스캔버스는 스타트업을 대상으로 'Essential^2: 니가 가라 실리콘밸리' 웨비나를 오는 19일 개최한다고 18일 밝혔다. 웨비나 주제는 '글로벌 비즈니스 전략'으로, 2부에 걸쳐 진행된다.    비즈니스캔버스는 스타트업을 대상으로 'Essential^2: 니가 가라 실리콘밸리' 웨비나를 오는 19일 개최한다고 18일 밝혔다. 웨비나 포스터. 비즈니스캔버스 제공.이번 웨비나에서는 △글로벌 탑 액셀러레이터 선정 비결 △한국 스타트업으로서의 미국 현지 네트워킹 노하우 △구글 등 글로벌 IT 기업과 스타트업의 시너지 전략 등의 내용이 포함된다. 비즈니스캔버스와 파트너십을 주도한 구글코리아 김경태 담당, 비즈니스캔버스의 투자사 카카오벤처스의 정신아 대표가 초청 연사로 참여한다.   앞서, 지난달 비즈니스캔버스가 주최한 '스타트업의 Go-to-market(시장진출)' 웨비나에는 전 튜터링 공동창업자인 소풍벤처스 최경희 파트너와 전 토스 공동창업자 블루포인트파트너스 이태양 수석심사역을 비롯해 스타트업 대표, 투자사 임직원 등 총 500여명이 참석한 바 있다.   이번 타입드의 웨비나를 기획한 한국 마케팅 김여경 총괄은 "앞으로도 여러 시행착오를 겪으며 성장하는 스타트업 간의 지식나눔을 통한 시너지 창출에 기여하는 것이 목표다"고 전했다. #협업툴 #타입드 #비즈니스캔버스</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>"기업=꼰대 이미지 벗자" 최태원의 승부수</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000008139?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>ERT 결성해 '신기업가정신' 이끌어기업판 '아이스 버킷 챌린지'로 실천"꼰대에는 여러 가지 유형이 있지만 공통점이 있다. 남 얘기를 듣지 않고 변하지도 않는다. 네가 변하라 하지, 내가 변하지 않는다. 지금 우리 상황도 그렇다. 국민들은 지금 기업들에게 변하라고 하는데 기업은 '라떼(나 때)'만 얘기한다. 결국 꼰대로 낙인찍힌다.…우리는 이제 변해야 한다. 하지만 어떻게 변해야 하느냐는 어렵다. 혼자 고민할 수 있는 문제가 아니다. 신기업가정신을 실천하면 기업과 기업인들에 대한 이미지가 꼰대에서 벗어나 긍정적으로 바뀔 수 있다."24일 오전 서울 중구 대한상공회의소에서 열린 '신기업가정신 선포식'에서 최태원 대한상의 회장이 'ERT(신기업가정신 협의회) 언팩' 강연을 하고 있다. /사진=백유진 기자 byj@24일 '신기업가정신 선포식'에서 강단에 오른 최태원 대한상공회의소 회장이 한 말이다. 이날 최 회장은 우리 사회에 뿌리 깊게 자리한 반(反)기업 정서를 해소하기 위해선 기업들이 새로운(新) 정신을 바탕으로 사회 문제 해결에 적극 나서야 한다고 촉구했다.최 회장은 "우리가 만들어야 하는 신기업가 정신은 사회 요구에 부응해 기업이 변하고 새로운 문제나 기회를 새로운 방법, 혁신으로 풀어가는 것"이라고 정의했다. 그러면서 "기후변화, 사회 양극화 등 모든 사회문제를 정부가 맡아 해결할 수 없기에 기업들이 동참하겠다는 자세를 갖고 실천하는 것이 중요하다"고 강조했다.대한상의는 '신기업가 정신' 확립을 위해 지난 1년간 국민이 바라는 새로운 기업의 모습에 대해 연구, 고민해왔다.대한상의 측은 "과거 이윤을 창출해 일자리를 늘리고 세금을 많이 내는데에서, 이제는 사회문제를 다양한 기술과 문화로 넘어보자는 것이 신기업가 정신의 핵심"이라고 요약했다.대한상의가 최근 국민과 기업인 706명을 대상으로 '국민이 원하는 기업의 실천 과제'에 대해 설문 조사한 결과 워라벨(일과 삶의 균형) 실천·즐거운 일터·임직원 성장 등과 관련된 '기업문화 향상'(29.6%)이 '경제적 성장'(11.2%)을 크게 앞섰다. 다음으로는 △환경문제 해결 25.6% △윤리경영이 18.3% △지역사회 상생(15.3%) 등이 뒤를 이었다. 기업의 역할이 과거에 비해 늘었다는 국민적 공감대가 형성됐다는 의미다.이날 손경식 경제인총연합회 회장은 "기업의 역할이 더 중요해지는 시기인 만큼 큰 비용을 들이고 위험을 감수하더라도 기업가 정신을 발휘해야 할 때"라며 "이런 시점에 기업가 정신의 목적과 역할을 이윤 창출에서 사회가치 정립으로 확대하는 신기업가 정신을 개정하는 것은 시기적절한 일"이라고 평가했다.새로운 문제에는 새 해결책을 이날 선포식에서는 경제계 CEO(최고경영책임자) 40여명이 참석해 '대한민국이 직면하고 있는 새로운 문제들을 기업의 기술과 문화, 아이디어 등을 통해 전혀 새로운 해법으로 풀어내겠다'는 데 뜻을 모았다.축사를 맡은 정의선 현대차그룹 회장은 "기업의 역할 확장에 대한 시대적 요구가 커지고 있는 상황에서, 기업의 역할을 사회 가치 증진까지 확장하는 신기업가 정신은 기업이 해야 할 일이 어디까지고, 기업의 목적은 무엇인지에 대한 답이 될 수 있다"고 말했다.이어 "현대차그룹은 '지속 가능한 미래를 위한 올바른 움직임'이라는 사회 책임 경영 메시지에 기반해 전동화 차량 주기 및 수소 모빌리티 확대, 주요 계열사 RE100(필요한 전기를 100% 재생에너지로 조달) 참여뿐만 아니라 향후에는 자동차 제조 사용 폐기 등 전 과정에서 탄소 중립을 달성하겠다"며 "미래 모빌리티 산업으로의 전환기를 맞은 자동차 산업 생태계를 강화하고 청년 및 사회적 일자리 창출에도 기여하겠다"고 언급했다.24일 열린 신기업가정신 선포식에서 정의선 현대차그룹 회장이 축사를 하고 있다. /사진=백유진 기자 byj@이인용 삼성전자 사장도 "나무가 좋은 열매를 맺기 위해서는 토양이 좋아야 하는 것처럼, 기업이 발전하기 위해서는 기업에 대한 이해라는 토양이 좋아야 한다"며 "그런 의미에서 신기업가 정신이 뜻깊고, 삼성전자도 신기업가 정신을 앞장서서 잘 실천하도록 하겠다"고 말했다."사회적 가치도 측정해 알리자" 대한상의는 기업인들의 참석 범위를 보다 확대하기 위해 'ERT(Entrepreneurship Round Table, 신기업가정신 협의회)'라는 별도의 실천 기구를 구성했다. ERT는 기업선언문 서명을 통해 전체 경제계의 신기업가정신을 유도한다는 구상이다. 선포식에 앞서 삼성전자·현대차 등 대기업과 배민·토스 등 벤처기업, 미래에셋증권·기업은행 등 금융권, 경총·무역협회·중견기업연합회 등 경제단체까지 총 76명의 기업인이 서명한 바 있다.선언문에는 △경제적 가치 제고 △윤리적 가치 제고 △기업문화 향상 △친환경 경영 △지역사회와 상생 등 5대 실천 과제가 담겨있다. /사진=대한상의 제공앞으로 ERT는 참여 기업들의 활동이 일회성이 되지 않도록 관리할 계획이다. 이를 위해 최 회장이 제시한 방법은 '측정'이다. 최 회장은 "기업들은 돈 버는 것을 열심히 측정하지만 사회적 가치를 만드는 일을 측정하지 않는다"며 "누가 더 잘했다고 평가하겠다는 게 아니라 기업이 얼마나 변하고 있는지, 기업이 어떤 일을 만들어 냈는지 국민에게 알릴 필요가 있다"고 설명했다.정확한 지표를 통해 기업이 이뤄낸 사회적 가치를 측정하고 이를 전달해야 국민 인식 개선에 한 발 더 가까이 다가갈 수 있다는 것이 최 회장의 생각이다. 측정을 통해 기업의 역할이 부족하다는 지적은 겸허히 받아들이고, '보여주기'라는 오해가 있다면 제대로 알리겠다는 것이다.최 회장은 "지난 1년간 국민들과 소통하면서 가장 크게 와닿던 문제점은 국민과 기업과의 인식이 너무 크다는 것이었다"며 "기업들은 '그래도 잘하고 있다, 우리는 이렇게 할 수밖에 없다'고 얘기하지만 국민들은 그렇게 생각하지 않았다"고 말했다.이어 "이 격차를 줄이기 위해 실제 국민이 뭘 원하는지를 파악해, 기업들이 실천할 수 있는 시스템을 앞으로 계속 개선하도록 하겠다"고 부연했다.24일 열린 신기업가정신 선포식에는 40여명의 CEO들이 참석했다./사진=대한상의 제공韓기업판 '아이스 버킷 챌린지' 가동ERT는 대한민국 경제계가 함께 참여하는 '공동챌린지'와 개별 기업이 기존에 실천 과제를 발전·확산해 나가는 '개별 챌린지' 2가지 방식으로 기업들의 신기업가 정신 실천을 이끌 계획이다.최 회장은 공동챌린지를 '기업판 아이스 버킷 챌린지'라고 소개했다. ERT 관련 활동은 저작권 상관없이 무료이기 때문에 경제계 전반에서 공동으로 캠페인을 진행할 수 있다는 것이다. 대표적으로 △임직원이 모두 눈치 보지 않고 정시 퇴근하는 '눈치가 없네' △조깅하며 쓰레기를 줍는 줍줍 챌린지' △다회용 용기로 포장 시 할인해 주는 '용기내 챌린지' 등을 예시로 들었다.대한상의는 공동챌린지 과제가 사회적인 파급력이 클 것으로 기대되는 만큼, 소통플랫폼 등을 통해 국민의 의견을 계속 듣고 변화하는 환경에 맞춰 새롭게 등장하는 사회적 수요들을 반영해 선정할 계획이다.우태희 대한상의 상근부회장은 "신기업가정신 선포가 일회성 선언에 그치는 것이 아니라 기업의 기술과 문화로 각종 사회적 문제를 해결하고 지역사회와 상생할 수 있도록 구체적 실천 과제를 계속 진행할 계획"이라며 "국민들께서도 응원해 주시고 어떤 성과를 거두어낼지 관심 있게 지켜봐 달라"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.05.27.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>[청와대 가보니] 푸른 기와집 아래 왕가행렬·줄타기…볼거리 가득</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004969824?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>74년 만에 개방된 청와대 직접 가봤습니다정문 들어서자 영빈관귀빈 만찬행사 열던 곳대통령 부부 생활한 관저깊숙하고 높은 곳에 위치관저 뒤 산책로 오르면오운정·미남불 문화유산"죽기 전에 와볼 줄이야"70대 노부부 벅찬 감격춘추관 앞 헬기장에서 펼쳐진 줄타기 공연 지난 10일 청와대가 74년 만에 개방되어 국민의 품으로 돌아왔습니다. 대한민국 권력의 중심이자 비밀스러운 공간으로 상징됐던 청와대가 숨겨왔던 아름다움을 드러내자 온 국민의 쉼터가 되고 있습니다. 가족, 연인, 친구들과의 나들이 공간이자 외국인들에겐 또 다른 관광코스가 될 전망입니다. 청와대 구경을 하려면 카카오톡, 토스, 네이버에서 특정 날짜에 방문 신청을 해야 하고, 일부 운 좋은 사람들이 추첨을 통해 입장을 허가받습니다. 지난 22일까지로 예정됐던 청와대 개방은 다음달 11일까지로 연장됐습니다. 대통령실은 그 이후부터는 신청 없이 상시 개방을 고려 중입니다.본지 기자들도 방문 당첨의 행운을 얻어 지난 20일 청와대를 다녀왔습니다. 일단 지하철 3호선 경복궁역에 내리면 거기에서부터 청와대로 가려는 사람들로 가득합니다. 청와대로 향하는 길목마다 '청와대 가는 길' 안내 표시를 쉽게 발견할 수 있습니다. 경복궁역 4번 출구에는 청와대 정문까지 가는 셔틀버스도 있습니다. 셔틀버스는 장애인, 만 65세 이상 고령자, 임산부, 만 8세 이하 아동 및 동반자 등 교통 약자들만 탈 수 있습니다. 영빈관 일반인은 경복궁역 4번 출구로 나와 청와대 정문까지 걸어가야 하는데 도보로 15분가량 걸립니다. 스마트폰으로 교부받은 바코드를 찍고 청와대 정문으로 들어가면 가장 먼저 펼쳐지는 곳이 영빈관입니다. 영빈관은 외국 대통령 등 귀빈이 방문했을 때 공식 만찬행사나 대규모 회의장으로 사용됐습니다. 어쩌면 청와대의 첫 인상과도 같은 곳입니다. 영빈관 앞에서 만난 70대 노부부는 상기된 표정을 감추지 못했습니다. 그들은 "죽기 전에 청와대 들어와 보는 날이 있을 줄 몰랐다"며 벅찬 감정을 표현했습니다.영빈관을 뒤로하고 앞으로 걷다 보면 푸른 기와 지붕을 가진 본관이 나옵니다. 본관은 역대 대통령들이 업무를 봤던 집무실이자 외빈 접견을 위한 공간이었습니다. 본관 앞에는 푸른 대정원이 펼쳐져 있습니다. 40대 남성 방문객은 대정원의 푸른 잔디를 보고는 "세상에 이렇게 잘 정돈된 잔디는 처음 본다"며 감탄사를 연발했습니다. 기자가 방문한 날은 이틀 뒤(22일) 열릴 청와대 국민개방기념 특별기획 '열린음악회' 준비가 한창이었습니다. 수백 개의 의자들과 무대가 대정원을 가득 채우고 있었습니다. 본관 앞에는 기념사진을 찍기 위해 많은 사람들이 줄을 서서 기다리고 있었습니다. 본관을 배경으로 차례대로 사진을 촬영하려면 시간이 걸리지만 다들 표정이 밝았습니다.  관저 대통령 부부가 생활했던 관저는 청와대 공간 중 가장 깊숙하고 높은 곳에 위치해 있습니다. 관저는 본관처럼 팔각 지붕에 청기와를 얹은 전통 한옥 구조를 띠고 있습니다. 20대로 보이는 한 커플은 "하루 숙박비 100만원이 넘더라도 한 번쯤 묵고 싶다"고 말했습니다. 60대 노부부는 관저 앞에서 대통령과 영부인이 된 것처럼 사진을 찍기도 했습니다.관저 뒤편 산책로를 따라 올라가면 오랜 역사를 간직한 문화유산을 만날 수 있습니다. 조선 고종 시대에 지어진 다섯 개 구름이라는 뜻의 작은 정자인 '오운정'과 통일신라시대 석불좌상인 '석조여래좌상(미남불)'이 대표적입니다. 미남불은 수려한 용모에 붙여진 이름에 맞게 불상의 은은한 미소가 돋보입니다. 왕가의 산책 행렬 역대 대통령의 기념 식수들로 가득한 녹지원에서는 경쾌한 국악공연이 한창이었습니다. 특히 청와대의 '프레스센터'로 기자들이 상주했던 춘추관 앞에서는 마침 '왕가의 산책 행렬'이 이어졌습니다. 옆에서는 줄광대들의 아슬아슬 줄타기 공연도 열렸습니다. 충북 청주에서 온 30대 최 모씨는 "국악 공연, 왕가의 산책, 줄타기 등 볼거리가 다양해 지루할 틈이 없다"고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.05.28.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[기자수첩]위상 커진 카뱅, 책임감도 커져야</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005095684?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>카카오뱅크가 인터넷전문은행 최초로 은행연합회 이사회에 합류한다. 2017년 업계에 발을 들인 카카오뱅크가 5년 만에 이사회로 합류한 것은 그만큼 인터넷전문은행의 위상도 높아졌다는 의미로 해석된다.28일 금융권에 따르면 은행연합회는 지난 23일 정기 이사회에서 카카오뱅크를 인터넷전문은행협의회 대표로 비상임이사에 포함하는 안을 논의했다. 향후 총회와 금융위원회의 인허가를 마치는대로 최종 확정된다.은행연합회 이사회는 김광수 회장을 비롯해 KB국민·신한·하나·우리·SC제일·한국씨티 등 6개 시중은행장, 산업·기업·농협 등 3개 특수은행장, 1개 지방은행장 등 총 11명이다. 시중은행협의회와 특수은행협의회, 지방은행협의회에서 각 협의회 대표를 뽑는 형태로 운영되는 데 이번에 인터넷전문은행협의회가 새롭게 구성되는 것이다.이 같은 논의는 카카오뱅크, 케이뱅크에 이어 토스뱅크까지 인터넷전문은행들이 늘었고 카카오뱅크는 지난 5년 간 시중은행이 위기의식을 느낄 만큼 무섭게 성장세를 보이고 있는 상황 등이 고려된 것으로 보인다. 카카오뱅크의 경우 기업공개(IPO)에 성공했고, 지난해 2041억원의 당기순이익을 기록했다. 또 주택담보대출 출시에 이어 개인사업자대출도 준비하는 등 사업을 확대하고 있다. 케이뱅크 역시 지난해 첫 흑자전환을 달성했고 '막내'격인 토스뱅크도 출범 5개월 만에 이용자 수 235만명을 돌파했다.위상이 올라간 만큼 그간 시중은행들에게만 쏠렸던 시선도 인터넷전문은행들에게도 향할 것으로 보인다. 특히 정부의 각종 정책에 대한 부담도 함께 짊어져야한다는 것이 금융권의 시각이다. 시중은행 관계자들 사이에서는 인터넷전문은행들이 자신들에게 유리하고 좋은 것만 하려한다는 볼멘소리가 나왔었다.대표적인 것이 문재인 정부의 '청년희망적금'이었다. 청년희망적금은 청년층의 자산 형성을 돕기위해 정부가 도입한 정책 금융 상품이다. 만 19세 이상 만 34세 이하 청년을 대상으로 높은 금리, 비과세 등의 혜택을 제공했다. 이 같은 정책금융 상품은 정부가 예산을 지원해도 평균 대출 금리보다 높은 이자를 주는 상품이라 은행들이 손해를 감수할 수밖에 없는 구조다. 하지만 주요 시중은행들이 모두 참여한 반면 정작 20~30대를 주고객으로 하는 인뱅 3사는 빠지면서 형평성 논란이 불거지기도 했다.이 때문에 윤석열 정부의 '1억통장' 공약인 '청년장기자산계좌(가칭)'가 내년 출시되면 인터넷전문은행들이 참여할 지 자연스럽게 시선이 쏠릴 것으로 보인다. 인터넷전문은행들도 커진 위상에 버금가는 책임감을 보여줄 때다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>5060 ‘뉴시니어’ 83%, 모바일로 은행업무 OK</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003429558?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>하나금융경영硏 1000명 설문경기 수원시에 사는 직장인 최모 씨(58)는 최근 2년간 은행 영업점을 한 번도 방문하지 않았다는 사실을 알고 깜짝 놀랐다. 신종 코로나바이러스 감염증(코로나19) 사태 이후 은행 업무 대부분을 모바일뱅킹 애플리케이션(앱)에서 처리한 것이다. 올 들어선 식당이나 마트에서 결제할 때도 신용카드 대신 네이버페이를 자주 쓰고 있다. 경제력이 있는 50, 60대는 모바일뱅킹 등 디지털 금융 채널을 활발히 이용하는 것으로 조사됐다. 토스, 카카오페이 등 빅테크(대형 기술기업)와 핀테크의 새로운 금융 서비스를 이용하는 데도 거리낌이 없었다. 하나금융경영연구소는 이런 내용의 ‘뉴시니어가 원하는 금융’ 보고서를 19일 발표했다. 금융자산을 1억 원 이상 보유한 만 51∼65세를 ‘뉴시니어’로 정의하고 이들 1000명을 대상으로 설문조사한 결과를 담았다. 보고서에 따르면 뉴시니어의 83.3%는 계좌이체, 주식 매매 등 금융거래를 할 때 뱅킹 앱이나 모바일트레이딩시스템(MTS) 등 모바일 채널을 이용했다(복수 응답). 인터넷뱅킹, 홈트레이딩시스템(HTS) 등 웹 채널을 쓴다는 응답도 75.8%였다.  영업점을 이용하는 사람(49.3%)은 상대적으로 적었지만 여전히 시니어의 절반 가까이는 금융회사 지점을 찾는 것으로 조사됐다. 응답자 78%는 은행 영업점에서 반드시 처리해야 할 업무가 있다고 답했다. 상품 해지(30.8%)나 대출 상담(20.1%), 고액 이체(17.8%) 등이 꼽혔다. 연구소는 “영업점은 디지털 채널보다 일상적 활용도가 낮지만 뉴시니어에게 여전히 중요한 채널로 인식되고 있다”고 했다. 뉴시니어들은 최신 금융 트렌드를 따라가는 속도도 빨랐다. 응답자 64%는 최근 1년간 새로운 금융회사와 거래한 경험이 있었다. 일부 증권사(9.7%)와 저축은행(5.5%) 등을 제외하곤 빅테크와 핀테크에서 신규 거래를 했다. 토스(6.5%)를 새로 이용한 시니어가 가장 많았고 토스뱅크(5.8%), 카카오페이(5.4%), 카카오뱅크(4.6%), 네이버페이(4.3%) 등이 뒤를 이었다. 이들을 이용한 이유로는 ‘앱이 편리해서’(38.0%)라는 응답이 가장 많았다. 이어 ‘금융 수익이 우수해서’(23.0%), ‘신규 서비스나 기능이 좋아서’(22.5%) 등이 많이 꼽혔다. 단순 수익률보다 편리성 등을 더 중요하게 생각했다는 뜻이다. 금융상품을 선택할 때는 절반 이상이 ‘원금 보장’(55.7%)과 ‘정기적인 수익 발생’(55.3%)을 우선적으로 고려한다고 했다. 반면 ‘수익성’(39.7%)을 먼저 고려한다는 응답은 상대적으로 적었다. ‘현금화, 인출 용이성’을 우선 생각한다는 응답은 34.5%였다. 은퇴 전후로 소득이 줄어들 것에 대비해 리스크를 줄이고 안정적인 유동성을 확보하는 데 중점을 둔 것으로 풀이된다. 윤선영 하나금융경영연구소 연구위원은 “뉴시니어는 디지털 금융에 큰 거부감 없이 적응하고 경제적 혜택보다는 편리성과 신규 서비스 등을 우선시한다”며 “대면 서비스에 대한 필요성도 여전히 갖고 있어 이러한 특성에 맞는 상품과 서비스가 필요하다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.05.29.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>대출이자 연 16.9%→4%대로 환승하는 방법</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005228217?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>저금리 상품으로 갈아타는 방법토스·핀다 등 앱 이용하면 간편택배업 배씨, 토스뱅크로 3.3%p↓운수업 최씨, 핀다로 13.6%p 낮춰금리인하요구권 적극 활용 방법도[이데일리 황병서 기자] 택배업에 종사하는 45세 배용식(가명)씨는 토스뱅크 신용대출을 통해 대출금리를 3.3%포인트 낮췄다. 배씨의 연소득은 1억3000만원으로 신용점수는 771점이었다. 신용점수가 낮은 탓에 그가 이용할 수 있었던 대출 창구는 저축은행과 카드론밖에 없었다. 그는 대출금리가 더 오를 것이라는 소식에 이자를 조금이라도 더 줄여야 겠다는 생각에 인터넷 은행을 통해 대출을 알아봤다. 이달 초 토스뱅크에서 4.7% 금리로 5000만원의 신용대출을 받았다. 배 씨는 “대출금리가 8%였는데 3.3%포인트 낮은 수치로 돈을 빌려 대환할 수 있어 금리 인상기에 도움이 많이 됐다”고 말했다. 대출자들의 잠 못드는 밤이 길어지고 있다. 본격적인 금리 인상기를 맞아 급증하는 대출 이자때문이다. 미 연방준비제도(Fed)의 ‘빅스텝’(기준금리 0.5%포인트 인상)과 이에 따른 한국의 금리 인상이 가속화하며 ‘이자 폭탄’이 현실로 다가오고 있다.금리가 오르면 대출 이자 부담도 늘어날 수밖에 없다. 한국은행에 따르면 기준금리가 0.25%포인트 오를 때마다 1인당 연이자 부담은 평균 16만4000원 증가한다. 금리가 1%포인트 상승하면 연이자 부담액은 65만5000원으로 대폭 늘어난다. 이는 작년 말 가계대출 잔액(1755조원) 기준을 토대로 추정한 것이다. 올해 가계대출 증가 등을 고려하면 실제 이자 부담액은 이보다 더 늘어날 가능성이 높다.토스·핀다 앱 이용…대환대출 노려보자 대출 이자를 줄이는 방법은 단연코 더 적은 이자로 갈아타는 것이다. 오프라인 금융시대에는 발품을 팔아 금융기관들을 직접 다녀야 했다. 심지어 직장인들은 연차휴가까지 내면서 한 푼이라도 더 싼 이자를 부담할 수 있는 곳을 알아봐야 했다. 하지만 이제 언제 어디서나 쉽게 저리의 대출 상품을 알아볼 수 있다. 바로 비대면 금융 서비스를 통해서다. 토스 대출 서비스 이미지.(자료=홈페이지 캡처)혁신금융을 표방하는 토스가 대표적이다. 토스 앱 내 ‘대출받기’ 메뉴로 제공되는 ‘대출 비교 서비스’가 있다. 이 서비스는 지난 2019년 5월 금융위원회로부터 혁신금융서비스로 선정돼 같은 해 8월 첫 선을 보였다. 간단한 사용자 정보를 입력하면 48개 금융사의 신용대출 상품 금리와 한도를 비교할 수 있는 서비스다. 개인 신용정보에 따라 가장 큰 금액을 빌릴 수 있는 금융사와 가장 낮은 금리를 제안하는 금융사를 손쉽게 비교할 수 있다. 조회하는데 걸리는 시간은 평균 20초 안팎이다. 오프라인 상담에 필요한 지점방문, 대출상품 상담, 가심사 조회, 실제 대출심사 요청 등 서너 단계 이상의 절차를 한번에 해결했다. 대출 중개 서비스를 운영 중인 핀테크 기업 핀다도 있다. 핀다는 대출 서비스를 제공하는 국내 324개 금융사와 마이데이터로 연계해 보다 정확한 대출 비교 서비스를 제공한다. 고객은 핀다 앱에서 마이데이터 서비스 이용을 위해서 동의 절차를 거친 후 자신의 대출 내역을 핀다에 연결하고 대출 내역을 한 눈에 확인할 수 있다. 운수회사에 다니는 60세 최병국(가명)씨는 핀다에서 대환대출 서비스를 알아보고 금리를 13.6%p나 줄일 수 있었다. 최씨는 캐피탈에서 16.9% 금리로 대출을 받았지만 핀다에서 대환대출 알림서비를 통해 연 4.3%대의 지방은행 대출로 갈아타는 데 성공했다. 최 씨는 “나이가 있어서 핀테크나 인터넷뱅크를 통한 서비스를 알기 어려운데, 자식 덕분에 핀다를 통해 금리를 낮출 수 있어 기쁘게 생각한다”고 말했다. 저축은행 중 유일하게 마이데이터 서비스를 운영 중인 웰컴저축은행도 있다. 웰컴저축은행은 마이데이터를 활용한 맞춤대출 서비스를 선보였다. 웰컴디지털뱅크 앱에서 마이데이터를 누르면 이용 가능한 상품 중 최저 금리 및 최대 한도 상품이 제시되는 방식이다. 맞춤대출 서비스 조회로 인한 고객의 신용점수에 영향도 없다. 현재 해당 서비스에 참여하는 금융사는 JT저축은행을 비롯해 DB저축은행, 키움저축은행, 인성저축은행 HB저축은행 등이 있다.토스 대출 이미지.(자료=토스)승진했거나 성과급 받았으면…금리인하요구권 행사도 직장인 홍채민(가명) 씨는 지난해 1월 자신의 주거래 은행에서 연 2.55% 금리(변동형)로 5000만원의 신용대출 받았다. 이달 만기연장을 하려는 홍씨가 안내받은 금리는 변동형이 3.65%, 고정형은 4.05%였다. A씨는 고정형을 선택하고 금리인하요구권을 행사했다. 그 결과 A씨에게 책정된 최종 금리는 연 3.82%로 0.23%포인트 인하됐다. 홍씨는 “연봉이 얼마 안 올라 ‘안 되도 그만’이라는 마음으로 금리인하를 요구했는데 받아들여졌다”며 “성과급을 받은 게 영향을 미친 것 같다”고 말했다.대환대출을 통해 이자 절감하는 방법 뿐만 아니라 홍씨처럼 금리인하 요구권을 적극적으로 활용해 볼 필요도 있다. 금리인하요구권은 차주에게 적용한 금리를 낮춰달라고 요구하는 권리다. 무직이었다가 취업을 하는 것 외에 △더 큰 기업으로 이직 △같은 회사에서 승진 △재산 증가 △신용평가 등급 상승 등의 경우라면 신청할 수 있다.금리인하요구권은 금융회사 영업점이나 인터넷·모바일뱅킹을 통해 이용할 수 있다. 전화상담으로도 가능하다. 요구권을 행사하면 대출자는 금리인하 요건 충족 여부를 판단할 수 있는 증빙자료를 제출해야 한다. 이후 10영업일 이내에 금리인하 수용 여부와 사유를 안내받을 수 있다.금융감독원에 따르면 2020년 은행권에서 금리인하 요구가 수용된 대출 규모는 32조8000억원에 달한다. 71만4000건의 신청 가운데 22만5000건이 수용된 결과다. 금리인하요구권으로 감면된 이자액은 1600억원이라고 금감원은 추정했다. 금리인하 폭은 가계대출은 0.38%포인트, 기업대출은 0.52%포인트 수준이었다.은행 관계자는 “금리인하요구권 행사 후 받아들여지지 않더라도 아무런 불이익이 없다”며 “부채가 줄어도 금리인하를 요구할 수 있다”고 조언했다. 이어 “대출자가 모르는 사이에 은행 내부 신용등급이 오를 수 있다”며 “신용등급을 주기적으로 확인하는 것도 노하우”라고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>진에어, 토스페이·스마일페이로 결제하면 최대 2만원 할인</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006104925?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>23~31일까지…5월25일~7월31일 운항 항공편 대상진에어, 간편결제사와 함께 국제선 항공권 할인 혜택(진에어 제공)© 뉴스1(서울=뉴스1) 이형진 기자 = 진에어가 오는 23일부터 31일까지 토스페이·스마일페이 간편결제서비스 이용 고객을 대상으로 국제선 항공권 할인 혜택을 제공하는 프로모션을 진행한다고 20일 밝혔다.이번 프로모션은 5월 25일부터 7월 31일 사이 운항하는 국제선 전 노선 항공편 대상으로 홈페이지, 모바일 웹·앱을 통해 진행된다.현재 진에어는 인천발 나리타·오사카·괌·클락·세부, 부산~괌 등 국제선을 운항하고 있으며, 인천~방콕(5월 25일)을 시작으로 코타키나발루(5월 26일)·다낭(6월 30일), 부산발로는 다낭(6월 29일)·방콕(6월 30일)·클락(6월 30일)·세부(7월 8일) 노선 등을 운항 재개할 예정이다.토스페이 이용 고객은 항공 운임 기준으로 Δ5만원 이상 결제 시 5000원 Δ10만원 이상 결제 시 2만원 할인 혜택이 제공된다. 스마일페이의 경우에는 항공 운임 10만원 기준으로 1만원 할인 혜택이 제공된다. 스마일페이에서 삼성카드로 결제 시에는 기존 혜택과 더불어 1만원이 추가 적용되어 최대 2만원까지 할인 받을 수 있다. 진에어는 또 20일까지 카카오페이 이용 고객 대상으로 국내외 항공권 최대 3만원 할인 혜택을 제공하는 카카5데이도 진행 중이다.진에어는 "결제 편의성이 높은 간편결제서비스 이용 트렌드를 반영해 쉽고 편리하게 항공 운임 할인 혜택을 누릴 수 있는 프로모션을 준비했다"며 "고객들의 여행지 선택의 폭을 넓히기 위해 단계적으로 국제선 공급량을 확대해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>기업대출 노리는 인터넷은행, 기업은행 이길 수 있을까?</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000039184?sid=105</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>토스뱅크 '사장님대출' 홍보 이미지.(사진=토스뱅크)케이뱅크, 카카오뱅크, 토스뱅크 등 인터넷전문은행의 궁극적인 경쟁상대는 IBK기업은행이 될 전망이다. 인터넷은행은 가계대출에 적용됐던 특혜가 더 이상 유효하지 않은 만큼 성장하기 위해선 기업대출을 강화해야 한다. 대기업대출은 인터넷은행법상 제한돼 중소기업대출에서 승부를 낼 수밖에 없다.23일 업계에 따르면 인터넷은행들은 중소기업대출에 속하는 개인사업자대출 상품을 최근 출시해 성과를 거두고 있다. 토스뱅크가 지난 2월 선보인 '사장님대출'은 대출 잔액이 현재 약 4000억원에 달한다. 또 이달 11일 출시한 '사장님대출 마이너스통장'은 출시 4일 만에 대출 약정액이 200억원을 돌파했다. 케이뱅크도 이달 17일 개인사업자를 위한 '사장님대출'을 출시했다. 이 회사 관계자는 "생각보다 많은 분들이 신청을 해 주시고 있다"고 전했다.저금리·간편성 앞세워 사장님 눈길 단 번에 잡았다인터넷은행의 개인사업자대출이 시장에서 빠르게 호응을 얻는 것은 혜택과 간편성 덕분이다. 토스뱅크 사장님대출은 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여하는 '개인사업자 신용대출'이다. 매출액이 크지 않더라도, 연소득이 일정하거나 매출이 꾸준히 발생하는 경우 단기간에 높은 소득을 올린 사업자에 비해 높은 신용도를 부여하는 식의 다면화된 신용평가모형(CSS)인 'TSS(토스 스코어링 시스템)'가 특징이다.토스뱅크 관계자는 "TSS를 통해 기존 1금융권에서 고객대접을 받지 못했던 중저신용자, 금융이력부족자 등을 1금융권 따뜻한 울타리안으로 다시 포용할 수 있어 의미가 깊다"며 "타 인터넷은행들과도 돋보이는 토뱅만의 특장점이기도 하다"고 설명했다.이와 달리 케이뱅크의 사장님대출은 신용보증재단과 제휴한 '온택트 특례보증' 상품으로, 신보 보증서를 지참해야만 실행된다. 금리 조건은 토스뱅크보다 좋다. 신용등급과 관계없이 누구나 연 3.42%의 동일한 금리를 적용한다. 토스뱅크 사장님대출 금리는 연 3.85~15.00%다.그러나 케이뱅크 사장님대출은 저신용자를 포용할 수 없다. 신보 온택트 특례보증은 사업자등록 후 1년이 경과하고 대표자 신용평점(나이스신용평가 기준)이 745점 이상인 업체를 대상으로 한다. 신용등급 6등급(665~749점)의 최상단부터 해당한다.통상적인 대출상품은 연체율과 부도율 등의 리스크를 반영해 신용등급 구간별로 금리를 차등화한다. 케이뱅크 사장님대출은 단일금리를 책정해 중신용자(4~6등급) 대상으로 마진을 일정 부분 포기하는 측면이 있으나, 신보 보증서가 담보되는 만큼 부도에 따른 손실 걱정은 없다.케이뱅크나 토스뱅크나 각사가 취급하는 사장님대출 조건에 해당하기만 하면 시중은행보다 더 나은 조건으로도 혜택을 간편하게 누릴 수 있어 인기다. 은행연합회에 따르면 3월 취급 시중은행 일반 신용대출 고신용자(1~2등급)의 대출금리는 연 3% 중후반에서 연 4%대다. 특히 케이뱅크는 6월 말까지 사장님대출을 받은 고객에게 한 달치 이자를 돌려주고 간편 매출관리앱 'KT세모가게'도 1년 무료 사용을 지원한다.중기시장 노리지만 만만치 않은 IBK기업은행인터넷은행들이 최근 들어 개인사업자대출 경쟁에 나선 건 금융위원회가 '은행법 시행령 및 감독규정 개정안'을 마련하면서다. 일반은행에서는 예대율(은행의 예금잔액에 대한 대출금잔액의 비율) 규제(100% 이내)를 충족하기 위해 가계대출(115%)보다 기업대출(85%)을 취급하는 게 유리하다. 똑같은 100만원을 빌려줘도 개인은 115만원, 기업에 대해서는 85만원으로 인식된다.이와 달리 인터넷은행은 그동안 기업대출 미취급 시 가계대출에 100%의 가중치를 적용받아 기업대출에 나설 요인이 없었다. 개정안에 따라 인터넷은행도 일반은행처럼 가계대출에 대해 115%, 기업대출 부문에선 중소기업 85%, 개인사업자 100%의 가중치를 적용받게 됐다. 개인사업자대출이 개정안 시행 전 가계대출과 비슷한 중요성을 가지게 된 셈이다.인터넷은행의 개인사업자대출은 중기대출 사업을 본격화하기 전 밑작업이라 할 수 있다. 카카오뱅크의 경우 올 4분기 개인사업자 대출을 선보인다는 계획인데, 장기적으로는 중기시장 전체를 목표로 하고 있다. 이 회사는 사업보고서에서 "중소기업을 제외한 법인에 대해서는 신용공여를 할 수 없기 때문에 목표시장은 가계자금과 중소기업자금 대출시장"이라고 밝혔다.그러나 중기대출 시장의 맹주인 IBK기업은행에 맞서 성과를 낼 수 있을지 미지수다. 올 1분기 말 기업은행의 중기대출 잔액은 지난해 말 대비 2.6% 증가한 209조3000억원으로, 중소기업금융 시장점유율이 업계 1위인 22.9%에 달한다. 지난해 거래 기업수 200만개를 넘어섰다. 자산 규모가 큰 5대 시중은행이라도 중소기업금융 시장에서는 기업은행을 따라가지 못한다.기업은행의 중기대출 잔액 및 시장점유율 추이.(사진=IBK기업은행)중소기업 시장은 현장영업을 비롯해 담보 평가, 실사 등을 위한 전문인력과 업력이 중요해 비대면으로만 오롯이 공략하기 어렵다는 게 업계 전문가들의 중론이다. IT인력이 다수인 인터넷은행들이 중소기업 시장을 단기간에 공략할 수 없고, 진입하더라도 기업은행이라는 '벽'을 넘기 위해선 전문인력은 물론 뛰어난 상품력이 필요하다는 분석이 나온다. 증권시장에 상장한 카카오뱅크와, 상장을 목표로 하는 케이뱅크로선 '성장성'을 입증하기 위해 기업대출 시장에서의 성과가 요구된다.기업은행 관계자는 "인터넷은행이 개인사업자대출로 상품을 확장하고 있지만 당사의 중기대출 점유율은 오히려 전년도보다 증가했다"며 "개인사업자대출은 사업장 규모가 작다보니 서류가 단순하고 리스크도 덜할 수 있지만, 기업대출의 경우 서류에 나타나지 않는 부분을 현장에서 실사를 통해 파악하는 전문성이 필요하다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.05.26.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>얼어붙은 스타트업… 손정의도 투자 절반 줄인다</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003693962?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[WEEKLY BIZ] 스타트업, 천국에서 지옥으로							“스타트업(창업 초기 기업)에 대한 신규 투자 규모를 작년 대비 절반 또는 4분의 1(25%) 수준으로 줄일 수 있다.”세계적인 투자사 소프트뱅크를 이끄는 손정의 회장은 지난 12일 연간 실적을 발표하며 이렇게 말했다. 소프트뱅크가 운용하는 세계 최대 벤처 투자 펀드인 비전펀드가 지난 회계연도(2021년 4월~2022년 3월)에 274억달러(약 34조6100억원) 손실을 기록하자 스타트업 투자를 대폭 축소하기로 한 것이다. 비전펀드 설립 이후 최대 손실로, 이전 회계연도(2020년 4월~2021년 3월)에 7조5290억엔(약 74조7400억원) 수익을 거둔 것과 대조적이다. 니혼게이자이신문은 “세계적으로 성장주가 하락하는 추세 속에서 인공지능(AI) 관련 스타트업 등에 투자한 비전펀드의 운용 실적이 악화됐다”며 “성장주 하락은 4월 이후에도 이어지고 있어 향후 실적의 불확실성도 높아지고 있다”고 평가했다.초저금리 기조와 디지털 전환에 힘입어 지난해 말까지 전례 없는 호황을 누렸던 글로벌 스타트업 투자 시장이 급속도로 얼어붙고 있다. 기술주 약세, 금리 인상, 중국 당국의 테크 기업 탄압과 코로나 봉쇄, 우크라이나 전쟁 등 악재가 겹치면서 스타트업 시장의 자금줄이 막힌 것이다. 글로벌 시장조사 기관 피치북에 따르면, 올 1분기 미국 내 스타트업 투자 규모는 약 707억달러(약 89조2900억원)로 전 분기(954억달러) 대비 25.9% 줄었다. 실리콘밸리의 벤처투자사인 인덱스벤처스의 마이크 볼피 벤처투자가는 월스트리트저널(WSJ)에 “이번 사태는 분명 과속방지턱 같은 일시적인 사태가 아니다. 호황 사이클 끝에 오는 조정일 것”이라고 했다.지난해 기업 가치 100억달러를 인정받은 미국 전자상거래 기업 스라시오의 사무실 모습. 전도유망한 데카콘(기업 가치 100억달러 이상 비상장 기업)이지만, 기업 상장(IPO)이 연기되고 자금 사정이 나빠지면서 최근 직원의 20%를 해고하고 진행되던 프로젝트를 취소하는 등 허리띠를 졸라매고 있는 것으로 알려졌다. /스라시오 자금 압박에 정리 해고 나선 스타트업							스타트업 시장의 돈줄이 마른 배경에는 기술주 하락이 있다. FAANG(메타·아마존·애플·넷플릭스·구글)으로 대표되는 거대 기술 기업(빅테크)들은 지난 몇 년간 세계 주식시장을 주도해왔지만, 올해 들어서는 큰 폭의 하락을 겪고 있다. 심지어 역대 최고 1분기 실적을 기록한 애플도 주가가 20% 빠졌다. 실적이 뒷받침되는 빅테크마저 속절없이 하락하다 보니 비상장 기술 기업(스타트업)이 고평가된 것 아니냐는 회의론이 자연스럽게 고개를 들었다. 미국의 대표적인 비상장 주식 거래 플랫폼인 포지 글로벌에서 지난 2~3월 평균 거래 가격은 작년 4분기 대비 19.9% 하락했다. 파이낸셜타임스는 “기술주 매도세가 스타트업으로 확산했다”고 평가했다.주식시장이 얼어붙으면서 스타트업의 대표적인 투자금 회수 수단인 기업 상장(IPO)도 위축됐다. 시장조사 기관 CB인사이츠에 따르면, 올 1분기 전 세계 IPO는 143건으로 2016년 이후 최저 수준을 기록했다. 전 분기(260건)와 비교하면 45% 급감한 수치다. 코트라 실리콘밸리무역관은 “시장이 급변해 기업과 투자자가 상장 시기를 조율하는 것으로 분석된다”고 설명했다.자금 수혈이 되지 않는 상황에서 투자자들에게 실적 압박까지 받기 시작한 스타트업들은 생존을 위해 구조 조정에 나섰다. 지난해 10억달러를 조달하며 100억달러의 기업 가치를 인정받은 미국 전자상거래 스타트업 스라시오(Thrasio)는 프리 IPO(상장 전 투자 유치)에 나섰다가 실패한 뒤 직원 20%를 감축하고 진행 중이던 프로젝트를 줄줄이 축소했다. 미국 온라인 주식 거래 플랫폼 로빈후드도 지난달 정규직의 9%인 약 300명을 해고했다. 호핀(Hopin), 리프(Reef) 테크놀로지, 고퍼프(GoPuff), 카메오(Cameo), 워크라이즈(Workrise) 등 다양한 업종의 유니콘(기업 가치 10억달러 이상 비상장 기업)들도 비슷한 방식으로 허리띠를 졸라매고 있다.전 세계 스타트업들의 정리 해고를 추적하는 사이트 ‘정리 해고 추적기(layoffs.fyi)’에 따르면, 올 1분기 스타트업에서 정리 해고된 인원은 9700명으로 전 분기(3292명) 대비 3배 가까이로 늘었다. 2분기 들어 이달 25일까지 해고된 인원은 1만3373명으로 1분기보다 많다. WSJ는 “기술 스타트업의 파티는 끝났다”며 “이제 스타트업은 직원을 해고하고 마케팅 비용을 줄이고, 프로젝트를 취소하는 등 살아남기 위해 뭐든 해야 하는 처지”라고 전했다. 국내 유망 비상장 기업도 몸값 반 토막							국내 프리 IPO 시장에도 한파가 몰아치고 있다. 벤처 투자 정보업체 더브이씨 분석에 따르면, 올해 들어 이달 8일까지 프리 IPO 투자 규모는 2972억원으로 지난해 같은 기간 투자 규모(5450억원) 대비 45% 감소했다. 유니콘 기업의 가치도 폭락세다. 비상장 주식 거래 플랫폼 증권플러스 비상장에서 핀테크 기업 비바리퍼블리카(토스 운영사)의 추정 시가총액은 현재 12조원대로 지난 1월 추정 시가총액(21조원)의 거의 절반으로 줄었다. 추정 몸값이 한때 30조원에 달했던 두나무(업비트 운영사)도 이달 들어 몸값이 11조원대로 쪼그라들었다. 야놀자와 컬리(마켓컬리 운영사), 쏘카 등 유망 비상장주도 상황이 비슷하다.이보다 초기 단계인 국내 스타트업 시장도 최근 분위기가 얼어붙었다. 스타트업 지원 기관인 스타트업얼라이언스에 따르면, 지난달까지만 해도 국내 스타트업 투자는 호황을 이뤄 4월 투자 건수는 153건, 투자금은 약 1조2489억원을 기록했다. 전년 동기 대비 각각 53%, 63.9% 증가한 것이다. 하지만 이달 들어선 지난 25일까지 신규 투자가 6122억5000만원으로 급감했다.기술주 약세와 미국 스타트업 시장 위축이 한국 스타트업 업계에도 영향을 미친 것으로 보인다. 김시완 디캠프 투자실장은 “스타트업을 향한 국내 투자자들의 관점도 점차 보수적으로 변하고 있다”며 “증시가 회복되기 전까지 스타트업 투자 시장의 반등은 쉽지 않아 보인다”고 말했다. 최근 터진 루나·테라 코인 사태도 대형 악재로 작용할 전망이다. 박성호 케이유니콘인베스트먼트 부대표는 “루나와 테라를 만든 테라폼랩스 역시 국내 핀테크 스타트업인 만큼 테라 사태가 스타트업 투자 심리를 크게 위축시키는 촉매로 작용할 수 있다”고 말했다.WEEKLY BIZ Newsletter 구독하기 ☞ https://page.stibee.com/subscriptions/146096</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>토스뱅크, '사장님 마이너스 통장' 출시 4일만에 200억 돌파</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001031787?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>토스뱅크가 인터넷전문은행 최초로 개인사업자를 위한 '사장님 마이너스통장'을 출시했다고 16일 밝혔다.이달 11일 출시된 이 상품은 출시 4일 만에 대출 약정액 200억원을 돌파했다.개인사업자를 위해 전면 비대면으로, 무보증·무담보 마이너스통장(한도대출)을 선보인 것은 토스뱅크가 처음이다.사장님 마이너스통장의 최대 한도 5천만 원, 최저 금리는 연 4%초반(변동금리)이다.고객은 한번 승인을 받아 한도를 설정하면, 그 안에서 돈을 자유롭게 넣고 빼며 편리하게 사용할 수 있다. 일반적인 신용대출과 달리 대출을 받을 때마다 승인을 받아야 하는 번거로움이 없을 뿐 아니라, 특히 쓴 만큼만 이자를 내기 때문에 합리적이다. 중도상환 수수료도 무료다.토스뱅크는 마이너스통장의 강점을 그대로 살리면 자체적으로 개발한 신용평가모형에 따라 고객 맞춤형 한도와 금리를 산정한다.대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행되며, 인터넷전문은행 최초로 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여한다.이용 가능 고객은 실제 사업을 영위하고 있는 자영업자, 소상공인 등 개인사업자다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생해야 한다. 최소 증빙 연소득은 소득금액증명원 기준 500만원 이상이다.상환 방식은 만기 일시 방식이다. 대출기간은 1년이며, 고객들은 필요에 따라 최대 10년까지 연장할 수 있다.토스뱅크 관계자는 "고객의 실질 상환 능력은 물론 실제 영업 여부 등을 면밀히 심사해, 급전이 필요한 고객들에게 ‘단비’와 같은 상품이 되도록 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.05.23.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>“디캠프 지원 4년만에 매출 10배로 뛰었어요”</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003429933?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>국내 최대 스타트업 재단 10주년‘고피자’는 국내 최초로 1인용 화덕피자를 개발해 2017년 10월 설립된 스타트업이다. 혼자 먹기 어려운 피자를 1인용으로 만들어 판다는 아이디어가 돋보였지만 가맹점을 늘리기가 쉽지 않았다. 그러다가 2018년 6월 은행권청년창업재단(디캠프)이 주최하는 스타트업 사업 설명회 ‘디데이’의 문을 두드렸다. 독창성과 사업성을 인정받아 1위를 차지했고 디캠프에서 1억 원의 투자를 받았다. 캡스톤파트너스 등 벤처캐피털의 투자도 이어졌다. 2019년 3월엔 디캠프가 글로벌 투자자를 모아 마련한 ‘특별 디데이’에서 또 한번 우승하며 인도, 싱가포르, 홍콩 등에 진출했다. 임재원 고피자 대표(33)는 “디캠프를 만난 뒤 연매출이 10배인 130억 원으로, 국내외 지점은 150개로 늘었다. 앞으로 인도네시아 등 해외 진출을 확대할 것”이라고 했다. 국내 최대 스타트업 지원 기관인 디캠프가 이달로 출범 10주년을 맞았다고 22일 밝혔다. 10년 동안 고피자, 삼쩜삼 등 3000곳 이상의 스타트업이 디캠프의 지원과 투자를 받아 28조 원이 넘는 경제적 가치를 창출한 것으로 분석된다. 디캠프는 국내 은행 등 19개 금융회사가 8450억 원을 출연해 조성한 국내 1호 민간 창업재단이다. 스타트업을 발굴해 직간접 투자에 나서는 것은 물론이고 스타트업이 입주해 꿈을 펼칠 창업지원센터를 제공하며 다방면으로 청년 창업을 지원하고 있다. 디캠프의 대표 프로그램인 디데이는 국내에서 가장 오래된 스타트업 사업 설명회로 꼽힌다. 디캠프는 디데이를 통해 10년간 144개 스타트업을 발굴해 186억 원의 직접 투자와 5235억 원의 후속 투자를 진행했다. 재원의 90%(7513억 원)는 은행권일자리펀드 등에 출자돼 스타트업 2868곳이 간접 투자 형태로 지원받았다. 배달의민족, 당근마켓 등 유니콘(기업가치 1조 원 이상 스타트업)들도 이를 거쳤다. 디캠프를 거친 스타트업들은 가파른 성장세를 보이고 있다. 세금 환급 서비스 ‘삼쩜삼’을 운영하는 김범섭 자비스앤빌런즈 대표(43)는 “2015년 11월 디데이에서 우승한 뒤 입주 공간과 컨설팅 등을 제공받으며 사업 초기 어려움을 극복했다”고 했다. 2020년 출시된 삼쩜삼은 2년여 만에 1100만 명이 넘는 가입자를 모았다. 지금은 유니콘으로 성장한 토스(비바리퍼블리카)도 2014년 4월 디데이에서 우승한 뒤 급성장했다. 박남규 서울대 경영대 교수 팀은 10년간 디캠프가 직간접 투자와 후속 투자 등으로 창출한 생산·부가가치 유발 효과 등 경제적 가치가 28조1818억 원에 달하는 것으로 분석했다. 이로 인한 고용 창출 효과도 10만 명이 넘는다. 디캠프는 향후 직접 투자를 강화하고 스타트업의 해외 진출을 지원하는 데 중점을 둘 계획이다. 박 교수는 “한국 벤처산업 투자액의 연평균 성장률(14%)을 고려하면 향후 10년간 디캠프가 만들어낼 경제적 가치는 68조6930억 원에 이를 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>청와대 관람 열기...중고사이트에 무료 관람권 돈받고 팔기도</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011186558?sid=102</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 백동현 기자 = 청와대 개방 첫 주말인 15일 오전 서울 종로구 청와대에서 시민들이 본관 앞에서 기념촬영을 하고 있다. 2022.05.15. livertrent@newsis.com[서울=뉴시스] 김종민 기자 = 청와대 개방 이후 첫 주말에도 관람객들로 북적이는 모습을 보였다. 월요일 16일에도 청와대 관람 신청 사이트도 접속자가 폭주하고 있다. 청와대 관람신청은 지난 4월 27일 오전10시부터 시작됐으며 12일 0시 기준으로 231만명을 넘었다. 이에 대통령실은 청와대 국민개방을 위해 네이버, 카카오톡, 토스 등 온라인플랫폼을 통해 받기로 한 관람신청 접수를 6월11일 관람분(6월 2일 접수마감분)까지 연장했다. 관람신청은 개인별(1~4명), 단체별(30~50명), 65세 이상 어르신·장애인(1~4명) 등 3개 유형으로 구분해 관람을 희망하는 일자와 시간을 선택하면 된다.관람은 당첨된 인원에 한해 오전 7시부터 오후 7시까지 6차례에 걸쳐 6500명씩 하루 총 3만9000명 입장하게 된다.관람 수요가 폭증하자 무료 관람권이지만 중고거래 사이트에선 주말 4인 관람권이 4만원, 30인 단체 관람권이 10만원이 넘는 가격에 올라오기도 했다. 청와대 입장 시 신분증 확인이 필요 없기 때문에 티켓 양도가 가능하기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>간편결제에 체크카드 발급 ‘뚝’…1년새 300만장 감소</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002604739?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>1분기 체크카드 발급량 6157만장지난해 간편결제 서비스 63조원카드사 BNPL 서비스 확대 대응ⓒ연합뉴스[데일리안 = 이세미 기자] 카드사들이 빅테크 업체들과의 수익 확보 쟁탈을 위해 경쟁을 벌이고 있는 가운데 체크카드 시장이 꾸준히 축소되고 있는 것으로 나타났다.18일 여신업계에 따르면 올해 1분기 7개 전업 카드사(신한·KB국민·삼성·현대·롯데·우리·하나)의 체크카드 발급량은 총 6157만4000장으로 집계됐다. 이는 전년 동기(6457만6000장) 대비 약 300만장이 감소한 규모다.체크카드는 2016년 6788만장으로 최고점을 찍은 후 지속적으로 감소하고 있다.체크카드 발급 건수는 1분기 기준 2019년 9360만장, 2020년 6570만장, 2021년 6457만장이다. 은행계를 포함한 전체 발급 건수는 지난해 1억815만장에서 올해는 1억451만장으로 줄었다.체크카드 발급량이 가장 많은 카드사는 신한카드로 총 2069만8000장을 기록했다. 이어 KB국민카드 1781만장, 우리카드 1084만장, 하나카드 1079만장, 삼성카드 703만장, 롯데카드 637만장, 현대카드 96만장 순이었다.같은 기간 체크카드 이용금액은 총 24조1210억원으로 나타났다. 이는 전년 동기(24조500억원) 대비 소폭 상승한 것으로 사회적 거리두기 해제로 인한 소비가 회복된 영향이다.그러나 체크카드 이용금액 역시 해마다 줄어들고 있다. 1분기 기준 2019년 24조3983억원에서 2020년 23조8637억원, 작년에는 24조542억원으로 축소됐다. 은행계를 포함한 체크카드 총 이용금액은 42조9206억원으로, 지난해 3분기(46조4966억원)와 비교하면 약 3조5000억원 가량 줄었다.KB국민카드가 8조3682억원으로 이용금액이 가장 많았다. 이어 신한카드 6조9188억원, 우리카드 5조240억원, 하나카드 3119억원, 삼성카드 224억원, 롯데카드 185억원, 현대카드 137억원 순이었다.최근 4분기 체크카드 총 발급실적 및 이용현황 그래프. ⓒ여신금융협회반면 간편결제 서비스는 빠르게 성장하고 있다. 금융감독원이 윤창현 국민의힘 의원에 제출한 자료에 따르면 지난해 네이버페이·카카오페이·토스 등 3가지 간편결제 서비스로 결제된 금액은 63조6702억원이다. 2019년 10조5881억원, 2020년 42조7824억원이었던 결제 규모와 비교하면 단기간에 폭발적인 성장을 이룬 셈이다.현재 체크카드가 간편결제 서비스에 비해 매력도가 떨어지는 점은 경쟁력 약화 배경으로 꼽힌다. 대표적인 예가 연말정산이다. 체크카드는 신용카드(15%)에 비해 소득공제율이 30%로 높았는데 간편결제 이용 금액도 현금영수증 발급을 신청하면 30%의 소득공제율을 적용받을 수 있게 된 것이다.낮은 수익성도 문제다. 카드사 입장에선 신용카드는 카드론이나 현금 서비스와 연계해 추가 수익을 기대할 수 있지만 연회비 마저 없는 체크카드에선 이런 이익을 기대하기 어렵다. 수수료율도 매출 3억원 이하 사업장 기준으로 신용카드는 0.5%이지만, 체크카드는 0.25%로 절반에 그친다.업계는 앞으로도 체크카드 이용자들의 간편결제 시장 이동이 지속될 것이라는 전망이다.카드업계 관계자는 “체크카드 경쟁력 확보를 위해 노력하고 있지만 이를 대체하는 결제수단 역시 빠르게 성장하고 있다”며 “다만 카드사들은 후불결제(BNPL) 기능 상품을 개발해 대응하는 추세로 이어질 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>삼양사, 대체감미료·유산균으로 글로벌 시장 '원투 펀치'</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001032808?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>'국제식품박람회 2022'서 스페셜티 신기술 선봬삼양사 국제 식품박람회대체 감미료와 프리바이오틱스 등 '원투 펀치'로 무장한 삼양사가 글로벌 공략을 본격화한다.삼양그룹의 식품, 화학 계열사인 삼양사는 일본 도쿄 빅사이트(도쿄국제전시장)에서 열리는 '일본국제식품소재 박람회 2022(IFIA Japan 2022)'에 참가했다고 20일 밝혔다. 올해로 27회째를 맞은 IFIA는 식품 소재와 식품 첨가물 분야의 신제품, 신기술 등을 발표하는 국제 식품 박람회로 전 세계 300여개 업체와 약 3만명의 참관객이 방문한다.작년부터 전시회에 참가한 삼양사는 신제품 '결정형 알룰로스'를 최초로 공개했다. 알룰로스는 무화과, 포도 등에 들어 있는 단맛 성분으로 설탕과 비슷한 단맛을 내면서도 칼로리는 없는 수준이어서 최근 '제로' 음료' 유행의 숨은 공신이다.2016년 자체 개발한 효소를 이용해 액상 알룰로스 대량 생산에 성공한데 이어 최근 울산에 전용 공장을 짓고 결정 제품 생산을 시작한 것으로 전해진다. 결정 알룰로스는 수출이 용이해 글로벌 업체들의 선호도가 높으며 가루 설탕과 동일한 형태로 공급되므로 베이커리를 비롯한 다양한 분야에 신속하게 적용할 수 있다는 설명이다.삼양사는 케스토스, 난소화성말토덱스트린, 프락토올리고당 등 프리바이오틱스 제품군 홍보에도 주력했다. '케스토스의 피부면역력 개선효과'를 주제로 진행된 세미나에선 케스토스 섭취로 아토피 수치가 개선됐다는 동물 실험 결과를 발표해 관심을 끌었다. 케스토스는 프락토올리고당의 주요 성분 중 하나로 아토피 개선 효과가 있다는 연구결과가 의학 전문지인 '임상-실험 알레르기'(Clinical and Experimental Allergy) 등에 발표된 바 있다.삼양사 관계자는 "글로벌 스페셜티 식품 소재 시장에서 리더십을 확보하기 위해 글로벌 고객을 직접 만나 제품과 기술력을 알리고 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>토스증권, '예탁금 이용료' 인상…연 1% 이자 매달 준다</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011187334?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>기사내용 요약기존 대비 0.8%포인트 인상업계 평균의 5배 넘는 셈[서울=뉴시스]최현호 기자 = 토스증권이 예탁금 계좌 잔액에 대한 이자인 '예탁금 이용료'를 연 1%(세전)로 인상한다고 16일 밝혔다.사측에 따르면 연 1% 이자는 올해 5월 기준 국내 증권사가 제공하는 예탁금 이용료 중 가장 높은 수준이다. 토스증권은 기존 0.2%에서 0.8%포인트를 인상하는 것이다.해당 이자는 외화 자산 및 투자 중인 금액이 아닌 원화 자산에 한해 적용된다.또 이자 지급 주기도 기존 분기별 지급에서 1달 주기로 변경, 이자액에 대한 유동성을 높였다고 토스증권 측은 설명했다. 토스증권은 매달 마지막 영업일에 전 날까지의 예탁금 평균 잔액을 계산해 당월 이자를 지급한다. 예상 이자액은 '총 자산' 페이지에서 확인할 수 있다.금융투자협회 공시자료에 따르면 국내 35개 증권사의 평균 예탁금 이용료는 연 0.199%다. 토스증권의 연 1% 예탁금 이용료는 업계 평균 이용료의 5배를 상회하는 것이다.토스증권 관계자는 "고객 예탁금에서 발생하는 수익을 과감히 포기하고 고객에게 돌려드리는 선택을 하게 됐다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.05.19.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>5060 '뉴시니어' 은행 영업점보다 앱 선호한다</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004966362?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>하나경영硏 보고서금융자산 1억 보유 1천명 설문토스·카뱅 핀테크앱 적극 이용55% "안정성·원금보장 최우선" 금융자산을 1억원 이상 보유한 50·60대가 금융 거래를 할 때 영업점 방문보다 은행 애플리케이션(앱) 사용을 훨씬 선호한다는 조사 결과가 나와 주목된다. 이들은 투자 상품을 선택할 때 원금 보장 여부를 가장 중요한 판단 기준으로 삼는 것으로 파악됐다.19일 하나금융경영연구소는 금융자산 1억원 이상을 보유한 만 50~64세를 '뉴시니어'로 정의하고, 이들의 금융생활을 분석한 '뉴시니어가 원하는 금융' 보고서를 발간했다. 연구소는 뉴시니어 1000명을 대상으로 설문조사를 진행한 뒤 분석 결과를 보고서에 담았다. 보고서에 따르면 전체 응답자 중 최근 6개월간 금융 거래를 위해 모바일 앱을 이용한 비중(83.3%)이 영업점을 이용한 비중(49.3%)보다 1.7배 높았다. 뉴시니어 90% 이상은 금융 앱을 통해 계좌 이체와 계좌 조회를 하고, 인터넷으로 쇼핑과 배달 주문을 하는 것으로 조사됐다.뉴시니어는 금융 트렌드에도 민감하게 반응하는 것으로 파악됐다. 응답자 중 64%는 최근 1년 내 신규 금융기관에서 거래한 경험이 있었다. 특히 이들은 토스(6.5%), 토스뱅크(5.8%), 카카오페이(5.4%), 카카오뱅크(4.6%) 등 핀테크와 빅테크 이용에도 적극적인 것으로 나타났다. 뉴시니어들은 핀테크와 빅테크 업체를 새로 이용한 이유로 '뱅킹 앱의 편리함'(34%) '금융 수익 우수'(23%) 등을 꼽았다. 뉴시니어는 금융기관을 선택하는 경우 '안정성'을 가장 크게 고려하는 것으로 파악됐다. 노후를 위해 금융기관에 기대하는 요건으로 '안전한 자산 보관'을 꼽은 응답자가 전체 중 55.3%로 가장 많았다. 이어 '투자정보·수익률 관리 우수'(37.2%) '인터넷·모바일 서비스 편리'(31.7%) '이용·접근 편리'(27.2%) 순이었다. 금융상품을 선택할 때 가장 중요하게 생각하는 요소는 '원금 보장'(55.7%)이었다. '정기적 수익 발생'(55.3%) '수익성 우선(39.7%)' '현금화·인출 용이성'(34.5%) 등이 뒤를 이었다.50대 이상은 은행 거래의 '큰손'으로 자리매김하고 있는 것으로 조사됐다. 연구소가 분석한 결과 하나은행 전체 거래에서 50대 이상이 차지하는 비중은 절반이 넘는 것으로 파악됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.05.30.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>은행 신용평점별 예대금리차 이르면 4분기 공시</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003276445?sid=101</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>매달 소비자포털 통해 공개신용구간 대신 평점별 안내윤석열 대통령이 공약한 은행 예대금리차(예금금리와 대출금리 차이) 비교 공시가 빠르면 4분기(10~12월)에 시행될 전망이다. 금융소비자들은 달마다 개인신용평점을 기준으로 평균 대출금리와 예대금리차 등을 파악하고 은행이 어느 정도 마진을 챙기는지 가늠할 수 있게 된다.주요 은행과 은행연합회, 금융위원회 관계자들은 지난 24일과 26일 두 차례 비공개회의를 열고 예대금리차 공시 방안을 논의한 것으로 29일 확인됐다. 첫 회의에는 KB국민·신한·하나·우리·NH농협·IBK기업·DGB대구은행 등 주요 은행 7곳과 카카오·토스뱅크 등 인터넷전문은행 2곳이 참석했다. 두 번째 회의에서는 시중은행 5곳의 금리 공시 실무자들이 논의를 이어 갔다.각 은행과 금융당국은 은행연합회 소비자포털 사이트를 통해 대출자의 개인신용평점을 기준으로 은행별 예대금리차를 매달 공시하기로 큰 틀에서 합의한 것으로 알려졌다. 기존에 3개월마다 분기보고서를 통해 개괄적인 수치인 순이자마진(NIM) 등을 공시하던 데서 나아가 공시 주기를 단축하고 수치도 구체화하겠다는 것이다.매월 은행연합회 소비자포털을 통해 공시하는 대출금리의 경우 대출자의 신용등급을 5개 구간으로 나눠 전월에 실제 취급한 대출의 구간별 평균 금리를 밝혀 왔다. 새 공시 시스템에서는 신용등급이 아닌 개인신용평점을 50점씩 20개 세부 구간으로 나눠 구간별 신규 대출 평균 금리를 밝히고, 이 대출금리에서 그달 평균 수신 금리를 뺀 예대금리차를 공개한다. 새 공시 제도의 실행은 시스템 개편 소요 시간 등을 고려해 이르면 4분기부터 가동할 수 있을 것이라는 의견이 많았던 것으로 전해졌다.상대적으로 중·저신용자 비중이 높은 인터넷전문은행은 예대금리차가 두드러져 보일 가능성을 우려하고 있다. 적정한 예대금리차를 어떤 근거로 판단할 수 있을지를 두고도 논란이다. 은행권 관계자는 “결국 영리기업인 각 은행이 전략적으로 산정한 목표이익률이 바람직한지 본다는 것인데, 근거와 판단에 한계가 있을 수밖에 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>토스 "일 평균 550여명 보이스피싱 막아"</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001992180?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>앱 자체 악성앱 탐지 기능 탑재[헤럴드경제=박자연 기자]모바일 금융플랫폼 토스가 4월 한달간 토스의 악성앱 탐지 기능을 통해 매일 평균 550여명의 피싱 피해를 막았다 밝혔다.토스는 앱 자체에 악성앱을 탐지하는 기능을 탑재했다. 유저가 토스앱을 실행하는 순간, 단말기에 설치된 앱들을 점검하고, 악성앱이 발견될 경우 해당 앱을 삭제하도록 안내 메시지를 띄운다. 위험도가 높은 경우, 악성앱을 삭제하지 않으면 토스를 사용할 수 없다.지난 4월 한달간 토스의 악성앱 탐지 기능을 통해 탐지 된 악성앱은 총 18만9000건에 달한다. 토스는 이를 통해 총 1만6000여명, 일평균 고객 550명의 보이스피싱 피해를 막은 것으로 분석했다.토스의 악성앱 탐지 기능은, 보이스피싱 목적의 정보 탈취 앱을 중점적으로 탐지하고 제거할 수 있다. 화이트해커로 구성된 토스의 ‘시큐리티테크팀’이 개발을 맡아, ‘공격자’ 관점에서 기능을 설계 한 것이 특징이다. 이 팀은 다년간 보안 취약점 점검과 모의해킹을 수행한 해킹 및 보안 전문가들이 모인 팀으로, 변이된 신종 악성앱의 실시간 탐지를 위해 ‘악성앱 분석 자동화 시스템’을 활용 중이다.이와 함께 토스는 자체 개발한 이상행위 탐지 시스템(FDS)과 연계해 보이스피싱이 의심될 경우 전담 모니터링 요원이 먼저 고객과 통화하여 상황을 점검하고, 자산을 보호할 수 있도록 하고 있다. 토스는 매일 새롭게 만들어지는 수많은 악성앱들을 지속적으로 DB에 업데이트하고 있으며, 최근에 추가된 악성앱만 약 6000종이 넘는다.정한솔 토스 시큐리티테크팀 연구원은 “일단 감염이 되면, 해당 단말기에서 실제 은행이나 금융감독원등의 대표번호로 전화를 걸어도, 고객센터가 아닌 보이스피싱범에게 연결되므로 피해자 입장에서는 속을 수 밖에 없다”고 설명했다.피싱범들은 대부분 문자 또는 메신저를 통해 스마트폰 사용이 미숙한 중장년층을 타겟으로 접근, 원격제어앱 또는 악성앱을 설치하도록 유도하는 것으로 나타났다. 이런 앱들은 은행앱, 백신앱, 소상공인 대출앱등으로 위장하고 있으며, 설치 시 단말기의 전화번호부와 통화내역, 문자메시지 내용이 모두 탈취된다. 설치 직후 특정 사이트의 가입관련 문자메시지 인증번호 등이 수신되는 경우도 있으며, 이 인증번호는 보이스피싱범에게 동시에 전달된다.악성앱이 설치 된 경우 토스앱을 실행하여 악성앱을 제거하거나, 플레이스토어 등 정식 앱 배포 채널에서 백신프로그램을 다운받아 바이러스를 검사하고 악성앱을 삭제하면 된다.토스는 올 3월부터 시큐리티테크팀 주도로, 토스 앱에 악성 피싱앱 탐지 및 제거 기능을 개발해 운용하고 있다. 이 팀을 이끌고 있는 이종호 리더는 국내 최고로 평가받는 화이트해커로, 미국 데프콘, 일본 세콘, 대만 히트콘 등 주요 국제 해킹 방어대회 우승자다.이종호 리더는 “외부 백신을 별도로 설치하는 타 금융앱과 달리, 토스는 악성앱 탐지 내재화를 통해 매일 새롭게 만들어지는 악성앱에 실시간으로 대응할 수 있고, 고객센터에서도 악성앱의 위험도에 따라 보다 정확한 대처를 고객에게 안내할 수 있는 것이 장점”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[단독] 김남국 "루나 단톡방 혐오 발언 나 아냐…사칭 계정 법적조치"</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004699105?sid=100</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>김남국 더불어민주당 의원은 루나 코인 관련 커뮤니티에 막말했다는 의혹에 "내 계정이 아니다. 사칭 계정에 법적 조치하겠다"고 밝혔다.한때 시가총액 10위권에 들었던 한국산 가상화폐 루나가 가치 폭락 사태로 전 세계 금융시장을 강타한 가운데 15일 '황고은'이라는 이름을 쓰는 사용자가 루나 코인 관련 텔레그램 방에 불만을 터트리며 혐오 발언을 쏟아냈다.그가 "드럼통에 내가 사람 한두 명 죽여본 줄 아나. 서민XX들아" 등의 욕설과 "아내와 레스토랑 화장실에서 XX하겠다", "대화해 주니까 주제도 모른다. 내 구두나 핥아라" 등의 부적절한 발언을 연달아서 하자 네티즌 A 씨는 '황고은'의 사용자 정보에 기재된 전화번호를 저장하고 카카오톡 친구추가를 했다. 놀랍게도 연결된 카카오톡 계정에는 김남국 의원의 사진이 떴다. A 씨는 "혹시나 해 모바일 금융서비스인 토스로 송금을 시도해보니 김남국이라는 실명이 이름이 떴다"고 부연했다. 해당 계정에 김남국 의원 후원 계좌 안내가 있었다는 설명도 이어졌다.이 내용은 이날 온라인 커뮤니티 등을 통해 확산했고 "김남국 의원이 루나 코인에 투자했다가 막대한 손해를 봤나 보다", "전형적인 일베성 말투가 혐오스럽다", "익명 뒤에 숨어 저런 혐오 발언을 쏟아내고 있었나" 등의 비판이 이어졌다.하지만 김남국 의원은 해당 계정이 그와 관련이 없다고 밝혔다.김남국 의원은 한경닷컴에 "저는 제 전화번호로 텔레그램 계정을 계속 사용해왔다"면서 "'황고은' 계정은 제 계정이 아니다. 현직 보좌진은 물론 전직 보좌진 중에도 그런 사람은 없다"고 강조했다.이어 "아울러 현재 사용하는 텔레그램 계정에 한 번도 후원 계좌를 연결해 본 적이 없다"면서 "카카오톡 프로필도 거의 10년 이상 바꾸지 않고 계속 사용 중이다"라고 해명했다.그러면서 "사칭 계정에 대해서는 법적 조치를 취할 예정이다"라고 말했다.실제 김남국 의원 텔레그램 계정에는 전화번호 하단에 휴대전화라고 뜨지만 김남국 사칭 '황고은' 계정에는 전화번호 아래 자기소개라는 설명이 뜬다. 이로 미루어 볼 때 '황고은' 계정주가 자기 소개란에 김남국 의원 실제 전화번호를 적어놓은 것으로 추정된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.05.20.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>진에어, 토스·스마일페이로 국제선 이용 시 최대 2만원 할인</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005221028?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>[이데일리 송승현 기자] 진에어(272450)가 오는 23일부터 31일까지 스마일페이·토스페이 간편결제서비스 이용 고객을 대상으로 국제선 항공권 할인 혜택을 제공하는 프로모션을 진행한다고 20일 밝혔다.현재 진에어는 인천-나리타·오사카·괌·클락·세부, 부산-괌 등 국제선을 운항하고 있다. 아울러 인천-방콕(5/25)을 시작으로 코타키나발루(5/26), 다낭(6/30), 부산발 다낭(6/29), 방콕(6/30), 클락(6/30), 세부(7/8) 노선 등을 운항 재개할 예정이다.우선 토스페이 이용 고객은 항공 운임 기준으로 △5만원 이상 결제 시 5000원 △10만원 이상 결제 시 2만원 할인 혜택이 제공된다. 스마일페이의 경우에는 항공 운임 10만원 기준으로 1만원 할인 혜택이 제공된다. 특히 스마일페이에서 삼성카드로 결제 시에는 기존 혜택과 더불어 1만원이 추가 적용돼 최대 2만원까지 할인 받을 수 있다. 이와 더불어 진에어는 이날까지 카카오페이 이용 고객 대상으로 국내외 항공권 최대 3만원 할인 혜택을 제공하는 ‘카카5데이’도 진행 중이다.진에어는 “결제 편의성이 높은 간편결제서비스 이용 트렌드를 반영해 쉽고 편리하게 항공 운임 할인 혜택을 누릴 수 있는 프로모션을 준비했다”며 “앞으로 고객들의 여행지 선택의 폭을 넓히기 위해 단계적으로 국제선 공급량을 확대해 나가겠다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>토스뱅크, ‘사장님 마이너스 통장’ 4일만에 200억 돌파</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005216865?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>한도 5천만원·4%대 최저금리·자체 CSS 모형 적용토뱅 “개인사업자 맞춤형 상품 최초 출시…고객 중심의 상품으로 다가갈 것”[이데일리 박철근 기자] 지난 11일 토스뱅크가 인터넷전문은행 최초로 개인사업자를 위해 출시한 ‘사장님 마이너스통장’이 4일 만에 약정액 200억원을 돌파했다.사장님 마이너스통장은 전면 비대면 상품으로 무보증·무담보 상품으로 최대한도 5000만원, 최저 금리는 연 4% 초반(변동금리)이다. 상환 방식은 만기 일시 방식이다. 대출기간은 1년이며, 고객들은 필요에 따라 최대 10년까지 연장할 수 있다.토스뱅크는 “고객은 한번 승인을 받아 한도를 설정하면 그 안에서 돈을 자유롭게 넣고 뺄 수 있어 편리하다”며 “대출을 받을 때마다 승인을 받아야 하는 번거로움이 없을 뿐만 아니라 쓴 만큼만 이자를 내기 때문에 합리적이며 중도상환 수수료도 없다”고 설명했다. 토뱅 관계자는 “금융소비자라면 누구든지 급전이 필요할 때 고민없이 은행을 이용할 수 있어야 한다고 판단해 이 상품을 출시했다”며 “기존 마이너스통장의 강점을 살리면서 지난 2월 출시한 ‘사장님 대출’의 축적된 노하우를 반영해 자체 개발한 신용평가모형(CSS)에 따라 고객 맞춤형 한도와 금리를 산정한다”고 설명했다.대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행하며 인터넷전문은행 최초로 보증기관의 보증서나 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여한다. 이 상품의 이용 가능 고객은 실제 사업을 영위하고 있는 자영업자, 소상공인 등 개인사업자다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생해야 한다. 최소 증빙 연소득은 소득금액증명원 기준 500만 원 이상이다. 토스뱅크 관계자는 “고객의 실질 상환 능력뿐만 아니라 실제 영업 여부 등을 면밀히 심사해 급전이 필요한 고객들에게 단비와 같은 상품이 되도록 할 것”이라고 말했다.(사진= 토스뱅크)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.05.16.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>예비개발자 62%, 이 직무 선호한다…'프론트엔드·백엔드'</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011187769?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>기사내용 요약엘리스 트랙 수료생 615명 대상 설문조사 [서울=뉴시스] 엘리스 트랙 인포그래픽. (인포그래픽=엘리스 제공) 2022.05.16. photo@newsis.com[서울=뉴시스] 배민욱 기자 = 개발자 취업준비생 중 2명 중 1명 이상은 프론트엔드와 백엔드 직무를 선호하는 것으로 나타났다.디지털 교육 실습 플랫폼 엘리스가 개발자 양성 과정 '엘리스 트랙' 수료생 중 615명을 대상으로 실시한 설문조사 결과다.16일 엘리스에 따르면 프론트엔드와 백엔드 직무로 취업을 원하는 비중은 62.38%였다. 최근 기수에서는 90% 이상까지 상승했다. 이어 풀스택 개발자(8.79%), 데이터 엔지니어(7.27%), 데이터 분석가(6.68%) 등의 순이었다. 개발자 채용 시장에서 프론트엔드와 백엔드 개발자의 수요 증가에 따른 것이라고 회사 측은 분석했다. 선호하는 산업 분야는 콘텐츠(9.37%), 엔터테인먼트(9.01%), 커머스(8.78%), 금융(8.74%), 교육(7.8%) 등으로 조사됐다. 특히 금융 분야의 상승세가 두드러졌다. 금융 산업은 4위권을 꾸준히 유지하다가 1위를 기록했다. 회사 측은 대체 불가능한토큰(NFT) 등 가상자산이 각광받는 데다 네이버, 카카오, 당근마켓, 토스 등 빅테크 기업이 핀테크 산업에 대한 관심이 높아졌기 때문인 것으로 분석했다 엘리스는 다음 달 5일까지 '인공지능(AI) 트랙 5기'를 모집한다. 엘리스 AI 트랙은 개발자 취업준비생을 위해 '교육-프로젝트-취업'을 연계한 부트캠프 과정이다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>대통령실 "6월 11일 이후 청와대 상시개방 검토중"</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004054852?sid=100</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>"404만명 신청해 25만명 관람···경복궁처럼 누구나 편하게""연말 이후 청와대 관리 주체 어떻게 할지 검토하고 있다"연합뉴스[서울경제] 대통령실은 17일 시민의 청와대 관람과 관련해 "6월 11일 이후로 상시 개방을 검토 중"이라고 밝혔다.김오진 대통령실 관리비서관은 이날 국회 운영위원회에 출석해 "1단계 개방을 5월 22일까지 하고, 2단계 개방을 6월 11일까지 한다"며 이같이 말했다.김 비서관은 "지금까지 404만명이 청와대 관람 신청을 한 것으로 보고 받았다"며 "4월 27일부터 신청을 받았는데 25만명 정도만 관람했다"고 말했다.현재 청와대 관람 신청은 네이버, 카카오톡, 토스 등 온라인 플랫폼을 통해 이뤄지고 있다. 청와대 개방 초기 방문객이 대거 몰리는 점을 고려한 조치다.김 비서관은 "경복궁 관람하듯이 누구나 편하게 와서 (청와대를) 볼 수 있게 검토하는 중"이라고 덧붙였다.대통령실 관리비서관실은 대통령직인수위원회 산하 청와대 이전 태스크포스(TF)로부터 집무실 이전뿐 아니라 청와대 개방과 한남동 새 대통령 관저 등 '용산 시대' 관련 업무를 이어받아 총괄하고 있다.해당 업무들이 완료될 때까지만 운영되는 한시직이다. 김 비서관은 "언제까지 대통령실에서 (청와대를) 관리할 것이냐. 민간 위탁 계획은 없느냐'는 질의에 "연말까지는 일단 그렇게 운영을 계획해보고 있는 것"이라며 "그 뒤에 관리 주체를 어떻게 할지 똑같이 검토하고 있다"고 말했다.2023년부터 청와대 관리를 민간에 위탁할 가능성도 열어둔 발언으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.05.17.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>대통령실 "6월 11일 이후 청와대 상시개방 검토중"</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001991984?sid=100</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>국립국악원이 지난 11일부터 청와대 본관 앞 대정원에서 매일 오전 11시 30분부터 12시까지 30분간 민속악단의 판굿 공연과 정악단 대취타 연주를 선보이고 있다고 16일 밝혔다. [연합][헤럴드경제=이명수 기자] 대통령실은 17일 시민들에게 개방된 청와대 관람과 관련해 "6월 11일 이후로 상시 개방을 검토 중"이라고 밝혔다.김오진 대통령실 관리비서관은 이날 국회 운영위원회에 출석해 "1단계 개방을 5월 22일까지 하고, 2단계 개방을 6월 11일까지 한다"며 이같이 말했다.김 비서관은 "지금까지 404만명이 청와대 관람 신청을 한 것으로 보고 받았다"며 "4월 27일부터 신청을 받았는데 25만명 정도만 관람했다"고 말했다.현재 청와대 관람 신청은 네이버, 카카오톡, 토스 등 온라인 플랫폼을 통해 이뤄지고 있다. 청와대 개방 초기 방문객이 대거 몰리는 점을 고려한 조치다.김 비서관은 "경복궁 관람하듯이 누구나 편하게 와서 (청와대를) 볼 수 있게 검토하는 중"이라고 덧붙였다.대통령실 관리비서관실은 대통령직인수위원회 산하 청와대 이전 태스크포스(TF)로부터 집무실 이전뿐 아니라 청와대 개방과 한남동 새 대통령 관저 등 '용산 시대' 관련 업무를 이어받아 총괄하고 있다.해당 업무들이 완료될 때까지만 운영되는 한시직이다.김 비서관은 "언제까지 대통령실에서 (청와대를) 관리할 것이냐. 민간 위탁 계획은 없느냐'는 질의에 "연말까지는 일단 그렇게 운영을 계획해보고 있는 것"이라며 "그 뒤에 관리 주체를 어떻게 할지 똑같이 검토하고 있다"고 말했다.2023년부터 청와대 관리를 민간에 위탁할 가능성도 열어둔 발언으로 보인다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.05.24.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>뮤직카우, 김남진 최고정보보호책임자 영입</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002257712?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>"정보관리본부 신설 및 인재 채용 확대”음악 저작권료 참여 청구권 투자 플랫폼 뮤직카우(총괄대표 정현경)가 이용자 보호 및 정보보호체계 강화를 위해 카카오페이, 토스, 쿠팡, 골드만삭스, 노무라증권 등 국내외 규모급 기업 출신 김남진 CISO(최고정보보호책임자)를 영입했다고 24일 밝혔다.신규 선임된 김남진 CISO는 총 경력 21년차의 베테랑 전문가다. 연세대학교 정보대학원 금융정보보호학 석사를 졸업했으며, 노무라증권, 골드만삭스 등 글로벌 최고 수준의 금융사에서 인프라 시스템 개발 및 기술·운영리스크 관리자로 10년 이상 근무한 이력을 보유하고 있다. 이후 쿠팡에서 핀테크 보안·개인정보 및 IT 인프라 책임자를, 토스증권과 카카오페이에서는 CISO로 재직하며 업계를 선도하는 이커머스 및 빅테크 금융기업들의 서비스 보안 및 정보보호체계 구축 업무를 총괄했다.김남진 CISO는 뮤직카우에서 새롭게 신설된 정보관리본부 본부장으로서 안정적인 사업 운영을 위한 IT 성장 전략 마련 및 이용자 보호를 위한 서비스 보안을 강화해 나갈 계획이다. 이를 위해 전담 조직을 구성하고 효과적인 정보보호체계 구축과 보안시스템 운영 고도화를 통한 보안 신뢰성과 안전성을 제고하는 역할을 수행할 예정이다.뮤직카우 김남진 CISO뮤직카우 서비스 이용자 보호 강화를 위해 조직된 정보관리본부에는 김남진 CISO 뿐만 아니라 최근 보안·인프라 및 네트워크 전문가, 시스템 엔지니어, 화이트 해커 등 우수한 이력과 역량을 갖춘 전문인력들이 잇따라 합류했다. 뮤직카우는 앞으로 필요 인력을 지속 채용해 나간다는 방침이다.뮤직카우 관계자는 "앞으로도 뮤직카우는 이용자 보호를 최우선 과제로 두고 제도 및 시스템 강화에 만전을 기할 것"이라며 "또 계속해서 K-콘텐츠를 기반으로 문화 산업 활성화와 창작자 지원에 힘쓰며 아티스트와 팬, 대중이 소통할 수 있는 문화의 장을 확대해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.05.18.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[단독] 쿠팡 ‘尹 국정과제’ 결제수수료 공시 TF 불참… 금감원, 쿠팡 제외</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000814541?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>19일 열리는 금융감독원(금감원) 디지털금융혁신국이 주관하는 전자금융업자 결제수수료율 공시 태스크포스(TF) 회의에 쿠팡은 빠진 것으로 확인됐다. 쿠팡은 핀테크 자회사 쿠팡페이를 통해 간편결제 서비스를 운영하고 있다.관련 업계에 따르면 이날 회의엔 카카오페이·네이버파이낸셜·토스·페이코 등 핀테크기업과 KG이니시스·KCP 등 전자결제대행업체(PG)업체, 그리고 11번가·이베이 등 오픈마켓(온라인 장터)이 참여할 예정이다. 그러나 쿠팡은 참석하지 않는다.결제수수료율 공시체계 마련은 윤석열 정부 ‘110대 국정과제’에 담긴 내용이다. 금융당국도 지난 1월 정은보 전 금감원장이 “간편결제 수수료를 합리적인 기준으로 산정하도록 유도하고, 수수료 공시시스템을 만들겠다”며 간편결제 수수료를 감독할 의지를 보이기도 했다.서울 송파구 쿠팡 사옥의 모습. /뉴스1        쿠팡이 TF 회의 명단에서 제외된 사실이 전해지자, 업계 관계자들 사이에서는 국내 이커머스 시장 매출 1위 기업이 TF 회의에 불참하는 것이 의문이라는 얘기가 나왔다. 쿠팡은 지난해 매출 22조원을 기록하며 유통업계 1위인 이마트를 뛰어넘었다.한 금융권 관계자는 “업종별로 대표 기업을 불렀다 쳐도 11번가·이베이도 오는데 업계 1위 쿠팡만 쏙 빠진다는 게 이상하다”고 말했다. 11번가는 국내 이커머스 업계에서 쿠팡과 네이버 등에 이어 시장점유율 4위다.금감원에 대한 비판도 제기됐다. 한 PG업계 관계자는 “TF 회의를 준비하면서 금감원이 관련 업계와 사전 교감도 없었던 데다가 회의에 부른 기업도 극히 일부”라면서 “일종의 ‘원가 공개’와 같이 중요한 수수료를 공개하는 문제를 이렇게 어설프고 일괄적으로 진행하면 오히려 역효과가 날 것”이라고 지적했다.온라인 결제를 수행하는 PG사의 경우 지난 10일 기준 141개에 달한다. 포인트를 선불충전한 후 포인트결제를 하는 선불전자지급업자도 73개 사(중복 포함)가 있다.그래픽=이은현        현재 카드사는 가맹점 규모에 따라 영세·중소 가맹점의 경우 0.5~1.5%의 수수료를 받고 있다. 핀테크의 경우 0.9~2.7% 정도의 수수료를 받는 것으로 알려졌다. 2020년 공정거래위원회가 발표한 ‘대형 유통업체의 판매수수료율 등 유통 거래 실태조사’에 따르면 쿠팡의 정률수수료는 22.5%다.금융감독원 관계자는 “전자금융업자가 100개가 넘어 다 부를 수 없다 보니 유형별로 임의로 선정했다. 특별한 기준이나 사유가 있는 건 아니다”면서 “TF에 포함되지 않았다고 해서 공시 대상에 포함되지 않는 것은 아니다”고 말했다.금감원은 이번 첫 회의에서 제기된 의견을 중심으로 보완방안을 마련하고, 관계부처 및 업계와의 논의를 거쳐 연내 최종 공시방안을 확정한다는 계획이다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
